--- a/Zeiterfassungen und Projektplan/Projektplan_Typo.xlsx
+++ b/Zeiterfassungen und Projektplan/Projektplan_Typo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lennart\Google Drive\studium\SOSE 17\SWP\MS2\Zeiterfassungen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lennart\Google Drive\studium\SOSE 17\SWP\MS3\Zeiterfassungen und Projektplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1142,10 +1142,13 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1154,37 +1157,25 @@
     <xf numFmtId="2" fontId="1" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1193,17 +1184,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1213,13 +1194,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1243,19 +1217,45 @@
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2629,10 +2629,10 @@
   <dimension ref="A1:FH105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="10" topLeftCell="U50" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="10" topLeftCell="BA44" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="BI82" sqref="BI82"/>
+      <selection pane="bottomRight" activeCell="BT79" sqref="BT79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -2945,185 +2945,185 @@
       </c>
       <c r="B5" s="128"/>
       <c r="C5" s="128"/>
-      <c r="D5" s="155" t="s">
+      <c r="D5" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="155"/>
-      <c r="K5" s="155"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="159"/>
       <c r="L5" s="118"/>
-      <c r="M5" s="163" t="s">
+      <c r="M5" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="163"/>
-      <c r="O5" s="163"/>
-      <c r="P5" s="163"/>
-      <c r="Q5" s="163"/>
-      <c r="R5" s="163"/>
-      <c r="S5" s="163"/>
-      <c r="T5" s="163"/>
-      <c r="U5" s="163"/>
-      <c r="V5" s="163"/>
-      <c r="W5" s="163"/>
-      <c r="X5" s="163"/>
-      <c r="Y5" s="163"/>
-      <c r="Z5" s="163"/>
-      <c r="AA5" s="163"/>
-      <c r="AB5" s="163"/>
-      <c r="AC5" s="163"/>
-      <c r="AD5" s="163"/>
-      <c r="AE5" s="164" t="s">
+      <c r="N5" s="153"/>
+      <c r="O5" s="153"/>
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="153"/>
+      <c r="Y5" s="153"/>
+      <c r="Z5" s="153"/>
+      <c r="AA5" s="153"/>
+      <c r="AB5" s="153"/>
+      <c r="AC5" s="153"/>
+      <c r="AD5" s="153"/>
+      <c r="AE5" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="AF5" s="164"/>
-      <c r="AG5" s="164"/>
-      <c r="AH5" s="164"/>
-      <c r="AI5" s="164"/>
-      <c r="AJ5" s="164"/>
-      <c r="AK5" s="164"/>
-      <c r="AL5" s="164"/>
-      <c r="AM5" s="164"/>
-      <c r="AN5" s="164"/>
-      <c r="AO5" s="164"/>
-      <c r="AP5" s="164"/>
-      <c r="AQ5" s="164"/>
-      <c r="AR5" s="164"/>
-      <c r="AS5" s="164"/>
-      <c r="AT5" s="164"/>
-      <c r="AU5" s="164"/>
-      <c r="AV5" s="164"/>
-      <c r="AW5" s="165" t="s">
+      <c r="AF5" s="154"/>
+      <c r="AG5" s="154"/>
+      <c r="AH5" s="154"/>
+      <c r="AI5" s="154"/>
+      <c r="AJ5" s="154"/>
+      <c r="AK5" s="154"/>
+      <c r="AL5" s="154"/>
+      <c r="AM5" s="154"/>
+      <c r="AN5" s="154"/>
+      <c r="AO5" s="154"/>
+      <c r="AP5" s="154"/>
+      <c r="AQ5" s="154"/>
+      <c r="AR5" s="154"/>
+      <c r="AS5" s="154"/>
+      <c r="AT5" s="154"/>
+      <c r="AU5" s="154"/>
+      <c r="AV5" s="154"/>
+      <c r="AW5" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="AX5" s="165"/>
-      <c r="AY5" s="165"/>
-      <c r="AZ5" s="165"/>
-      <c r="BA5" s="165"/>
-      <c r="BB5" s="165"/>
-      <c r="BC5" s="165"/>
-      <c r="BD5" s="165"/>
-      <c r="BE5" s="165"/>
-      <c r="BF5" s="165"/>
-      <c r="BG5" s="165"/>
-      <c r="BH5" s="165"/>
-      <c r="BI5" s="165"/>
-      <c r="BJ5" s="165"/>
-      <c r="BK5" s="165"/>
-      <c r="BL5" s="165"/>
-      <c r="BM5" s="165"/>
-      <c r="BN5" s="165"/>
-      <c r="BO5" s="166" t="s">
+      <c r="AX5" s="155"/>
+      <c r="AY5" s="155"/>
+      <c r="AZ5" s="155"/>
+      <c r="BA5" s="155"/>
+      <c r="BB5" s="155"/>
+      <c r="BC5" s="155"/>
+      <c r="BD5" s="155"/>
+      <c r="BE5" s="155"/>
+      <c r="BF5" s="155"/>
+      <c r="BG5" s="155"/>
+      <c r="BH5" s="155"/>
+      <c r="BI5" s="155"/>
+      <c r="BJ5" s="155"/>
+      <c r="BK5" s="155"/>
+      <c r="BL5" s="155"/>
+      <c r="BM5" s="155"/>
+      <c r="BN5" s="155"/>
+      <c r="BO5" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="BP5" s="166"/>
-      <c r="BQ5" s="166"/>
-      <c r="BR5" s="166"/>
-      <c r="BS5" s="166"/>
-      <c r="BT5" s="166"/>
-      <c r="BU5" s="166"/>
-      <c r="BV5" s="166"/>
-      <c r="BW5" s="166"/>
-      <c r="BX5" s="166"/>
-      <c r="BY5" s="166"/>
-      <c r="BZ5" s="166"/>
-      <c r="CA5" s="166"/>
-      <c r="CB5" s="166"/>
-      <c r="CC5" s="166"/>
-      <c r="CD5" s="166"/>
-      <c r="CE5" s="166"/>
-      <c r="CF5" s="166"/>
-      <c r="CG5" s="167" t="s">
+      <c r="BP5" s="156"/>
+      <c r="BQ5" s="156"/>
+      <c r="BR5" s="156"/>
+      <c r="BS5" s="156"/>
+      <c r="BT5" s="156"/>
+      <c r="BU5" s="156"/>
+      <c r="BV5" s="156"/>
+      <c r="BW5" s="156"/>
+      <c r="BX5" s="156"/>
+      <c r="BY5" s="156"/>
+      <c r="BZ5" s="156"/>
+      <c r="CA5" s="156"/>
+      <c r="CB5" s="156"/>
+      <c r="CC5" s="156"/>
+      <c r="CD5" s="156"/>
+      <c r="CE5" s="156"/>
+      <c r="CF5" s="156"/>
+      <c r="CG5" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="CH5" s="167"/>
-      <c r="CI5" s="167"/>
-      <c r="CJ5" s="167"/>
-      <c r="CK5" s="167"/>
-      <c r="CL5" s="167"/>
-      <c r="CM5" s="167"/>
-      <c r="CN5" s="167"/>
-      <c r="CO5" s="167"/>
-      <c r="CP5" s="167"/>
-      <c r="CQ5" s="167"/>
-      <c r="CR5" s="167"/>
-      <c r="CS5" s="167"/>
-      <c r="CT5" s="167"/>
-      <c r="CU5" s="167"/>
-      <c r="CV5" s="167"/>
-      <c r="CW5" s="167"/>
-      <c r="CX5" s="167"/>
-      <c r="CY5" s="168" t="s">
+      <c r="CH5" s="157"/>
+      <c r="CI5" s="157"/>
+      <c r="CJ5" s="157"/>
+      <c r="CK5" s="157"/>
+      <c r="CL5" s="157"/>
+      <c r="CM5" s="157"/>
+      <c r="CN5" s="157"/>
+      <c r="CO5" s="157"/>
+      <c r="CP5" s="157"/>
+      <c r="CQ5" s="157"/>
+      <c r="CR5" s="157"/>
+      <c r="CS5" s="157"/>
+      <c r="CT5" s="157"/>
+      <c r="CU5" s="157"/>
+      <c r="CV5" s="157"/>
+      <c r="CW5" s="157"/>
+      <c r="CX5" s="157"/>
+      <c r="CY5" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="CZ5" s="168"/>
-      <c r="DA5" s="168"/>
-      <c r="DB5" s="168"/>
-      <c r="DC5" s="168"/>
-      <c r="DD5" s="168"/>
-      <c r="DE5" s="168"/>
-      <c r="DF5" s="168"/>
-      <c r="DG5" s="168"/>
-      <c r="DH5" s="168"/>
-      <c r="DI5" s="168"/>
-      <c r="DJ5" s="168"/>
-      <c r="DK5" s="168"/>
-      <c r="DL5" s="168"/>
-      <c r="DM5" s="168"/>
-      <c r="DN5" s="168"/>
-      <c r="DO5" s="168"/>
-      <c r="DP5" s="168"/>
-      <c r="DQ5" s="162" t="s">
+      <c r="CZ5" s="158"/>
+      <c r="DA5" s="158"/>
+      <c r="DB5" s="158"/>
+      <c r="DC5" s="158"/>
+      <c r="DD5" s="158"/>
+      <c r="DE5" s="158"/>
+      <c r="DF5" s="158"/>
+      <c r="DG5" s="158"/>
+      <c r="DH5" s="158"/>
+      <c r="DI5" s="158"/>
+      <c r="DJ5" s="158"/>
+      <c r="DK5" s="158"/>
+      <c r="DL5" s="158"/>
+      <c r="DM5" s="158"/>
+      <c r="DN5" s="158"/>
+      <c r="DO5" s="158"/>
+      <c r="DP5" s="158"/>
+      <c r="DQ5" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="DR5" s="162"/>
-      <c r="DS5" s="162"/>
-      <c r="DT5" s="162"/>
-      <c r="DU5" s="162"/>
-      <c r="DV5" s="162"/>
-      <c r="DW5" s="162"/>
-      <c r="DX5" s="162"/>
-      <c r="DY5" s="162"/>
-      <c r="DZ5" s="162"/>
-      <c r="EA5" s="162"/>
-      <c r="EB5" s="162"/>
-      <c r="EC5" s="162"/>
-      <c r="ED5" s="162"/>
-      <c r="EE5" s="162"/>
-      <c r="EF5" s="162"/>
-      <c r="EG5" s="162"/>
-      <c r="EH5" s="162"/>
-      <c r="EI5" s="161" t="s">
+      <c r="DR5" s="152"/>
+      <c r="DS5" s="152"/>
+      <c r="DT5" s="152"/>
+      <c r="DU5" s="152"/>
+      <c r="DV5" s="152"/>
+      <c r="DW5" s="152"/>
+      <c r="DX5" s="152"/>
+      <c r="DY5" s="152"/>
+      <c r="DZ5" s="152"/>
+      <c r="EA5" s="152"/>
+      <c r="EB5" s="152"/>
+      <c r="EC5" s="152"/>
+      <c r="ED5" s="152"/>
+      <c r="EE5" s="152"/>
+      <c r="EF5" s="152"/>
+      <c r="EG5" s="152"/>
+      <c r="EH5" s="152"/>
+      <c r="EI5" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="EJ5" s="161"/>
-      <c r="EK5" s="161"/>
-      <c r="EL5" s="161"/>
-      <c r="EM5" s="161"/>
-      <c r="EN5" s="161"/>
-      <c r="EO5" s="161"/>
-      <c r="EP5" s="161"/>
-      <c r="EQ5" s="161"/>
-      <c r="ER5" s="161"/>
-      <c r="ES5" s="161"/>
-      <c r="ET5" s="161"/>
-      <c r="EU5" s="161"/>
-      <c r="EV5" s="161"/>
-      <c r="EW5" s="161"/>
-      <c r="EX5" s="161"/>
-      <c r="EY5" s="161"/>
-      <c r="EZ5" s="161"/>
-      <c r="FA5" s="161"/>
-      <c r="FB5" s="161"/>
-      <c r="FC5" s="161"/>
-      <c r="FD5" s="161"/>
-      <c r="FE5" s="161"/>
-      <c r="FF5" s="161"/>
-      <c r="FG5" s="161"/>
-      <c r="FH5" s="161"/>
+      <c r="EJ5" s="162"/>
+      <c r="EK5" s="162"/>
+      <c r="EL5" s="162"/>
+      <c r="EM5" s="162"/>
+      <c r="EN5" s="162"/>
+      <c r="EO5" s="162"/>
+      <c r="EP5" s="162"/>
+      <c r="EQ5" s="162"/>
+      <c r="ER5" s="162"/>
+      <c r="ES5" s="162"/>
+      <c r="ET5" s="162"/>
+      <c r="EU5" s="162"/>
+      <c r="EV5" s="162"/>
+      <c r="EW5" s="162"/>
+      <c r="EX5" s="162"/>
+      <c r="EY5" s="162"/>
+      <c r="EZ5" s="162"/>
+      <c r="FA5" s="162"/>
+      <c r="FB5" s="162"/>
+      <c r="FC5" s="162"/>
+      <c r="FD5" s="162"/>
+      <c r="FE5" s="162"/>
+      <c r="FF5" s="162"/>
+      <c r="FG5" s="162"/>
+      <c r="FH5" s="162"/>
     </row>
     <row r="6" spans="1:164" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
@@ -3283,189 +3283,189 @@
       <c r="A7" s="128"/>
       <c r="B7" s="128"/>
       <c r="C7" s="118"/>
-      <c r="D7" s="156" t="s">
+      <c r="D7" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="157"/>
-      <c r="K7" s="158"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="151"/>
       <c r="L7" s="122"/>
-      <c r="M7" s="156" t="s">
+      <c r="M7" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="157"/>
-      <c r="O7" s="157"/>
-      <c r="P7" s="157"/>
-      <c r="Q7" s="157"/>
-      <c r="R7" s="157"/>
-      <c r="S7" s="157"/>
-      <c r="T7" s="158"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="151"/>
       <c r="U7" s="122"/>
-      <c r="V7" s="156" t="s">
+      <c r="V7" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="W7" s="157"/>
-      <c r="X7" s="157"/>
-      <c r="Y7" s="157"/>
-      <c r="Z7" s="157"/>
-      <c r="AA7" s="157"/>
-      <c r="AB7" s="157"/>
-      <c r="AC7" s="158"/>
+      <c r="W7" s="150"/>
+      <c r="X7" s="150"/>
+      <c r="Y7" s="150"/>
+      <c r="Z7" s="150"/>
+      <c r="AA7" s="150"/>
+      <c r="AB7" s="150"/>
+      <c r="AC7" s="151"/>
       <c r="AD7" s="122"/>
-      <c r="AE7" s="156" t="s">
+      <c r="AE7" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="AF7" s="157"/>
-      <c r="AG7" s="157"/>
-      <c r="AH7" s="157"/>
-      <c r="AI7" s="157"/>
-      <c r="AJ7" s="157"/>
-      <c r="AK7" s="157"/>
-      <c r="AL7" s="158"/>
-      <c r="AN7" s="156" t="s">
+      <c r="AF7" s="150"/>
+      <c r="AG7" s="150"/>
+      <c r="AH7" s="150"/>
+      <c r="AI7" s="150"/>
+      <c r="AJ7" s="150"/>
+      <c r="AK7" s="150"/>
+      <c r="AL7" s="151"/>
+      <c r="AN7" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="AO7" s="157"/>
-      <c r="AP7" s="157"/>
-      <c r="AQ7" s="157"/>
-      <c r="AR7" s="157"/>
-      <c r="AS7" s="157"/>
-      <c r="AT7" s="157"/>
-      <c r="AU7" s="158"/>
-      <c r="AW7" s="156" t="s">
+      <c r="AO7" s="150"/>
+      <c r="AP7" s="150"/>
+      <c r="AQ7" s="150"/>
+      <c r="AR7" s="150"/>
+      <c r="AS7" s="150"/>
+      <c r="AT7" s="150"/>
+      <c r="AU7" s="151"/>
+      <c r="AW7" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="AX7" s="157"/>
-      <c r="AY7" s="157"/>
-      <c r="AZ7" s="157"/>
-      <c r="BA7" s="157"/>
-      <c r="BB7" s="157"/>
-      <c r="BC7" s="157"/>
-      <c r="BD7" s="158"/>
-      <c r="BF7" s="156" t="s">
+      <c r="AX7" s="150"/>
+      <c r="AY7" s="150"/>
+      <c r="AZ7" s="150"/>
+      <c r="BA7" s="150"/>
+      <c r="BB7" s="150"/>
+      <c r="BC7" s="150"/>
+      <c r="BD7" s="151"/>
+      <c r="BF7" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="BG7" s="157"/>
-      <c r="BH7" s="157"/>
-      <c r="BI7" s="157"/>
-      <c r="BJ7" s="157"/>
-      <c r="BK7" s="157"/>
-      <c r="BL7" s="157"/>
-      <c r="BM7" s="158"/>
-      <c r="BO7" s="156" t="s">
+      <c r="BG7" s="150"/>
+      <c r="BH7" s="150"/>
+      <c r="BI7" s="150"/>
+      <c r="BJ7" s="150"/>
+      <c r="BK7" s="150"/>
+      <c r="BL7" s="150"/>
+      <c r="BM7" s="151"/>
+      <c r="BO7" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="BP7" s="157"/>
-      <c r="BQ7" s="157"/>
-      <c r="BR7" s="157"/>
-      <c r="BS7" s="157"/>
-      <c r="BT7" s="157"/>
-      <c r="BU7" s="157"/>
-      <c r="BV7" s="158"/>
-      <c r="BX7" s="156" t="s">
+      <c r="BP7" s="150"/>
+      <c r="BQ7" s="150"/>
+      <c r="BR7" s="150"/>
+      <c r="BS7" s="150"/>
+      <c r="BT7" s="150"/>
+      <c r="BU7" s="150"/>
+      <c r="BV7" s="151"/>
+      <c r="BX7" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="BY7" s="157"/>
-      <c r="BZ7" s="157"/>
-      <c r="CA7" s="157"/>
-      <c r="CB7" s="157"/>
-      <c r="CC7" s="157"/>
-      <c r="CD7" s="157"/>
-      <c r="CE7" s="158"/>
-      <c r="CG7" s="156" t="s">
+      <c r="BY7" s="150"/>
+      <c r="BZ7" s="150"/>
+      <c r="CA7" s="150"/>
+      <c r="CB7" s="150"/>
+      <c r="CC7" s="150"/>
+      <c r="CD7" s="150"/>
+      <c r="CE7" s="151"/>
+      <c r="CG7" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="CH7" s="157"/>
-      <c r="CI7" s="157"/>
-      <c r="CJ7" s="157"/>
-      <c r="CK7" s="157"/>
-      <c r="CL7" s="157"/>
-      <c r="CM7" s="157"/>
-      <c r="CN7" s="158"/>
-      <c r="CP7" s="156" t="s">
+      <c r="CH7" s="150"/>
+      <c r="CI7" s="150"/>
+      <c r="CJ7" s="150"/>
+      <c r="CK7" s="150"/>
+      <c r="CL7" s="150"/>
+      <c r="CM7" s="150"/>
+      <c r="CN7" s="151"/>
+      <c r="CP7" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="CQ7" s="157"/>
-      <c r="CR7" s="157"/>
-      <c r="CS7" s="157"/>
-      <c r="CT7" s="157"/>
-      <c r="CU7" s="157"/>
-      <c r="CV7" s="157"/>
-      <c r="CW7" s="158"/>
-      <c r="CY7" s="156" t="s">
+      <c r="CQ7" s="150"/>
+      <c r="CR7" s="150"/>
+      <c r="CS7" s="150"/>
+      <c r="CT7" s="150"/>
+      <c r="CU7" s="150"/>
+      <c r="CV7" s="150"/>
+      <c r="CW7" s="151"/>
+      <c r="CY7" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="CZ7" s="157"/>
-      <c r="DA7" s="157"/>
-      <c r="DB7" s="157"/>
-      <c r="DC7" s="157"/>
-      <c r="DD7" s="157"/>
-      <c r="DE7" s="157"/>
-      <c r="DF7" s="158"/>
-      <c r="DH7" s="156" t="s">
+      <c r="CZ7" s="150"/>
+      <c r="DA7" s="150"/>
+      <c r="DB7" s="150"/>
+      <c r="DC7" s="150"/>
+      <c r="DD7" s="150"/>
+      <c r="DE7" s="150"/>
+      <c r="DF7" s="151"/>
+      <c r="DH7" s="149" t="s">
         <v>36</v>
       </c>
-      <c r="DI7" s="157"/>
-      <c r="DJ7" s="157"/>
-      <c r="DK7" s="157"/>
-      <c r="DL7" s="157"/>
-      <c r="DM7" s="157"/>
-      <c r="DN7" s="157"/>
-      <c r="DO7" s="158"/>
-      <c r="DQ7" s="156" t="s">
+      <c r="DI7" s="150"/>
+      <c r="DJ7" s="150"/>
+      <c r="DK7" s="150"/>
+      <c r="DL7" s="150"/>
+      <c r="DM7" s="150"/>
+      <c r="DN7" s="150"/>
+      <c r="DO7" s="151"/>
+      <c r="DQ7" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="DR7" s="157"/>
-      <c r="DS7" s="157"/>
-      <c r="DT7" s="157"/>
-      <c r="DU7" s="157"/>
-      <c r="DV7" s="157"/>
-      <c r="DW7" s="157"/>
-      <c r="DX7" s="158"/>
-      <c r="DZ7" s="156" t="s">
+      <c r="DR7" s="150"/>
+      <c r="DS7" s="150"/>
+      <c r="DT7" s="150"/>
+      <c r="DU7" s="150"/>
+      <c r="DV7" s="150"/>
+      <c r="DW7" s="150"/>
+      <c r="DX7" s="151"/>
+      <c r="DZ7" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="EA7" s="157"/>
-      <c r="EB7" s="157"/>
-      <c r="EC7" s="157"/>
-      <c r="ED7" s="157"/>
-      <c r="EE7" s="157"/>
-      <c r="EF7" s="157"/>
-      <c r="EG7" s="158"/>
-      <c r="EI7" s="156" t="s">
+      <c r="EA7" s="150"/>
+      <c r="EB7" s="150"/>
+      <c r="EC7" s="150"/>
+      <c r="ED7" s="150"/>
+      <c r="EE7" s="150"/>
+      <c r="EF7" s="150"/>
+      <c r="EG7" s="151"/>
+      <c r="EI7" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="EJ7" s="157"/>
-      <c r="EK7" s="157"/>
-      <c r="EL7" s="157"/>
-      <c r="EM7" s="157"/>
-      <c r="EN7" s="157"/>
-      <c r="EO7" s="157"/>
-      <c r="EP7" s="158"/>
-      <c r="ER7" s="156" t="s">
+      <c r="EJ7" s="150"/>
+      <c r="EK7" s="150"/>
+      <c r="EL7" s="150"/>
+      <c r="EM7" s="150"/>
+      <c r="EN7" s="150"/>
+      <c r="EO7" s="150"/>
+      <c r="EP7" s="151"/>
+      <c r="ER7" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="ES7" s="157"/>
-      <c r="ET7" s="157"/>
-      <c r="EU7" s="157"/>
-      <c r="EV7" s="157"/>
-      <c r="EW7" s="157"/>
-      <c r="EX7" s="157"/>
-      <c r="EY7" s="158"/>
-      <c r="FA7" s="156" t="s">
+      <c r="ES7" s="150"/>
+      <c r="ET7" s="150"/>
+      <c r="EU7" s="150"/>
+      <c r="EV7" s="150"/>
+      <c r="EW7" s="150"/>
+      <c r="EX7" s="150"/>
+      <c r="EY7" s="151"/>
+      <c r="FA7" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="FB7" s="157"/>
-      <c r="FC7" s="157"/>
-      <c r="FD7" s="157"/>
-      <c r="FE7" s="157"/>
-      <c r="FF7" s="157"/>
-      <c r="FG7" s="157"/>
-      <c r="FH7" s="158"/>
+      <c r="FB7" s="150"/>
+      <c r="FC7" s="150"/>
+      <c r="FD7" s="150"/>
+      <c r="FE7" s="150"/>
+      <c r="FF7" s="150"/>
+      <c r="FG7" s="150"/>
+      <c r="FH7" s="151"/>
     </row>
     <row r="8" spans="1:164" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
@@ -3473,267 +3473,267 @@
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="37"/>
-      <c r="D8" s="159" t="s">
+      <c r="D8" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="160"/>
-      <c r="F8" s="151" t="s">
+      <c r="E8" s="161"/>
+      <c r="F8" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="152"/>
-      <c r="H8" s="151" t="s">
+      <c r="G8" s="165"/>
+      <c r="H8" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="151"/>
-      <c r="J8" s="151"/>
-      <c r="K8" s="153"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="166"/>
       <c r="L8" s="127"/>
       <c r="M8" s="148">
         <f>(Details!B16)</f>
         <v>42809</v>
       </c>
-      <c r="N8" s="160"/>
+      <c r="N8" s="161"/>
       <c r="O8" s="128"/>
       <c r="P8" s="128"/>
-      <c r="S8" s="149">
+      <c r="S8" s="146">
         <f>SUM(M8+6)</f>
         <v>42815</v>
       </c>
-      <c r="T8" s="150"/>
+      <c r="T8" s="147"/>
       <c r="U8" s="127"/>
       <c r="V8" s="148">
         <f>SUM(S8+1)</f>
         <v>42816</v>
       </c>
-      <c r="W8" s="149"/>
+      <c r="W8" s="146"/>
       <c r="X8" s="127"/>
       <c r="Y8" s="127"/>
       <c r="Z8" s="127"/>
       <c r="AA8" s="127"/>
-      <c r="AB8" s="149">
+      <c r="AB8" s="146">
         <f>SUM(V8+6)</f>
         <v>42822</v>
       </c>
-      <c r="AC8" s="150"/>
+      <c r="AC8" s="147"/>
       <c r="AD8" s="127"/>
       <c r="AE8" s="148">
         <f>SUM(AB8+1)</f>
         <v>42823</v>
       </c>
-      <c r="AF8" s="149"/>
+      <c r="AF8" s="146"/>
       <c r="AG8" s="127"/>
       <c r="AH8" s="127"/>
       <c r="AI8" s="127"/>
       <c r="AJ8" s="127"/>
-      <c r="AK8" s="149">
+      <c r="AK8" s="146">
         <f>SUM(AE8+6)</f>
         <v>42829</v>
       </c>
-      <c r="AL8" s="150"/>
+      <c r="AL8" s="147"/>
       <c r="AN8" s="148">
         <f>SUM(AK8+1)</f>
         <v>42830</v>
       </c>
-      <c r="AO8" s="149"/>
+      <c r="AO8" s="146"/>
       <c r="AP8" s="127"/>
       <c r="AQ8" s="127"/>
       <c r="AR8" s="127"/>
       <c r="AS8" s="127"/>
-      <c r="AT8" s="149">
+      <c r="AT8" s="146">
         <f>SUM(AN8+6)</f>
         <v>42836</v>
       </c>
-      <c r="AU8" s="150"/>
+      <c r="AU8" s="147"/>
       <c r="AW8" s="148">
         <f>SUM(AT8+1)</f>
         <v>42837</v>
       </c>
-      <c r="AX8" s="149"/>
-      <c r="AY8" s="149"/>
-      <c r="AZ8" s="149"/>
+      <c r="AX8" s="146"/>
+      <c r="AY8" s="146"/>
+      <c r="AZ8" s="146"/>
       <c r="BA8" s="127"/>
       <c r="BB8" s="127"/>
-      <c r="BC8" s="149">
+      <c r="BC8" s="146">
         <f>SUM(AW8+6)</f>
         <v>42843</v>
       </c>
-      <c r="BD8" s="150"/>
+      <c r="BD8" s="147"/>
       <c r="BF8" s="148">
         <f>SUM(BC8+1)</f>
         <v>42844</v>
       </c>
-      <c r="BG8" s="149"/>
+      <c r="BG8" s="146"/>
       <c r="BH8" s="127"/>
       <c r="BI8" s="127"/>
       <c r="BJ8" s="127"/>
       <c r="BK8" s="127"/>
-      <c r="BL8" s="149">
+      <c r="BL8" s="146">
         <f>SUM(BF8+6)</f>
         <v>42850</v>
       </c>
-      <c r="BM8" s="150"/>
+      <c r="BM8" s="147"/>
       <c r="BO8" s="148">
         <f>SUM(BL8+1)</f>
         <v>42851</v>
       </c>
-      <c r="BP8" s="149"/>
+      <c r="BP8" s="146"/>
       <c r="BQ8" s="127"/>
       <c r="BR8" s="127"/>
       <c r="BS8" s="127"/>
       <c r="BT8" s="127"/>
-      <c r="BU8" s="149">
+      <c r="BU8" s="146">
         <f>SUM(BO8+6)</f>
         <v>42857</v>
       </c>
-      <c r="BV8" s="150"/>
+      <c r="BV8" s="147"/>
       <c r="BX8" s="148">
         <f>SUM(BU8+1)</f>
         <v>42858</v>
       </c>
-      <c r="BY8" s="149"/>
+      <c r="BY8" s="146"/>
       <c r="BZ8" s="127"/>
       <c r="CA8" s="127"/>
       <c r="CB8" s="127"/>
       <c r="CC8" s="127"/>
-      <c r="CD8" s="149">
+      <c r="CD8" s="146">
         <f>SUM(BX8+6)</f>
         <v>42864</v>
       </c>
-      <c r="CE8" s="150"/>
+      <c r="CE8" s="147"/>
       <c r="CG8" s="148">
         <f>SUM(CD8+1)</f>
         <v>42865</v>
       </c>
-      <c r="CH8" s="149"/>
+      <c r="CH8" s="146"/>
       <c r="CI8" s="127"/>
       <c r="CJ8" s="127"/>
       <c r="CK8" s="127"/>
       <c r="CL8" s="127"/>
-      <c r="CM8" s="149">
+      <c r="CM8" s="146">
         <f>SUM(CG8+6)</f>
         <v>42871</v>
       </c>
-      <c r="CN8" s="150"/>
+      <c r="CN8" s="147"/>
       <c r="CP8" s="148">
         <f>SUM(CM8+1)</f>
         <v>42872</v>
       </c>
-      <c r="CQ8" s="149"/>
+      <c r="CQ8" s="146"/>
       <c r="CR8" s="127"/>
       <c r="CS8" s="127"/>
       <c r="CT8" s="127"/>
       <c r="CU8" s="127"/>
-      <c r="CV8" s="149">
+      <c r="CV8" s="146">
         <f>SUM(CP8+6)</f>
         <v>42878</v>
       </c>
-      <c r="CW8" s="150"/>
+      <c r="CW8" s="147"/>
       <c r="CY8" s="148">
         <f>SUM(CV8+1)</f>
         <v>42879</v>
       </c>
-      <c r="CZ8" s="149"/>
+      <c r="CZ8" s="146"/>
       <c r="DA8" s="127"/>
       <c r="DB8" s="127"/>
       <c r="DC8" s="127"/>
       <c r="DD8" s="127"/>
-      <c r="DE8" s="149">
+      <c r="DE8" s="146">
         <f>SUM(CY8+6)</f>
         <v>42885</v>
       </c>
-      <c r="DF8" s="150"/>
+      <c r="DF8" s="147"/>
       <c r="DH8" s="148">
         <f>SUM(DE8+1)</f>
         <v>42886</v>
       </c>
-      <c r="DI8" s="149"/>
+      <c r="DI8" s="146"/>
       <c r="DJ8" s="127"/>
       <c r="DK8" s="127"/>
       <c r="DL8" s="127"/>
       <c r="DM8" s="127"/>
-      <c r="DN8" s="149">
+      <c r="DN8" s="146">
         <f>SUM(DH8+6)</f>
         <v>42892</v>
       </c>
-      <c r="DO8" s="150"/>
+      <c r="DO8" s="147"/>
       <c r="DQ8" s="148">
         <f>SUM(DN8+1)</f>
         <v>42893</v>
       </c>
-      <c r="DR8" s="149"/>
+      <c r="DR8" s="146"/>
       <c r="DS8" s="127"/>
       <c r="DT8" s="127"/>
       <c r="DU8" s="127"/>
       <c r="DV8" s="127"/>
-      <c r="DW8" s="149">
+      <c r="DW8" s="146">
         <f>SUM(DQ8+6)</f>
         <v>42899</v>
       </c>
-      <c r="DX8" s="150"/>
+      <c r="DX8" s="147"/>
       <c r="DZ8" s="148">
         <f>SUM(DW8+1)</f>
         <v>42900</v>
       </c>
-      <c r="EA8" s="149"/>
+      <c r="EA8" s="146"/>
       <c r="EB8" s="127"/>
       <c r="EC8" s="127"/>
       <c r="ED8" s="127"/>
       <c r="EE8" s="127"/>
-      <c r="EF8" s="149">
+      <c r="EF8" s="146">
         <f>SUM(DZ8+6)</f>
         <v>42906</v>
       </c>
-      <c r="EG8" s="150"/>
+      <c r="EG8" s="147"/>
       <c r="EI8" s="148">
         <f>SUM(EF8+1)</f>
         <v>42907</v>
       </c>
-      <c r="EJ8" s="149"/>
+      <c r="EJ8" s="146"/>
       <c r="EK8" s="127"/>
       <c r="EL8" s="127"/>
       <c r="EM8" s="127"/>
       <c r="EN8" s="127"/>
-      <c r="EO8" s="149">
+      <c r="EO8" s="146">
         <f>SUM(EI8+6)</f>
         <v>42913</v>
       </c>
-      <c r="EP8" s="150"/>
+      <c r="EP8" s="147"/>
       <c r="ER8" s="148">
         <f>SUM(EO8+1)</f>
         <v>42914</v>
       </c>
-      <c r="ES8" s="149"/>
+      <c r="ES8" s="146"/>
       <c r="ET8" s="127"/>
       <c r="EU8" s="127"/>
       <c r="EV8" s="127"/>
       <c r="EW8" s="127"/>
-      <c r="EX8" s="149">
+      <c r="EX8" s="146">
         <f>SUM(ER8+6)</f>
         <v>42920</v>
       </c>
-      <c r="EY8" s="150"/>
+      <c r="EY8" s="147"/>
       <c r="FA8" s="148">
         <f>SUM(EX8+1)</f>
         <v>42921</v>
       </c>
-      <c r="FB8" s="149"/>
+      <c r="FB8" s="146"/>
       <c r="FC8" s="127"/>
       <c r="FD8" s="127"/>
       <c r="FE8" s="127"/>
       <c r="FF8" s="127"/>
-      <c r="FG8" s="149">
+      <c r="FG8" s="146">
         <f>SUM(FA8+6)</f>
         <v>42927</v>
       </c>
-      <c r="FH8" s="150"/>
+      <c r="FH8" s="147"/>
     </row>
     <row r="9" spans="1:164" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="143" t="s">
+      <c r="B9" s="163" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="139"/>
-      <c r="D9" s="145" t="str">
+      <c r="D9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3752,9 +3752,9 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="K9" s="146"/>
+      <c r="K9" s="145"/>
       <c r="L9" s="122"/>
-      <c r="M9" s="145" t="str">
+      <c r="M9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3773,9 +3773,9 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="T9" s="146"/>
+      <c r="T9" s="145"/>
       <c r="U9" s="122"/>
-      <c r="V9" s="145" t="str">
+      <c r="V9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3794,9 +3794,9 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="AC9" s="146"/>
+      <c r="AC9" s="145"/>
       <c r="AD9" s="122"/>
-      <c r="AE9" s="145" t="str">
+      <c r="AE9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3815,8 +3815,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="AL9" s="146"/>
-      <c r="AN9" s="145" t="str">
+      <c r="AL9" s="145"/>
+      <c r="AN9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3835,8 +3835,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="AU9" s="146"/>
-      <c r="AW9" s="145" t="str">
+      <c r="AU9" s="145"/>
+      <c r="AW9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3855,8 +3855,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="BD9" s="146"/>
-      <c r="BF9" s="145" t="str">
+      <c r="BD9" s="145"/>
+      <c r="BF9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3875,8 +3875,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="BM9" s="146"/>
-      <c r="BO9" s="145" t="str">
+      <c r="BM9" s="145"/>
+      <c r="BO9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3895,8 +3895,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="BV9" s="146"/>
-      <c r="BX9" s="145" t="str">
+      <c r="BV9" s="145"/>
+      <c r="BX9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3915,8 +3915,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="CE9" s="146"/>
-      <c r="CG9" s="145" t="str">
+      <c r="CE9" s="145"/>
+      <c r="CG9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3935,8 +3935,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="CN9" s="146"/>
-      <c r="CP9" s="145" t="str">
+      <c r="CN9" s="145"/>
+      <c r="CP9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3955,8 +3955,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="CW9" s="146"/>
-      <c r="CY9" s="145" t="str">
+      <c r="CW9" s="145"/>
+      <c r="CY9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3975,8 +3975,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="DF9" s="146"/>
-      <c r="DH9" s="145" t="str">
+      <c r="DF9" s="145"/>
+      <c r="DH9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3995,8 +3995,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="DO9" s="146"/>
-      <c r="DQ9" s="145" t="str">
+      <c r="DO9" s="145"/>
+      <c r="DQ9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -4015,8 +4015,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="DX9" s="146"/>
-      <c r="DZ9" s="145" t="str">
+      <c r="DX9" s="145"/>
+      <c r="DZ9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -4035,8 +4035,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="EG9" s="146"/>
-      <c r="EI9" s="145" t="str">
+      <c r="EG9" s="145"/>
+      <c r="EI9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -4055,8 +4055,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="EP9" s="146"/>
-      <c r="ER9" s="145" t="str">
+      <c r="EP9" s="145"/>
+      <c r="ER9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -4075,8 +4075,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="EY9" s="146"/>
-      <c r="FA9" s="145" t="str">
+      <c r="EY9" s="145"/>
+      <c r="FA9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -4095,7 +4095,7 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="FH9" s="146"/>
+      <c r="FH9" s="145"/>
     </row>
     <row r="10" spans="1:164" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="C11" s="75">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D11" s="87">
         <f t="shared" si="0"/>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="BY11" s="77">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ11" s="88">
         <f t="shared" si="7"/>
@@ -4858,7 +4858,7 @@
       </c>
       <c r="CH11" s="77">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="CI11" s="88">
         <f t="shared" si="8"/>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="CJ11" s="77">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CK11" s="88">
         <f t="shared" si="8"/>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="C13" s="77">
         <f>SUM(E13,G13,I13,K13,N13,P13,R13,T13,W13,Y13,AA13,AC13,AF13,AH13,AJ13,AL13,AO13,AQ13,AS13,AU13,AX13,AZ13,BB13,BD13,BG13,BI13,BK13,BM13,BP13,BR13,BT13,BV13,BY13,CA13,CC13,CE13,CH13,CJ13,CL13,CN13,CQ13,CS13,CU13,CW13,CZ13,DB13,DD13,DF13,DI13,DK13,DM13,DO13,DR13,DT13,DV13,DX13,EA13,EC13,EE13,EG13,EJ13,EL13,EN13,EP13,ES13,EU13,EW13,EY13,FB13,FD13,FF13,FH13)</f>
-        <v>32</v>
+        <v>37.5</v>
       </c>
       <c r="D13" s="91">
         <v>4</v>
@@ -5456,7 +5456,9 @@
       <c r="BV13" s="94"/>
       <c r="BW13" s="95"/>
       <c r="BX13" s="91"/>
-      <c r="BY13" s="92"/>
+      <c r="BY13" s="92">
+        <v>1</v>
+      </c>
       <c r="BZ13" s="93"/>
       <c r="CA13" s="92"/>
       <c r="CB13" s="93"/>
@@ -5465,9 +5467,13 @@
       <c r="CE13" s="94"/>
       <c r="CF13" s="95"/>
       <c r="CG13" s="91"/>
-      <c r="CH13" s="92"/>
+      <c r="CH13" s="92">
+        <v>4</v>
+      </c>
       <c r="CI13" s="93"/>
-      <c r="CJ13" s="92"/>
+      <c r="CJ13" s="92">
+        <v>0.5</v>
+      </c>
       <c r="CK13" s="93"/>
       <c r="CL13" s="92"/>
       <c r="CM13" s="93"/>
@@ -5554,7 +5560,7 @@
       </c>
       <c r="C14" s="77">
         <f t="shared" ref="C14" si="17">SUM(E14,G14,I14,K14,N14,P14,R14,T14,W14,Y14,AA14,AC14,AF14,AH14,AJ14,AL14,AO14,AQ14,AS14,AU14,AX14,AZ14,BB14,BD14,BG14,BI14,BK14,BM14,BP14,BR14,BT14,BV14,BY14,CA14,CC14,CE14,CH14,CJ14,CL14,CN14,CQ14,CS14,CU14,CW14,CZ14,DB14,DD14,DF14,DI14,DK14,DM14,DO14,DR14,DT14,DV14,DX14,EA14,EC14,EE14,EG14,EJ14,EL14,EN14,EP14,ES14,EU14,EW14,EY14,FB14,FD14,FF14,FH14)</f>
-        <v>7.5</v>
+        <v>24</v>
       </c>
       <c r="D14" s="91"/>
       <c r="E14" s="92"/>
@@ -5648,9 +5654,13 @@
       <c r="CE14" s="94"/>
       <c r="CF14" s="95"/>
       <c r="CG14" s="91"/>
-      <c r="CH14" s="92"/>
+      <c r="CH14" s="92">
+        <v>8</v>
+      </c>
       <c r="CI14" s="93"/>
-      <c r="CJ14" s="92"/>
+      <c r="CJ14" s="92">
+        <v>8.5</v>
+      </c>
       <c r="CK14" s="93"/>
       <c r="CL14" s="92"/>
       <c r="CM14" s="93"/>
@@ -5904,7 +5914,7 @@
       </c>
       <c r="C16" s="75">
         <f t="shared" si="18"/>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D16" s="87">
         <f t="shared" si="18"/>
@@ -6134,7 +6144,7 @@
       </c>
       <c r="BM16" s="89">
         <f t="shared" si="24"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BN16" s="88"/>
       <c r="BO16" s="87">
@@ -6167,7 +6177,7 @@
       </c>
       <c r="BV16" s="89">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW16" s="88"/>
       <c r="BX16" s="87">
@@ -6855,7 +6865,7 @@
       </c>
       <c r="C19" s="77">
         <f t="shared" si="36"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D19" s="91"/>
       <c r="E19" s="92"/>
@@ -6925,7 +6935,7 @@
       <c r="BK19" s="92"/>
       <c r="BL19" s="93"/>
       <c r="BM19" s="94">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BN19" s="95"/>
       <c r="BO19" s="91"/>
@@ -6935,7 +6945,9 @@
       <c r="BS19" s="93"/>
       <c r="BT19" s="92"/>
       <c r="BU19" s="93"/>
-      <c r="BV19" s="94"/>
+      <c r="BV19" s="94">
+        <v>2</v>
+      </c>
       <c r="BW19" s="95"/>
       <c r="BX19" s="91"/>
       <c r="BY19" s="92"/>
@@ -7553,7 +7565,7 @@
       </c>
       <c r="C23" s="75">
         <f t="shared" si="37"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D23" s="87">
         <f t="shared" si="37"/>
@@ -7816,7 +7828,7 @@
       </c>
       <c r="BV23" s="89">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW23" s="88"/>
       <c r="BX23" s="87">
@@ -7849,7 +7861,7 @@
       </c>
       <c r="CE23" s="89">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CF23" s="88"/>
       <c r="CG23" s="87">
@@ -7882,7 +7894,7 @@
       </c>
       <c r="CN23" s="89">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CO23" s="88"/>
       <c r="CP23" s="87">
@@ -8331,7 +8343,7 @@
       </c>
       <c r="C25" s="77">
         <f t="shared" ref="C25:C27" si="55">SUM(E25,G25,I25,K25,N25,P25,R25,T25,W25,Y25,AA25,AC25,AF25,AH25,AJ25,AL25,AO25,AQ25,AS25,AU25,AX25,AZ25,BB25,BD25,BG25,BI25,BK25,BM25,BP25,BR25,BT25,BV25,BY25,CA25,CC25,CE25,CH25,CJ25,CL25,CN25,CQ25,CS25,CU25,CW25,CZ25,DB25,DD25,DF25,DI25,DK25,DM25,DO25,DR25,DT25,DV25,DX25,EA25,EC25,EE25,EG25,EJ25,EL25,EN25,EP25,ES25,EU25,EW25,EY25,FB25,FD25,FF25,FH25)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" s="91"/>
       <c r="E25" s="92"/>
@@ -8405,7 +8417,9 @@
       <c r="BS25" s="93"/>
       <c r="BT25" s="92"/>
       <c r="BU25" s="93"/>
-      <c r="BV25" s="94"/>
+      <c r="BV25" s="94">
+        <v>1</v>
+      </c>
       <c r="BW25" s="95"/>
       <c r="BX25" s="91"/>
       <c r="BY25" s="92"/>
@@ -8679,7 +8693,7 @@
       </c>
       <c r="C27" s="77">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D27" s="91"/>
       <c r="E27" s="92"/>
@@ -8760,7 +8774,9 @@
       <c r="CB27" s="93"/>
       <c r="CC27" s="92"/>
       <c r="CD27" s="93"/>
-      <c r="CE27" s="94"/>
+      <c r="CE27" s="94">
+        <v>4</v>
+      </c>
       <c r="CF27" s="95"/>
       <c r="CG27" s="91"/>
       <c r="CH27" s="92"/>
@@ -8769,7 +8785,9 @@
       <c r="CK27" s="93"/>
       <c r="CL27" s="92"/>
       <c r="CM27" s="93"/>
-      <c r="CN27" s="94"/>
+      <c r="CN27" s="94">
+        <v>3</v>
+      </c>
       <c r="CO27" s="95"/>
       <c r="CP27" s="91"/>
       <c r="CQ27" s="92"/>
@@ -9968,7 +9986,7 @@
       </c>
       <c r="C32" s="75">
         <f t="shared" si="74"/>
-        <v>55.5</v>
+        <v>103.5</v>
       </c>
       <c r="D32" s="87">
         <f t="shared" si="74"/>
@@ -10223,7 +10241,7 @@
       </c>
       <c r="BT32" s="77">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BU32" s="88">
         <f t="shared" si="81"/>
@@ -10240,7 +10258,7 @@
       </c>
       <c r="BY32" s="77">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ32" s="88">
         <f t="shared" si="82"/>
@@ -10248,7 +10266,7 @@
       </c>
       <c r="CA32" s="77">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="CB32" s="88">
         <f t="shared" si="82"/>
@@ -10256,7 +10274,7 @@
       </c>
       <c r="CC32" s="77">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CD32" s="88">
         <f t="shared" si="82"/>
@@ -10273,7 +10291,7 @@
       </c>
       <c r="CH32" s="77">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="CI32" s="88">
         <f t="shared" si="83"/>
@@ -10281,7 +10299,7 @@
       </c>
       <c r="CJ32" s="77">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CK32" s="88">
         <f t="shared" si="83"/>
@@ -10289,7 +10307,7 @@
       </c>
       <c r="CL32" s="77">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CM32" s="88">
         <f t="shared" si="83"/>
@@ -10297,7 +10315,7 @@
       </c>
       <c r="CN32" s="89">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CO32" s="88"/>
       <c r="CP32" s="87">
@@ -10746,7 +10764,7 @@
       </c>
       <c r="C34" s="77">
         <f>SUM(E34,G34,I34,K34,N34,P34,R34,T34,W34,Y34,AA34,AC34,AF34,AH34,AJ34,AL34,AO34,AQ34,AS34,AU34,AX34,AZ34,BB34,BD34,BG34,BI34,BK34,BM34,BP34,BR34,BT34,BV34,BY34,CA34,CC34,CE34,CH34,CJ34,CL34,CN34,CQ34,CS34,CU34,CW34,CZ34,DB34,DD34,DF34,DI34,DK34,DM34,DO34,DR34,DT34,DV34,DX34,EA34,EC34,EE34,EG34,EJ34,EL34,EN34,EP34,ES34,EU34,EW34,EY34,FB34,FD34,FF34,FH34)</f>
-        <v>16.5</v>
+        <v>28.5</v>
       </c>
       <c r="D34" s="91"/>
       <c r="E34" s="92"/>
@@ -10830,7 +10848,9 @@
       <c r="BQ34" s="93"/>
       <c r="BR34" s="92"/>
       <c r="BS34" s="93"/>
-      <c r="BT34" s="92"/>
+      <c r="BT34" s="92">
+        <v>2</v>
+      </c>
       <c r="BU34" s="93"/>
       <c r="BV34" s="94"/>
       <c r="BW34" s="95"/>
@@ -10839,7 +10859,9 @@
       <c r="BZ34" s="93"/>
       <c r="CA34" s="92"/>
       <c r="CB34" s="93"/>
-      <c r="CC34" s="92"/>
+      <c r="CC34" s="92">
+        <v>2</v>
+      </c>
       <c r="CD34" s="93"/>
       <c r="CE34" s="94"/>
       <c r="CF34" s="95"/>
@@ -10848,9 +10870,13 @@
       <c r="CI34" s="93"/>
       <c r="CJ34" s="92"/>
       <c r="CK34" s="93"/>
-      <c r="CL34" s="92"/>
+      <c r="CL34" s="92">
+        <v>5</v>
+      </c>
       <c r="CM34" s="93"/>
-      <c r="CN34" s="94"/>
+      <c r="CN34" s="94">
+        <v>3</v>
+      </c>
       <c r="CO34" s="95"/>
       <c r="CP34" s="91"/>
       <c r="CQ34" s="92"/>
@@ -10933,7 +10959,7 @@
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35:C42" si="92">SUM(E35,G35,I35,K35,N35,P35,R35,T35,W35,Y35,AA35,AC35,AF35,AH35,AJ35,AL35,AO35,AQ35,AS35,AU35,AX35,AZ35,BB35,BD35,BG35,BI35,BK35,BM35,BP35,BR35,BT35,BV35,BY35,CA35,CC35,CE35,CH35,CJ35,CL35,CN35,CQ35,CS35,CU35,CW35,CZ35,DB35,DD35,DF35,DI35,DK35,DM35,DO35,DR35,DT35,DV35,DX35,EA35,EC35,EE35,EG35,EJ35,EL35,EN35,EP35,ES35,EU35,EW35,EY35,FB35,FD35,FF35,FH35)</f>
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D35" s="91"/>
       <c r="E35" s="92"/>
@@ -11009,7 +11035,9 @@
       <c r="BQ35" s="93"/>
       <c r="BR35" s="92"/>
       <c r="BS35" s="93"/>
-      <c r="BT35" s="92"/>
+      <c r="BT35" s="92">
+        <v>4</v>
+      </c>
       <c r="BU35" s="93"/>
       <c r="BV35" s="94"/>
       <c r="BW35" s="95"/>
@@ -11018,7 +11046,9 @@
       <c r="BZ35" s="93"/>
       <c r="CA35" s="92"/>
       <c r="CB35" s="93"/>
-      <c r="CC35" s="92"/>
+      <c r="CC35" s="92">
+        <v>7</v>
+      </c>
       <c r="CD35" s="93"/>
       <c r="CE35" s="94"/>
       <c r="CF35" s="95"/>
@@ -11027,7 +11057,9 @@
       <c r="CI35" s="93"/>
       <c r="CJ35" s="92"/>
       <c r="CK35" s="93"/>
-      <c r="CL35" s="92"/>
+      <c r="CL35" s="92">
+        <v>4</v>
+      </c>
       <c r="CM35" s="93"/>
       <c r="CN35" s="94"/>
       <c r="CO35" s="95"/>
@@ -11112,7 +11144,7 @@
       </c>
       <c r="C36" s="77">
         <f t="shared" si="92"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="91"/>
       <c r="E36" s="92"/>
@@ -11188,7 +11220,9 @@
       <c r="BQ36" s="93"/>
       <c r="BR36" s="92"/>
       <c r="BS36" s="93"/>
-      <c r="BT36" s="92"/>
+      <c r="BT36" s="92">
+        <v>1</v>
+      </c>
       <c r="BU36" s="93"/>
       <c r="BV36" s="94"/>
       <c r="BW36" s="95"/>
@@ -11464,7 +11498,7 @@
       </c>
       <c r="C38" s="77">
         <f t="shared" si="92"/>
-        <v>17</v>
+        <v>22.5</v>
       </c>
       <c r="D38" s="91"/>
       <c r="E38" s="92"/>
@@ -11543,7 +11577,9 @@
       <c r="BV38" s="94"/>
       <c r="BW38" s="95"/>
       <c r="BX38" s="91"/>
-      <c r="BY38" s="92"/>
+      <c r="BY38" s="92">
+        <v>1</v>
+      </c>
       <c r="BZ38" s="93"/>
       <c r="CA38" s="92"/>
       <c r="CB38" s="93"/>
@@ -11552,7 +11588,9 @@
       <c r="CE38" s="94"/>
       <c r="CF38" s="95"/>
       <c r="CG38" s="91"/>
-      <c r="CH38" s="92"/>
+      <c r="CH38" s="92">
+        <v>4.5</v>
+      </c>
       <c r="CI38" s="93"/>
       <c r="CJ38" s="92"/>
       <c r="CK38" s="93"/>
@@ -11816,7 +11854,7 @@
       </c>
       <c r="C40" s="77">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="D40" s="91"/>
       <c r="E40" s="92"/>
@@ -11893,7 +11931,9 @@
       <c r="BX40" s="91"/>
       <c r="BY40" s="92"/>
       <c r="BZ40" s="93"/>
-      <c r="CA40" s="92"/>
+      <c r="CA40" s="92">
+        <v>7.5</v>
+      </c>
       <c r="CB40" s="93"/>
       <c r="CC40" s="92"/>
       <c r="CD40" s="93"/>
@@ -11902,7 +11942,9 @@
       <c r="CG40" s="91"/>
       <c r="CH40" s="92"/>
       <c r="CI40" s="93"/>
-      <c r="CJ40" s="92"/>
+      <c r="CJ40" s="92">
+        <v>7</v>
+      </c>
       <c r="CK40" s="93"/>
       <c r="CL40" s="92"/>
       <c r="CM40" s="93"/>
@@ -15675,7 +15717,7 @@
       </c>
       <c r="C57" s="75">
         <f t="shared" si="130"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D57" s="87">
         <f t="shared" si="130"/>
@@ -15996,7 +16038,7 @@
       </c>
       <c r="CL57" s="77">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CM57" s="88">
         <f t="shared" si="139"/>
@@ -16913,7 +16955,7 @@
       </c>
       <c r="C61" s="77">
         <f t="shared" si="148"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D61" s="91"/>
       <c r="E61" s="92"/>
@@ -17007,7 +17049,9 @@
       <c r="CI61" s="93"/>
       <c r="CJ61" s="92"/>
       <c r="CK61" s="93"/>
-      <c r="CL61" s="92"/>
+      <c r="CL61" s="92">
+        <v>2</v>
+      </c>
       <c r="CM61" s="93"/>
       <c r="CN61" s="94"/>
       <c r="CO61" s="95"/>
@@ -17610,7 +17654,7 @@
       </c>
       <c r="C65" s="75">
         <f t="shared" si="149"/>
-        <v>32.5</v>
+        <v>40</v>
       </c>
       <c r="D65" s="87">
         <f t="shared" si="149"/>
@@ -17849,7 +17893,7 @@
       </c>
       <c r="BP65" s="77">
         <f t="shared" si="156"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ65" s="88">
         <f>SUM(BQ66:BQ69)</f>
@@ -17857,7 +17901,7 @@
       </c>
       <c r="BR65" s="77">
         <f>SUM(BR66:BR69)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS65" s="88">
         <f t="shared" si="156"/>
@@ -17865,7 +17909,7 @@
       </c>
       <c r="BT65" s="77">
         <f t="shared" si="156"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU65" s="88">
         <f t="shared" si="156"/>
@@ -17882,7 +17926,7 @@
       </c>
       <c r="BY65" s="77">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BZ65" s="88">
         <f>SUM(BZ66:BZ69)</f>
@@ -17890,7 +17934,7 @@
       </c>
       <c r="CA65" s="77">
         <f>SUM(CA66:CA69)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CB65" s="88">
         <f t="shared" si="157"/>
@@ -17898,7 +17942,7 @@
       </c>
       <c r="CC65" s="77">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CD65" s="88">
         <f t="shared" si="157"/>
@@ -17915,7 +17959,7 @@
       </c>
       <c r="CH65" s="77">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI65" s="88">
         <f>SUM(CI66:CI69)</f>
@@ -17923,7 +17967,7 @@
       </c>
       <c r="CJ65" s="77">
         <f>SUM(CJ66:CJ69)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK65" s="88">
         <f t="shared" si="158"/>
@@ -17931,7 +17975,7 @@
       </c>
       <c r="CL65" s="77">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM65" s="88">
         <f t="shared" si="158"/>
@@ -18215,7 +18259,7 @@
       </c>
       <c r="C66" s="77">
         <f>SUM(E66,G66,I66,K66,N66,P66,R66,T66,W66,Y66,AA66,AC66,AF66,AH66,AJ66,AL66,AO66,AQ66,AS66,AU66,AX66,AZ66,BB66,BD66,BG66,BI66,BK66,BM66,BP66,BR66,BT66,BV66,BY66,CA66,CC66,CE66,CH66,CJ66,CL66,CN66,CQ66,CS66,CU66,CW66,CZ66,DB66,DD66,DF66,DI66,DK66,DM66,DO66,DR66,DT66,DV66,DX66,EA66,EC66,EE66,EG66,EJ66,EL66,EN66,EP66,ES66,EU66,EW66,EY66,FB66,FD66,FF66,FH66)</f>
-        <v>26.5</v>
+        <v>34</v>
       </c>
       <c r="D66" s="91"/>
       <c r="E66" s="92"/>
@@ -18371,15 +18415,21 @@
       <c r="BO66" s="91">
         <v>2</v>
       </c>
-      <c r="BP66" s="92"/>
+      <c r="BP66" s="92">
+        <v>1</v>
+      </c>
       <c r="BQ66" s="93">
         <v>2</v>
       </c>
-      <c r="BR66" s="92"/>
+      <c r="BR66" s="92">
+        <v>1</v>
+      </c>
       <c r="BS66" s="93">
         <v>2</v>
       </c>
-      <c r="BT66" s="92"/>
+      <c r="BT66" s="92">
+        <v>1</v>
+      </c>
       <c r="BU66" s="93">
         <v>2</v>
       </c>
@@ -18388,15 +18438,21 @@
       <c r="BX66" s="91">
         <v>2</v>
       </c>
-      <c r="BY66" s="92"/>
+      <c r="BY66" s="92">
+        <v>0.5</v>
+      </c>
       <c r="BZ66" s="93">
         <v>2</v>
       </c>
-      <c r="CA66" s="92"/>
+      <c r="CA66" s="92">
+        <v>0.5</v>
+      </c>
       <c r="CB66" s="93">
         <v>2</v>
       </c>
-      <c r="CC66" s="92"/>
+      <c r="CC66" s="92">
+        <v>0.5</v>
+      </c>
       <c r="CD66" s="93">
         <v>2</v>
       </c>
@@ -18405,15 +18461,21 @@
       <c r="CG66" s="91">
         <v>2</v>
       </c>
-      <c r="CH66" s="92"/>
+      <c r="CH66" s="92">
+        <v>1</v>
+      </c>
       <c r="CI66" s="93">
         <v>2</v>
       </c>
-      <c r="CJ66" s="92"/>
+      <c r="CJ66" s="92">
+        <v>1</v>
+      </c>
       <c r="CK66" s="93">
         <v>2</v>
       </c>
-      <c r="CL66" s="92"/>
+      <c r="CL66" s="92">
+        <v>1</v>
+      </c>
       <c r="CM66" s="93">
         <v>2</v>
       </c>
@@ -20503,7 +20565,7 @@
       </c>
       <c r="BM74" s="109">
         <f t="shared" si="192"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BN74" s="111"/>
       <c r="BO74" s="105">
@@ -20512,7 +20574,7 @@
       </c>
       <c r="BP74" s="106">
         <f t="shared" si="193"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ74" s="107">
         <f t="shared" si="193"/>
@@ -20520,7 +20582,7 @@
       </c>
       <c r="BR74" s="106">
         <f t="shared" si="193"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS74" s="107">
         <f t="shared" si="193"/>
@@ -20528,7 +20590,7 @@
       </c>
       <c r="BT74" s="106">
         <f t="shared" si="193"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BU74" s="108">
         <f t="shared" si="193"/>
@@ -20536,7 +20598,7 @@
       </c>
       <c r="BV74" s="109">
         <f t="shared" si="193"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BW74" s="111"/>
       <c r="BX74" s="105">
@@ -20545,7 +20607,7 @@
       </c>
       <c r="BY74" s="106">
         <f t="shared" si="194"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BZ74" s="107">
         <f t="shared" si="194"/>
@@ -20553,7 +20615,7 @@
       </c>
       <c r="CA74" s="106">
         <f t="shared" si="194"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CB74" s="107">
         <f t="shared" si="194"/>
@@ -20561,7 +20623,7 @@
       </c>
       <c r="CC74" s="106">
         <f t="shared" si="194"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="CD74" s="108">
         <f t="shared" si="194"/>
@@ -20569,7 +20631,7 @@
       </c>
       <c r="CE74" s="109">
         <f t="shared" si="194"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CF74" s="111"/>
       <c r="CG74" s="105">
@@ -20578,7 +20640,7 @@
       </c>
       <c r="CH74" s="106">
         <f t="shared" si="195"/>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="CI74" s="107">
         <f t="shared" si="195"/>
@@ -20586,7 +20648,7 @@
       </c>
       <c r="CJ74" s="106">
         <f t="shared" si="195"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="CK74" s="107">
         <f t="shared" si="195"/>
@@ -20594,7 +20656,7 @@
       </c>
       <c r="CL74" s="106">
         <f t="shared" si="195"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="CM74" s="108">
         <f t="shared" si="195"/>
@@ -20602,7 +20664,7 @@
       </c>
       <c r="CN74" s="109">
         <f t="shared" si="195"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CO74" s="111"/>
       <c r="CP74" s="105">
@@ -20879,7 +20941,7 @@
       </c>
       <c r="C75" s="86">
         <f>SUM(C11+C16+C23+C29+C32+C44+C48+C57+C65+C70)</f>
-        <v>212</v>
+        <v>307.5</v>
       </c>
       <c r="D75" s="83"/>
       <c r="E75" s="83"/>
@@ -20983,7 +21045,7 @@
       </c>
       <c r="BM75" s="113">
         <f>SUM(BG74,BI74,BK74,BM74)</f>
-        <v>32.5</v>
+        <v>38.5</v>
       </c>
       <c r="BN75" s="111"/>
       <c r="BO75" s="83"/>
@@ -20998,7 +21060,7 @@
       </c>
       <c r="BV75" s="113">
         <f>SUM(BP74,BR74,BT74,BV74)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BW75" s="111"/>
       <c r="BX75" s="83"/>
@@ -21013,7 +21075,7 @@
       </c>
       <c r="CE75" s="113">
         <f>SUM(BY74,CA74,CC74,CE74)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="CF75" s="111"/>
       <c r="CG75" s="83"/>
@@ -21028,7 +21090,7 @@
       </c>
       <c r="CN75" s="113">
         <f>SUM(CH74,CJ74,CL74,CN74)</f>
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="CO75" s="111"/>
       <c r="CP75" s="83"/>
@@ -21240,36 +21302,36 @@
       <c r="B78" s="139" t="s">
         <v>106</v>
       </c>
-      <c r="C78" s="147"/>
-      <c r="D78" s="154" t="str">
+      <c r="C78" s="140"/>
+      <c r="D78" s="143" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
       <c r="E78" s="139"/>
       <c r="F78" s="139"/>
-      <c r="G78" s="147"/>
-      <c r="H78" s="154" t="str">
+      <c r="G78" s="140"/>
+      <c r="H78" s="143" t="str">
         <f>Details!$C$11</f>
         <v>Len</v>
       </c>
       <c r="I78" s="139"/>
       <c r="J78" s="139"/>
       <c r="K78" s="139"/>
-      <c r="L78" s="154" t="str">
+      <c r="L78" s="143" t="str">
         <f>Details!$C$12</f>
         <v>Al</v>
       </c>
       <c r="M78" s="139"/>
       <c r="N78" s="139"/>
-      <c r="O78" s="147"/>
-      <c r="P78" s="154" t="str">
+      <c r="O78" s="140"/>
+      <c r="P78" s="143" t="str">
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
       <c r="Q78" s="139"/>
       <c r="R78" s="139"/>
-      <c r="S78" s="147"/>
-      <c r="T78" s="154" t="s">
+      <c r="S78" s="140"/>
+      <c r="T78" s="143" t="s">
         <v>107</v>
       </c>
       <c r="U78" s="139"/>
@@ -21280,7 +21342,7 @@
       <c r="Z78" s="139"/>
       <c r="AA78" s="139"/>
       <c r="AB78" s="139"/>
-      <c r="AC78" s="147"/>
+      <c r="AC78" s="140"/>
       <c r="AD78" s="139" t="s">
         <v>108</v>
       </c>
@@ -21308,39 +21370,39 @@
       <c r="C79" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="D79" s="154" t="s">
+      <c r="D79" s="143" t="s">
         <v>46</v>
       </c>
       <c r="E79" s="139"/>
       <c r="F79" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="G79" s="147"/>
-      <c r="H79" s="154" t="s">
+      <c r="G79" s="140"/>
+      <c r="H79" s="143" t="s">
         <v>46</v>
       </c>
       <c r="I79" s="139"/>
       <c r="J79" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="K79" s="147"/>
-      <c r="L79" s="154" t="s">
+      <c r="K79" s="140"/>
+      <c r="L79" s="143" t="s">
         <v>46</v>
       </c>
       <c r="M79" s="139"/>
       <c r="N79" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="O79" s="147"/>
-      <c r="P79" s="154" t="s">
+      <c r="O79" s="140"/>
+      <c r="P79" s="143" t="s">
         <v>46</v>
       </c>
       <c r="Q79" s="139"/>
       <c r="R79" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="S79" s="147"/>
-      <c r="T79" s="154" t="str">
+      <c r="S79" s="140"/>
+      <c r="T79" s="143" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -21363,8 +21425,8 @@
       <c r="AB79" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="AC79" s="147"/>
-      <c r="AD79" s="154" t="s">
+      <c r="AC79" s="140"/>
+      <c r="AD79" s="143" t="s">
         <v>109</v>
       </c>
       <c r="AE79" s="139"/>
@@ -21376,10 +21438,10 @@
       <c r="AI79" s="139"/>
       <c r="AJ79" s="139"/>
       <c r="AK79" s="139"/>
-      <c r="AL79" s="143" t="s">
+      <c r="AL79" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="AM79" s="143"/>
+      <c r="AM79" s="163"/>
     </row>
     <row r="80" spans="1:164" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="str">
@@ -21394,96 +21456,96 @@
         <f>SUM($K$75)</f>
         <v>10.5</v>
       </c>
-      <c r="D80" s="136">
+      <c r="D80" s="137">
         <f>SUM(D74)</f>
         <v>4</v>
       </c>
-      <c r="E80" s="136"/>
-      <c r="F80" s="136">
+      <c r="E80" s="137"/>
+      <c r="F80" s="137">
         <f>SUM(E74)</f>
         <v>4</v>
       </c>
-      <c r="G80" s="137"/>
-      <c r="H80" s="136">
+      <c r="G80" s="138"/>
+      <c r="H80" s="137">
         <f>SUM(F74)</f>
         <v>3</v>
       </c>
-      <c r="I80" s="136"/>
-      <c r="J80" s="136">
+      <c r="I80" s="137"/>
+      <c r="J80" s="137">
         <f>SUM(G74)</f>
         <v>4.5</v>
       </c>
-      <c r="K80" s="137"/>
-      <c r="L80" s="136">
+      <c r="K80" s="138"/>
+      <c r="L80" s="137">
         <f>SUM(H74)</f>
         <v>1</v>
       </c>
-      <c r="M80" s="136"/>
-      <c r="N80" s="136">
+      <c r="M80" s="137"/>
+      <c r="N80" s="137">
         <f>SUM(I74)</f>
         <v>2</v>
       </c>
-      <c r="O80" s="137"/>
-      <c r="P80" s="136">
+      <c r="O80" s="138"/>
+      <c r="P80" s="137">
         <f>SUM(J74)</f>
         <v>0</v>
       </c>
-      <c r="Q80" s="136"/>
-      <c r="R80" s="136">
+      <c r="Q80" s="137"/>
+      <c r="R80" s="137">
         <f>SUM(K74)</f>
         <v>0</v>
       </c>
-      <c r="S80" s="137"/>
-      <c r="T80" s="136">
+      <c r="S80" s="138"/>
+      <c r="T80" s="137">
         <f>SUM(F80-D80)</f>
         <v>0</v>
       </c>
-      <c r="U80" s="136"/>
-      <c r="V80" s="136">
+      <c r="U80" s="137"/>
+      <c r="V80" s="137">
         <f>SUM(J80-H80)</f>
         <v>1.5</v>
       </c>
-      <c r="W80" s="136"/>
-      <c r="X80" s="136">
+      <c r="W80" s="137"/>
+      <c r="X80" s="137">
         <f>SUM(N80-L80)</f>
         <v>1</v>
       </c>
-      <c r="Y80" s="136"/>
-      <c r="Z80" s="136">
+      <c r="Y80" s="137"/>
+      <c r="Z80" s="137">
         <f t="shared" ref="Z80:Z88" si="204">SUM(P80-R80)</f>
         <v>0</v>
       </c>
-      <c r="AA80" s="136"/>
-      <c r="AB80" s="136">
+      <c r="AA80" s="137"/>
+      <c r="AB80" s="137">
         <f>SUM(V80+T80+X80+Z80)</f>
         <v>2.5</v>
       </c>
-      <c r="AC80" s="137"/>
-      <c r="AD80" s="142">
+      <c r="AC80" s="138"/>
+      <c r="AD80" s="136">
         <f>SUM(T80)</f>
         <v>0</v>
       </c>
-      <c r="AE80" s="142"/>
-      <c r="AF80" s="142">
+      <c r="AE80" s="136"/>
+      <c r="AF80" s="136">
         <f>SUM(V80)</f>
         <v>1.5</v>
       </c>
-      <c r="AG80" s="142"/>
-      <c r="AH80" s="142">
+      <c r="AG80" s="136"/>
+      <c r="AH80" s="136">
         <f>SUM(X80)</f>
         <v>1</v>
       </c>
-      <c r="AI80" s="142"/>
-      <c r="AJ80" s="142">
+      <c r="AI80" s="136"/>
+      <c r="AJ80" s="136">
         <f>SUM(Z80)</f>
         <v>0</v>
       </c>
-      <c r="AK80" s="142"/>
-      <c r="AL80" s="142">
+      <c r="AK80" s="136"/>
+      <c r="AL80" s="136">
         <f>SUM(AB80)</f>
         <v>2.5</v>
       </c>
-      <c r="AM80" s="142"/>
+      <c r="AM80" s="136"/>
     </row>
     <row r="81" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="str">
@@ -21498,96 +21560,96 @@
         <f>SUM($T$75+($AC$75/2))</f>
         <v>37.75</v>
       </c>
-      <c r="D81" s="135">
+      <c r="D81" s="142">
         <f>SUM(M74+(V74/2))</f>
         <v>4.5</v>
       </c>
-      <c r="E81" s="136"/>
-      <c r="F81" s="136">
+      <c r="E81" s="137"/>
+      <c r="F81" s="137">
         <f>SUM(N74+(W74/2))</f>
         <v>13</v>
       </c>
-      <c r="G81" s="137"/>
-      <c r="H81" s="135">
+      <c r="G81" s="138"/>
+      <c r="H81" s="142">
         <f>SUM(O74+(X74/2))</f>
         <v>9.5</v>
       </c>
-      <c r="I81" s="136"/>
-      <c r="J81" s="136">
+      <c r="I81" s="137"/>
+      <c r="J81" s="137">
         <f>SUM(P74+(Y74/2))</f>
         <v>11.75</v>
       </c>
-      <c r="K81" s="137"/>
-      <c r="L81" s="136">
+      <c r="K81" s="138"/>
+      <c r="L81" s="137">
         <f>SUM(Q74+(Z74/2))</f>
         <v>4.5</v>
       </c>
-      <c r="M81" s="136"/>
-      <c r="N81" s="136">
+      <c r="M81" s="137"/>
+      <c r="N81" s="137">
         <f>SUM(R74+(AA74/2))</f>
         <v>9</v>
       </c>
-      <c r="O81" s="137"/>
-      <c r="P81" s="136">
+      <c r="O81" s="138"/>
+      <c r="P81" s="137">
         <f>SUM(S74+(AB74/2))</f>
         <v>4.5</v>
       </c>
-      <c r="Q81" s="136"/>
-      <c r="R81" s="136">
+      <c r="Q81" s="137"/>
+      <c r="R81" s="137">
         <f>SUM(T74+(AC74/2))</f>
         <v>4</v>
       </c>
-      <c r="S81" s="137"/>
-      <c r="T81" s="135">
+      <c r="S81" s="138"/>
+      <c r="T81" s="142">
         <f>SUM(F81-D81)</f>
         <v>8.5</v>
       </c>
-      <c r="U81" s="136"/>
-      <c r="V81" s="136">
+      <c r="U81" s="137"/>
+      <c r="V81" s="137">
         <f>SUM(J81-H81)</f>
         <v>2.25</v>
       </c>
-      <c r="W81" s="136"/>
-      <c r="X81" s="136">
+      <c r="W81" s="137"/>
+      <c r="X81" s="137">
         <f>SUM(N81-L81)</f>
         <v>4.5</v>
       </c>
-      <c r="Y81" s="136"/>
-      <c r="Z81" s="136">
+      <c r="Y81" s="137"/>
+      <c r="Z81" s="137">
         <f t="shared" si="204"/>
         <v>0.5</v>
       </c>
-      <c r="AA81" s="136"/>
-      <c r="AB81" s="136">
+      <c r="AA81" s="137"/>
+      <c r="AB81" s="137">
         <f t="shared" ref="AB81:AB88" si="205">SUM(V81+T81+X81+Z81)</f>
         <v>15.75</v>
       </c>
-      <c r="AC81" s="137"/>
-      <c r="AD81" s="142">
+      <c r="AC81" s="138"/>
+      <c r="AD81" s="136">
         <f>SUM(T81+AD80)</f>
         <v>8.5</v>
       </c>
-      <c r="AE81" s="142"/>
-      <c r="AF81" s="142">
+      <c r="AE81" s="136"/>
+      <c r="AF81" s="136">
         <f t="shared" ref="AF81:AF88" si="206">SUM(V81+AF80)</f>
         <v>3.75</v>
       </c>
-      <c r="AG81" s="142"/>
-      <c r="AH81" s="142">
+      <c r="AG81" s="136"/>
+      <c r="AH81" s="136">
         <f t="shared" ref="AH81:AH88" si="207">SUM(X81+AH80)</f>
         <v>5.5</v>
       </c>
-      <c r="AI81" s="142"/>
-      <c r="AJ81" s="142">
+      <c r="AI81" s="136"/>
+      <c r="AJ81" s="136">
         <f t="shared" ref="AJ81:AJ88" si="208">SUM(Z81+AJ80)</f>
         <v>0.5</v>
       </c>
-      <c r="AK81" s="142"/>
-      <c r="AL81" s="142">
+      <c r="AK81" s="136"/>
+      <c r="AL81" s="136">
         <f>SUM(AB81+AL80)</f>
         <v>18.25</v>
       </c>
-      <c r="AM81" s="142"/>
+      <c r="AM81" s="136"/>
     </row>
     <row r="82" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="str">
@@ -21602,96 +21664,96 @@
         <f>SUM(($AC$75/2) + ($AL$75/2))</f>
         <v>42.25</v>
       </c>
-      <c r="D82" s="135">
+      <c r="D82" s="142">
         <f>SUM((V74/2)+(AE74/2))</f>
         <v>7</v>
       </c>
-      <c r="E82" s="136"/>
-      <c r="F82" s="136">
+      <c r="E82" s="137"/>
+      <c r="F82" s="137">
         <f>SUM((W74/2)+(AF74/2))</f>
         <v>12.5</v>
       </c>
-      <c r="G82" s="137"/>
-      <c r="H82" s="135">
+      <c r="G82" s="138"/>
+      <c r="H82" s="142">
         <f>SUM((X74/2)+(AG74/2))</f>
         <v>7</v>
       </c>
-      <c r="I82" s="136"/>
-      <c r="J82" s="136">
+      <c r="I82" s="137"/>
+      <c r="J82" s="137">
         <f>SUM((Y74/2)+(AH74/2))</f>
         <v>11.25</v>
       </c>
-      <c r="K82" s="137"/>
-      <c r="L82" s="135">
+      <c r="K82" s="138"/>
+      <c r="L82" s="142">
         <f>SUM((Z74/2)+(AI74/2))</f>
         <v>7</v>
       </c>
-      <c r="M82" s="136"/>
-      <c r="N82" s="136">
+      <c r="M82" s="137"/>
+      <c r="N82" s="137">
         <f>SUM((AA74/2)+(AJ74/2))</f>
         <v>11.5</v>
       </c>
-      <c r="O82" s="137"/>
-      <c r="P82" s="135">
+      <c r="O82" s="138"/>
+      <c r="P82" s="142">
         <f>SUM((AB74/2)+(AK74/2))</f>
         <v>7</v>
       </c>
-      <c r="Q82" s="136"/>
-      <c r="R82" s="136">
+      <c r="Q82" s="137"/>
+      <c r="R82" s="137">
         <f>SUM((AC74/2)+(AL74/2))</f>
         <v>7</v>
       </c>
-      <c r="S82" s="137"/>
-      <c r="T82" s="135">
+      <c r="S82" s="138"/>
+      <c r="T82" s="142">
         <f>SUM(F82-D82)</f>
         <v>5.5</v>
       </c>
-      <c r="U82" s="136"/>
-      <c r="V82" s="136">
+      <c r="U82" s="137"/>
+      <c r="V82" s="137">
         <f>SUM(J82-H82)</f>
         <v>4.25</v>
       </c>
-      <c r="W82" s="136"/>
-      <c r="X82" s="136">
+      <c r="W82" s="137"/>
+      <c r="X82" s="137">
         <f>SUM(N82-L82)</f>
         <v>4.5</v>
       </c>
-      <c r="Y82" s="136"/>
-      <c r="Z82" s="136">
+      <c r="Y82" s="137"/>
+      <c r="Z82" s="137">
         <f t="shared" si="204"/>
         <v>0</v>
       </c>
-      <c r="AA82" s="136"/>
-      <c r="AB82" s="136">
+      <c r="AA82" s="137"/>
+      <c r="AB82" s="137">
         <f t="shared" si="205"/>
         <v>14.25</v>
       </c>
-      <c r="AC82" s="137"/>
-      <c r="AD82" s="142">
+      <c r="AC82" s="138"/>
+      <c r="AD82" s="136">
         <f t="shared" ref="AD82:AD87" si="209">SUM(T82+AD81)</f>
         <v>14</v>
       </c>
-      <c r="AE82" s="142"/>
-      <c r="AF82" s="142">
+      <c r="AE82" s="136"/>
+      <c r="AF82" s="136">
         <f t="shared" si="206"/>
         <v>8</v>
       </c>
-      <c r="AG82" s="142"/>
-      <c r="AH82" s="142">
+      <c r="AG82" s="136"/>
+      <c r="AH82" s="136">
         <f t="shared" si="207"/>
         <v>10</v>
       </c>
-      <c r="AI82" s="142"/>
-      <c r="AJ82" s="142">
+      <c r="AI82" s="136"/>
+      <c r="AJ82" s="136">
         <f t="shared" si="208"/>
         <v>0.5</v>
       </c>
-      <c r="AK82" s="142"/>
-      <c r="AL82" s="142">
+      <c r="AK82" s="136"/>
+      <c r="AL82" s="136">
         <f>SUM(AB82+AL81)</f>
         <v>32.5</v>
       </c>
-      <c r="AM82" s="142"/>
+      <c r="AM82" s="136"/>
     </row>
     <row r="83" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="str">
@@ -21704,98 +21766,98 @@
       </c>
       <c r="C83" s="120">
         <f>SUM(($AL$75/2)+$AU$75+$BD$75+$BM$75+$BV$75+($CE$75/2))</f>
-        <v>123</v>
-      </c>
-      <c r="D83" s="135">
+        <v>154</v>
+      </c>
+      <c r="D83" s="142">
         <f>SUM((AE74/2)+AN74+AW74+BF74+BO74+(BX74/2))</f>
         <v>42.125</v>
       </c>
-      <c r="E83" s="136"/>
-      <c r="F83" s="136">
+      <c r="E83" s="137"/>
+      <c r="F83" s="137">
         <f>SUM((AF74/2)+AO74+AX74+BG74+BP74+(BY74/2))</f>
-        <v>28.5</v>
-      </c>
-      <c r="G83" s="137"/>
-      <c r="H83" s="135">
+        <v>30.75</v>
+      </c>
+      <c r="G83" s="138"/>
+      <c r="H83" s="142">
         <f>SUM((AG74/2)+AP74+AY74+BH74+BQ74+(BZ74/2))</f>
         <v>47.125</v>
       </c>
-      <c r="I83" s="136"/>
-      <c r="J83" s="136">
+      <c r="I83" s="137"/>
+      <c r="J83" s="137">
         <f>SUM((AH74/2)+AQ74+AZ74+BI74+BR74+(CA74/2))</f>
-        <v>28.5</v>
-      </c>
-      <c r="K83" s="137"/>
-      <c r="L83" s="135">
+        <v>33.5</v>
+      </c>
+      <c r="K83" s="138"/>
+      <c r="L83" s="142">
         <f>SUM((AI74/2)+AR74+BA74+BJ74+BS74+(CB74/2))</f>
         <v>95.125</v>
       </c>
-      <c r="M83" s="136"/>
-      <c r="N83" s="136">
+      <c r="M83" s="137"/>
+      <c r="N83" s="137">
         <f>SUM((AJ74/2)+AS74+BB74+BK74+BT74+(CC74/2))</f>
-        <v>41</v>
-      </c>
-      <c r="O83" s="137"/>
-      <c r="P83" s="135">
+        <v>53.75</v>
+      </c>
+      <c r="O83" s="138"/>
+      <c r="P83" s="142">
         <f>SUM((AK74/2)+AT74+BC74+BL74+BU74+(CD74/2))</f>
         <v>65.125</v>
       </c>
-      <c r="Q83" s="136"/>
-      <c r="R83" s="136">
+      <c r="Q83" s="137"/>
+      <c r="R83" s="137">
         <f>SUM((AL74/2)+AU74+BD74+BM74+BV74+(CE74/2))</f>
-        <v>25</v>
-      </c>
-      <c r="S83" s="137"/>
-      <c r="T83" s="135">
+        <v>36</v>
+      </c>
+      <c r="S83" s="138"/>
+      <c r="T83" s="142">
         <f t="shared" ref="T83:T87" si="210">SUM(F83-D83)</f>
+        <v>-11.375</v>
+      </c>
+      <c r="U83" s="137"/>
+      <c r="V83" s="137">
+        <f t="shared" ref="V83:V88" si="211">SUM(J83-H83)</f>
         <v>-13.625</v>
       </c>
-      <c r="U83" s="136"/>
-      <c r="V83" s="136">
-        <f t="shared" ref="V83:V88" si="211">SUM(J83-H83)</f>
-        <v>-18.625</v>
-      </c>
-      <c r="W83" s="136"/>
-      <c r="X83" s="136">
+      <c r="W83" s="137"/>
+      <c r="X83" s="137">
         <f t="shared" ref="X83:X88" si="212">SUM(N83-L83)</f>
-        <v>-54.125</v>
-      </c>
-      <c r="Y83" s="136"/>
-      <c r="Z83" s="136">
+        <v>-41.375</v>
+      </c>
+      <c r="Y83" s="137"/>
+      <c r="Z83" s="137">
         <f t="shared" si="204"/>
-        <v>40.125</v>
-      </c>
-      <c r="AA83" s="136"/>
-      <c r="AB83" s="136">
+        <v>29.125</v>
+      </c>
+      <c r="AA83" s="137"/>
+      <c r="AB83" s="137">
         <f t="shared" si="205"/>
-        <v>-46.25</v>
-      </c>
-      <c r="AC83" s="137"/>
-      <c r="AD83" s="142">
+        <v>-37.25</v>
+      </c>
+      <c r="AC83" s="138"/>
+      <c r="AD83" s="136">
         <f t="shared" si="209"/>
-        <v>0.375</v>
-      </c>
-      <c r="AE83" s="142"/>
-      <c r="AF83" s="142">
+        <v>2.625</v>
+      </c>
+      <c r="AE83" s="136"/>
+      <c r="AF83" s="136">
         <f t="shared" si="206"/>
-        <v>-10.625</v>
-      </c>
-      <c r="AG83" s="142"/>
-      <c r="AH83" s="142">
+        <v>-5.625</v>
+      </c>
+      <c r="AG83" s="136"/>
+      <c r="AH83" s="136">
         <f t="shared" si="207"/>
-        <v>-44.125</v>
-      </c>
-      <c r="AI83" s="142"/>
-      <c r="AJ83" s="142">
+        <v>-31.375</v>
+      </c>
+      <c r="AI83" s="136"/>
+      <c r="AJ83" s="136">
         <f t="shared" si="208"/>
-        <v>40.625</v>
-      </c>
-      <c r="AK83" s="142"/>
-      <c r="AL83" s="142">
+        <v>29.625</v>
+      </c>
+      <c r="AK83" s="136"/>
+      <c r="AL83" s="136">
         <f t="shared" ref="AL83:AL88" si="213">SUM(AB83+AL82)</f>
-        <v>-13.75</v>
-      </c>
-      <c r="AM83" s="142"/>
+        <v>-4.75</v>
+      </c>
+      <c r="AM83" s="136"/>
     </row>
     <row r="84" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="str">
@@ -21808,98 +21870,98 @@
       </c>
       <c r="C84" s="120">
         <f>SUM(($CE$75/2)+$CN$75+($CW$75/2))</f>
-        <v>0</v>
-      </c>
-      <c r="D84" s="135">
+        <v>64.5</v>
+      </c>
+      <c r="D84" s="142">
         <f>SUM((BX74/2)+CG74+(CP74/2))</f>
         <v>16.125</v>
       </c>
-      <c r="E84" s="136"/>
-      <c r="F84" s="136">
+      <c r="E84" s="137"/>
+      <c r="F84" s="137">
         <f>SUM((BY74/2)+CH74+(CQ74/2))</f>
-        <v>0</v>
-      </c>
-      <c r="G84" s="137"/>
-      <c r="H84" s="135">
+        <v>18.75</v>
+      </c>
+      <c r="G84" s="138"/>
+      <c r="H84" s="142">
         <f>SUM((BZ74/2)+CI74+(CR74/2))</f>
         <v>16.125</v>
       </c>
-      <c r="I84" s="136"/>
-      <c r="J84" s="136">
+      <c r="I84" s="137"/>
+      <c r="J84" s="137">
         <f>SUM((CA74/2)+CJ74+(CS74/2))</f>
-        <v>0</v>
-      </c>
-      <c r="K84" s="137"/>
-      <c r="L84" s="135">
+        <v>21</v>
+      </c>
+      <c r="K84" s="138"/>
+      <c r="L84" s="142">
         <f>SUM((CB74/2)+CK74+(CT74/2))</f>
         <v>16.125</v>
       </c>
-      <c r="M84" s="136"/>
-      <c r="N84" s="136">
+      <c r="M84" s="137"/>
+      <c r="N84" s="137">
         <f>SUM((CC74/2)+CL74+(CU74/2))</f>
-        <v>0</v>
-      </c>
-      <c r="O84" s="137"/>
-      <c r="P84" s="135">
+        <v>16.75</v>
+      </c>
+      <c r="O84" s="138"/>
+      <c r="P84" s="142">
         <f>SUM((CD74/2)+CM74+(CV74/2))</f>
         <v>16.125</v>
       </c>
-      <c r="Q84" s="136"/>
-      <c r="R84" s="136">
+      <c r="Q84" s="137"/>
+      <c r="R84" s="137">
         <f>SUM((CE74/2)+CN74+(CW74/2))</f>
-        <v>0</v>
-      </c>
-      <c r="S84" s="137"/>
-      <c r="T84" s="135">
+        <v>8</v>
+      </c>
+      <c r="S84" s="138"/>
+      <c r="T84" s="142">
         <f>SUM(F84-D84)</f>
-        <v>-16.125</v>
-      </c>
-      <c r="U84" s="136"/>
-      <c r="V84" s="136">
+        <v>2.625</v>
+      </c>
+      <c r="U84" s="137"/>
+      <c r="V84" s="137">
         <f>SUM(J84-H84)</f>
-        <v>-16.125</v>
-      </c>
-      <c r="W84" s="136"/>
-      <c r="X84" s="136">
+        <v>4.875</v>
+      </c>
+      <c r="W84" s="137"/>
+      <c r="X84" s="137">
         <f>SUM(N84-L84)</f>
-        <v>-16.125</v>
-      </c>
-      <c r="Y84" s="136"/>
-      <c r="Z84" s="136">
+        <v>0.625</v>
+      </c>
+      <c r="Y84" s="137"/>
+      <c r="Z84" s="137">
         <f t="shared" si="204"/>
-        <v>16.125</v>
-      </c>
-      <c r="AA84" s="136"/>
-      <c r="AB84" s="136">
+        <v>8.125</v>
+      </c>
+      <c r="AA84" s="137"/>
+      <c r="AB84" s="137">
         <f>SUM(V84+T84+X84+Z84)</f>
-        <v>-32.25</v>
-      </c>
-      <c r="AC84" s="137"/>
-      <c r="AD84" s="142">
+        <v>16.25</v>
+      </c>
+      <c r="AC84" s="138"/>
+      <c r="AD84" s="136">
         <f t="shared" si="209"/>
-        <v>-15.75</v>
-      </c>
-      <c r="AE84" s="142"/>
-      <c r="AF84" s="142">
+        <v>5.25</v>
+      </c>
+      <c r="AE84" s="136"/>
+      <c r="AF84" s="136">
         <f t="shared" si="206"/>
-        <v>-26.75</v>
-      </c>
-      <c r="AG84" s="142"/>
-      <c r="AH84" s="142">
+        <v>-0.75</v>
+      </c>
+      <c r="AG84" s="136"/>
+      <c r="AH84" s="136">
         <f t="shared" si="207"/>
-        <v>-60.25</v>
-      </c>
-      <c r="AI84" s="142"/>
-      <c r="AJ84" s="142">
+        <v>-30.75</v>
+      </c>
+      <c r="AI84" s="136"/>
+      <c r="AJ84" s="136">
         <f t="shared" si="208"/>
-        <v>56.75</v>
-      </c>
-      <c r="AK84" s="142"/>
-      <c r="AL84" s="142">
+        <v>37.75</v>
+      </c>
+      <c r="AK84" s="136"/>
+      <c r="AL84" s="136">
         <f t="shared" si="213"/>
-        <v>-46</v>
-      </c>
-      <c r="AM84" s="142"/>
+        <v>11.5</v>
+      </c>
+      <c r="AM84" s="136"/>
     </row>
     <row r="85" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="str">
@@ -21914,96 +21976,96 @@
         <f>SUM(($CW$75/2)+$DF$75+$DO$75+($DX$75/2))</f>
         <v>0</v>
       </c>
-      <c r="D85" s="135">
+      <c r="D85" s="142">
         <f>SUM((CP74/2)+CY74+DH74+(DQ74/2))</f>
         <v>22.25</v>
       </c>
-      <c r="E85" s="136"/>
-      <c r="F85" s="136">
+      <c r="E85" s="137"/>
+      <c r="F85" s="137">
         <f>SUM((CQ74/2)+CZ74+DI74+(DR74/2))</f>
         <v>0</v>
       </c>
-      <c r="G85" s="137"/>
-      <c r="H85" s="135">
+      <c r="G85" s="138"/>
+      <c r="H85" s="142">
         <f>SUM((CR74/2)+DA74+DJ74+(DS74/2))</f>
         <v>22.25</v>
       </c>
-      <c r="I85" s="136"/>
-      <c r="J85" s="136">
+      <c r="I85" s="137"/>
+      <c r="J85" s="137">
         <f>SUM((CS74/2)+DB74+DK74+(DT74/2))</f>
         <v>0</v>
       </c>
-      <c r="K85" s="137"/>
-      <c r="L85" s="135">
+      <c r="K85" s="138"/>
+      <c r="L85" s="142">
         <f>SUM((CT74/2)+DC74+DL74+(DU74/2))</f>
         <v>22.25</v>
       </c>
-      <c r="M85" s="136"/>
-      <c r="N85" s="136">
+      <c r="M85" s="137"/>
+      <c r="N85" s="137">
         <f>SUM((CU74/2)+DD74+DM74+(DV74/2))</f>
         <v>0</v>
       </c>
-      <c r="O85" s="137"/>
-      <c r="P85" s="135">
+      <c r="O85" s="138"/>
+      <c r="P85" s="142">
         <f>SUM((CV74/2)+DE74+DN74+(DW74/2))</f>
         <v>22.25</v>
       </c>
-      <c r="Q85" s="136"/>
-      <c r="R85" s="136">
+      <c r="Q85" s="137"/>
+      <c r="R85" s="137">
         <f>SUM((CW74/2)+DF74+DO74+(DX74/2))</f>
         <v>0</v>
       </c>
-      <c r="S85" s="137"/>
-      <c r="T85" s="135">
+      <c r="S85" s="138"/>
+      <c r="T85" s="142">
         <f t="shared" si="210"/>
         <v>-22.25</v>
       </c>
-      <c r="U85" s="136"/>
-      <c r="V85" s="136">
+      <c r="U85" s="137"/>
+      <c r="V85" s="137">
         <f t="shared" si="211"/>
         <v>-22.25</v>
       </c>
-      <c r="W85" s="136"/>
-      <c r="X85" s="136">
+      <c r="W85" s="137"/>
+      <c r="X85" s="137">
         <f t="shared" si="212"/>
         <v>-22.25</v>
       </c>
-      <c r="Y85" s="136"/>
-      <c r="Z85" s="136">
+      <c r="Y85" s="137"/>
+      <c r="Z85" s="137">
         <f t="shared" si="204"/>
         <v>22.25</v>
       </c>
-      <c r="AA85" s="136"/>
-      <c r="AB85" s="136">
+      <c r="AA85" s="137"/>
+      <c r="AB85" s="137">
         <f>SUM(V85+T85+X85+Z85)</f>
         <v>-44.5</v>
       </c>
-      <c r="AC85" s="137"/>
-      <c r="AD85" s="142">
+      <c r="AC85" s="138"/>
+      <c r="AD85" s="136">
         <f t="shared" si="209"/>
-        <v>-38</v>
-      </c>
-      <c r="AE85" s="142"/>
-      <c r="AF85" s="142">
+        <v>-17</v>
+      </c>
+      <c r="AE85" s="136"/>
+      <c r="AF85" s="136">
         <f t="shared" si="206"/>
-        <v>-49</v>
-      </c>
-      <c r="AG85" s="142"/>
-      <c r="AH85" s="142">
+        <v>-23</v>
+      </c>
+      <c r="AG85" s="136"/>
+      <c r="AH85" s="136">
         <f t="shared" si="207"/>
-        <v>-82.5</v>
-      </c>
-      <c r="AI85" s="142"/>
-      <c r="AJ85" s="142">
+        <v>-53</v>
+      </c>
+      <c r="AI85" s="136"/>
+      <c r="AJ85" s="136">
         <f t="shared" si="208"/>
-        <v>79</v>
-      </c>
-      <c r="AK85" s="142"/>
-      <c r="AL85" s="142">
+        <v>60</v>
+      </c>
+      <c r="AK85" s="136"/>
+      <c r="AL85" s="136">
         <f t="shared" si="213"/>
-        <v>-90.5</v>
-      </c>
-      <c r="AM85" s="142"/>
+        <v>-33</v>
+      </c>
+      <c r="AM85" s="136"/>
     </row>
     <row r="86" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="str">
@@ -22018,96 +22080,96 @@
         <f>SUM(($DX$75/2)+($EG$75/2))</f>
         <v>0</v>
       </c>
-      <c r="D86" s="135">
+      <c r="D86" s="142">
         <f>SUM((DQ74/2)+(DZ74/2))</f>
         <v>2.125</v>
       </c>
-      <c r="E86" s="136"/>
-      <c r="F86" s="136">
+      <c r="E86" s="137"/>
+      <c r="F86" s="137">
         <f>SUM((DR74/2)+(EA74/2))</f>
         <v>0</v>
       </c>
-      <c r="G86" s="137"/>
-      <c r="H86" s="135">
+      <c r="G86" s="138"/>
+      <c r="H86" s="142">
         <f>SUM((DS74/2)+(EB74/2))</f>
         <v>2.125</v>
       </c>
-      <c r="I86" s="136"/>
-      <c r="J86" s="136">
+      <c r="I86" s="137"/>
+      <c r="J86" s="137">
         <f>SUM((DT74/2)+(EC74/2))</f>
         <v>0</v>
       </c>
-      <c r="K86" s="137"/>
-      <c r="L86" s="135">
+      <c r="K86" s="138"/>
+      <c r="L86" s="142">
         <f>SUM((DU74/2)+(ED74/2))</f>
         <v>2.125</v>
       </c>
-      <c r="M86" s="136"/>
-      <c r="N86" s="136">
+      <c r="M86" s="137"/>
+      <c r="N86" s="137">
         <f>SUM((DV74/2)+(EE74/2))</f>
         <v>0</v>
       </c>
-      <c r="O86" s="137"/>
-      <c r="P86" s="135">
+      <c r="O86" s="138"/>
+      <c r="P86" s="142">
         <f>SUM((DW74/2)+(EF74/2))</f>
         <v>2.125</v>
       </c>
-      <c r="Q86" s="136"/>
-      <c r="R86" s="136">
+      <c r="Q86" s="137"/>
+      <c r="R86" s="137">
         <f>SUM((DX74/2)+(EG74/2))</f>
         <v>0</v>
       </c>
-      <c r="S86" s="137"/>
-      <c r="T86" s="135">
+      <c r="S86" s="138"/>
+      <c r="T86" s="142">
         <f t="shared" si="210"/>
         <v>-2.125</v>
       </c>
-      <c r="U86" s="136"/>
-      <c r="V86" s="136">
+      <c r="U86" s="137"/>
+      <c r="V86" s="137">
         <f t="shared" si="211"/>
         <v>-2.125</v>
       </c>
-      <c r="W86" s="136"/>
-      <c r="X86" s="136">
+      <c r="W86" s="137"/>
+      <c r="X86" s="137">
         <f t="shared" si="212"/>
         <v>-2.125</v>
       </c>
-      <c r="Y86" s="136"/>
-      <c r="Z86" s="136">
+      <c r="Y86" s="137"/>
+      <c r="Z86" s="137">
         <f t="shared" si="204"/>
         <v>2.125</v>
       </c>
-      <c r="AA86" s="136"/>
-      <c r="AB86" s="136">
+      <c r="AA86" s="137"/>
+      <c r="AB86" s="137">
         <f t="shared" si="205"/>
         <v>-4.25</v>
       </c>
-      <c r="AC86" s="137"/>
-      <c r="AD86" s="142">
+      <c r="AC86" s="138"/>
+      <c r="AD86" s="136">
         <f>SUM(T86+AD85)</f>
-        <v>-40.125</v>
-      </c>
-      <c r="AE86" s="142"/>
-      <c r="AF86" s="142">
+        <v>-19.125</v>
+      </c>
+      <c r="AE86" s="136"/>
+      <c r="AF86" s="136">
         <f t="shared" si="206"/>
-        <v>-51.125</v>
-      </c>
-      <c r="AG86" s="142"/>
-      <c r="AH86" s="142">
+        <v>-25.125</v>
+      </c>
+      <c r="AG86" s="136"/>
+      <c r="AH86" s="136">
         <f t="shared" si="207"/>
-        <v>-84.625</v>
-      </c>
-      <c r="AI86" s="142"/>
-      <c r="AJ86" s="142">
+        <v>-55.125</v>
+      </c>
+      <c r="AI86" s="136"/>
+      <c r="AJ86" s="136">
         <f t="shared" si="208"/>
-        <v>81.125</v>
-      </c>
-      <c r="AK86" s="142"/>
-      <c r="AL86" s="142">
+        <v>62.125</v>
+      </c>
+      <c r="AK86" s="136"/>
+      <c r="AL86" s="136">
         <f t="shared" si="213"/>
-        <v>-94.75</v>
-      </c>
-      <c r="AM86" s="142"/>
+        <v>-37.25</v>
+      </c>
+      <c r="AM86" s="136"/>
     </row>
     <row r="87" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
@@ -22121,96 +22183,96 @@
         <f>SUM(($EG$75/2)+$EP$75+$EY$75+$FH$75)</f>
         <v>0</v>
       </c>
-      <c r="D87" s="135">
+      <c r="D87" s="142">
         <f>SUM((DZ74/2)+EI74+ER74+FA74)</f>
         <v>7.875</v>
       </c>
-      <c r="E87" s="136"/>
-      <c r="F87" s="136">
+      <c r="E87" s="137"/>
+      <c r="F87" s="137">
         <f>SUM((EA74/2)+EJ74+ES74+FB74)</f>
         <v>0</v>
       </c>
-      <c r="G87" s="137"/>
-      <c r="H87" s="135">
+      <c r="G87" s="138"/>
+      <c r="H87" s="142">
         <f>SUM((EB74/2)+EK74+ET74+FC74)</f>
         <v>7.875</v>
       </c>
-      <c r="I87" s="136"/>
-      <c r="J87" s="136">
+      <c r="I87" s="137"/>
+      <c r="J87" s="137">
         <f>SUM((EC74/2)+EL74+EU74+FD74)</f>
         <v>0</v>
       </c>
-      <c r="K87" s="137"/>
-      <c r="L87" s="135">
+      <c r="K87" s="138"/>
+      <c r="L87" s="142">
         <f>SUM((ED74/2)+EM74+EV74+FE74)</f>
         <v>7.875</v>
       </c>
-      <c r="M87" s="136"/>
-      <c r="N87" s="136">
+      <c r="M87" s="137"/>
+      <c r="N87" s="137">
         <f>SUM((EE74/2)+EN74+EW74+FF74)</f>
         <v>0</v>
       </c>
-      <c r="O87" s="137"/>
-      <c r="P87" s="135">
+      <c r="O87" s="138"/>
+      <c r="P87" s="142">
         <f>SUM((EF74/2)+EO74+EX74+FG74)</f>
         <v>7.875</v>
       </c>
-      <c r="Q87" s="136"/>
-      <c r="R87" s="136">
+      <c r="Q87" s="137"/>
+      <c r="R87" s="137">
         <f>SUM((EG74/2)+EP74+EY74+FH74)</f>
         <v>0</v>
       </c>
-      <c r="S87" s="137"/>
-      <c r="T87" s="135">
+      <c r="S87" s="138"/>
+      <c r="T87" s="142">
         <f t="shared" si="210"/>
         <v>-7.875</v>
       </c>
-      <c r="U87" s="136"/>
-      <c r="V87" s="136">
+      <c r="U87" s="137"/>
+      <c r="V87" s="137">
         <f t="shared" si="211"/>
         <v>-7.875</v>
       </c>
-      <c r="W87" s="136"/>
-      <c r="X87" s="136">
+      <c r="W87" s="137"/>
+      <c r="X87" s="137">
         <f t="shared" si="212"/>
         <v>-7.875</v>
       </c>
-      <c r="Y87" s="136"/>
-      <c r="Z87" s="136">
+      <c r="Y87" s="137"/>
+      <c r="Z87" s="137">
         <f t="shared" si="204"/>
         <v>7.875</v>
       </c>
-      <c r="AA87" s="136"/>
-      <c r="AB87" s="136">
+      <c r="AA87" s="137"/>
+      <c r="AB87" s="137">
         <f>SUM(V87+T87+X87+Z87)</f>
         <v>-15.75</v>
       </c>
-      <c r="AC87" s="137"/>
-      <c r="AD87" s="142">
+      <c r="AC87" s="138"/>
+      <c r="AD87" s="136">
         <f t="shared" si="209"/>
-        <v>-48</v>
-      </c>
-      <c r="AE87" s="142"/>
-      <c r="AF87" s="142">
+        <v>-27</v>
+      </c>
+      <c r="AE87" s="136"/>
+      <c r="AF87" s="136">
         <f t="shared" si="206"/>
-        <v>-59</v>
-      </c>
-      <c r="AG87" s="142"/>
-      <c r="AH87" s="142">
+        <v>-33</v>
+      </c>
+      <c r="AG87" s="136"/>
+      <c r="AH87" s="136">
         <f t="shared" si="207"/>
-        <v>-92.5</v>
-      </c>
-      <c r="AI87" s="142"/>
-      <c r="AJ87" s="142">
+        <v>-63</v>
+      </c>
+      <c r="AI87" s="136"/>
+      <c r="AJ87" s="136">
         <f t="shared" si="208"/>
-        <v>89</v>
-      </c>
-      <c r="AK87" s="142"/>
-      <c r="AL87" s="142">
+        <v>70</v>
+      </c>
+      <c r="AK87" s="136"/>
+      <c r="AL87" s="136">
         <f t="shared" si="213"/>
-        <v>-110.5</v>
-      </c>
-      <c r="AM87" s="142"/>
+        <v>-53</v>
+      </c>
+      <c r="AM87" s="136"/>
     </row>
     <row r="88" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
@@ -22222,98 +22284,98 @@
       </c>
       <c r="C88" s="120">
         <f>SUM($C$80:$C$87)</f>
-        <v>213.5</v>
-      </c>
-      <c r="D88" s="135">
+        <v>309</v>
+      </c>
+      <c r="D88" s="142">
         <f>SUM(D80:E87)</f>
         <v>106</v>
       </c>
-      <c r="E88" s="136"/>
-      <c r="F88" s="136">
+      <c r="E88" s="137"/>
+      <c r="F88" s="137">
         <f>SUM(F80:G87)</f>
-        <v>58</v>
-      </c>
-      <c r="G88" s="137"/>
-      <c r="H88" s="135">
+        <v>79</v>
+      </c>
+      <c r="G88" s="138"/>
+      <c r="H88" s="142">
         <f>SUM(H80:I87)</f>
         <v>115</v>
       </c>
-      <c r="I88" s="136"/>
-      <c r="J88" s="136">
+      <c r="I88" s="137"/>
+      <c r="J88" s="137">
         <f>SUM(J80:K87)</f>
-        <v>56</v>
-      </c>
-      <c r="K88" s="137"/>
-      <c r="L88" s="135">
+        <v>82</v>
+      </c>
+      <c r="K88" s="138"/>
+      <c r="L88" s="142">
         <f>SUM(L80:M87)</f>
         <v>156</v>
       </c>
-      <c r="M88" s="136"/>
-      <c r="N88" s="136">
+      <c r="M88" s="137"/>
+      <c r="N88" s="137">
         <f>SUM(N80:O87)</f>
-        <v>63.5</v>
-      </c>
-      <c r="O88" s="137"/>
-      <c r="P88" s="135">
+        <v>93</v>
+      </c>
+      <c r="O88" s="138"/>
+      <c r="P88" s="142">
         <f>SUM(P80:Q87)</f>
         <v>125</v>
       </c>
-      <c r="Q88" s="136"/>
-      <c r="R88" s="136">
+      <c r="Q88" s="137"/>
+      <c r="R88" s="137">
         <f>SUM(R80:S87)</f>
-        <v>36</v>
-      </c>
-      <c r="S88" s="137"/>
-      <c r="T88" s="135">
+        <v>55</v>
+      </c>
+      <c r="S88" s="138"/>
+      <c r="T88" s="142">
         <f>SUM(F88-D88)</f>
-        <v>-48</v>
-      </c>
-      <c r="U88" s="136"/>
-      <c r="V88" s="136">
+        <v>-27</v>
+      </c>
+      <c r="U88" s="137"/>
+      <c r="V88" s="137">
         <f t="shared" si="211"/>
-        <v>-59</v>
-      </c>
-      <c r="W88" s="136"/>
-      <c r="X88" s="136">
+        <v>-33</v>
+      </c>
+      <c r="W88" s="137"/>
+      <c r="X88" s="137">
         <f t="shared" si="212"/>
-        <v>-92.5</v>
-      </c>
-      <c r="Y88" s="136"/>
-      <c r="Z88" s="136">
+        <v>-63</v>
+      </c>
+      <c r="Y88" s="137"/>
+      <c r="Z88" s="137">
         <f t="shared" si="204"/>
-        <v>89</v>
-      </c>
-      <c r="AA88" s="136"/>
-      <c r="AB88" s="136">
+        <v>70</v>
+      </c>
+      <c r="AA88" s="137"/>
+      <c r="AB88" s="137">
         <f t="shared" si="205"/>
-        <v>-110.5</v>
-      </c>
-      <c r="AC88" s="137"/>
-      <c r="AD88" s="142">
+        <v>-53</v>
+      </c>
+      <c r="AC88" s="138"/>
+      <c r="AD88" s="136">
         <f>SUM(T88+AD87)</f>
-        <v>-96</v>
-      </c>
-      <c r="AE88" s="142"/>
-      <c r="AF88" s="142">
+        <v>-54</v>
+      </c>
+      <c r="AE88" s="136"/>
+      <c r="AF88" s="136">
         <f t="shared" si="206"/>
-        <v>-118</v>
-      </c>
-      <c r="AG88" s="142"/>
-      <c r="AH88" s="142">
+        <v>-66</v>
+      </c>
+      <c r="AG88" s="136"/>
+      <c r="AH88" s="136">
         <f t="shared" si="207"/>
-        <v>-185</v>
-      </c>
-      <c r="AI88" s="142"/>
-      <c r="AJ88" s="142">
+        <v>-126</v>
+      </c>
+      <c r="AI88" s="136"/>
+      <c r="AJ88" s="136">
         <f t="shared" si="208"/>
-        <v>178</v>
-      </c>
-      <c r="AK88" s="142"/>
-      <c r="AL88" s="142">
+        <v>140</v>
+      </c>
+      <c r="AK88" s="136"/>
+      <c r="AL88" s="136">
         <f t="shared" si="213"/>
-        <v>-221</v>
-      </c>
-      <c r="AM88" s="142"/>
+        <v>-106</v>
+      </c>
+      <c r="AM88" s="136"/>
     </row>
     <row r="89" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
@@ -22420,14 +22482,14 @@
         <v>46</v>
       </c>
       <c r="V91" s="139"/>
-      <c r="W91" s="143" t="s">
+      <c r="W91" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="X91" s="143"/>
-      <c r="Y91" s="143"/>
-      <c r="Z91" s="143"/>
-      <c r="AA91" s="143"/>
-      <c r="AB91" s="143"/>
+      <c r="X91" s="163"/>
+      <c r="Y91" s="163"/>
+      <c r="Z91" s="163"/>
+      <c r="AA91" s="163"/>
+      <c r="AB91" s="163"/>
       <c r="AC91" s="139" t="s">
         <v>112</v>
       </c>
@@ -22443,15 +22505,15 @@
     </row>
     <row r="92" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="128"/>
-      <c r="B92" s="143" t="s">
+      <c r="B92" s="163" t="s">
         <v>113</v>
       </c>
-      <c r="C92" s="143"/>
-      <c r="D92" s="142">
+      <c r="C92" s="163"/>
+      <c r="D92" s="136">
         <f>SUM(B11,B16,B23,B29,B32,B44,B48,B57,B65,B70)</f>
         <v>895</v>
       </c>
-      <c r="E92" s="142"/>
+      <c r="E92" s="136"/>
       <c r="F92" s="71"/>
       <c r="G92" s="71"/>
       <c r="H92" s="16"/>
@@ -22459,10 +22521,10 @@
       <c r="J92" s="16"/>
       <c r="K92" s="16"/>
       <c r="L92" s="16"/>
-      <c r="M92" s="144" t="s">
+      <c r="M92" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="N92" s="144"/>
+      <c r="N92" s="167"/>
       <c r="O92" s="124"/>
       <c r="P92" s="124"/>
       <c r="Q92" s="141" t="str">
@@ -22472,24 +22534,24 @@
       <c r="R92" s="141"/>
       <c r="S92" s="141"/>
       <c r="T92" s="141"/>
-      <c r="U92" s="140">
+      <c r="U92" s="134">
         <f>SUM(D74+M74+V74+AE74+AN74+AW74+BF74+BO74+BX74+CG74+CP74+CY74+DH74+DQ74+DZ74+EI74+ER74+FA74)</f>
         <v>106</v>
       </c>
-      <c r="V92" s="140"/>
-      <c r="W92" s="140">
+      <c r="V92" s="134"/>
+      <c r="W92" s="134">
         <f>SUM(E74+N74+W74+AF74+AO74+AX74+BG74+BP74+BY74+CH74+CQ74+CZ74+DI74+DR74+EA74+EJ74+ES74+FB74)</f>
-        <v>58</v>
-      </c>
-      <c r="X92" s="140"/>
-      <c r="Y92" s="140"/>
-      <c r="Z92" s="140"/>
-      <c r="AA92" s="140"/>
-      <c r="AB92" s="140"/>
-      <c r="AC92" s="134">
+        <v>79</v>
+      </c>
+      <c r="X92" s="134"/>
+      <c r="Y92" s="134"/>
+      <c r="Z92" s="134"/>
+      <c r="AA92" s="134"/>
+      <c r="AB92" s="134"/>
+      <c r="AC92" s="135">
         <v>150</v>
       </c>
-      <c r="AD92" s="134"/>
+      <c r="AD92" s="135"/>
       <c r="AE92" s="128"/>
       <c r="AF92" s="128"/>
       <c r="AG92" s="128"/>
@@ -22522,24 +22584,24 @@
       <c r="R93" s="141"/>
       <c r="S93" s="141"/>
       <c r="T93" s="141"/>
-      <c r="U93" s="140">
+      <c r="U93" s="134">
         <f>SUM(F74+O74+X74+AG74+AP74+AY74+BH74+BQ74+BZ74+CI74+CR74+DA74+DJ74+DS74+EB74+EK74+ET74+FC74)</f>
         <v>115</v>
       </c>
-      <c r="V93" s="140"/>
-      <c r="W93" s="140">
+      <c r="V93" s="134"/>
+      <c r="W93" s="134">
         <f>SUM(G74+P74+Y74+AH74+AQ74+AZ74+BI74+BR74+CA74+CJ74+CS74+DB74+DK74+DT74+EC74+EL74+EU74+FD74)</f>
-        <v>56</v>
-      </c>
-      <c r="X93" s="140"/>
-      <c r="Y93" s="140"/>
-      <c r="Z93" s="140"/>
-      <c r="AA93" s="140"/>
-      <c r="AB93" s="140"/>
-      <c r="AC93" s="134">
+        <v>82</v>
+      </c>
+      <c r="X93" s="134"/>
+      <c r="Y93" s="134"/>
+      <c r="Z93" s="134"/>
+      <c r="AA93" s="134"/>
+      <c r="AB93" s="134"/>
+      <c r="AC93" s="135">
         <v>150</v>
       </c>
-      <c r="AD93" s="134"/>
+      <c r="AD93" s="135"/>
       <c r="AE93" s="128"/>
       <c r="AF93" s="128"/>
       <c r="AG93" s="128"/>
@@ -22550,15 +22612,15 @@
     </row>
     <row r="94" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A94" s="128"/>
-      <c r="B94" s="143" t="s">
+      <c r="B94" s="163" t="s">
         <v>114</v>
       </c>
-      <c r="C94" s="143"/>
-      <c r="D94" s="142">
+      <c r="C94" s="163"/>
+      <c r="D94" s="136">
         <f>SUM(C11,C16,C23,C29,C32,C44,C48,C57,C65,C70)</f>
-        <v>212</v>
-      </c>
-      <c r="E94" s="142"/>
+        <v>307.5</v>
+      </c>
+      <c r="E94" s="136"/>
       <c r="F94" s="71"/>
       <c r="G94" s="71"/>
       <c r="H94" s="16"/>
@@ -22566,10 +22628,10 @@
       <c r="J94" s="16"/>
       <c r="K94" s="16"/>
       <c r="L94" s="16"/>
-      <c r="M94" s="144" t="s">
+      <c r="M94" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="N94" s="144"/>
+      <c r="N94" s="167"/>
       <c r="O94" s="124"/>
       <c r="P94" s="124"/>
       <c r="Q94" s="141" t="str">
@@ -22579,24 +22641,24 @@
       <c r="R94" s="141"/>
       <c r="S94" s="141"/>
       <c r="T94" s="141"/>
-      <c r="U94" s="140">
+      <c r="U94" s="134">
         <f>SUM(H74+Q74+Z74+AI74+AR74+BA74+BJ74+BS74+CB74+CK74+CT74+DC74+DL74+DU74+ED74+EM74+EV74+FE74)</f>
         <v>156</v>
       </c>
-      <c r="V94" s="140"/>
-      <c r="W94" s="140">
+      <c r="V94" s="134"/>
+      <c r="W94" s="134">
         <f>SUM(I74+R74+AA74+AJ74+AS74+BB74+BK74+BT74+CC74+CL74+CU74+DD74+DM74+DV74+EE74+EN74+EW74+FF74)</f>
-        <v>63.5</v>
-      </c>
-      <c r="X94" s="140"/>
-      <c r="Y94" s="140"/>
-      <c r="Z94" s="140"/>
-      <c r="AA94" s="140"/>
-      <c r="AB94" s="140"/>
-      <c r="AC94" s="134">
+        <v>93</v>
+      </c>
+      <c r="X94" s="134"/>
+      <c r="Y94" s="134"/>
+      <c r="Z94" s="134"/>
+      <c r="AA94" s="134"/>
+      <c r="AB94" s="134"/>
+      <c r="AC94" s="135">
         <v>150</v>
       </c>
-      <c r="AD94" s="134"/>
+      <c r="AD94" s="135"/>
       <c r="AE94" s="128"/>
       <c r="AF94" s="128"/>
       <c r="AG94" s="128"/>
@@ -22629,24 +22691,24 @@
       <c r="R95" s="141"/>
       <c r="S95" s="141"/>
       <c r="T95" s="141"/>
-      <c r="U95" s="140">
+      <c r="U95" s="134">
         <f>SUM(J74+S74+AB74+AK74+AT74+BC74+BL74+BU74+CD74+CM74+CV74+DE74+DN74+DW74+EF74+EO74+EX74+FG74)</f>
         <v>125</v>
       </c>
-      <c r="V95" s="140"/>
-      <c r="W95" s="140">
+      <c r="V95" s="134"/>
+      <c r="W95" s="134">
         <f>SUM(K74+T74+AC74+AL74+AU74+BD74+BM74+BV74+CE74+CN74+CW74+DF74+DO74+DX74+EG74+EP74+EY74+FH74)</f>
-        <v>36</v>
-      </c>
-      <c r="X95" s="140"/>
-      <c r="Y95" s="140"/>
-      <c r="Z95" s="140"/>
-      <c r="AA95" s="140"/>
-      <c r="AB95" s="140"/>
-      <c r="AC95" s="134">
+        <v>55</v>
+      </c>
+      <c r="X95" s="134"/>
+      <c r="Y95" s="134"/>
+      <c r="Z95" s="134"/>
+      <c r="AA95" s="134"/>
+      <c r="AB95" s="134"/>
+      <c r="AC95" s="135">
         <v>150</v>
       </c>
-      <c r="AD95" s="134"/>
+      <c r="AD95" s="135"/>
       <c r="AE95" s="128"/>
       <c r="AF95" s="128"/>
       <c r="AG95" s="128"/>
@@ -22682,27 +22744,321 @@
       <c r="J105" s="128"/>
       <c r="K105" s="128"/>
       <c r="L105" s="128"/>
-      <c r="M105" s="138"/>
+      <c r="M105" s="168"/>
       <c r="N105" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="350">
-    <mergeCell ref="U93:V93"/>
-    <mergeCell ref="W93:AB93"/>
-    <mergeCell ref="AC93:AD93"/>
-    <mergeCell ref="AF86:AG86"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="Q94:T94"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="R86:S86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="R87:S87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="R88:S88"/>
+    <mergeCell ref="AC95:AD95"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="U94:V94"/>
+    <mergeCell ref="Q93:T93"/>
+    <mergeCell ref="AD87:AE87"/>
+    <mergeCell ref="AD88:AE88"/>
+    <mergeCell ref="AD86:AE86"/>
+    <mergeCell ref="T87:U87"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="AL85:AM85"/>
+    <mergeCell ref="Q95:T95"/>
+    <mergeCell ref="T85:U85"/>
+    <mergeCell ref="V85:W85"/>
+    <mergeCell ref="AB85:AC85"/>
+    <mergeCell ref="AC94:AD94"/>
+    <mergeCell ref="U91:V91"/>
+    <mergeCell ref="W91:AB91"/>
+    <mergeCell ref="W94:AB94"/>
+    <mergeCell ref="AC91:AD91"/>
+    <mergeCell ref="AC92:AD92"/>
+    <mergeCell ref="U92:V92"/>
+    <mergeCell ref="W92:AB92"/>
+    <mergeCell ref="Q92:T92"/>
+    <mergeCell ref="Z86:AA86"/>
+    <mergeCell ref="Z87:AA87"/>
+    <mergeCell ref="Z88:AA88"/>
+    <mergeCell ref="AB86:AC86"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="BC9:BD9"/>
+    <mergeCell ref="BU9:BV9"/>
+    <mergeCell ref="BO9:BP9"/>
+    <mergeCell ref="T86:U86"/>
+    <mergeCell ref="V79:W79"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="V86:W86"/>
+    <mergeCell ref="T84:U84"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="AH79:AK79"/>
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="AB79:AC79"/>
+    <mergeCell ref="T80:U80"/>
+    <mergeCell ref="T81:U81"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="V80:W80"/>
+    <mergeCell ref="AB80:AC80"/>
+    <mergeCell ref="V81:W81"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="Z79:AA79"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="BU8:BV8"/>
+    <mergeCell ref="BX8:BY8"/>
+    <mergeCell ref="AW8:AZ8"/>
+    <mergeCell ref="BC8:BD8"/>
+    <mergeCell ref="BF8:BG8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BO8:BP8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="AB84:AC84"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="X82:Y82"/>
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AD79:AE79"/>
+    <mergeCell ref="AL79:AM79"/>
+    <mergeCell ref="AD80:AE80"/>
+    <mergeCell ref="AL80:AM80"/>
+    <mergeCell ref="AD81:AE81"/>
+    <mergeCell ref="AB81:AC81"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="EI7:EP7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AN8:AO8"/>
+    <mergeCell ref="AT8:AU8"/>
+    <mergeCell ref="CD8:CE8"/>
+    <mergeCell ref="CG8:CH8"/>
+    <mergeCell ref="BO7:BV7"/>
+    <mergeCell ref="BX7:CE7"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="AE7:AL7"/>
+    <mergeCell ref="AN7:AU7"/>
+    <mergeCell ref="AW7:BD7"/>
+    <mergeCell ref="M7:T7"/>
+    <mergeCell ref="V7:AC7"/>
+    <mergeCell ref="DQ7:DX7"/>
+    <mergeCell ref="DZ7:EG7"/>
+    <mergeCell ref="DH7:DO7"/>
+    <mergeCell ref="DE8:DF8"/>
+    <mergeCell ref="EI5:FH5"/>
+    <mergeCell ref="DQ5:EH5"/>
+    <mergeCell ref="M5:AD5"/>
+    <mergeCell ref="AE5:AV5"/>
+    <mergeCell ref="AW5:BN5"/>
+    <mergeCell ref="BO5:CF5"/>
+    <mergeCell ref="CG5:CX5"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="CY5:DP5"/>
+    <mergeCell ref="DZ8:EA8"/>
+    <mergeCell ref="CG7:CN7"/>
+    <mergeCell ref="CP7:CW7"/>
+    <mergeCell ref="CY7:DF7"/>
+    <mergeCell ref="CM8:CN8"/>
+    <mergeCell ref="CP8:CQ8"/>
+    <mergeCell ref="CV8:CW8"/>
+    <mergeCell ref="CY8:CZ8"/>
+    <mergeCell ref="FA7:FH7"/>
+    <mergeCell ref="FG8:FH8"/>
+    <mergeCell ref="ER7:EY7"/>
+    <mergeCell ref="EI9:EJ9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="BX9:BY9"/>
+    <mergeCell ref="CD9:CE9"/>
+    <mergeCell ref="BF7:BM7"/>
+    <mergeCell ref="BF9:BG9"/>
+    <mergeCell ref="BL9:BM9"/>
+    <mergeCell ref="EF9:EG9"/>
+    <mergeCell ref="DN9:DO9"/>
+    <mergeCell ref="DH8:DI8"/>
+    <mergeCell ref="DN8:DO8"/>
+    <mergeCell ref="DQ8:DR8"/>
+    <mergeCell ref="DW8:DX8"/>
+    <mergeCell ref="FG9:FH9"/>
+    <mergeCell ref="EF8:EG8"/>
+    <mergeCell ref="EI8:EJ8"/>
+    <mergeCell ref="EO8:EP8"/>
+    <mergeCell ref="ER8:ES8"/>
+    <mergeCell ref="EO9:EP9"/>
+    <mergeCell ref="ER9:ES9"/>
+    <mergeCell ref="EX9:EY9"/>
+    <mergeCell ref="AW9:AX9"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="EX8:EY8"/>
+    <mergeCell ref="FA8:FB8"/>
+    <mergeCell ref="FE9:FF9"/>
+    <mergeCell ref="EV9:EW9"/>
+    <mergeCell ref="EM9:EN9"/>
+    <mergeCell ref="EK9:EL9"/>
+    <mergeCell ref="ET9:EU9"/>
+    <mergeCell ref="FC9:FD9"/>
+    <mergeCell ref="FA9:FB9"/>
+    <mergeCell ref="DQ9:DR9"/>
+    <mergeCell ref="DW9:DX9"/>
+    <mergeCell ref="CG9:CH9"/>
+    <mergeCell ref="BH9:BI9"/>
+    <mergeCell ref="BQ9:BR9"/>
+    <mergeCell ref="BZ9:CA9"/>
+    <mergeCell ref="CI9:CJ9"/>
+    <mergeCell ref="CR9:CS9"/>
+    <mergeCell ref="ED9:EE9"/>
+    <mergeCell ref="DU9:DV9"/>
+    <mergeCell ref="DL9:DM9"/>
+    <mergeCell ref="DC9:DD9"/>
+    <mergeCell ref="CT9:CU9"/>
+    <mergeCell ref="CK9:CL9"/>
+    <mergeCell ref="CB9:CC9"/>
+    <mergeCell ref="BS9:BT9"/>
+    <mergeCell ref="BJ9:BK9"/>
+    <mergeCell ref="DA9:DB9"/>
+    <mergeCell ref="DJ9:DK9"/>
+    <mergeCell ref="DS9:DT9"/>
+    <mergeCell ref="EB9:EC9"/>
+    <mergeCell ref="DZ9:EA9"/>
+    <mergeCell ref="CM9:CN9"/>
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CV9:CW9"/>
+    <mergeCell ref="CY9:CZ9"/>
+    <mergeCell ref="DE9:DF9"/>
+    <mergeCell ref="DH9:DI9"/>
+    <mergeCell ref="T78:AC78"/>
+    <mergeCell ref="AD78:AM78"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="Z80:AA80"/>
+    <mergeCell ref="Z81:AA81"/>
+    <mergeCell ref="Z82:AA82"/>
+    <mergeCell ref="Z83:AA83"/>
+    <mergeCell ref="Z84:AA84"/>
+    <mergeCell ref="Z85:AA85"/>
+    <mergeCell ref="AD84:AE84"/>
+    <mergeCell ref="AD85:AE85"/>
+    <mergeCell ref="AD83:AE83"/>
+    <mergeCell ref="AB83:AC83"/>
+    <mergeCell ref="AF79:AG79"/>
+    <mergeCell ref="AF80:AG80"/>
+    <mergeCell ref="AF81:AG81"/>
+    <mergeCell ref="AF82:AG82"/>
+    <mergeCell ref="AL87:AM87"/>
+    <mergeCell ref="AL88:AM88"/>
+    <mergeCell ref="AL86:AM86"/>
+    <mergeCell ref="AL84:AM84"/>
+    <mergeCell ref="AL81:AM81"/>
+    <mergeCell ref="AD82:AE82"/>
+    <mergeCell ref="AL82:AM82"/>
+    <mergeCell ref="AL83:AM83"/>
+    <mergeCell ref="AB82:AC82"/>
+    <mergeCell ref="AB87:AC87"/>
+    <mergeCell ref="AF88:AG88"/>
+    <mergeCell ref="AF87:AG87"/>
+    <mergeCell ref="AB88:AC88"/>
+    <mergeCell ref="AF83:AG83"/>
+    <mergeCell ref="AF84:AG84"/>
+    <mergeCell ref="AF85:AG85"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="P78:S78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="R85:S85"/>
     <mergeCell ref="U95:V95"/>
     <mergeCell ref="AJ80:AK80"/>
     <mergeCell ref="AJ82:AK82"/>
@@ -22727,316 +23083,22 @@
     <mergeCell ref="V87:W87"/>
     <mergeCell ref="V88:W88"/>
     <mergeCell ref="W95:AB95"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="P78:S78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="AL87:AM87"/>
-    <mergeCell ref="AL88:AM88"/>
-    <mergeCell ref="AL86:AM86"/>
-    <mergeCell ref="AL84:AM84"/>
-    <mergeCell ref="AL81:AM81"/>
-    <mergeCell ref="AD82:AE82"/>
-    <mergeCell ref="AL82:AM82"/>
-    <mergeCell ref="AL83:AM83"/>
-    <mergeCell ref="AB82:AC82"/>
-    <mergeCell ref="AB87:AC87"/>
-    <mergeCell ref="AF88:AG88"/>
-    <mergeCell ref="AF87:AG87"/>
-    <mergeCell ref="AB88:AC88"/>
-    <mergeCell ref="AF83:AG83"/>
-    <mergeCell ref="AF84:AG84"/>
-    <mergeCell ref="AF85:AG85"/>
-    <mergeCell ref="T78:AC78"/>
-    <mergeCell ref="AD78:AM78"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="Z80:AA80"/>
-    <mergeCell ref="Z81:AA81"/>
-    <mergeCell ref="Z82:AA82"/>
-    <mergeCell ref="Z83:AA83"/>
-    <mergeCell ref="Z84:AA84"/>
-    <mergeCell ref="Z85:AA85"/>
-    <mergeCell ref="AD84:AE84"/>
-    <mergeCell ref="AD85:AE85"/>
-    <mergeCell ref="AD83:AE83"/>
-    <mergeCell ref="AB83:AC83"/>
-    <mergeCell ref="AF79:AG79"/>
-    <mergeCell ref="AF80:AG80"/>
-    <mergeCell ref="AF81:AG81"/>
-    <mergeCell ref="AF82:AG82"/>
-    <mergeCell ref="CT9:CU9"/>
-    <mergeCell ref="CK9:CL9"/>
-    <mergeCell ref="CB9:CC9"/>
-    <mergeCell ref="BS9:BT9"/>
-    <mergeCell ref="BJ9:BK9"/>
-    <mergeCell ref="DA9:DB9"/>
-    <mergeCell ref="DJ9:DK9"/>
-    <mergeCell ref="DS9:DT9"/>
-    <mergeCell ref="EB9:EC9"/>
-    <mergeCell ref="DZ9:EA9"/>
-    <mergeCell ref="CM9:CN9"/>
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CV9:CW9"/>
-    <mergeCell ref="CY9:CZ9"/>
-    <mergeCell ref="DE9:DF9"/>
-    <mergeCell ref="DH9:DI9"/>
-    <mergeCell ref="AW9:AX9"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="EX8:EY8"/>
-    <mergeCell ref="FA8:FB8"/>
-    <mergeCell ref="FE9:FF9"/>
-    <mergeCell ref="EV9:EW9"/>
-    <mergeCell ref="EM9:EN9"/>
-    <mergeCell ref="EK9:EL9"/>
-    <mergeCell ref="ET9:EU9"/>
-    <mergeCell ref="FC9:FD9"/>
-    <mergeCell ref="FA9:FB9"/>
-    <mergeCell ref="DQ9:DR9"/>
-    <mergeCell ref="DW9:DX9"/>
-    <mergeCell ref="CG9:CH9"/>
-    <mergeCell ref="BH9:BI9"/>
-    <mergeCell ref="BQ9:BR9"/>
-    <mergeCell ref="BZ9:CA9"/>
-    <mergeCell ref="CI9:CJ9"/>
-    <mergeCell ref="CR9:CS9"/>
-    <mergeCell ref="ED9:EE9"/>
-    <mergeCell ref="DU9:DV9"/>
-    <mergeCell ref="DL9:DM9"/>
-    <mergeCell ref="DC9:DD9"/>
-    <mergeCell ref="FA7:FH7"/>
-    <mergeCell ref="FG8:FH8"/>
-    <mergeCell ref="ER7:EY7"/>
-    <mergeCell ref="EI9:EJ9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="BX9:BY9"/>
-    <mergeCell ref="CD9:CE9"/>
-    <mergeCell ref="BF7:BM7"/>
-    <mergeCell ref="BF9:BG9"/>
-    <mergeCell ref="BL9:BM9"/>
-    <mergeCell ref="EF9:EG9"/>
-    <mergeCell ref="DN9:DO9"/>
-    <mergeCell ref="DH8:DI8"/>
-    <mergeCell ref="DN8:DO8"/>
-    <mergeCell ref="DQ8:DR8"/>
-    <mergeCell ref="DW8:DX8"/>
-    <mergeCell ref="FG9:FH9"/>
-    <mergeCell ref="EF8:EG8"/>
-    <mergeCell ref="EI8:EJ8"/>
-    <mergeCell ref="EO8:EP8"/>
-    <mergeCell ref="ER8:ES8"/>
-    <mergeCell ref="EO9:EP9"/>
-    <mergeCell ref="ER9:ES9"/>
-    <mergeCell ref="EX9:EY9"/>
-    <mergeCell ref="DQ5:EH5"/>
-    <mergeCell ref="M5:AD5"/>
-    <mergeCell ref="AE5:AV5"/>
-    <mergeCell ref="AW5:BN5"/>
-    <mergeCell ref="BO5:CF5"/>
-    <mergeCell ref="CG5:CX5"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="CY5:DP5"/>
-    <mergeCell ref="DZ8:EA8"/>
-    <mergeCell ref="CG7:CN7"/>
-    <mergeCell ref="CP7:CW7"/>
-    <mergeCell ref="CY7:DF7"/>
-    <mergeCell ref="CM8:CN8"/>
-    <mergeCell ref="CP8:CQ8"/>
-    <mergeCell ref="CV8:CW8"/>
-    <mergeCell ref="CY8:CZ8"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="EI7:EP7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AN8:AO8"/>
-    <mergeCell ref="AT8:AU8"/>
-    <mergeCell ref="CD8:CE8"/>
-    <mergeCell ref="CG8:CH8"/>
-    <mergeCell ref="BO7:BV7"/>
-    <mergeCell ref="BX7:CE7"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="AE7:AL7"/>
-    <mergeCell ref="AN7:AU7"/>
-    <mergeCell ref="AW7:BD7"/>
-    <mergeCell ref="M7:T7"/>
-    <mergeCell ref="V7:AC7"/>
-    <mergeCell ref="DQ7:DX7"/>
-    <mergeCell ref="DZ7:EG7"/>
-    <mergeCell ref="DH7:DO7"/>
-    <mergeCell ref="DE8:DF8"/>
-    <mergeCell ref="EI5:FH5"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="AB84:AC84"/>
-    <mergeCell ref="X80:Y80"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="X82:Y82"/>
-    <mergeCell ref="X83:Y83"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AD79:AE79"/>
-    <mergeCell ref="AL79:AM79"/>
-    <mergeCell ref="AD80:AE80"/>
-    <mergeCell ref="AL80:AM80"/>
-    <mergeCell ref="AD81:AE81"/>
-    <mergeCell ref="AB81:AC81"/>
-    <mergeCell ref="T79:U79"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="BU8:BV8"/>
-    <mergeCell ref="BX8:BY8"/>
-    <mergeCell ref="AW8:AZ8"/>
-    <mergeCell ref="BC8:BD8"/>
-    <mergeCell ref="BF8:BG8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BO8:BP8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="BC9:BD9"/>
-    <mergeCell ref="BU9:BV9"/>
-    <mergeCell ref="BO9:BP9"/>
-    <mergeCell ref="T86:U86"/>
-    <mergeCell ref="V79:W79"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="V86:W86"/>
-    <mergeCell ref="T84:U84"/>
-    <mergeCell ref="V84:W84"/>
-    <mergeCell ref="AH79:AK79"/>
-    <mergeCell ref="X85:Y85"/>
-    <mergeCell ref="X86:Y86"/>
-    <mergeCell ref="AB79:AC79"/>
-    <mergeCell ref="T80:U80"/>
-    <mergeCell ref="T81:U81"/>
-    <mergeCell ref="T82:U82"/>
-    <mergeCell ref="T83:U83"/>
-    <mergeCell ref="V80:W80"/>
-    <mergeCell ref="AB80:AC80"/>
-    <mergeCell ref="V81:W81"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="Z79:AA79"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="AL85:AM85"/>
-    <mergeCell ref="Q95:T95"/>
-    <mergeCell ref="T85:U85"/>
-    <mergeCell ref="V85:W85"/>
-    <mergeCell ref="AB85:AC85"/>
-    <mergeCell ref="AC94:AD94"/>
-    <mergeCell ref="U91:V91"/>
-    <mergeCell ref="W91:AB91"/>
-    <mergeCell ref="W94:AB94"/>
-    <mergeCell ref="AC91:AD91"/>
-    <mergeCell ref="AC92:AD92"/>
-    <mergeCell ref="U92:V92"/>
-    <mergeCell ref="W92:AB92"/>
-    <mergeCell ref="Q92:T92"/>
-    <mergeCell ref="Z86:AA86"/>
-    <mergeCell ref="Z87:AA87"/>
-    <mergeCell ref="Z88:AA88"/>
-    <mergeCell ref="AB86:AC86"/>
-    <mergeCell ref="AC95:AD95"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="L87:M87"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="U94:V94"/>
-    <mergeCell ref="Q93:T93"/>
-    <mergeCell ref="AD87:AE87"/>
-    <mergeCell ref="AD88:AE88"/>
-    <mergeCell ref="AD86:AE86"/>
-    <mergeCell ref="T87:U87"/>
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="U93:V93"/>
+    <mergeCell ref="W93:AB93"/>
+    <mergeCell ref="AC93:AD93"/>
+    <mergeCell ref="AF86:AG86"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="Q94:T94"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="R88:S88"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -23149,60 +23211,60 @@
       <c r="B5" s="67"/>
       <c r="C5" s="67"/>
       <c r="D5" s="67"/>
-      <c r="E5" s="173" t="s">
+      <c r="E5" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="173"/>
-      <c r="G5" s="172" t="s">
+      <c r="F5" s="171"/>
+      <c r="G5" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="172"/>
-      <c r="I5" s="172"/>
-      <c r="J5" s="172"/>
-      <c r="K5" s="164" t="s">
+      <c r="H5" s="170"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="170"/>
+      <c r="K5" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="164"/>
-      <c r="M5" s="164"/>
-      <c r="N5" s="164"/>
-      <c r="O5" s="165" t="s">
+      <c r="L5" s="154"/>
+      <c r="M5" s="154"/>
+      <c r="N5" s="154"/>
+      <c r="O5" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="165"/>
-      <c r="Q5" s="165"/>
-      <c r="R5" s="165"/>
-      <c r="S5" s="166" t="s">
+      <c r="P5" s="155"/>
+      <c r="Q5" s="155"/>
+      <c r="R5" s="155"/>
+      <c r="S5" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="166"/>
-      <c r="U5" s="166"/>
-      <c r="V5" s="166"/>
-      <c r="W5" s="167" t="s">
+      <c r="T5" s="156"/>
+      <c r="U5" s="156"/>
+      <c r="V5" s="156"/>
+      <c r="W5" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="167"/>
-      <c r="Y5" s="167"/>
-      <c r="Z5" s="167"/>
-      <c r="AA5" s="168" t="s">
+      <c r="X5" s="157"/>
+      <c r="Y5" s="157"/>
+      <c r="Z5" s="157"/>
+      <c r="AA5" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="AB5" s="168"/>
-      <c r="AC5" s="168"/>
-      <c r="AD5" s="168"/>
-      <c r="AE5" s="162" t="s">
+      <c r="AB5" s="158"/>
+      <c r="AC5" s="158"/>
+      <c r="AD5" s="158"/>
+      <c r="AE5" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="162"/>
-      <c r="AG5" s="162"/>
-      <c r="AH5" s="162"/>
-      <c r="AI5" s="161" t="s">
+      <c r="AF5" s="152"/>
+      <c r="AG5" s="152"/>
+      <c r="AH5" s="152"/>
+      <c r="AI5" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="AJ5" s="161"/>
-      <c r="AK5" s="161"/>
-      <c r="AL5" s="161"/>
-      <c r="AM5" s="161"/>
-      <c r="AN5" s="161"/>
+      <c r="AJ5" s="162"/>
+      <c r="AK5" s="162"/>
+      <c r="AL5" s="162"/>
+      <c r="AM5" s="162"/>
+      <c r="AN5" s="162"/>
       <c r="AO5" s="68"/>
       <c r="AP5" s="68"/>
       <c r="AQ5" s="68"/>
@@ -23317,60 +23379,60 @@
         <v>Woche 7</v>
       </c>
       <c r="T7" s="139"/>
-      <c r="U7" s="170" t="str">
+      <c r="U7" s="173" t="str">
         <f>Detailplan!BX7</f>
         <v>Woche 8</v>
       </c>
-      <c r="V7" s="170"/>
-      <c r="W7" s="170" t="str">
+      <c r="V7" s="173"/>
+      <c r="W7" s="173" t="str">
         <f>Detailplan!CG7</f>
         <v>Woche 9</v>
       </c>
-      <c r="X7" s="170"/>
-      <c r="Y7" s="170" t="str">
+      <c r="X7" s="173"/>
+      <c r="Y7" s="173" t="str">
         <f>Detailplan!CP7</f>
         <v>Woche 10</v>
       </c>
-      <c r="Z7" s="170"/>
-      <c r="AA7" s="170" t="str">
+      <c r="Z7" s="173"/>
+      <c r="AA7" s="173" t="str">
         <f>Detailplan!CY7</f>
         <v>Woche 11</v>
       </c>
-      <c r="AB7" s="170"/>
-      <c r="AC7" s="170" t="str">
+      <c r="AB7" s="173"/>
+      <c r="AC7" s="173" t="str">
         <f>Detailplan!DH7</f>
         <v>Woche 12</v>
       </c>
-      <c r="AD7" s="170"/>
-      <c r="AE7" s="170" t="str">
+      <c r="AD7" s="173"/>
+      <c r="AE7" s="173" t="str">
         <f>Detailplan!DQ7</f>
         <v>Woche 13</v>
       </c>
-      <c r="AF7" s="170"/>
-      <c r="AG7" s="170" t="str">
+      <c r="AF7" s="173"/>
+      <c r="AG7" s="173" t="str">
         <f>Detailplan!DZ7</f>
         <v>Woche 14</v>
       </c>
-      <c r="AH7" s="170"/>
-      <c r="AI7" s="170" t="str">
+      <c r="AH7" s="173"/>
+      <c r="AI7" s="173" t="str">
         <f>Detailplan!EI7</f>
         <v>Woche 15</v>
       </c>
-      <c r="AJ7" s="170"/>
-      <c r="AK7" s="170" t="str">
+      <c r="AJ7" s="173"/>
+      <c r="AK7" s="173" t="str">
         <f>Detailplan!ER7</f>
         <v>Woche 16</v>
       </c>
-      <c r="AL7" s="170"/>
-      <c r="AM7" s="170" t="str">
+      <c r="AL7" s="173"/>
+      <c r="AM7" s="173" t="str">
         <f>Detailplan!FA7</f>
         <v>Woche 17</v>
       </c>
-      <c r="AN7" s="170"/>
+      <c r="AN7" s="173"/>
     </row>
     <row r="8" spans="1:93" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="143" t="s">
+      <c r="B8" s="163" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="139"/>
@@ -23539,7 +23601,7 @@
       <c r="B13" s="51"/>
       <c r="C13" s="51">
         <f>Detailplan!C11</f>
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D13" s="59"/>
       <c r="E13" s="169">
@@ -23584,12 +23646,12 @@
       <c r="T13" s="169"/>
       <c r="U13" s="169">
         <f>SUM(Detailplan!BY11,Detailplan!CC11,Detailplan!CE11,Detailplan!CA11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="169"/>
       <c r="W13" s="169">
         <f>SUM(Detailplan!CH11,Detailplan!CL11,Detailplan!CN11,Detailplan!CJ11)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="X13" s="169"/>
       <c r="Y13" s="169">
@@ -23781,7 +23843,7 @@
       <c r="B16" s="51"/>
       <c r="C16" s="51">
         <f>Detailplan!C16</f>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D16" s="59"/>
       <c r="E16" s="169">
@@ -23816,12 +23878,12 @@
       <c r="P16" s="169"/>
       <c r="Q16" s="169">
         <f>SUM(Detailplan!BG16,Detailplan!BK16,Detailplan!BM16,Detailplan!BI16)</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="R16" s="169"/>
       <c r="S16" s="169">
         <f>SUM(Detailplan!BP16,Detailplan!BT16,Detailplan!BV16,Detailplan!BR16)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T16" s="169"/>
       <c r="U16" s="169">
@@ -24023,7 +24085,7 @@
       <c r="B19" s="51"/>
       <c r="C19" s="51">
         <f>Detailplan!C23</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D19" s="59"/>
       <c r="E19" s="169">
@@ -24063,17 +24125,17 @@
       <c r="R19" s="169"/>
       <c r="S19" s="169">
         <f>SUM(Detailplan!BP23,Detailplan!BT23,Detailplan!BV23,Detailplan!BR23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="169"/>
       <c r="U19" s="169">
         <f>SUM(Detailplan!BY23,Detailplan!CC23,Detailplan!CE23,Detailplan!CA23)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V19" s="169"/>
       <c r="W19" s="169">
         <f>SUM(Detailplan!CH23,Detailplan!CL23,Detailplan!CN23,Detailplan!CJ23)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X19" s="169"/>
       <c r="Y19" s="169">
@@ -24507,7 +24569,7 @@
       <c r="B25" s="51"/>
       <c r="C25" s="51">
         <f>Detailplan!C32</f>
-        <v>55.5</v>
+        <v>103.5</v>
       </c>
       <c r="D25" s="59"/>
       <c r="E25" s="169">
@@ -24547,17 +24609,17 @@
       <c r="R25" s="169"/>
       <c r="S25" s="169">
         <f>SUM(Detailplan!BP32,Detailplan!BT32,Detailplan!BV32,Detailplan!BR32)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T25" s="169"/>
       <c r="U25" s="169">
         <f>SUM(Detailplan!BY32,Detailplan!CC32,Detailplan!CE32,Detailplan!CA32)</f>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="V25" s="169"/>
       <c r="W25" s="169">
         <f>SUM(Detailplan!CH32,Detailplan!CL32,Detailplan!CN32,Detailplan!CJ32)</f>
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="X25" s="169"/>
       <c r="Y25" s="169">
@@ -24993,7 +25055,7 @@
       <c r="B31" s="57"/>
       <c r="C31" s="57">
         <f>Detailplan!C35</f>
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D31" s="59"/>
       <c r="E31" s="169">
@@ -25033,17 +25095,17 @@
       <c r="R31" s="169"/>
       <c r="S31" s="169">
         <f>SUM(Detailplan!BP35,Detailplan!BT35,Detailplan!BV35,Detailplan!BR35)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T31" s="169"/>
       <c r="U31" s="169">
         <f>SUM(Detailplan!BY35,Detailplan!CC35,Detailplan!CE35,Detailplan!CA35)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V31" s="169"/>
       <c r="W31" s="169">
         <f>SUM(Detailplan!CH35,Detailplan!CL35,Detailplan!CN35,Detailplan!CJ35)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X31" s="169"/>
       <c r="Y31" s="169">
@@ -25236,7 +25298,7 @@
       <c r="B34" s="57"/>
       <c r="C34" s="57">
         <f>Detailplan!C36</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="59"/>
       <c r="E34" s="169">
@@ -25276,7 +25338,7 @@
       <c r="R34" s="169"/>
       <c r="S34" s="169">
         <f>SUM(Detailplan!BP36,Detailplan!BT36,Detailplan!BV36,Detailplan!BR36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" s="169"/>
       <c r="U34" s="169">
@@ -25722,7 +25784,7 @@
       <c r="B40" s="57"/>
       <c r="C40" s="57">
         <f>Detailplan!C38</f>
-        <v>17</v>
+        <v>22.5</v>
       </c>
       <c r="D40" s="59"/>
       <c r="E40" s="169">
@@ -25767,12 +25829,12 @@
       <c r="T40" s="169"/>
       <c r="U40" s="169">
         <f>SUM(Detailplan!BY38,Detailplan!CC38,Detailplan!CE38,Detailplan!CA38)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40" s="169"/>
       <c r="W40" s="169">
         <f>SUM(Detailplan!CH38,Detailplan!CL38,Detailplan!CN38,Detailplan!CJ38)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="X40" s="169"/>
       <c r="Y40" s="169">
@@ -26208,7 +26270,7 @@
       <c r="B46" s="57"/>
       <c r="C46" s="57">
         <f>Detailplan!C40</f>
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="D46" s="59"/>
       <c r="E46" s="169">
@@ -26253,12 +26315,12 @@
       <c r="T46" s="169"/>
       <c r="U46" s="169">
         <f>SUM(Detailplan!BY40,Detailplan!CC40,Detailplan!CE40,Detailplan!CA40)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="V46" s="169"/>
       <c r="W46" s="169">
         <f>SUM(Detailplan!CH40,Detailplan!CL40,Detailplan!CN40,Detailplan!CJ40)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X46" s="169"/>
       <c r="Y46" s="169">
@@ -27261,7 +27323,7 @@
       <c r="B60" s="51"/>
       <c r="C60" s="51">
         <f>Detailplan!C57</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D60" s="59"/>
       <c r="E60" s="169">
@@ -27311,7 +27373,7 @@
       <c r="V60" s="169"/>
       <c r="W60" s="169">
         <f>SUM(Detailplan!CH57,Detailplan!CL57,Detailplan!CN57,Detailplan!CJ57)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X60" s="169"/>
       <c r="Y60" s="169">
@@ -27503,7 +27565,7 @@
       <c r="B63" s="51"/>
       <c r="C63" s="51">
         <f>Detailplan!C65</f>
-        <v>32.5</v>
+        <v>40</v>
       </c>
       <c r="D63" s="59"/>
       <c r="E63" s="169">
@@ -27543,17 +27605,17 @@
       <c r="R63" s="169"/>
       <c r="S63" s="169">
         <f>SUM(Detailplan!BP65,Detailplan!BT65,Detailplan!BV65,Detailplan!BR65)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T63" s="169"/>
       <c r="U63" s="169">
         <f>SUM(Detailplan!BY65,Detailplan!CC65,Detailplan!CE65,Detailplan!CA65)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V63" s="169"/>
       <c r="W63" s="169">
         <f>SUM(Detailplan!CH65,Detailplan!CL65,Detailplan!CN65,Detailplan!CJ65)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X63" s="169"/>
       <c r="Y63" s="169">
@@ -27947,7 +28009,7 @@
       </c>
       <c r="C74" s="56">
         <f>SUM(C13+C16+C19+C22+C25+C52+C55+C60+C63+C66)</f>
-        <v>212</v>
+        <v>307.5</v>
       </c>
       <c r="D74" s="18"/>
       <c r="E74" s="19"/>
@@ -28034,12 +28096,12 @@
     <row r="80" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B80" s="5"/>
       <c r="C80" s="123"/>
-      <c r="D80" s="171" t="s">
+      <c r="D80" s="172" t="s">
         <v>118</v>
       </c>
-      <c r="E80" s="171"/>
-      <c r="F80" s="171"/>
-      <c r="G80" s="171"/>
+      <c r="E80" s="172"/>
+      <c r="F80" s="172"/>
+      <c r="G80" s="172"/>
       <c r="H80" s="18">
         <v>1E-3</v>
       </c>
@@ -28054,12 +28116,12 @@
     <row r="81" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B81" s="28"/>
       <c r="C81" s="123"/>
-      <c r="D81" s="171" t="s">
+      <c r="D81" s="172" t="s">
         <v>119</v>
       </c>
-      <c r="E81" s="171"/>
-      <c r="F81" s="171"/>
-      <c r="G81" s="171"/>
+      <c r="E81" s="172"/>
+      <c r="F81" s="172"/>
+      <c r="G81" s="172"/>
       <c r="H81" s="18">
         <v>8</v>
       </c>
@@ -28074,12 +28136,12 @@
     <row r="82" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B82" s="49"/>
       <c r="C82" s="123"/>
-      <c r="D82" s="171" t="s">
+      <c r="D82" s="172" t="s">
         <v>120</v>
       </c>
-      <c r="E82" s="171"/>
-      <c r="F82" s="171"/>
-      <c r="G82" s="171"/>
+      <c r="E82" s="172"/>
+      <c r="F82" s="172"/>
+      <c r="G82" s="172"/>
       <c r="H82" s="18">
         <v>16.001000000000001</v>
       </c>
@@ -28137,12 +28199,12 @@
     <row r="86" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B86" s="52"/>
       <c r="C86" s="123"/>
-      <c r="D86" s="171" t="s">
+      <c r="D86" s="172" t="s">
         <v>118</v>
       </c>
-      <c r="E86" s="171"/>
-      <c r="F86" s="171"/>
-      <c r="G86" s="171"/>
+      <c r="E86" s="172"/>
+      <c r="F86" s="172"/>
+      <c r="G86" s="172"/>
       <c r="H86" s="18">
         <v>1E-3</v>
       </c>
@@ -28157,12 +28219,12 @@
     <row r="87" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B87" s="53"/>
       <c r="C87" s="123"/>
-      <c r="D87" s="171" t="s">
+      <c r="D87" s="172" t="s">
         <v>119</v>
       </c>
-      <c r="E87" s="171"/>
-      <c r="F87" s="171"/>
-      <c r="G87" s="171"/>
+      <c r="E87" s="172"/>
+      <c r="F87" s="172"/>
+      <c r="G87" s="172"/>
       <c r="H87" s="18">
         <v>8</v>
       </c>
@@ -28177,12 +28239,12 @@
     <row r="88" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B88" s="54"/>
       <c r="C88" s="123"/>
-      <c r="D88" s="171" t="s">
+      <c r="D88" s="172" t="s">
         <v>120</v>
       </c>
-      <c r="E88" s="171"/>
-      <c r="F88" s="171"/>
-      <c r="G88" s="171"/>
+      <c r="E88" s="172"/>
+      <c r="F88" s="172"/>
+      <c r="G88" s="172"/>
       <c r="H88" s="18">
         <v>16.001000000000001</v>
       </c>
@@ -28196,6 +28258,682 @@
     </row>
   </sheetData>
   <mergeCells count="700">
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="AA5:AD5"/>
+    <mergeCell ref="AE5:AH5"/>
+    <mergeCell ref="AI5:AN5"/>
+    <mergeCell ref="AK66:AL66"/>
+    <mergeCell ref="AM54:AN54"/>
+    <mergeCell ref="AM55:AN55"/>
+    <mergeCell ref="AM57:AN57"/>
+    <mergeCell ref="AM59:AN59"/>
+    <mergeCell ref="AM60:AN60"/>
+    <mergeCell ref="AM62:AN62"/>
+    <mergeCell ref="AM63:AN63"/>
+    <mergeCell ref="AM65:AN65"/>
+    <mergeCell ref="AM66:AN66"/>
+    <mergeCell ref="AK60:AL60"/>
+    <mergeCell ref="AK62:AL62"/>
+    <mergeCell ref="AK63:AL63"/>
+    <mergeCell ref="AK65:AL65"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="AK55:AL55"/>
+    <mergeCell ref="AK57:AL57"/>
+    <mergeCell ref="AK59:AL59"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="AM51:AN51"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="AM52:AN52"/>
+    <mergeCell ref="AE65:AF65"/>
+    <mergeCell ref="AG65:AH65"/>
+    <mergeCell ref="AI65:AJ65"/>
+    <mergeCell ref="AE59:AF59"/>
+    <mergeCell ref="AG59:AH59"/>
+    <mergeCell ref="AI59:AJ59"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AC63:AD63"/>
+    <mergeCell ref="AE63:AF63"/>
+    <mergeCell ref="AG63:AH63"/>
+    <mergeCell ref="AI63:AJ63"/>
+    <mergeCell ref="W62:X62"/>
+    <mergeCell ref="Y62:Z62"/>
+    <mergeCell ref="AA62:AB62"/>
+    <mergeCell ref="AC62:AD62"/>
+    <mergeCell ref="AI66:AJ66"/>
+    <mergeCell ref="W65:X65"/>
+    <mergeCell ref="Y65:Z65"/>
+    <mergeCell ref="AA65:AB65"/>
+    <mergeCell ref="AC65:AD65"/>
+    <mergeCell ref="AE62:AF62"/>
+    <mergeCell ref="AG62:AH62"/>
+    <mergeCell ref="AI62:AJ62"/>
+    <mergeCell ref="W63:X63"/>
+    <mergeCell ref="Y63:Z63"/>
+    <mergeCell ref="W66:X66"/>
+    <mergeCell ref="Y66:Z66"/>
+    <mergeCell ref="AA66:AB66"/>
+    <mergeCell ref="AC66:AD66"/>
+    <mergeCell ref="AE66:AF66"/>
+    <mergeCell ref="AG66:AH66"/>
+    <mergeCell ref="AA60:AB60"/>
+    <mergeCell ref="AC60:AD60"/>
+    <mergeCell ref="AE60:AF60"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AC54:AD54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="W54:X54"/>
+    <mergeCell ref="Y54:Z54"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="Y59:Z59"/>
+    <mergeCell ref="AA59:AB59"/>
+    <mergeCell ref="AC59:AD59"/>
+    <mergeCell ref="AE55:AF55"/>
+    <mergeCell ref="AG55:AH55"/>
+    <mergeCell ref="W57:X57"/>
+    <mergeCell ref="Y57:Z57"/>
+    <mergeCell ref="AC52:AD52"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AA57:AB57"/>
+    <mergeCell ref="AC57:AD57"/>
+    <mergeCell ref="AE57:AF57"/>
+    <mergeCell ref="AG57:AH57"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AA55:AB55"/>
+    <mergeCell ref="AC55:AD55"/>
+    <mergeCell ref="AA52:AB52"/>
+    <mergeCell ref="AA54:AB54"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="U66:V66"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="Y52:Z52"/>
+    <mergeCell ref="W55:X55"/>
+    <mergeCell ref="Y55:Z55"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="S62:T62"/>
+    <mergeCell ref="U62:V62"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="U60:V60"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="W60:X60"/>
+    <mergeCell ref="Y60:Z60"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="AA63:AB63"/>
+    <mergeCell ref="S65:T65"/>
+    <mergeCell ref="U65:V65"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="S63:T63"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="U63:V63"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="U59:V59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="U55:V55"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="U54:V54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="U57:V57"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="U52:V52"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="AC51:AD51"/>
+    <mergeCell ref="AE51:AF51"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AE40:AF40"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="AE39:AF39"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="Y51:Z51"/>
+    <mergeCell ref="AA51:AB51"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AM30:AN30"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AM31:AN31"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="AK37:AL37"/>
+    <mergeCell ref="AM37:AN37"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
+    <mergeCell ref="AM43:AN43"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AI39:AJ39"/>
+    <mergeCell ref="AK39:AL39"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AM28:AN28"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="AA48:AB48"/>
+    <mergeCell ref="AC48:AD48"/>
+    <mergeCell ref="AM39:AN39"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="AI40:AJ40"/>
+    <mergeCell ref="AK40:AL40"/>
+    <mergeCell ref="AM40:AN40"/>
+    <mergeCell ref="AI48:AJ48"/>
+    <mergeCell ref="AK48:AL48"/>
+    <mergeCell ref="AM48:AN48"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="AK45:AL45"/>
+    <mergeCell ref="AM45:AN45"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="AM46:AN46"/>
+    <mergeCell ref="AA45:AB45"/>
+    <mergeCell ref="AC45:AD45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="Y45:Z45"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="AC42:AD42"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="Y46:Z46"/>
+    <mergeCell ref="AA46:AB46"/>
+    <mergeCell ref="AC46:AD46"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="AC40:AD40"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="AA39:AB39"/>
+    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AC36:AD36"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AA37:AB37"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AM25:AN25"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AM24:AN24"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AM27:AN27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AM22:AN22"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AM21:AN21"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AM16:AN16"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AM15:AN15"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM19:AN19"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AM18:AN18"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AM13:AN13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="D81:G81"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="AM49:AN49"/>
+    <mergeCell ref="AK49:AL49"/>
+    <mergeCell ref="AI49:AJ49"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="AA49:AB49"/>
+    <mergeCell ref="AC49:AD49"/>
+    <mergeCell ref="AE49:AF49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="AC43:AD43"/>
+    <mergeCell ref="AA43:AB43"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="Q34:R34"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="G25:H25"/>
@@ -28220,682 +28958,6 @@
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="O30:P30"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="AC43:AD43"/>
-    <mergeCell ref="AA43:AB43"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="AM49:AN49"/>
-    <mergeCell ref="AK49:AL49"/>
-    <mergeCell ref="AI49:AJ49"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="U49:V49"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="Y49:Z49"/>
-    <mergeCell ref="AA49:AB49"/>
-    <mergeCell ref="AC49:AD49"/>
-    <mergeCell ref="AE49:AF49"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="D81:G81"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AM13:AN13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AM16:AN16"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AM15:AN15"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AM19:AN19"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AM18:AN18"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AM22:AN22"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AM21:AN21"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AM25:AN25"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AM24:AN24"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AM27:AN27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="AA39:AB39"/>
-    <mergeCell ref="AC39:AD39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AC36:AD36"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AA37:AB37"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="Y40:Z40"/>
-    <mergeCell ref="AA40:AB40"/>
-    <mergeCell ref="AC40:AD40"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="Y45:Z45"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="AC42:AD42"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="Y46:Z46"/>
-    <mergeCell ref="AA46:AB46"/>
-    <mergeCell ref="AC46:AD46"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="W48:X48"/>
-    <mergeCell ref="Y48:Z48"/>
-    <mergeCell ref="AA48:AB48"/>
-    <mergeCell ref="AC48:AD48"/>
-    <mergeCell ref="AM39:AN39"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="AI40:AJ40"/>
-    <mergeCell ref="AK40:AL40"/>
-    <mergeCell ref="AM40:AN40"/>
-    <mergeCell ref="AI48:AJ48"/>
-    <mergeCell ref="AK48:AL48"/>
-    <mergeCell ref="AM48:AN48"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="AK45:AL45"/>
-    <mergeCell ref="AM45:AN45"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="AM46:AN46"/>
-    <mergeCell ref="AA45:AB45"/>
-    <mergeCell ref="AC45:AD45"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AM28:AN28"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AN36"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="Y51:Z51"/>
-    <mergeCell ref="AA51:AB51"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AM30:AN30"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AM31:AN31"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="AK37:AL37"/>
-    <mergeCell ref="AM37:AN37"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AL43"/>
-    <mergeCell ref="AM43:AN43"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AI39:AJ39"/>
-    <mergeCell ref="AK39:AL39"/>
-    <mergeCell ref="AC51:AD51"/>
-    <mergeCell ref="AE51:AF51"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="AE48:AF48"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AE40:AF40"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="AE37:AF37"/>
-    <mergeCell ref="AE39:AF39"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="U52:V52"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="U55:V55"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="U54:V54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="U57:V57"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="S59:T59"/>
-    <mergeCell ref="U59:V59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="AA63:AB63"/>
-    <mergeCell ref="S65:T65"/>
-    <mergeCell ref="U65:V65"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="S63:T63"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="U63:V63"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="S66:T66"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="U66:V66"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="Y52:Z52"/>
-    <mergeCell ref="W55:X55"/>
-    <mergeCell ref="Y55:Z55"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="S62:T62"/>
-    <mergeCell ref="U62:V62"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="U60:V60"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="W60:X60"/>
-    <mergeCell ref="Y60:Z60"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="AC52:AD52"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AA57:AB57"/>
-    <mergeCell ref="AC57:AD57"/>
-    <mergeCell ref="AE57:AF57"/>
-    <mergeCell ref="AG57:AH57"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AA55:AB55"/>
-    <mergeCell ref="AC55:AD55"/>
-    <mergeCell ref="AA52:AB52"/>
-    <mergeCell ref="AA54:AB54"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AA60:AB60"/>
-    <mergeCell ref="AC60:AD60"/>
-    <mergeCell ref="AE60:AF60"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AC54:AD54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="W54:X54"/>
-    <mergeCell ref="Y54:Z54"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="Y59:Z59"/>
-    <mergeCell ref="AA59:AB59"/>
-    <mergeCell ref="AC59:AD59"/>
-    <mergeCell ref="AE55:AF55"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="W57:X57"/>
-    <mergeCell ref="Y57:Z57"/>
-    <mergeCell ref="AC63:AD63"/>
-    <mergeCell ref="AE63:AF63"/>
-    <mergeCell ref="AG63:AH63"/>
-    <mergeCell ref="AI63:AJ63"/>
-    <mergeCell ref="W62:X62"/>
-    <mergeCell ref="Y62:Z62"/>
-    <mergeCell ref="AA62:AB62"/>
-    <mergeCell ref="AC62:AD62"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="W65:X65"/>
-    <mergeCell ref="Y65:Z65"/>
-    <mergeCell ref="AA65:AB65"/>
-    <mergeCell ref="AC65:AD65"/>
-    <mergeCell ref="AE62:AF62"/>
-    <mergeCell ref="AG62:AH62"/>
-    <mergeCell ref="AI62:AJ62"/>
-    <mergeCell ref="W63:X63"/>
-    <mergeCell ref="Y63:Z63"/>
-    <mergeCell ref="W66:X66"/>
-    <mergeCell ref="Y66:Z66"/>
-    <mergeCell ref="AA66:AB66"/>
-    <mergeCell ref="AC66:AD66"/>
-    <mergeCell ref="AE66:AF66"/>
-    <mergeCell ref="AG66:AH66"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="AM51:AN51"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="AM52:AN52"/>
-    <mergeCell ref="AE65:AF65"/>
-    <mergeCell ref="AG65:AH65"/>
-    <mergeCell ref="AI65:AJ65"/>
-    <mergeCell ref="AE59:AF59"/>
-    <mergeCell ref="AG59:AH59"/>
-    <mergeCell ref="AI59:AJ59"/>
-    <mergeCell ref="AI60:AJ60"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="AA5:AD5"/>
-    <mergeCell ref="AE5:AH5"/>
-    <mergeCell ref="AI5:AN5"/>
-    <mergeCell ref="AK66:AL66"/>
-    <mergeCell ref="AM54:AN54"/>
-    <mergeCell ref="AM55:AN55"/>
-    <mergeCell ref="AM57:AN57"/>
-    <mergeCell ref="AM59:AN59"/>
-    <mergeCell ref="AM60:AN60"/>
-    <mergeCell ref="AM62:AN62"/>
-    <mergeCell ref="AM63:AN63"/>
-    <mergeCell ref="AM65:AN65"/>
-    <mergeCell ref="AM66:AN66"/>
-    <mergeCell ref="AK60:AL60"/>
-    <mergeCell ref="AK62:AL62"/>
-    <mergeCell ref="AK63:AL63"/>
-    <mergeCell ref="AK65:AL65"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="AK55:AL55"/>
-    <mergeCell ref="AK57:AL57"/>
-    <mergeCell ref="AK59:AL59"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="E55868:L55894 E55863:AN55866">

--- a/Zeiterfassungen und Projektplan/Projektplan_Typo.xlsx
+++ b/Zeiterfassungen und Projektplan/Projektplan_Typo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lennart\Google Drive\studium\SOSE 17\SWP\MS4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lennart\Google Drive\studium\SOSE 17\SWP\Repository\Zeiterfassungen und Projektplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1142,10 +1142,13 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1154,37 +1157,25 @@
     <xf numFmtId="2" fontId="1" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1193,17 +1184,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1213,13 +1194,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1243,19 +1217,45 @@
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2629,10 +2629,10 @@
   <dimension ref="A1:FH105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="10" topLeftCell="BZ62" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="10" topLeftCell="BZ38" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="CH86" sqref="CH86"/>
+      <selection pane="bottomRight" activeCell="CE2" sqref="CE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -2945,185 +2945,185 @@
       </c>
       <c r="B5" s="128"/>
       <c r="C5" s="128"/>
-      <c r="D5" s="155" t="s">
+      <c r="D5" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="155"/>
-      <c r="K5" s="155"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="159"/>
       <c r="L5" s="118"/>
-      <c r="M5" s="163" t="s">
+      <c r="M5" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="163"/>
-      <c r="O5" s="163"/>
-      <c r="P5" s="163"/>
-      <c r="Q5" s="163"/>
-      <c r="R5" s="163"/>
-      <c r="S5" s="163"/>
-      <c r="T5" s="163"/>
-      <c r="U5" s="163"/>
-      <c r="V5" s="163"/>
-      <c r="W5" s="163"/>
-      <c r="X5" s="163"/>
-      <c r="Y5" s="163"/>
-      <c r="Z5" s="163"/>
-      <c r="AA5" s="163"/>
-      <c r="AB5" s="163"/>
-      <c r="AC5" s="163"/>
-      <c r="AD5" s="163"/>
-      <c r="AE5" s="164" t="s">
+      <c r="N5" s="153"/>
+      <c r="O5" s="153"/>
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="153"/>
+      <c r="Y5" s="153"/>
+      <c r="Z5" s="153"/>
+      <c r="AA5" s="153"/>
+      <c r="AB5" s="153"/>
+      <c r="AC5" s="153"/>
+      <c r="AD5" s="153"/>
+      <c r="AE5" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="AF5" s="164"/>
-      <c r="AG5" s="164"/>
-      <c r="AH5" s="164"/>
-      <c r="AI5" s="164"/>
-      <c r="AJ5" s="164"/>
-      <c r="AK5" s="164"/>
-      <c r="AL5" s="164"/>
-      <c r="AM5" s="164"/>
-      <c r="AN5" s="164"/>
-      <c r="AO5" s="164"/>
-      <c r="AP5" s="164"/>
-      <c r="AQ5" s="164"/>
-      <c r="AR5" s="164"/>
-      <c r="AS5" s="164"/>
-      <c r="AT5" s="164"/>
-      <c r="AU5" s="164"/>
-      <c r="AV5" s="164"/>
-      <c r="AW5" s="165" t="s">
+      <c r="AF5" s="154"/>
+      <c r="AG5" s="154"/>
+      <c r="AH5" s="154"/>
+      <c r="AI5" s="154"/>
+      <c r="AJ5" s="154"/>
+      <c r="AK5" s="154"/>
+      <c r="AL5" s="154"/>
+      <c r="AM5" s="154"/>
+      <c r="AN5" s="154"/>
+      <c r="AO5" s="154"/>
+      <c r="AP5" s="154"/>
+      <c r="AQ5" s="154"/>
+      <c r="AR5" s="154"/>
+      <c r="AS5" s="154"/>
+      <c r="AT5" s="154"/>
+      <c r="AU5" s="154"/>
+      <c r="AV5" s="154"/>
+      <c r="AW5" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="AX5" s="165"/>
-      <c r="AY5" s="165"/>
-      <c r="AZ5" s="165"/>
-      <c r="BA5" s="165"/>
-      <c r="BB5" s="165"/>
-      <c r="BC5" s="165"/>
-      <c r="BD5" s="165"/>
-      <c r="BE5" s="165"/>
-      <c r="BF5" s="165"/>
-      <c r="BG5" s="165"/>
-      <c r="BH5" s="165"/>
-      <c r="BI5" s="165"/>
-      <c r="BJ5" s="165"/>
-      <c r="BK5" s="165"/>
-      <c r="BL5" s="165"/>
-      <c r="BM5" s="165"/>
-      <c r="BN5" s="165"/>
-      <c r="BO5" s="166" t="s">
+      <c r="AX5" s="155"/>
+      <c r="AY5" s="155"/>
+      <c r="AZ5" s="155"/>
+      <c r="BA5" s="155"/>
+      <c r="BB5" s="155"/>
+      <c r="BC5" s="155"/>
+      <c r="BD5" s="155"/>
+      <c r="BE5" s="155"/>
+      <c r="BF5" s="155"/>
+      <c r="BG5" s="155"/>
+      <c r="BH5" s="155"/>
+      <c r="BI5" s="155"/>
+      <c r="BJ5" s="155"/>
+      <c r="BK5" s="155"/>
+      <c r="BL5" s="155"/>
+      <c r="BM5" s="155"/>
+      <c r="BN5" s="155"/>
+      <c r="BO5" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="BP5" s="166"/>
-      <c r="BQ5" s="166"/>
-      <c r="BR5" s="166"/>
-      <c r="BS5" s="166"/>
-      <c r="BT5" s="166"/>
-      <c r="BU5" s="166"/>
-      <c r="BV5" s="166"/>
-      <c r="BW5" s="166"/>
-      <c r="BX5" s="166"/>
-      <c r="BY5" s="166"/>
-      <c r="BZ5" s="166"/>
-      <c r="CA5" s="166"/>
-      <c r="CB5" s="166"/>
-      <c r="CC5" s="166"/>
-      <c r="CD5" s="166"/>
-      <c r="CE5" s="166"/>
-      <c r="CF5" s="166"/>
-      <c r="CG5" s="167" t="s">
+      <c r="BP5" s="156"/>
+      <c r="BQ5" s="156"/>
+      <c r="BR5" s="156"/>
+      <c r="BS5" s="156"/>
+      <c r="BT5" s="156"/>
+      <c r="BU5" s="156"/>
+      <c r="BV5" s="156"/>
+      <c r="BW5" s="156"/>
+      <c r="BX5" s="156"/>
+      <c r="BY5" s="156"/>
+      <c r="BZ5" s="156"/>
+      <c r="CA5" s="156"/>
+      <c r="CB5" s="156"/>
+      <c r="CC5" s="156"/>
+      <c r="CD5" s="156"/>
+      <c r="CE5" s="156"/>
+      <c r="CF5" s="156"/>
+      <c r="CG5" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="CH5" s="167"/>
-      <c r="CI5" s="167"/>
-      <c r="CJ5" s="167"/>
-      <c r="CK5" s="167"/>
-      <c r="CL5" s="167"/>
-      <c r="CM5" s="167"/>
-      <c r="CN5" s="167"/>
-      <c r="CO5" s="167"/>
-      <c r="CP5" s="167"/>
-      <c r="CQ5" s="167"/>
-      <c r="CR5" s="167"/>
-      <c r="CS5" s="167"/>
-      <c r="CT5" s="167"/>
-      <c r="CU5" s="167"/>
-      <c r="CV5" s="167"/>
-      <c r="CW5" s="167"/>
-      <c r="CX5" s="167"/>
-      <c r="CY5" s="168" t="s">
+      <c r="CH5" s="157"/>
+      <c r="CI5" s="157"/>
+      <c r="CJ5" s="157"/>
+      <c r="CK5" s="157"/>
+      <c r="CL5" s="157"/>
+      <c r="CM5" s="157"/>
+      <c r="CN5" s="157"/>
+      <c r="CO5" s="157"/>
+      <c r="CP5" s="157"/>
+      <c r="CQ5" s="157"/>
+      <c r="CR5" s="157"/>
+      <c r="CS5" s="157"/>
+      <c r="CT5" s="157"/>
+      <c r="CU5" s="157"/>
+      <c r="CV5" s="157"/>
+      <c r="CW5" s="157"/>
+      <c r="CX5" s="157"/>
+      <c r="CY5" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="CZ5" s="168"/>
-      <c r="DA5" s="168"/>
-      <c r="DB5" s="168"/>
-      <c r="DC5" s="168"/>
-      <c r="DD5" s="168"/>
-      <c r="DE5" s="168"/>
-      <c r="DF5" s="168"/>
-      <c r="DG5" s="168"/>
-      <c r="DH5" s="168"/>
-      <c r="DI5" s="168"/>
-      <c r="DJ5" s="168"/>
-      <c r="DK5" s="168"/>
-      <c r="DL5" s="168"/>
-      <c r="DM5" s="168"/>
-      <c r="DN5" s="168"/>
-      <c r="DO5" s="168"/>
-      <c r="DP5" s="168"/>
-      <c r="DQ5" s="162" t="s">
+      <c r="CZ5" s="158"/>
+      <c r="DA5" s="158"/>
+      <c r="DB5" s="158"/>
+      <c r="DC5" s="158"/>
+      <c r="DD5" s="158"/>
+      <c r="DE5" s="158"/>
+      <c r="DF5" s="158"/>
+      <c r="DG5" s="158"/>
+      <c r="DH5" s="158"/>
+      <c r="DI5" s="158"/>
+      <c r="DJ5" s="158"/>
+      <c r="DK5" s="158"/>
+      <c r="DL5" s="158"/>
+      <c r="DM5" s="158"/>
+      <c r="DN5" s="158"/>
+      <c r="DO5" s="158"/>
+      <c r="DP5" s="158"/>
+      <c r="DQ5" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="DR5" s="162"/>
-      <c r="DS5" s="162"/>
-      <c r="DT5" s="162"/>
-      <c r="DU5" s="162"/>
-      <c r="DV5" s="162"/>
-      <c r="DW5" s="162"/>
-      <c r="DX5" s="162"/>
-      <c r="DY5" s="162"/>
-      <c r="DZ5" s="162"/>
-      <c r="EA5" s="162"/>
-      <c r="EB5" s="162"/>
-      <c r="EC5" s="162"/>
-      <c r="ED5" s="162"/>
-      <c r="EE5" s="162"/>
-      <c r="EF5" s="162"/>
-      <c r="EG5" s="162"/>
-      <c r="EH5" s="162"/>
-      <c r="EI5" s="161" t="s">
+      <c r="DR5" s="152"/>
+      <c r="DS5" s="152"/>
+      <c r="DT5" s="152"/>
+      <c r="DU5" s="152"/>
+      <c r="DV5" s="152"/>
+      <c r="DW5" s="152"/>
+      <c r="DX5" s="152"/>
+      <c r="DY5" s="152"/>
+      <c r="DZ5" s="152"/>
+      <c r="EA5" s="152"/>
+      <c r="EB5" s="152"/>
+      <c r="EC5" s="152"/>
+      <c r="ED5" s="152"/>
+      <c r="EE5" s="152"/>
+      <c r="EF5" s="152"/>
+      <c r="EG5" s="152"/>
+      <c r="EH5" s="152"/>
+      <c r="EI5" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="EJ5" s="161"/>
-      <c r="EK5" s="161"/>
-      <c r="EL5" s="161"/>
-      <c r="EM5" s="161"/>
-      <c r="EN5" s="161"/>
-      <c r="EO5" s="161"/>
-      <c r="EP5" s="161"/>
-      <c r="EQ5" s="161"/>
-      <c r="ER5" s="161"/>
-      <c r="ES5" s="161"/>
-      <c r="ET5" s="161"/>
-      <c r="EU5" s="161"/>
-      <c r="EV5" s="161"/>
-      <c r="EW5" s="161"/>
-      <c r="EX5" s="161"/>
-      <c r="EY5" s="161"/>
-      <c r="EZ5" s="161"/>
-      <c r="FA5" s="161"/>
-      <c r="FB5" s="161"/>
-      <c r="FC5" s="161"/>
-      <c r="FD5" s="161"/>
-      <c r="FE5" s="161"/>
-      <c r="FF5" s="161"/>
-      <c r="FG5" s="161"/>
-      <c r="FH5" s="161"/>
+      <c r="EJ5" s="162"/>
+      <c r="EK5" s="162"/>
+      <c r="EL5" s="162"/>
+      <c r="EM5" s="162"/>
+      <c r="EN5" s="162"/>
+      <c r="EO5" s="162"/>
+      <c r="EP5" s="162"/>
+      <c r="EQ5" s="162"/>
+      <c r="ER5" s="162"/>
+      <c r="ES5" s="162"/>
+      <c r="ET5" s="162"/>
+      <c r="EU5" s="162"/>
+      <c r="EV5" s="162"/>
+      <c r="EW5" s="162"/>
+      <c r="EX5" s="162"/>
+      <c r="EY5" s="162"/>
+      <c r="EZ5" s="162"/>
+      <c r="FA5" s="162"/>
+      <c r="FB5" s="162"/>
+      <c r="FC5" s="162"/>
+      <c r="FD5" s="162"/>
+      <c r="FE5" s="162"/>
+      <c r="FF5" s="162"/>
+      <c r="FG5" s="162"/>
+      <c r="FH5" s="162"/>
     </row>
     <row r="6" spans="1:164" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
@@ -3283,189 +3283,189 @@
       <c r="A7" s="128"/>
       <c r="B7" s="128"/>
       <c r="C7" s="118"/>
-      <c r="D7" s="156" t="s">
+      <c r="D7" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="157"/>
-      <c r="K7" s="158"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="151"/>
       <c r="L7" s="122"/>
-      <c r="M7" s="156" t="s">
+      <c r="M7" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="157"/>
-      <c r="O7" s="157"/>
-      <c r="P7" s="157"/>
-      <c r="Q7" s="157"/>
-      <c r="R7" s="157"/>
-      <c r="S7" s="157"/>
-      <c r="T7" s="158"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="151"/>
       <c r="U7" s="122"/>
-      <c r="V7" s="156" t="s">
+      <c r="V7" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="W7" s="157"/>
-      <c r="X7" s="157"/>
-      <c r="Y7" s="157"/>
-      <c r="Z7" s="157"/>
-      <c r="AA7" s="157"/>
-      <c r="AB7" s="157"/>
-      <c r="AC7" s="158"/>
+      <c r="W7" s="150"/>
+      <c r="X7" s="150"/>
+      <c r="Y7" s="150"/>
+      <c r="Z7" s="150"/>
+      <c r="AA7" s="150"/>
+      <c r="AB7" s="150"/>
+      <c r="AC7" s="151"/>
       <c r="AD7" s="122"/>
-      <c r="AE7" s="156" t="s">
+      <c r="AE7" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="AF7" s="157"/>
-      <c r="AG7" s="157"/>
-      <c r="AH7" s="157"/>
-      <c r="AI7" s="157"/>
-      <c r="AJ7" s="157"/>
-      <c r="AK7" s="157"/>
-      <c r="AL7" s="158"/>
-      <c r="AN7" s="156" t="s">
+      <c r="AF7" s="150"/>
+      <c r="AG7" s="150"/>
+      <c r="AH7" s="150"/>
+      <c r="AI7" s="150"/>
+      <c r="AJ7" s="150"/>
+      <c r="AK7" s="150"/>
+      <c r="AL7" s="151"/>
+      <c r="AN7" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="AO7" s="157"/>
-      <c r="AP7" s="157"/>
-      <c r="AQ7" s="157"/>
-      <c r="AR7" s="157"/>
-      <c r="AS7" s="157"/>
-      <c r="AT7" s="157"/>
-      <c r="AU7" s="158"/>
-      <c r="AW7" s="156" t="s">
+      <c r="AO7" s="150"/>
+      <c r="AP7" s="150"/>
+      <c r="AQ7" s="150"/>
+      <c r="AR7" s="150"/>
+      <c r="AS7" s="150"/>
+      <c r="AT7" s="150"/>
+      <c r="AU7" s="151"/>
+      <c r="AW7" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="AX7" s="157"/>
-      <c r="AY7" s="157"/>
-      <c r="AZ7" s="157"/>
-      <c r="BA7" s="157"/>
-      <c r="BB7" s="157"/>
-      <c r="BC7" s="157"/>
-      <c r="BD7" s="158"/>
-      <c r="BF7" s="156" t="s">
+      <c r="AX7" s="150"/>
+      <c r="AY7" s="150"/>
+      <c r="AZ7" s="150"/>
+      <c r="BA7" s="150"/>
+      <c r="BB7" s="150"/>
+      <c r="BC7" s="150"/>
+      <c r="BD7" s="151"/>
+      <c r="BF7" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="BG7" s="157"/>
-      <c r="BH7" s="157"/>
-      <c r="BI7" s="157"/>
-      <c r="BJ7" s="157"/>
-      <c r="BK7" s="157"/>
-      <c r="BL7" s="157"/>
-      <c r="BM7" s="158"/>
-      <c r="BO7" s="156" t="s">
+      <c r="BG7" s="150"/>
+      <c r="BH7" s="150"/>
+      <c r="BI7" s="150"/>
+      <c r="BJ7" s="150"/>
+      <c r="BK7" s="150"/>
+      <c r="BL7" s="150"/>
+      <c r="BM7" s="151"/>
+      <c r="BO7" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="BP7" s="157"/>
-      <c r="BQ7" s="157"/>
-      <c r="BR7" s="157"/>
-      <c r="BS7" s="157"/>
-      <c r="BT7" s="157"/>
-      <c r="BU7" s="157"/>
-      <c r="BV7" s="158"/>
-      <c r="BX7" s="156" t="s">
+      <c r="BP7" s="150"/>
+      <c r="BQ7" s="150"/>
+      <c r="BR7" s="150"/>
+      <c r="BS7" s="150"/>
+      <c r="BT7" s="150"/>
+      <c r="BU7" s="150"/>
+      <c r="BV7" s="151"/>
+      <c r="BX7" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="BY7" s="157"/>
-      <c r="BZ7" s="157"/>
-      <c r="CA7" s="157"/>
-      <c r="CB7" s="157"/>
-      <c r="CC7" s="157"/>
-      <c r="CD7" s="157"/>
-      <c r="CE7" s="158"/>
-      <c r="CG7" s="156" t="s">
+      <c r="BY7" s="150"/>
+      <c r="BZ7" s="150"/>
+      <c r="CA7" s="150"/>
+      <c r="CB7" s="150"/>
+      <c r="CC7" s="150"/>
+      <c r="CD7" s="150"/>
+      <c r="CE7" s="151"/>
+      <c r="CG7" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="CH7" s="157"/>
-      <c r="CI7" s="157"/>
-      <c r="CJ7" s="157"/>
-      <c r="CK7" s="157"/>
-      <c r="CL7" s="157"/>
-      <c r="CM7" s="157"/>
-      <c r="CN7" s="158"/>
-      <c r="CP7" s="156" t="s">
+      <c r="CH7" s="150"/>
+      <c r="CI7" s="150"/>
+      <c r="CJ7" s="150"/>
+      <c r="CK7" s="150"/>
+      <c r="CL7" s="150"/>
+      <c r="CM7" s="150"/>
+      <c r="CN7" s="151"/>
+      <c r="CP7" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="CQ7" s="157"/>
-      <c r="CR7" s="157"/>
-      <c r="CS7" s="157"/>
-      <c r="CT7" s="157"/>
-      <c r="CU7" s="157"/>
-      <c r="CV7" s="157"/>
-      <c r="CW7" s="158"/>
-      <c r="CY7" s="156" t="s">
+      <c r="CQ7" s="150"/>
+      <c r="CR7" s="150"/>
+      <c r="CS7" s="150"/>
+      <c r="CT7" s="150"/>
+      <c r="CU7" s="150"/>
+      <c r="CV7" s="150"/>
+      <c r="CW7" s="151"/>
+      <c r="CY7" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="CZ7" s="157"/>
-      <c r="DA7" s="157"/>
-      <c r="DB7" s="157"/>
-      <c r="DC7" s="157"/>
-      <c r="DD7" s="157"/>
-      <c r="DE7" s="157"/>
-      <c r="DF7" s="158"/>
-      <c r="DH7" s="156" t="s">
+      <c r="CZ7" s="150"/>
+      <c r="DA7" s="150"/>
+      <c r="DB7" s="150"/>
+      <c r="DC7" s="150"/>
+      <c r="DD7" s="150"/>
+      <c r="DE7" s="150"/>
+      <c r="DF7" s="151"/>
+      <c r="DH7" s="149" t="s">
         <v>36</v>
       </c>
-      <c r="DI7" s="157"/>
-      <c r="DJ7" s="157"/>
-      <c r="DK7" s="157"/>
-      <c r="DL7" s="157"/>
-      <c r="DM7" s="157"/>
-      <c r="DN7" s="157"/>
-      <c r="DO7" s="158"/>
-      <c r="DQ7" s="156" t="s">
+      <c r="DI7" s="150"/>
+      <c r="DJ7" s="150"/>
+      <c r="DK7" s="150"/>
+      <c r="DL7" s="150"/>
+      <c r="DM7" s="150"/>
+      <c r="DN7" s="150"/>
+      <c r="DO7" s="151"/>
+      <c r="DQ7" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="DR7" s="157"/>
-      <c r="DS7" s="157"/>
-      <c r="DT7" s="157"/>
-      <c r="DU7" s="157"/>
-      <c r="DV7" s="157"/>
-      <c r="DW7" s="157"/>
-      <c r="DX7" s="158"/>
-      <c r="DZ7" s="156" t="s">
+      <c r="DR7" s="150"/>
+      <c r="DS7" s="150"/>
+      <c r="DT7" s="150"/>
+      <c r="DU7" s="150"/>
+      <c r="DV7" s="150"/>
+      <c r="DW7" s="150"/>
+      <c r="DX7" s="151"/>
+      <c r="DZ7" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="EA7" s="157"/>
-      <c r="EB7" s="157"/>
-      <c r="EC7" s="157"/>
-      <c r="ED7" s="157"/>
-      <c r="EE7" s="157"/>
-      <c r="EF7" s="157"/>
-      <c r="EG7" s="158"/>
-      <c r="EI7" s="156" t="s">
+      <c r="EA7" s="150"/>
+      <c r="EB7" s="150"/>
+      <c r="EC7" s="150"/>
+      <c r="ED7" s="150"/>
+      <c r="EE7" s="150"/>
+      <c r="EF7" s="150"/>
+      <c r="EG7" s="151"/>
+      <c r="EI7" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="EJ7" s="157"/>
-      <c r="EK7" s="157"/>
-      <c r="EL7" s="157"/>
-      <c r="EM7" s="157"/>
-      <c r="EN7" s="157"/>
-      <c r="EO7" s="157"/>
-      <c r="EP7" s="158"/>
-      <c r="ER7" s="156" t="s">
+      <c r="EJ7" s="150"/>
+      <c r="EK7" s="150"/>
+      <c r="EL7" s="150"/>
+      <c r="EM7" s="150"/>
+      <c r="EN7" s="150"/>
+      <c r="EO7" s="150"/>
+      <c r="EP7" s="151"/>
+      <c r="ER7" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="ES7" s="157"/>
-      <c r="ET7" s="157"/>
-      <c r="EU7" s="157"/>
-      <c r="EV7" s="157"/>
-      <c r="EW7" s="157"/>
-      <c r="EX7" s="157"/>
-      <c r="EY7" s="158"/>
-      <c r="FA7" s="156" t="s">
+      <c r="ES7" s="150"/>
+      <c r="ET7" s="150"/>
+      <c r="EU7" s="150"/>
+      <c r="EV7" s="150"/>
+      <c r="EW7" s="150"/>
+      <c r="EX7" s="150"/>
+      <c r="EY7" s="151"/>
+      <c r="FA7" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="FB7" s="157"/>
-      <c r="FC7" s="157"/>
-      <c r="FD7" s="157"/>
-      <c r="FE7" s="157"/>
-      <c r="FF7" s="157"/>
-      <c r="FG7" s="157"/>
-      <c r="FH7" s="158"/>
+      <c r="FB7" s="150"/>
+      <c r="FC7" s="150"/>
+      <c r="FD7" s="150"/>
+      <c r="FE7" s="150"/>
+      <c r="FF7" s="150"/>
+      <c r="FG7" s="150"/>
+      <c r="FH7" s="151"/>
     </row>
     <row r="8" spans="1:164" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
@@ -3473,267 +3473,267 @@
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="37"/>
-      <c r="D8" s="159" t="s">
+      <c r="D8" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="160"/>
-      <c r="F8" s="151" t="s">
+      <c r="E8" s="161"/>
+      <c r="F8" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="152"/>
-      <c r="H8" s="151" t="s">
+      <c r="G8" s="165"/>
+      <c r="H8" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="151"/>
-      <c r="J8" s="151"/>
-      <c r="K8" s="153"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="166"/>
       <c r="L8" s="127"/>
       <c r="M8" s="148">
         <f>(Details!B16)</f>
         <v>42809</v>
       </c>
-      <c r="N8" s="160"/>
+      <c r="N8" s="161"/>
       <c r="O8" s="128"/>
       <c r="P8" s="128"/>
-      <c r="S8" s="149">
+      <c r="S8" s="146">
         <f>SUM(M8+6)</f>
         <v>42815</v>
       </c>
-      <c r="T8" s="150"/>
+      <c r="T8" s="147"/>
       <c r="U8" s="127"/>
       <c r="V8" s="148">
         <f>SUM(S8+1)</f>
         <v>42816</v>
       </c>
-      <c r="W8" s="149"/>
+      <c r="W8" s="146"/>
       <c r="X8" s="127"/>
       <c r="Y8" s="127"/>
       <c r="Z8" s="127"/>
       <c r="AA8" s="127"/>
-      <c r="AB8" s="149">
+      <c r="AB8" s="146">
         <f>SUM(V8+6)</f>
         <v>42822</v>
       </c>
-      <c r="AC8" s="150"/>
+      <c r="AC8" s="147"/>
       <c r="AD8" s="127"/>
       <c r="AE8" s="148">
         <f>SUM(AB8+1)</f>
         <v>42823</v>
       </c>
-      <c r="AF8" s="149"/>
+      <c r="AF8" s="146"/>
       <c r="AG8" s="127"/>
       <c r="AH8" s="127"/>
       <c r="AI8" s="127"/>
       <c r="AJ8" s="127"/>
-      <c r="AK8" s="149">
+      <c r="AK8" s="146">
         <f>SUM(AE8+6)</f>
         <v>42829</v>
       </c>
-      <c r="AL8" s="150"/>
+      <c r="AL8" s="147"/>
       <c r="AN8" s="148">
         <f>SUM(AK8+1)</f>
         <v>42830</v>
       </c>
-      <c r="AO8" s="149"/>
+      <c r="AO8" s="146"/>
       <c r="AP8" s="127"/>
       <c r="AQ8" s="127"/>
       <c r="AR8" s="127"/>
       <c r="AS8" s="127"/>
-      <c r="AT8" s="149">
+      <c r="AT8" s="146">
         <f>SUM(AN8+6)</f>
         <v>42836</v>
       </c>
-      <c r="AU8" s="150"/>
+      <c r="AU8" s="147"/>
       <c r="AW8" s="148">
         <f>SUM(AT8+1)</f>
         <v>42837</v>
       </c>
-      <c r="AX8" s="149"/>
-      <c r="AY8" s="149"/>
-      <c r="AZ8" s="149"/>
+      <c r="AX8" s="146"/>
+      <c r="AY8" s="146"/>
+      <c r="AZ8" s="146"/>
       <c r="BA8" s="127"/>
       <c r="BB8" s="127"/>
-      <c r="BC8" s="149">
+      <c r="BC8" s="146">
         <f>SUM(AW8+6)</f>
         <v>42843</v>
       </c>
-      <c r="BD8" s="150"/>
+      <c r="BD8" s="147"/>
       <c r="BF8" s="148">
         <f>SUM(BC8+1)</f>
         <v>42844</v>
       </c>
-      <c r="BG8" s="149"/>
+      <c r="BG8" s="146"/>
       <c r="BH8" s="127"/>
       <c r="BI8" s="127"/>
       <c r="BJ8" s="127"/>
       <c r="BK8" s="127"/>
-      <c r="BL8" s="149">
+      <c r="BL8" s="146">
         <f>SUM(BF8+6)</f>
         <v>42850</v>
       </c>
-      <c r="BM8" s="150"/>
+      <c r="BM8" s="147"/>
       <c r="BO8" s="148">
         <f>SUM(BL8+1)</f>
         <v>42851</v>
       </c>
-      <c r="BP8" s="149"/>
+      <c r="BP8" s="146"/>
       <c r="BQ8" s="127"/>
       <c r="BR8" s="127"/>
       <c r="BS8" s="127"/>
       <c r="BT8" s="127"/>
-      <c r="BU8" s="149">
+      <c r="BU8" s="146">
         <f>SUM(BO8+6)</f>
         <v>42857</v>
       </c>
-      <c r="BV8" s="150"/>
+      <c r="BV8" s="147"/>
       <c r="BX8" s="148">
         <f>SUM(BU8+1)</f>
         <v>42858</v>
       </c>
-      <c r="BY8" s="149"/>
+      <c r="BY8" s="146"/>
       <c r="BZ8" s="127"/>
       <c r="CA8" s="127"/>
       <c r="CB8" s="127"/>
       <c r="CC8" s="127"/>
-      <c r="CD8" s="149">
+      <c r="CD8" s="146">
         <f>SUM(BX8+6)</f>
         <v>42864</v>
       </c>
-      <c r="CE8" s="150"/>
+      <c r="CE8" s="147"/>
       <c r="CG8" s="148">
         <f>SUM(CD8+1)</f>
         <v>42865</v>
       </c>
-      <c r="CH8" s="149"/>
+      <c r="CH8" s="146"/>
       <c r="CI8" s="127"/>
       <c r="CJ8" s="127"/>
       <c r="CK8" s="127"/>
       <c r="CL8" s="127"/>
-      <c r="CM8" s="149">
+      <c r="CM8" s="146">
         <f>SUM(CG8+6)</f>
         <v>42871</v>
       </c>
-      <c r="CN8" s="150"/>
+      <c r="CN8" s="147"/>
       <c r="CP8" s="148">
         <f>SUM(CM8+1)</f>
         <v>42872</v>
       </c>
-      <c r="CQ8" s="149"/>
+      <c r="CQ8" s="146"/>
       <c r="CR8" s="127"/>
       <c r="CS8" s="127"/>
       <c r="CT8" s="127"/>
       <c r="CU8" s="127"/>
-      <c r="CV8" s="149">
+      <c r="CV8" s="146">
         <f>SUM(CP8+6)</f>
         <v>42878</v>
       </c>
-      <c r="CW8" s="150"/>
+      <c r="CW8" s="147"/>
       <c r="CY8" s="148">
         <f>SUM(CV8+1)</f>
         <v>42879</v>
       </c>
-      <c r="CZ8" s="149"/>
+      <c r="CZ8" s="146"/>
       <c r="DA8" s="127"/>
       <c r="DB8" s="127"/>
       <c r="DC8" s="127"/>
       <c r="DD8" s="127"/>
-      <c r="DE8" s="149">
+      <c r="DE8" s="146">
         <f>SUM(CY8+6)</f>
         <v>42885</v>
       </c>
-      <c r="DF8" s="150"/>
+      <c r="DF8" s="147"/>
       <c r="DH8" s="148">
         <f>SUM(DE8+1)</f>
         <v>42886</v>
       </c>
-      <c r="DI8" s="149"/>
+      <c r="DI8" s="146"/>
       <c r="DJ8" s="127"/>
       <c r="DK8" s="127"/>
       <c r="DL8" s="127"/>
       <c r="DM8" s="127"/>
-      <c r="DN8" s="149">
+      <c r="DN8" s="146">
         <f>SUM(DH8+6)</f>
         <v>42892</v>
       </c>
-      <c r="DO8" s="150"/>
+      <c r="DO8" s="147"/>
       <c r="DQ8" s="148">
         <f>SUM(DN8+1)</f>
         <v>42893</v>
       </c>
-      <c r="DR8" s="149"/>
+      <c r="DR8" s="146"/>
       <c r="DS8" s="127"/>
       <c r="DT8" s="127"/>
       <c r="DU8" s="127"/>
       <c r="DV8" s="127"/>
-      <c r="DW8" s="149">
+      <c r="DW8" s="146">
         <f>SUM(DQ8+6)</f>
         <v>42899</v>
       </c>
-      <c r="DX8" s="150"/>
+      <c r="DX8" s="147"/>
       <c r="DZ8" s="148">
         <f>SUM(DW8+1)</f>
         <v>42900</v>
       </c>
-      <c r="EA8" s="149"/>
+      <c r="EA8" s="146"/>
       <c r="EB8" s="127"/>
       <c r="EC8" s="127"/>
       <c r="ED8" s="127"/>
       <c r="EE8" s="127"/>
-      <c r="EF8" s="149">
+      <c r="EF8" s="146">
         <f>SUM(DZ8+6)</f>
         <v>42906</v>
       </c>
-      <c r="EG8" s="150"/>
+      <c r="EG8" s="147"/>
       <c r="EI8" s="148">
         <f>SUM(EF8+1)</f>
         <v>42907</v>
       </c>
-      <c r="EJ8" s="149"/>
+      <c r="EJ8" s="146"/>
       <c r="EK8" s="127"/>
       <c r="EL8" s="127"/>
       <c r="EM8" s="127"/>
       <c r="EN8" s="127"/>
-      <c r="EO8" s="149">
+      <c r="EO8" s="146">
         <f>SUM(EI8+6)</f>
         <v>42913</v>
       </c>
-      <c r="EP8" s="150"/>
+      <c r="EP8" s="147"/>
       <c r="ER8" s="148">
         <f>SUM(EO8+1)</f>
         <v>42914</v>
       </c>
-      <c r="ES8" s="149"/>
+      <c r="ES8" s="146"/>
       <c r="ET8" s="127"/>
       <c r="EU8" s="127"/>
       <c r="EV8" s="127"/>
       <c r="EW8" s="127"/>
-      <c r="EX8" s="149">
+      <c r="EX8" s="146">
         <f>SUM(ER8+6)</f>
         <v>42920</v>
       </c>
-      <c r="EY8" s="150"/>
+      <c r="EY8" s="147"/>
       <c r="FA8" s="148">
         <f>SUM(EX8+1)</f>
         <v>42921</v>
       </c>
-      <c r="FB8" s="149"/>
+      <c r="FB8" s="146"/>
       <c r="FC8" s="127"/>
       <c r="FD8" s="127"/>
       <c r="FE8" s="127"/>
       <c r="FF8" s="127"/>
-      <c r="FG8" s="149">
+      <c r="FG8" s="146">
         <f>SUM(FA8+6)</f>
         <v>42927</v>
       </c>
-      <c r="FH8" s="150"/>
+      <c r="FH8" s="147"/>
     </row>
     <row r="9" spans="1:164" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="143" t="s">
+      <c r="B9" s="163" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="139"/>
-      <c r="D9" s="145" t="str">
+      <c r="D9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3752,9 +3752,9 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="K9" s="146"/>
+      <c r="K9" s="145"/>
       <c r="L9" s="122"/>
-      <c r="M9" s="145" t="str">
+      <c r="M9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3773,9 +3773,9 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="T9" s="146"/>
+      <c r="T9" s="145"/>
       <c r="U9" s="122"/>
-      <c r="V9" s="145" t="str">
+      <c r="V9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3794,9 +3794,9 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="AC9" s="146"/>
+      <c r="AC9" s="145"/>
       <c r="AD9" s="122"/>
-      <c r="AE9" s="145" t="str">
+      <c r="AE9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3815,8 +3815,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="AL9" s="146"/>
-      <c r="AN9" s="145" t="str">
+      <c r="AL9" s="145"/>
+      <c r="AN9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3835,8 +3835,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="AU9" s="146"/>
-      <c r="AW9" s="145" t="str">
+      <c r="AU9" s="145"/>
+      <c r="AW9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3855,8 +3855,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="BD9" s="146"/>
-      <c r="BF9" s="145" t="str">
+      <c r="BD9" s="145"/>
+      <c r="BF9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3875,8 +3875,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="BM9" s="146"/>
-      <c r="BO9" s="145" t="str">
+      <c r="BM9" s="145"/>
+      <c r="BO9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3895,8 +3895,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="BV9" s="146"/>
-      <c r="BX9" s="145" t="str">
+      <c r="BV9" s="145"/>
+      <c r="BX9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3915,8 +3915,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="CE9" s="146"/>
-      <c r="CG9" s="145" t="str">
+      <c r="CE9" s="145"/>
+      <c r="CG9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3935,8 +3935,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="CN9" s="146"/>
-      <c r="CP9" s="145" t="str">
+      <c r="CN9" s="145"/>
+      <c r="CP9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3955,8 +3955,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="CW9" s="146"/>
-      <c r="CY9" s="145" t="str">
+      <c r="CW9" s="145"/>
+      <c r="CY9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3975,8 +3975,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="DF9" s="146"/>
-      <c r="DH9" s="145" t="str">
+      <c r="DF9" s="145"/>
+      <c r="DH9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3995,8 +3995,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="DO9" s="146"/>
-      <c r="DQ9" s="145" t="str">
+      <c r="DO9" s="145"/>
+      <c r="DQ9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -4015,8 +4015,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="DX9" s="146"/>
-      <c r="DZ9" s="145" t="str">
+      <c r="DX9" s="145"/>
+      <c r="DZ9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -4035,8 +4035,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="EG9" s="146"/>
-      <c r="EI9" s="145" t="str">
+      <c r="EG9" s="145"/>
+      <c r="EI9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -4055,8 +4055,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="EP9" s="146"/>
-      <c r="ER9" s="145" t="str">
+      <c r="EP9" s="145"/>
+      <c r="ER9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -4075,8 +4075,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="EY9" s="146"/>
-      <c r="FA9" s="145" t="str">
+      <c r="EY9" s="145"/>
+      <c r="FA9" s="144" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -4095,7 +4095,7 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="FH9" s="146"/>
+      <c r="FH9" s="145"/>
     </row>
     <row r="10" spans="1:164" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="C11" s="75">
         <f t="shared" si="0"/>
-        <v>80.5</v>
+        <v>83</v>
       </c>
       <c r="D11" s="87">
         <f t="shared" si="0"/>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="CZ11" s="77">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DA11" s="88">
         <f t="shared" si="10"/>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="DB11" s="77">
         <f t="shared" si="10"/>
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="DC11" s="88">
         <f t="shared" si="10"/>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="C13" s="77">
         <f>SUM(E13,G13,I13,K13,N13,P13,R13,T13,W13,Y13,AA13,AC13,AF13,AH13,AJ13,AL13,AO13,AQ13,AS13,AU13,AX13,AZ13,BB13,BD13,BG13,BI13,BK13,BM13,BP13,BR13,BT13,BV13,BY13,CA13,CC13,CE13,CH13,CJ13,CL13,CN13,CQ13,CS13,CU13,CW13,CZ13,DB13,DD13,DF13,DI13,DK13,DM13,DO13,DR13,DT13,DV13,DX13,EA13,EC13,EE13,EG13,EJ13,EL13,EN13,EP13,ES13,EU13,EW13,EY13,FB13,FD13,FF13,FH13)</f>
-        <v>44</v>
+        <v>45.5</v>
       </c>
       <c r="D13" s="91">
         <v>4</v>
@@ -5490,11 +5490,11 @@
       <c r="CX13" s="95"/>
       <c r="CY13" s="91"/>
       <c r="CZ13" s="92">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DA13" s="93"/>
       <c r="DB13" s="92">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="DC13" s="93"/>
       <c r="DD13" s="92"/>
@@ -5564,7 +5564,7 @@
       </c>
       <c r="C14" s="77">
         <f t="shared" ref="C14" si="17">SUM(E14,G14,I14,K14,N14,P14,R14,T14,W14,Y14,AA14,AC14,AF14,AH14,AJ14,AL14,AO14,AQ14,AS14,AU14,AX14,AZ14,BB14,BD14,BG14,BI14,BK14,BM14,BP14,BR14,BT14,BV14,BY14,CA14,CC14,CE14,CH14,CJ14,CL14,CN14,CQ14,CS14,CU14,CW14,CZ14,DB14,DD14,DF14,DI14,DK14,DM14,DO14,DR14,DT14,DV14,DX14,EA14,EC14,EE14,EG14,EJ14,EL14,EN14,EP14,ES14,EU14,EW14,EY14,FB14,FD14,FF14,FH14)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" s="91"/>
       <c r="E14" s="92"/>
@@ -5685,7 +5685,7 @@
       <c r="CZ14" s="92"/>
       <c r="DA14" s="93"/>
       <c r="DB14" s="92">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DC14" s="93"/>
       <c r="DD14" s="92"/>
@@ -20748,7 +20748,7 @@
       </c>
       <c r="CZ74" s="106">
         <f t="shared" si="197"/>
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="DA74" s="107">
         <f t="shared" si="197"/>
@@ -20756,7 +20756,7 @@
       </c>
       <c r="DB74" s="106">
         <f t="shared" si="197"/>
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="DC74" s="107">
         <f t="shared" si="197"/>
@@ -20983,7 +20983,7 @@
       </c>
       <c r="C75" s="86">
         <f>SUM(C11+C16+C23+C29+C32+C44+C48+C57+C65+C70)</f>
-        <v>406.5</v>
+        <v>409</v>
       </c>
       <c r="D75" s="83"/>
       <c r="E75" s="83"/>
@@ -21162,7 +21162,7 @@
       </c>
       <c r="DF75" s="113">
         <f>SUM(CZ74,DB74,DD74,DF74)</f>
-        <v>51.5</v>
+        <v>54</v>
       </c>
       <c r="DG75" s="111"/>
       <c r="DH75" s="83"/>
@@ -21344,36 +21344,36 @@
       <c r="B78" s="139" t="s">
         <v>106</v>
       </c>
-      <c r="C78" s="147"/>
-      <c r="D78" s="154" t="str">
+      <c r="C78" s="140"/>
+      <c r="D78" s="143" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
       <c r="E78" s="139"/>
       <c r="F78" s="139"/>
-      <c r="G78" s="147"/>
-      <c r="H78" s="154" t="str">
+      <c r="G78" s="140"/>
+      <c r="H78" s="143" t="str">
         <f>Details!$C$11</f>
         <v>Len</v>
       </c>
       <c r="I78" s="139"/>
       <c r="J78" s="139"/>
       <c r="K78" s="139"/>
-      <c r="L78" s="154" t="str">
+      <c r="L78" s="143" t="str">
         <f>Details!$C$12</f>
         <v>Al</v>
       </c>
       <c r="M78" s="139"/>
       <c r="N78" s="139"/>
-      <c r="O78" s="147"/>
-      <c r="P78" s="154" t="str">
+      <c r="O78" s="140"/>
+      <c r="P78" s="143" t="str">
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
       <c r="Q78" s="139"/>
       <c r="R78" s="139"/>
-      <c r="S78" s="147"/>
-      <c r="T78" s="154" t="s">
+      <c r="S78" s="140"/>
+      <c r="T78" s="143" t="s">
         <v>107</v>
       </c>
       <c r="U78" s="139"/>
@@ -21384,7 +21384,7 @@
       <c r="Z78" s="139"/>
       <c r="AA78" s="139"/>
       <c r="AB78" s="139"/>
-      <c r="AC78" s="147"/>
+      <c r="AC78" s="140"/>
       <c r="AD78" s="139" t="s">
         <v>108</v>
       </c>
@@ -21412,39 +21412,39 @@
       <c r="C79" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="D79" s="154" t="s">
+      <c r="D79" s="143" t="s">
         <v>46</v>
       </c>
       <c r="E79" s="139"/>
       <c r="F79" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="G79" s="147"/>
-      <c r="H79" s="154" t="s">
+      <c r="G79" s="140"/>
+      <c r="H79" s="143" t="s">
         <v>46</v>
       </c>
       <c r="I79" s="139"/>
       <c r="J79" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="K79" s="147"/>
-      <c r="L79" s="154" t="s">
+      <c r="K79" s="140"/>
+      <c r="L79" s="143" t="s">
         <v>46</v>
       </c>
       <c r="M79" s="139"/>
       <c r="N79" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="O79" s="147"/>
-      <c r="P79" s="154" t="s">
+      <c r="O79" s="140"/>
+      <c r="P79" s="143" t="s">
         <v>46</v>
       </c>
       <c r="Q79" s="139"/>
       <c r="R79" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="S79" s="147"/>
-      <c r="T79" s="154" t="str">
+      <c r="S79" s="140"/>
+      <c r="T79" s="143" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -21467,8 +21467,8 @@
       <c r="AB79" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="AC79" s="147"/>
-      <c r="AD79" s="154" t="s">
+      <c r="AC79" s="140"/>
+      <c r="AD79" s="143" t="s">
         <v>109</v>
       </c>
       <c r="AE79" s="139"/>
@@ -21480,10 +21480,10 @@
       <c r="AI79" s="139"/>
       <c r="AJ79" s="139"/>
       <c r="AK79" s="139"/>
-      <c r="AL79" s="143" t="s">
+      <c r="AL79" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="AM79" s="143"/>
+      <c r="AM79" s="163"/>
     </row>
     <row r="80" spans="1:164" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="str">
@@ -21498,96 +21498,96 @@
         <f>SUM($K$75)</f>
         <v>10.5</v>
       </c>
-      <c r="D80" s="136">
+      <c r="D80" s="137">
         <f>SUM(D74)</f>
         <v>4</v>
       </c>
-      <c r="E80" s="136"/>
-      <c r="F80" s="136">
+      <c r="E80" s="137"/>
+      <c r="F80" s="137">
         <f>SUM(E74)</f>
         <v>4</v>
       </c>
-      <c r="G80" s="137"/>
-      <c r="H80" s="136">
+      <c r="G80" s="138"/>
+      <c r="H80" s="137">
         <f>SUM(F74)</f>
         <v>3</v>
       </c>
-      <c r="I80" s="136"/>
-      <c r="J80" s="136">
+      <c r="I80" s="137"/>
+      <c r="J80" s="137">
         <f>SUM(G74)</f>
         <v>4.5</v>
       </c>
-      <c r="K80" s="137"/>
-      <c r="L80" s="136">
+      <c r="K80" s="138"/>
+      <c r="L80" s="137">
         <f>SUM(H74)</f>
         <v>1</v>
       </c>
-      <c r="M80" s="136"/>
-      <c r="N80" s="136">
+      <c r="M80" s="137"/>
+      <c r="N80" s="137">
         <f>SUM(I74)</f>
         <v>2</v>
       </c>
-      <c r="O80" s="137"/>
-      <c r="P80" s="136">
+      <c r="O80" s="138"/>
+      <c r="P80" s="137">
         <f>SUM(J74)</f>
         <v>0</v>
       </c>
-      <c r="Q80" s="136"/>
-      <c r="R80" s="136">
+      <c r="Q80" s="137"/>
+      <c r="R80" s="137">
         <f>SUM(K74)</f>
         <v>0</v>
       </c>
-      <c r="S80" s="137"/>
-      <c r="T80" s="136">
+      <c r="S80" s="138"/>
+      <c r="T80" s="137">
         <f>SUM(F80-D80)</f>
         <v>0</v>
       </c>
-      <c r="U80" s="136"/>
-      <c r="V80" s="136">
+      <c r="U80" s="137"/>
+      <c r="V80" s="137">
         <f>SUM(J80-H80)</f>
         <v>1.5</v>
       </c>
-      <c r="W80" s="136"/>
-      <c r="X80" s="136">
+      <c r="W80" s="137"/>
+      <c r="X80" s="137">
         <f>SUM(N80-L80)</f>
         <v>1</v>
       </c>
-      <c r="Y80" s="136"/>
-      <c r="Z80" s="136">
+      <c r="Y80" s="137"/>
+      <c r="Z80" s="137">
         <f t="shared" ref="Z80:Z88" si="204">SUM(P80-R80)</f>
         <v>0</v>
       </c>
-      <c r="AA80" s="136"/>
-      <c r="AB80" s="136">
+      <c r="AA80" s="137"/>
+      <c r="AB80" s="137">
         <f>SUM(V80+T80+X80+Z80)</f>
         <v>2.5</v>
       </c>
-      <c r="AC80" s="137"/>
-      <c r="AD80" s="142">
+      <c r="AC80" s="138"/>
+      <c r="AD80" s="136">
         <f>SUM(T80)</f>
         <v>0</v>
       </c>
-      <c r="AE80" s="142"/>
-      <c r="AF80" s="142">
+      <c r="AE80" s="136"/>
+      <c r="AF80" s="136">
         <f>SUM(V80)</f>
         <v>1.5</v>
       </c>
-      <c r="AG80" s="142"/>
-      <c r="AH80" s="142">
+      <c r="AG80" s="136"/>
+      <c r="AH80" s="136">
         <f>SUM(X80)</f>
         <v>1</v>
       </c>
-      <c r="AI80" s="142"/>
-      <c r="AJ80" s="142">
+      <c r="AI80" s="136"/>
+      <c r="AJ80" s="136">
         <f>SUM(Z80)</f>
         <v>0</v>
       </c>
-      <c r="AK80" s="142"/>
-      <c r="AL80" s="142">
+      <c r="AK80" s="136"/>
+      <c r="AL80" s="136">
         <f>SUM(AB80)</f>
         <v>2.5</v>
       </c>
-      <c r="AM80" s="142"/>
+      <c r="AM80" s="136"/>
     </row>
     <row r="81" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="str">
@@ -21602,96 +21602,96 @@
         <f>SUM($T$75+($AC$75/2))</f>
         <v>37.75</v>
       </c>
-      <c r="D81" s="135">
+      <c r="D81" s="142">
         <f>SUM(M74+(V74/2))</f>
         <v>4.5</v>
       </c>
-      <c r="E81" s="136"/>
-      <c r="F81" s="136">
+      <c r="E81" s="137"/>
+      <c r="F81" s="137">
         <f>SUM(N74+(W74/2))</f>
         <v>13</v>
       </c>
-      <c r="G81" s="137"/>
-      <c r="H81" s="135">
+      <c r="G81" s="138"/>
+      <c r="H81" s="142">
         <f>SUM(O74+(X74/2))</f>
         <v>9.5</v>
       </c>
-      <c r="I81" s="136"/>
-      <c r="J81" s="136">
+      <c r="I81" s="137"/>
+      <c r="J81" s="137">
         <f>SUM(P74+(Y74/2))</f>
         <v>11.75</v>
       </c>
-      <c r="K81" s="137"/>
-      <c r="L81" s="136">
+      <c r="K81" s="138"/>
+      <c r="L81" s="137">
         <f>SUM(Q74+(Z74/2))</f>
         <v>4.5</v>
       </c>
-      <c r="M81" s="136"/>
-      <c r="N81" s="136">
+      <c r="M81" s="137"/>
+      <c r="N81" s="137">
         <f>SUM(R74+(AA74/2))</f>
         <v>9</v>
       </c>
-      <c r="O81" s="137"/>
-      <c r="P81" s="136">
+      <c r="O81" s="138"/>
+      <c r="P81" s="137">
         <f>SUM(S74+(AB74/2))</f>
         <v>4.5</v>
       </c>
-      <c r="Q81" s="136"/>
-      <c r="R81" s="136">
+      <c r="Q81" s="137"/>
+      <c r="R81" s="137">
         <f>SUM(T74+(AC74/2))</f>
         <v>4</v>
       </c>
-      <c r="S81" s="137"/>
-      <c r="T81" s="135">
+      <c r="S81" s="138"/>
+      <c r="T81" s="142">
         <f>SUM(F81-D81)</f>
         <v>8.5</v>
       </c>
-      <c r="U81" s="136"/>
-      <c r="V81" s="136">
+      <c r="U81" s="137"/>
+      <c r="V81" s="137">
         <f>SUM(J81-H81)</f>
         <v>2.25</v>
       </c>
-      <c r="W81" s="136"/>
-      <c r="X81" s="136">
+      <c r="W81" s="137"/>
+      <c r="X81" s="137">
         <f>SUM(N81-L81)</f>
         <v>4.5</v>
       </c>
-      <c r="Y81" s="136"/>
-      <c r="Z81" s="136">
+      <c r="Y81" s="137"/>
+      <c r="Z81" s="137">
         <f t="shared" si="204"/>
         <v>0.5</v>
       </c>
-      <c r="AA81" s="136"/>
-      <c r="AB81" s="136">
+      <c r="AA81" s="137"/>
+      <c r="AB81" s="137">
         <f t="shared" ref="AB81:AB88" si="205">SUM(V81+T81+X81+Z81)</f>
         <v>15.75</v>
       </c>
-      <c r="AC81" s="137"/>
-      <c r="AD81" s="142">
+      <c r="AC81" s="138"/>
+      <c r="AD81" s="136">
         <f>SUM(T81+AD80)</f>
         <v>8.5</v>
       </c>
-      <c r="AE81" s="142"/>
-      <c r="AF81" s="142">
+      <c r="AE81" s="136"/>
+      <c r="AF81" s="136">
         <f t="shared" ref="AF81:AF88" si="206">SUM(V81+AF80)</f>
         <v>3.75</v>
       </c>
-      <c r="AG81" s="142"/>
-      <c r="AH81" s="142">
+      <c r="AG81" s="136"/>
+      <c r="AH81" s="136">
         <f t="shared" ref="AH81:AH88" si="207">SUM(X81+AH80)</f>
         <v>5.5</v>
       </c>
-      <c r="AI81" s="142"/>
-      <c r="AJ81" s="142">
+      <c r="AI81" s="136"/>
+      <c r="AJ81" s="136">
         <f t="shared" ref="AJ81:AJ88" si="208">SUM(Z81+AJ80)</f>
         <v>0.5</v>
       </c>
-      <c r="AK81" s="142"/>
-      <c r="AL81" s="142">
+      <c r="AK81" s="136"/>
+      <c r="AL81" s="136">
         <f>SUM(AB81+AL80)</f>
         <v>18.25</v>
       </c>
-      <c r="AM81" s="142"/>
+      <c r="AM81" s="136"/>
     </row>
     <row r="82" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="str">
@@ -21706,96 +21706,96 @@
         <f>SUM(($AC$75/2) + ($AL$75/2))</f>
         <v>42.25</v>
       </c>
-      <c r="D82" s="135">
+      <c r="D82" s="142">
         <f>SUM((V74/2)+(AE74/2))</f>
         <v>7</v>
       </c>
-      <c r="E82" s="136"/>
-      <c r="F82" s="136">
+      <c r="E82" s="137"/>
+      <c r="F82" s="137">
         <f>SUM((W74/2)+(AF74/2))</f>
         <v>12.5</v>
       </c>
-      <c r="G82" s="137"/>
-      <c r="H82" s="135">
+      <c r="G82" s="138"/>
+      <c r="H82" s="142">
         <f>SUM((X74/2)+(AG74/2))</f>
         <v>7</v>
       </c>
-      <c r="I82" s="136"/>
-      <c r="J82" s="136">
+      <c r="I82" s="137"/>
+      <c r="J82" s="137">
         <f>SUM((Y74/2)+(AH74/2))</f>
         <v>11.25</v>
       </c>
-      <c r="K82" s="137"/>
-      <c r="L82" s="135">
+      <c r="K82" s="138"/>
+      <c r="L82" s="142">
         <f>SUM((Z74/2)+(AI74/2))</f>
         <v>7</v>
       </c>
-      <c r="M82" s="136"/>
-      <c r="N82" s="136">
+      <c r="M82" s="137"/>
+      <c r="N82" s="137">
         <f>SUM((AA74/2)+(AJ74/2))</f>
         <v>11.5</v>
       </c>
-      <c r="O82" s="137"/>
-      <c r="P82" s="135">
+      <c r="O82" s="138"/>
+      <c r="P82" s="142">
         <f>SUM((AB74/2)+(AK74/2))</f>
         <v>7</v>
       </c>
-      <c r="Q82" s="136"/>
-      <c r="R82" s="136">
+      <c r="Q82" s="137"/>
+      <c r="R82" s="137">
         <f>SUM((AC74/2)+(AL74/2))</f>
         <v>7</v>
       </c>
-      <c r="S82" s="137"/>
-      <c r="T82" s="135">
+      <c r="S82" s="138"/>
+      <c r="T82" s="142">
         <f>SUM(F82-D82)</f>
         <v>5.5</v>
       </c>
-      <c r="U82" s="136"/>
-      <c r="V82" s="136">
+      <c r="U82" s="137"/>
+      <c r="V82" s="137">
         <f>SUM(J82-H82)</f>
         <v>4.25</v>
       </c>
-      <c r="W82" s="136"/>
-      <c r="X82" s="136">
+      <c r="W82" s="137"/>
+      <c r="X82" s="137">
         <f>SUM(N82-L82)</f>
         <v>4.5</v>
       </c>
-      <c r="Y82" s="136"/>
-      <c r="Z82" s="136">
+      <c r="Y82" s="137"/>
+      <c r="Z82" s="137">
         <f t="shared" si="204"/>
         <v>0</v>
       </c>
-      <c r="AA82" s="136"/>
-      <c r="AB82" s="136">
+      <c r="AA82" s="137"/>
+      <c r="AB82" s="137">
         <f t="shared" si="205"/>
         <v>14.25</v>
       </c>
-      <c r="AC82" s="137"/>
-      <c r="AD82" s="142">
+      <c r="AC82" s="138"/>
+      <c r="AD82" s="136">
         <f t="shared" ref="AD82:AD87" si="209">SUM(T82+AD81)</f>
         <v>14</v>
       </c>
-      <c r="AE82" s="142"/>
-      <c r="AF82" s="142">
+      <c r="AE82" s="136"/>
+      <c r="AF82" s="136">
         <f t="shared" si="206"/>
         <v>8</v>
       </c>
-      <c r="AG82" s="142"/>
-      <c r="AH82" s="142">
+      <c r="AG82" s="136"/>
+      <c r="AH82" s="136">
         <f t="shared" si="207"/>
         <v>10</v>
       </c>
-      <c r="AI82" s="142"/>
-      <c r="AJ82" s="142">
+      <c r="AI82" s="136"/>
+      <c r="AJ82" s="136">
         <f t="shared" si="208"/>
         <v>0.5</v>
       </c>
-      <c r="AK82" s="142"/>
-      <c r="AL82" s="142">
+      <c r="AK82" s="136"/>
+      <c r="AL82" s="136">
         <f>SUM(AB82+AL81)</f>
         <v>32.5</v>
       </c>
-      <c r="AM82" s="142"/>
+      <c r="AM82" s="136"/>
     </row>
     <row r="83" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="str">
@@ -21810,96 +21810,96 @@
         <f>SUM(($AL$75/2)+$AU$75+$BD$75+$BM$75+$BV$75+($CE$75/2))</f>
         <v>154</v>
       </c>
-      <c r="D83" s="135">
+      <c r="D83" s="142">
         <f>SUM((AE74/2)+AN74+AW74+BF74+BO74+(BX74/2))</f>
         <v>42.125</v>
       </c>
-      <c r="E83" s="136"/>
-      <c r="F83" s="136">
+      <c r="E83" s="137"/>
+      <c r="F83" s="137">
         <f>SUM((AF74/2)+AO74+AX74+BG74+BP74+(BY74/2))</f>
         <v>30.75</v>
       </c>
-      <c r="G83" s="137"/>
-      <c r="H83" s="135">
+      <c r="G83" s="138"/>
+      <c r="H83" s="142">
         <f>SUM((AG74/2)+AP74+AY74+BH74+BQ74+(BZ74/2))</f>
         <v>47.125</v>
       </c>
-      <c r="I83" s="136"/>
-      <c r="J83" s="136">
+      <c r="I83" s="137"/>
+      <c r="J83" s="137">
         <f>SUM((AH74/2)+AQ74+AZ74+BI74+BR74+(CA74/2))</f>
         <v>33.5</v>
       </c>
-      <c r="K83" s="137"/>
-      <c r="L83" s="135">
+      <c r="K83" s="138"/>
+      <c r="L83" s="142">
         <f>SUM((AI74/2)+AR74+BA74+BJ74+BS74+(CB74/2))</f>
         <v>95.125</v>
       </c>
-      <c r="M83" s="136"/>
-      <c r="N83" s="136">
+      <c r="M83" s="137"/>
+      <c r="N83" s="137">
         <f>SUM((AJ74/2)+AS74+BB74+BK74+BT74+(CC74/2))</f>
         <v>53.75</v>
       </c>
-      <c r="O83" s="137"/>
-      <c r="P83" s="135">
+      <c r="O83" s="138"/>
+      <c r="P83" s="142">
         <f>SUM((AK74/2)+AT74+BC74+BL74+BU74+(CD74/2))</f>
         <v>65.125</v>
       </c>
-      <c r="Q83" s="136"/>
-      <c r="R83" s="136">
+      <c r="Q83" s="137"/>
+      <c r="R83" s="137">
         <f>SUM((AL74/2)+AU74+BD74+BM74+BV74+(CE74/2))</f>
         <v>36</v>
       </c>
-      <c r="S83" s="137"/>
-      <c r="T83" s="135">
+      <c r="S83" s="138"/>
+      <c r="T83" s="142">
         <f t="shared" ref="T83:T87" si="210">SUM(F83-D83)</f>
         <v>-11.375</v>
       </c>
-      <c r="U83" s="136"/>
-      <c r="V83" s="136">
+      <c r="U83" s="137"/>
+      <c r="V83" s="137">
         <f t="shared" ref="V83:V88" si="211">SUM(J83-H83)</f>
         <v>-13.625</v>
       </c>
-      <c r="W83" s="136"/>
-      <c r="X83" s="136">
+      <c r="W83" s="137"/>
+      <c r="X83" s="137">
         <f t="shared" ref="X83:X88" si="212">SUM(N83-L83)</f>
         <v>-41.375</v>
       </c>
-      <c r="Y83" s="136"/>
-      <c r="Z83" s="136">
+      <c r="Y83" s="137"/>
+      <c r="Z83" s="137">
         <f t="shared" si="204"/>
         <v>29.125</v>
       </c>
-      <c r="AA83" s="136"/>
-      <c r="AB83" s="136">
+      <c r="AA83" s="137"/>
+      <c r="AB83" s="137">
         <f t="shared" si="205"/>
         <v>-37.25</v>
       </c>
-      <c r="AC83" s="137"/>
-      <c r="AD83" s="142">
+      <c r="AC83" s="138"/>
+      <c r="AD83" s="136">
         <f t="shared" si="209"/>
         <v>2.625</v>
       </c>
-      <c r="AE83" s="142"/>
-      <c r="AF83" s="142">
+      <c r="AE83" s="136"/>
+      <c r="AF83" s="136">
         <f t="shared" si="206"/>
         <v>-5.625</v>
       </c>
-      <c r="AG83" s="142"/>
-      <c r="AH83" s="142">
+      <c r="AG83" s="136"/>
+      <c r="AH83" s="136">
         <f t="shared" si="207"/>
         <v>-31.375</v>
       </c>
-      <c r="AI83" s="142"/>
-      <c r="AJ83" s="142">
+      <c r="AI83" s="136"/>
+      <c r="AJ83" s="136">
         <f t="shared" si="208"/>
         <v>29.625</v>
       </c>
-      <c r="AK83" s="142"/>
-      <c r="AL83" s="142">
+      <c r="AK83" s="136"/>
+      <c r="AL83" s="136">
         <f t="shared" ref="AL83:AL88" si="213">SUM(AB83+AL82)</f>
         <v>-4.75</v>
       </c>
-      <c r="AM83" s="142"/>
+      <c r="AM83" s="136"/>
     </row>
     <row r="84" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="str">
@@ -21914,96 +21914,96 @@
         <f>SUM(($CE$75/2)+$CN$75+($CW$75/2))</f>
         <v>90.75</v>
       </c>
-      <c r="D84" s="135">
+      <c r="D84" s="142">
         <f>SUM((BX74/2)+CG74+(CP74/2))</f>
         <v>16.125</v>
       </c>
-      <c r="E84" s="136"/>
-      <c r="F84" s="136">
+      <c r="E84" s="137"/>
+      <c r="F84" s="137">
         <f>SUM((BY74/2)+CH74+(CQ74/2))</f>
         <v>23</v>
       </c>
-      <c r="G84" s="137"/>
-      <c r="H84" s="135">
+      <c r="G84" s="138"/>
+      <c r="H84" s="142">
         <f>SUM((BZ74/2)+CI74+(CR74/2))</f>
         <v>16.125</v>
       </c>
-      <c r="I84" s="136"/>
-      <c r="J84" s="136">
+      <c r="I84" s="137"/>
+      <c r="J84" s="137">
         <f>SUM((CA74/2)+CJ74+(CS74/2))</f>
         <v>30.5</v>
       </c>
-      <c r="K84" s="137"/>
-      <c r="L84" s="135">
+      <c r="K84" s="138"/>
+      <c r="L84" s="142">
         <f>SUM((CB74/2)+CK74+(CT74/2))</f>
         <v>16.125</v>
       </c>
-      <c r="M84" s="136"/>
-      <c r="N84" s="136">
+      <c r="M84" s="137"/>
+      <c r="N84" s="137">
         <f>SUM((CC74/2)+CL74+(CU74/2))</f>
         <v>24.75</v>
       </c>
-      <c r="O84" s="137"/>
-      <c r="P84" s="135">
+      <c r="O84" s="138"/>
+      <c r="P84" s="142">
         <f>SUM((CD74/2)+CM74+(CV74/2))</f>
         <v>16.125</v>
       </c>
-      <c r="Q84" s="136"/>
-      <c r="R84" s="136">
+      <c r="Q84" s="137"/>
+      <c r="R84" s="137">
         <f>SUM((CE74/2)+CN74+(CW74/2))</f>
         <v>12.5</v>
       </c>
-      <c r="S84" s="137"/>
-      <c r="T84" s="135">
+      <c r="S84" s="138"/>
+      <c r="T84" s="142">
         <f>SUM(F84-D84)</f>
         <v>6.875</v>
       </c>
-      <c r="U84" s="136"/>
-      <c r="V84" s="136">
+      <c r="U84" s="137"/>
+      <c r="V84" s="137">
         <f>SUM(J84-H84)</f>
         <v>14.375</v>
       </c>
-      <c r="W84" s="136"/>
-      <c r="X84" s="136">
+      <c r="W84" s="137"/>
+      <c r="X84" s="137">
         <f>SUM(N84-L84)</f>
         <v>8.625</v>
       </c>
-      <c r="Y84" s="136"/>
-      <c r="Z84" s="136">
+      <c r="Y84" s="137"/>
+      <c r="Z84" s="137">
         <f t="shared" si="204"/>
         <v>3.625</v>
       </c>
-      <c r="AA84" s="136"/>
-      <c r="AB84" s="136">
+      <c r="AA84" s="137"/>
+      <c r="AB84" s="137">
         <f>SUM(V84+T84+X84+Z84)</f>
         <v>33.5</v>
       </c>
-      <c r="AC84" s="137"/>
-      <c r="AD84" s="142">
+      <c r="AC84" s="138"/>
+      <c r="AD84" s="136">
         <f t="shared" si="209"/>
         <v>9.5</v>
       </c>
-      <c r="AE84" s="142"/>
-      <c r="AF84" s="142">
+      <c r="AE84" s="136"/>
+      <c r="AF84" s="136">
         <f t="shared" si="206"/>
         <v>8.75</v>
       </c>
-      <c r="AG84" s="142"/>
-      <c r="AH84" s="142">
+      <c r="AG84" s="136"/>
+      <c r="AH84" s="136">
         <f t="shared" si="207"/>
         <v>-22.75</v>
       </c>
-      <c r="AI84" s="142"/>
-      <c r="AJ84" s="142">
+      <c r="AI84" s="136"/>
+      <c r="AJ84" s="136">
         <f t="shared" si="208"/>
         <v>33.25</v>
       </c>
-      <c r="AK84" s="142"/>
-      <c r="AL84" s="142">
+      <c r="AK84" s="136"/>
+      <c r="AL84" s="136">
         <f t="shared" si="213"/>
         <v>28.75</v>
       </c>
-      <c r="AM84" s="142"/>
+      <c r="AM84" s="136"/>
     </row>
     <row r="85" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="str">
@@ -22016,98 +22016,98 @@
       </c>
       <c r="C85" s="120">
         <f>SUM(($CW$75/2)+$DF$75+$DO$75+($DX$75/2))</f>
-        <v>72.75</v>
-      </c>
-      <c r="D85" s="135">
+        <v>75.25</v>
+      </c>
+      <c r="D85" s="142">
         <f>SUM((CP74/2)+CY74+DH74+(DQ74/2))</f>
         <v>22.25</v>
       </c>
-      <c r="E85" s="136"/>
-      <c r="F85" s="136">
+      <c r="E85" s="137"/>
+      <c r="F85" s="137">
         <f>SUM((CQ74/2)+CZ74+DI74+(DR74/2))</f>
-        <v>16.75</v>
-      </c>
-      <c r="G85" s="137"/>
-      <c r="H85" s="135">
+        <v>17.75</v>
+      </c>
+      <c r="G85" s="138"/>
+      <c r="H85" s="142">
         <f>SUM((CR74/2)+DA74+DJ74+(DS74/2))</f>
         <v>22.25</v>
       </c>
-      <c r="I85" s="136"/>
-      <c r="J85" s="136">
+      <c r="I85" s="137"/>
+      <c r="J85" s="137">
         <f>SUM((CS74/2)+DB74+DK74+(DT74/2))</f>
-        <v>21.5</v>
-      </c>
-      <c r="K85" s="137"/>
-      <c r="L85" s="135">
+        <v>23</v>
+      </c>
+      <c r="K85" s="138"/>
+      <c r="L85" s="142">
         <f>SUM((CT74/2)+DC74+DL74+(DU74/2))</f>
         <v>22.25</v>
       </c>
-      <c r="M85" s="136"/>
-      <c r="N85" s="136">
+      <c r="M85" s="137"/>
+      <c r="N85" s="137">
         <f>SUM((CU74/2)+DD74+DM74+(DV74/2))</f>
         <v>17</v>
       </c>
-      <c r="O85" s="137"/>
-      <c r="P85" s="135">
+      <c r="O85" s="138"/>
+      <c r="P85" s="142">
         <f>SUM((CV74/2)+DE74+DN74+(DW74/2))</f>
         <v>22.25</v>
       </c>
-      <c r="Q85" s="136"/>
-      <c r="R85" s="136">
+      <c r="Q85" s="137"/>
+      <c r="R85" s="137">
         <f>SUM((CW74/2)+DF74+DO74+(DX74/2))</f>
         <v>17.5</v>
       </c>
-      <c r="S85" s="137"/>
-      <c r="T85" s="135">
+      <c r="S85" s="138"/>
+      <c r="T85" s="142">
         <f t="shared" si="210"/>
-        <v>-5.5</v>
-      </c>
-      <c r="U85" s="136"/>
-      <c r="V85" s="136">
+        <v>-4.5</v>
+      </c>
+      <c r="U85" s="137"/>
+      <c r="V85" s="137">
         <f t="shared" si="211"/>
-        <v>-0.75</v>
-      </c>
-      <c r="W85" s="136"/>
-      <c r="X85" s="136">
+        <v>0.75</v>
+      </c>
+      <c r="W85" s="137"/>
+      <c r="X85" s="137">
         <f t="shared" si="212"/>
         <v>-5.25</v>
       </c>
-      <c r="Y85" s="136"/>
-      <c r="Z85" s="136">
+      <c r="Y85" s="137"/>
+      <c r="Z85" s="137">
         <f t="shared" si="204"/>
         <v>4.75</v>
       </c>
-      <c r="AA85" s="136"/>
-      <c r="AB85" s="136">
+      <c r="AA85" s="137"/>
+      <c r="AB85" s="137">
         <f>SUM(V85+T85+X85+Z85)</f>
-        <v>-6.75</v>
-      </c>
-      <c r="AC85" s="137"/>
-      <c r="AD85" s="142">
+        <v>-4.25</v>
+      </c>
+      <c r="AC85" s="138"/>
+      <c r="AD85" s="136">
         <f t="shared" si="209"/>
-        <v>4</v>
-      </c>
-      <c r="AE85" s="142"/>
-      <c r="AF85" s="142">
+        <v>5</v>
+      </c>
+      <c r="AE85" s="136"/>
+      <c r="AF85" s="136">
         <f t="shared" si="206"/>
-        <v>8</v>
-      </c>
-      <c r="AG85" s="142"/>
-      <c r="AH85" s="142">
+        <v>9.5</v>
+      </c>
+      <c r="AG85" s="136"/>
+      <c r="AH85" s="136">
         <f t="shared" si="207"/>
         <v>-28</v>
       </c>
-      <c r="AI85" s="142"/>
-      <c r="AJ85" s="142">
+      <c r="AI85" s="136"/>
+      <c r="AJ85" s="136">
         <f t="shared" si="208"/>
         <v>38</v>
       </c>
-      <c r="AK85" s="142"/>
-      <c r="AL85" s="142">
+      <c r="AK85" s="136"/>
+      <c r="AL85" s="136">
         <f t="shared" si="213"/>
-        <v>22</v>
-      </c>
-      <c r="AM85" s="142"/>
+        <v>24.5</v>
+      </c>
+      <c r="AM85" s="136"/>
     </row>
     <row r="86" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="str">
@@ -22122,96 +22122,96 @@
         <f>SUM(($DX$75/2)+($EG$75/2))</f>
         <v>0</v>
       </c>
-      <c r="D86" s="135">
+      <c r="D86" s="142">
         <f>SUM((DQ74/2)+(DZ74/2))</f>
         <v>2.125</v>
       </c>
-      <c r="E86" s="136"/>
-      <c r="F86" s="136">
+      <c r="E86" s="137"/>
+      <c r="F86" s="137">
         <f>SUM((DR74/2)+(EA74/2))</f>
         <v>0</v>
       </c>
-      <c r="G86" s="137"/>
-      <c r="H86" s="135">
+      <c r="G86" s="138"/>
+      <c r="H86" s="142">
         <f>SUM((DS74/2)+(EB74/2))</f>
         <v>2.125</v>
       </c>
-      <c r="I86" s="136"/>
-      <c r="J86" s="136">
+      <c r="I86" s="137"/>
+      <c r="J86" s="137">
         <f>SUM((DT74/2)+(EC74/2))</f>
         <v>0</v>
       </c>
-      <c r="K86" s="137"/>
-      <c r="L86" s="135">
+      <c r="K86" s="138"/>
+      <c r="L86" s="142">
         <f>SUM((DU74/2)+(ED74/2))</f>
         <v>2.125</v>
       </c>
-      <c r="M86" s="136"/>
-      <c r="N86" s="136">
+      <c r="M86" s="137"/>
+      <c r="N86" s="137">
         <f>SUM((DV74/2)+(EE74/2))</f>
         <v>0</v>
       </c>
-      <c r="O86" s="137"/>
-      <c r="P86" s="135">
+      <c r="O86" s="138"/>
+      <c r="P86" s="142">
         <f>SUM((DW74/2)+(EF74/2))</f>
         <v>2.125</v>
       </c>
-      <c r="Q86" s="136"/>
-      <c r="R86" s="136">
+      <c r="Q86" s="137"/>
+      <c r="R86" s="137">
         <f>SUM((DX74/2)+(EG74/2))</f>
         <v>0</v>
       </c>
-      <c r="S86" s="137"/>
-      <c r="T86" s="135">
+      <c r="S86" s="138"/>
+      <c r="T86" s="142">
         <f t="shared" si="210"/>
         <v>-2.125</v>
       </c>
-      <c r="U86" s="136"/>
-      <c r="V86" s="136">
+      <c r="U86" s="137"/>
+      <c r="V86" s="137">
         <f t="shared" si="211"/>
         <v>-2.125</v>
       </c>
-      <c r="W86" s="136"/>
-      <c r="X86" s="136">
+      <c r="W86" s="137"/>
+      <c r="X86" s="137">
         <f t="shared" si="212"/>
         <v>-2.125</v>
       </c>
-      <c r="Y86" s="136"/>
-      <c r="Z86" s="136">
+      <c r="Y86" s="137"/>
+      <c r="Z86" s="137">
         <f t="shared" si="204"/>
         <v>2.125</v>
       </c>
-      <c r="AA86" s="136"/>
-      <c r="AB86" s="136">
+      <c r="AA86" s="137"/>
+      <c r="AB86" s="137">
         <f t="shared" si="205"/>
         <v>-4.25</v>
       </c>
-      <c r="AC86" s="137"/>
-      <c r="AD86" s="142">
+      <c r="AC86" s="138"/>
+      <c r="AD86" s="136">
         <f>SUM(T86+AD85)</f>
-        <v>1.875</v>
-      </c>
-      <c r="AE86" s="142"/>
-      <c r="AF86" s="142">
+        <v>2.875</v>
+      </c>
+      <c r="AE86" s="136"/>
+      <c r="AF86" s="136">
         <f t="shared" si="206"/>
-        <v>5.875</v>
-      </c>
-      <c r="AG86" s="142"/>
-      <c r="AH86" s="142">
+        <v>7.375</v>
+      </c>
+      <c r="AG86" s="136"/>
+      <c r="AH86" s="136">
         <f t="shared" si="207"/>
         <v>-30.125</v>
       </c>
-      <c r="AI86" s="142"/>
-      <c r="AJ86" s="142">
+      <c r="AI86" s="136"/>
+      <c r="AJ86" s="136">
         <f t="shared" si="208"/>
         <v>40.125</v>
       </c>
-      <c r="AK86" s="142"/>
-      <c r="AL86" s="142">
+      <c r="AK86" s="136"/>
+      <c r="AL86" s="136">
         <f t="shared" si="213"/>
-        <v>17.75</v>
-      </c>
-      <c r="AM86" s="142"/>
+        <v>20.25</v>
+      </c>
+      <c r="AM86" s="136"/>
     </row>
     <row r="87" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
@@ -22225,96 +22225,96 @@
         <f>SUM(($EG$75/2)+$EP$75+$EY$75+$FH$75)</f>
         <v>0</v>
       </c>
-      <c r="D87" s="135">
+      <c r="D87" s="142">
         <f>SUM((DZ74/2)+EI74+ER74+FA74)</f>
         <v>7.875</v>
       </c>
-      <c r="E87" s="136"/>
-      <c r="F87" s="136">
+      <c r="E87" s="137"/>
+      <c r="F87" s="137">
         <f>SUM((EA74/2)+EJ74+ES74+FB74)</f>
         <v>0</v>
       </c>
-      <c r="G87" s="137"/>
-      <c r="H87" s="135">
+      <c r="G87" s="138"/>
+      <c r="H87" s="142">
         <f>SUM((EB74/2)+EK74+ET74+FC74)</f>
         <v>7.875</v>
       </c>
-      <c r="I87" s="136"/>
-      <c r="J87" s="136">
+      <c r="I87" s="137"/>
+      <c r="J87" s="137">
         <f>SUM((EC74/2)+EL74+EU74+FD74)</f>
         <v>0</v>
       </c>
-      <c r="K87" s="137"/>
-      <c r="L87" s="135">
+      <c r="K87" s="138"/>
+      <c r="L87" s="142">
         <f>SUM((ED74/2)+EM74+EV74+FE74)</f>
         <v>7.875</v>
       </c>
-      <c r="M87" s="136"/>
-      <c r="N87" s="136">
+      <c r="M87" s="137"/>
+      <c r="N87" s="137">
         <f>SUM((EE74/2)+EN74+EW74+FF74)</f>
         <v>0</v>
       </c>
-      <c r="O87" s="137"/>
-      <c r="P87" s="135">
+      <c r="O87" s="138"/>
+      <c r="P87" s="142">
         <f>SUM((EF74/2)+EO74+EX74+FG74)</f>
         <v>7.875</v>
       </c>
-      <c r="Q87" s="136"/>
-      <c r="R87" s="136">
+      <c r="Q87" s="137"/>
+      <c r="R87" s="137">
         <f>SUM((EG74/2)+EP74+EY74+FH74)</f>
         <v>0</v>
       </c>
-      <c r="S87" s="137"/>
-      <c r="T87" s="135">
+      <c r="S87" s="138"/>
+      <c r="T87" s="142">
         <f t="shared" si="210"/>
         <v>-7.875</v>
       </c>
-      <c r="U87" s="136"/>
-      <c r="V87" s="136">
+      <c r="U87" s="137"/>
+      <c r="V87" s="137">
         <f t="shared" si="211"/>
         <v>-7.875</v>
       </c>
-      <c r="W87" s="136"/>
-      <c r="X87" s="136">
+      <c r="W87" s="137"/>
+      <c r="X87" s="137">
         <f t="shared" si="212"/>
         <v>-7.875</v>
       </c>
-      <c r="Y87" s="136"/>
-      <c r="Z87" s="136">
+      <c r="Y87" s="137"/>
+      <c r="Z87" s="137">
         <f t="shared" si="204"/>
         <v>7.875</v>
       </c>
-      <c r="AA87" s="136"/>
-      <c r="AB87" s="136">
+      <c r="AA87" s="137"/>
+      <c r="AB87" s="137">
         <f>SUM(V87+T87+X87+Z87)</f>
         <v>-15.75</v>
       </c>
-      <c r="AC87" s="137"/>
-      <c r="AD87" s="142">
+      <c r="AC87" s="138"/>
+      <c r="AD87" s="136">
         <f t="shared" si="209"/>
-        <v>-6</v>
-      </c>
-      <c r="AE87" s="142"/>
-      <c r="AF87" s="142">
+        <v>-5</v>
+      </c>
+      <c r="AE87" s="136"/>
+      <c r="AF87" s="136">
         <f t="shared" si="206"/>
-        <v>-2</v>
-      </c>
-      <c r="AG87" s="142"/>
-      <c r="AH87" s="142">
+        <v>-0.5</v>
+      </c>
+      <c r="AG87" s="136"/>
+      <c r="AH87" s="136">
         <f t="shared" si="207"/>
         <v>-38</v>
       </c>
-      <c r="AI87" s="142"/>
-      <c r="AJ87" s="142">
+      <c r="AI87" s="136"/>
+      <c r="AJ87" s="136">
         <f t="shared" si="208"/>
         <v>48</v>
       </c>
-      <c r="AK87" s="142"/>
-      <c r="AL87" s="142">
+      <c r="AK87" s="136"/>
+      <c r="AL87" s="136">
         <f t="shared" si="213"/>
-        <v>2</v>
-      </c>
-      <c r="AM87" s="142"/>
+        <v>4.5</v>
+      </c>
+      <c r="AM87" s="136"/>
     </row>
     <row r="88" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
@@ -22326,98 +22326,98 @@
       </c>
       <c r="C88" s="120">
         <f>SUM($C$80:$C$87)</f>
-        <v>408</v>
-      </c>
-      <c r="D88" s="135">
+        <v>410.5</v>
+      </c>
+      <c r="D88" s="142">
         <f>SUM(D80:E87)</f>
         <v>106</v>
       </c>
-      <c r="E88" s="136"/>
-      <c r="F88" s="136">
+      <c r="E88" s="137"/>
+      <c r="F88" s="137">
         <f>SUM(F80:G87)</f>
-        <v>100</v>
-      </c>
-      <c r="G88" s="137"/>
-      <c r="H88" s="135">
+        <v>101</v>
+      </c>
+      <c r="G88" s="138"/>
+      <c r="H88" s="142">
         <f>SUM(H80:I87)</f>
         <v>115</v>
       </c>
-      <c r="I88" s="136"/>
-      <c r="J88" s="136">
+      <c r="I88" s="137"/>
+      <c r="J88" s="137">
         <f>SUM(J80:K87)</f>
-        <v>113</v>
-      </c>
-      <c r="K88" s="137"/>
-      <c r="L88" s="135">
+        <v>114.5</v>
+      </c>
+      <c r="K88" s="138"/>
+      <c r="L88" s="142">
         <f>SUM(L80:M87)</f>
         <v>156</v>
       </c>
-      <c r="M88" s="136"/>
-      <c r="N88" s="136">
+      <c r="M88" s="137"/>
+      <c r="N88" s="137">
         <f>SUM(N80:O87)</f>
         <v>118</v>
       </c>
-      <c r="O88" s="137"/>
-      <c r="P88" s="135">
+      <c r="O88" s="138"/>
+      <c r="P88" s="142">
         <f>SUM(P80:Q87)</f>
         <v>125</v>
       </c>
-      <c r="Q88" s="136"/>
-      <c r="R88" s="136">
+      <c r="Q88" s="137"/>
+      <c r="R88" s="137">
         <f>SUM(R80:S87)</f>
         <v>77</v>
       </c>
-      <c r="S88" s="137"/>
-      <c r="T88" s="135">
+      <c r="S88" s="138"/>
+      <c r="T88" s="142">
         <f>SUM(F88-D88)</f>
-        <v>-6</v>
-      </c>
-      <c r="U88" s="136"/>
-      <c r="V88" s="136">
+        <v>-5</v>
+      </c>
+      <c r="U88" s="137"/>
+      <c r="V88" s="137">
         <f t="shared" si="211"/>
-        <v>-2</v>
-      </c>
-      <c r="W88" s="136"/>
-      <c r="X88" s="136">
+        <v>-0.5</v>
+      </c>
+      <c r="W88" s="137"/>
+      <c r="X88" s="137">
         <f t="shared" si="212"/>
         <v>-38</v>
       </c>
-      <c r="Y88" s="136"/>
-      <c r="Z88" s="136">
+      <c r="Y88" s="137"/>
+      <c r="Z88" s="137">
         <f t="shared" si="204"/>
         <v>48</v>
       </c>
-      <c r="AA88" s="136"/>
-      <c r="AB88" s="136">
+      <c r="AA88" s="137"/>
+      <c r="AB88" s="137">
         <f t="shared" si="205"/>
-        <v>2</v>
-      </c>
-      <c r="AC88" s="137"/>
-      <c r="AD88" s="142">
+        <v>4.5</v>
+      </c>
+      <c r="AC88" s="138"/>
+      <c r="AD88" s="136">
         <f>SUM(T88+AD87)</f>
-        <v>-12</v>
-      </c>
-      <c r="AE88" s="142"/>
-      <c r="AF88" s="142">
+        <v>-10</v>
+      </c>
+      <c r="AE88" s="136"/>
+      <c r="AF88" s="136">
         <f t="shared" si="206"/>
-        <v>-4</v>
-      </c>
-      <c r="AG88" s="142"/>
-      <c r="AH88" s="142">
+        <v>-1</v>
+      </c>
+      <c r="AG88" s="136"/>
+      <c r="AH88" s="136">
         <f t="shared" si="207"/>
         <v>-76</v>
       </c>
-      <c r="AI88" s="142"/>
-      <c r="AJ88" s="142">
+      <c r="AI88" s="136"/>
+      <c r="AJ88" s="136">
         <f t="shared" si="208"/>
         <v>96</v>
       </c>
-      <c r="AK88" s="142"/>
-      <c r="AL88" s="142">
+      <c r="AK88" s="136"/>
+      <c r="AL88" s="136">
         <f t="shared" si="213"/>
-        <v>4</v>
-      </c>
-      <c r="AM88" s="142"/>
+        <v>9</v>
+      </c>
+      <c r="AM88" s="136"/>
     </row>
     <row r="89" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
@@ -22524,14 +22524,14 @@
         <v>46</v>
       </c>
       <c r="V91" s="139"/>
-      <c r="W91" s="143" t="s">
+      <c r="W91" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="X91" s="143"/>
-      <c r="Y91" s="143"/>
-      <c r="Z91" s="143"/>
-      <c r="AA91" s="143"/>
-      <c r="AB91" s="143"/>
+      <c r="X91" s="163"/>
+      <c r="Y91" s="163"/>
+      <c r="Z91" s="163"/>
+      <c r="AA91" s="163"/>
+      <c r="AB91" s="163"/>
       <c r="AC91" s="139" t="s">
         <v>112</v>
       </c>
@@ -22547,15 +22547,15 @@
     </row>
     <row r="92" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="128"/>
-      <c r="B92" s="143" t="s">
+      <c r="B92" s="163" t="s">
         <v>113</v>
       </c>
-      <c r="C92" s="143"/>
-      <c r="D92" s="142">
+      <c r="C92" s="163"/>
+      <c r="D92" s="136">
         <f>SUM(B11,B16,B23,B29,B32,B44,B48,B57,B65,B70)</f>
         <v>895</v>
       </c>
-      <c r="E92" s="142"/>
+      <c r="E92" s="136"/>
       <c r="F92" s="71"/>
       <c r="G92" s="71"/>
       <c r="H92" s="16"/>
@@ -22563,10 +22563,10 @@
       <c r="J92" s="16"/>
       <c r="K92" s="16"/>
       <c r="L92" s="16"/>
-      <c r="M92" s="144" t="s">
+      <c r="M92" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="N92" s="144"/>
+      <c r="N92" s="167"/>
       <c r="O92" s="124"/>
       <c r="P92" s="124"/>
       <c r="Q92" s="141" t="str">
@@ -22576,24 +22576,24 @@
       <c r="R92" s="141"/>
       <c r="S92" s="141"/>
       <c r="T92" s="141"/>
-      <c r="U92" s="140">
+      <c r="U92" s="134">
         <f>SUM(D74+M74+V74+AE74+AN74+AW74+BF74+BO74+BX74+CG74+CP74+CY74+DH74+DQ74+DZ74+EI74+ER74+FA74)</f>
         <v>106</v>
       </c>
-      <c r="V92" s="140"/>
-      <c r="W92" s="140">
+      <c r="V92" s="134"/>
+      <c r="W92" s="134">
         <f>SUM(E74+N74+W74+AF74+AO74+AX74+BG74+BP74+BY74+CH74+CQ74+CZ74+DI74+DR74+EA74+EJ74+ES74+FB74)</f>
-        <v>100</v>
-      </c>
-      <c r="X92" s="140"/>
-      <c r="Y92" s="140"/>
-      <c r="Z92" s="140"/>
-      <c r="AA92" s="140"/>
-      <c r="AB92" s="140"/>
-      <c r="AC92" s="134">
+        <v>101</v>
+      </c>
+      <c r="X92" s="134"/>
+      <c r="Y92" s="134"/>
+      <c r="Z92" s="134"/>
+      <c r="AA92" s="134"/>
+      <c r="AB92" s="134"/>
+      <c r="AC92" s="135">
         <v>150</v>
       </c>
-      <c r="AD92" s="134"/>
+      <c r="AD92" s="135"/>
       <c r="AE92" s="128"/>
       <c r="AF92" s="128"/>
       <c r="AG92" s="128"/>
@@ -22626,24 +22626,24 @@
       <c r="R93" s="141"/>
       <c r="S93" s="141"/>
       <c r="T93" s="141"/>
-      <c r="U93" s="140">
+      <c r="U93" s="134">
         <f>SUM(F74+O74+X74+AG74+AP74+AY74+BH74+BQ74+BZ74+CI74+CR74+DA74+DJ74+DS74+EB74+EK74+ET74+FC74)</f>
         <v>115</v>
       </c>
-      <c r="V93" s="140"/>
-      <c r="W93" s="140">
+      <c r="V93" s="134"/>
+      <c r="W93" s="134">
         <f>SUM(G74+P74+Y74+AH74+AQ74+AZ74+BI74+BR74+CA74+CJ74+CS74+DB74+DK74+DT74+EC74+EL74+EU74+FD74)</f>
-        <v>113</v>
-      </c>
-      <c r="X93" s="140"/>
-      <c r="Y93" s="140"/>
-      <c r="Z93" s="140"/>
-      <c r="AA93" s="140"/>
-      <c r="AB93" s="140"/>
-      <c r="AC93" s="134">
+        <v>114.5</v>
+      </c>
+      <c r="X93" s="134"/>
+      <c r="Y93" s="134"/>
+      <c r="Z93" s="134"/>
+      <c r="AA93" s="134"/>
+      <c r="AB93" s="134"/>
+      <c r="AC93" s="135">
         <v>150</v>
       </c>
-      <c r="AD93" s="134"/>
+      <c r="AD93" s="135"/>
       <c r="AE93" s="128"/>
       <c r="AF93" s="128"/>
       <c r="AG93" s="128"/>
@@ -22654,15 +22654,15 @@
     </row>
     <row r="94" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A94" s="128"/>
-      <c r="B94" s="143" t="s">
+      <c r="B94" s="163" t="s">
         <v>114</v>
       </c>
-      <c r="C94" s="143"/>
-      <c r="D94" s="142">
+      <c r="C94" s="163"/>
+      <c r="D94" s="136">
         <f>SUM(C11,C16,C23,C29,C32,C44,C48,C57,C65,C70)</f>
-        <v>406.5</v>
-      </c>
-      <c r="E94" s="142"/>
+        <v>409</v>
+      </c>
+      <c r="E94" s="136"/>
       <c r="F94" s="71"/>
       <c r="G94" s="71"/>
       <c r="H94" s="16"/>
@@ -22670,10 +22670,10 @@
       <c r="J94" s="16"/>
       <c r="K94" s="16"/>
       <c r="L94" s="16"/>
-      <c r="M94" s="144" t="s">
+      <c r="M94" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="N94" s="144"/>
+      <c r="N94" s="167"/>
       <c r="O94" s="124"/>
       <c r="P94" s="124"/>
       <c r="Q94" s="141" t="str">
@@ -22683,24 +22683,24 @@
       <c r="R94" s="141"/>
       <c r="S94" s="141"/>
       <c r="T94" s="141"/>
-      <c r="U94" s="140">
+      <c r="U94" s="134">
         <f>SUM(H74+Q74+Z74+AI74+AR74+BA74+BJ74+BS74+CB74+CK74+CT74+DC74+DL74+DU74+ED74+EM74+EV74+FE74)</f>
         <v>156</v>
       </c>
-      <c r="V94" s="140"/>
-      <c r="W94" s="140">
+      <c r="V94" s="134"/>
+      <c r="W94" s="134">
         <f>SUM(I74+R74+AA74+AJ74+AS74+BB74+BK74+BT74+CC74+CL74+CU74+DD74+DM74+DV74+EE74+EN74+EW74+FF74)</f>
         <v>118</v>
       </c>
-      <c r="X94" s="140"/>
-      <c r="Y94" s="140"/>
-      <c r="Z94" s="140"/>
-      <c r="AA94" s="140"/>
-      <c r="AB94" s="140"/>
-      <c r="AC94" s="134">
+      <c r="X94" s="134"/>
+      <c r="Y94" s="134"/>
+      <c r="Z94" s="134"/>
+      <c r="AA94" s="134"/>
+      <c r="AB94" s="134"/>
+      <c r="AC94" s="135">
         <v>150</v>
       </c>
-      <c r="AD94" s="134"/>
+      <c r="AD94" s="135"/>
       <c r="AE94" s="128"/>
       <c r="AF94" s="128"/>
       <c r="AG94" s="128"/>
@@ -22733,24 +22733,24 @@
       <c r="R95" s="141"/>
       <c r="S95" s="141"/>
       <c r="T95" s="141"/>
-      <c r="U95" s="140">
+      <c r="U95" s="134">
         <f>SUM(J74+S74+AB74+AK74+AT74+BC74+BL74+BU74+CD74+CM74+CV74+DE74+DN74+DW74+EF74+EO74+EX74+FG74)</f>
         <v>125</v>
       </c>
-      <c r="V95" s="140"/>
-      <c r="W95" s="140">
+      <c r="V95" s="134"/>
+      <c r="W95" s="134">
         <f>SUM(K74+T74+AC74+AL74+AU74+BD74+BM74+BV74+CE74+CN74+CW74+DF74+DO74+DX74+EG74+EP74+EY74+FH74)</f>
         <v>77</v>
       </c>
-      <c r="X95" s="140"/>
-      <c r="Y95" s="140"/>
-      <c r="Z95" s="140"/>
-      <c r="AA95" s="140"/>
-      <c r="AB95" s="140"/>
-      <c r="AC95" s="134">
+      <c r="X95" s="134"/>
+      <c r="Y95" s="134"/>
+      <c r="Z95" s="134"/>
+      <c r="AA95" s="134"/>
+      <c r="AB95" s="134"/>
+      <c r="AC95" s="135">
         <v>150</v>
       </c>
-      <c r="AD95" s="134"/>
+      <c r="AD95" s="135"/>
       <c r="AE95" s="128"/>
       <c r="AF95" s="128"/>
       <c r="AG95" s="128"/>
@@ -22786,27 +22786,321 @@
       <c r="J105" s="128"/>
       <c r="K105" s="128"/>
       <c r="L105" s="128"/>
-      <c r="M105" s="138"/>
+      <c r="M105" s="168"/>
       <c r="N105" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="350">
-    <mergeCell ref="U93:V93"/>
-    <mergeCell ref="W93:AB93"/>
-    <mergeCell ref="AC93:AD93"/>
-    <mergeCell ref="AF86:AG86"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="Q94:T94"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="R86:S86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="R87:S87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="R88:S88"/>
+    <mergeCell ref="AC95:AD95"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="U94:V94"/>
+    <mergeCell ref="Q93:T93"/>
+    <mergeCell ref="AD87:AE87"/>
+    <mergeCell ref="AD88:AE88"/>
+    <mergeCell ref="AD86:AE86"/>
+    <mergeCell ref="T87:U87"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="AL85:AM85"/>
+    <mergeCell ref="Q95:T95"/>
+    <mergeCell ref="T85:U85"/>
+    <mergeCell ref="V85:W85"/>
+    <mergeCell ref="AB85:AC85"/>
+    <mergeCell ref="AC94:AD94"/>
+    <mergeCell ref="U91:V91"/>
+    <mergeCell ref="W91:AB91"/>
+    <mergeCell ref="W94:AB94"/>
+    <mergeCell ref="AC91:AD91"/>
+    <mergeCell ref="AC92:AD92"/>
+    <mergeCell ref="U92:V92"/>
+    <mergeCell ref="W92:AB92"/>
+    <mergeCell ref="Q92:T92"/>
+    <mergeCell ref="Z86:AA86"/>
+    <mergeCell ref="Z87:AA87"/>
+    <mergeCell ref="Z88:AA88"/>
+    <mergeCell ref="AB86:AC86"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="BC9:BD9"/>
+    <mergeCell ref="BU9:BV9"/>
+    <mergeCell ref="BO9:BP9"/>
+    <mergeCell ref="T86:U86"/>
+    <mergeCell ref="V79:W79"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="V86:W86"/>
+    <mergeCell ref="T84:U84"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="AH79:AK79"/>
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="AB79:AC79"/>
+    <mergeCell ref="T80:U80"/>
+    <mergeCell ref="T81:U81"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="V80:W80"/>
+    <mergeCell ref="AB80:AC80"/>
+    <mergeCell ref="V81:W81"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="Z79:AA79"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="BU8:BV8"/>
+    <mergeCell ref="BX8:BY8"/>
+    <mergeCell ref="AW8:AZ8"/>
+    <mergeCell ref="BC8:BD8"/>
+    <mergeCell ref="BF8:BG8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BO8:BP8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="AB84:AC84"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="X82:Y82"/>
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AD79:AE79"/>
+    <mergeCell ref="AL79:AM79"/>
+    <mergeCell ref="AD80:AE80"/>
+    <mergeCell ref="AL80:AM80"/>
+    <mergeCell ref="AD81:AE81"/>
+    <mergeCell ref="AB81:AC81"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="EI7:EP7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AN8:AO8"/>
+    <mergeCell ref="AT8:AU8"/>
+    <mergeCell ref="CD8:CE8"/>
+    <mergeCell ref="CG8:CH8"/>
+    <mergeCell ref="BO7:BV7"/>
+    <mergeCell ref="BX7:CE7"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="AE7:AL7"/>
+    <mergeCell ref="AN7:AU7"/>
+    <mergeCell ref="AW7:BD7"/>
+    <mergeCell ref="M7:T7"/>
+    <mergeCell ref="V7:AC7"/>
+    <mergeCell ref="DQ7:DX7"/>
+    <mergeCell ref="DZ7:EG7"/>
+    <mergeCell ref="DH7:DO7"/>
+    <mergeCell ref="DE8:DF8"/>
+    <mergeCell ref="EI5:FH5"/>
+    <mergeCell ref="DQ5:EH5"/>
+    <mergeCell ref="M5:AD5"/>
+    <mergeCell ref="AE5:AV5"/>
+    <mergeCell ref="AW5:BN5"/>
+    <mergeCell ref="BO5:CF5"/>
+    <mergeCell ref="CG5:CX5"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="CY5:DP5"/>
+    <mergeCell ref="DZ8:EA8"/>
+    <mergeCell ref="CG7:CN7"/>
+    <mergeCell ref="CP7:CW7"/>
+    <mergeCell ref="CY7:DF7"/>
+    <mergeCell ref="CM8:CN8"/>
+    <mergeCell ref="CP8:CQ8"/>
+    <mergeCell ref="CV8:CW8"/>
+    <mergeCell ref="CY8:CZ8"/>
+    <mergeCell ref="FA7:FH7"/>
+    <mergeCell ref="FG8:FH8"/>
+    <mergeCell ref="ER7:EY7"/>
+    <mergeCell ref="EI9:EJ9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="BX9:BY9"/>
+    <mergeCell ref="CD9:CE9"/>
+    <mergeCell ref="BF7:BM7"/>
+    <mergeCell ref="BF9:BG9"/>
+    <mergeCell ref="BL9:BM9"/>
+    <mergeCell ref="EF9:EG9"/>
+    <mergeCell ref="DN9:DO9"/>
+    <mergeCell ref="DH8:DI8"/>
+    <mergeCell ref="DN8:DO8"/>
+    <mergeCell ref="DQ8:DR8"/>
+    <mergeCell ref="DW8:DX8"/>
+    <mergeCell ref="FG9:FH9"/>
+    <mergeCell ref="EF8:EG8"/>
+    <mergeCell ref="EI8:EJ8"/>
+    <mergeCell ref="EO8:EP8"/>
+    <mergeCell ref="ER8:ES8"/>
+    <mergeCell ref="EO9:EP9"/>
+    <mergeCell ref="ER9:ES9"/>
+    <mergeCell ref="EX9:EY9"/>
+    <mergeCell ref="AW9:AX9"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="EX8:EY8"/>
+    <mergeCell ref="FA8:FB8"/>
+    <mergeCell ref="FE9:FF9"/>
+    <mergeCell ref="EV9:EW9"/>
+    <mergeCell ref="EM9:EN9"/>
+    <mergeCell ref="EK9:EL9"/>
+    <mergeCell ref="ET9:EU9"/>
+    <mergeCell ref="FC9:FD9"/>
+    <mergeCell ref="FA9:FB9"/>
+    <mergeCell ref="DQ9:DR9"/>
+    <mergeCell ref="DW9:DX9"/>
+    <mergeCell ref="CG9:CH9"/>
+    <mergeCell ref="BH9:BI9"/>
+    <mergeCell ref="BQ9:BR9"/>
+    <mergeCell ref="BZ9:CA9"/>
+    <mergeCell ref="CI9:CJ9"/>
+    <mergeCell ref="CR9:CS9"/>
+    <mergeCell ref="ED9:EE9"/>
+    <mergeCell ref="DU9:DV9"/>
+    <mergeCell ref="DL9:DM9"/>
+    <mergeCell ref="DC9:DD9"/>
+    <mergeCell ref="CT9:CU9"/>
+    <mergeCell ref="CK9:CL9"/>
+    <mergeCell ref="CB9:CC9"/>
+    <mergeCell ref="BS9:BT9"/>
+    <mergeCell ref="BJ9:BK9"/>
+    <mergeCell ref="DA9:DB9"/>
+    <mergeCell ref="DJ9:DK9"/>
+    <mergeCell ref="DS9:DT9"/>
+    <mergeCell ref="EB9:EC9"/>
+    <mergeCell ref="DZ9:EA9"/>
+    <mergeCell ref="CM9:CN9"/>
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CV9:CW9"/>
+    <mergeCell ref="CY9:CZ9"/>
+    <mergeCell ref="DE9:DF9"/>
+    <mergeCell ref="DH9:DI9"/>
+    <mergeCell ref="T78:AC78"/>
+    <mergeCell ref="AD78:AM78"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="Z80:AA80"/>
+    <mergeCell ref="Z81:AA81"/>
+    <mergeCell ref="Z82:AA82"/>
+    <mergeCell ref="Z83:AA83"/>
+    <mergeCell ref="Z84:AA84"/>
+    <mergeCell ref="Z85:AA85"/>
+    <mergeCell ref="AD84:AE84"/>
+    <mergeCell ref="AD85:AE85"/>
+    <mergeCell ref="AD83:AE83"/>
+    <mergeCell ref="AB83:AC83"/>
+    <mergeCell ref="AF79:AG79"/>
+    <mergeCell ref="AF80:AG80"/>
+    <mergeCell ref="AF81:AG81"/>
+    <mergeCell ref="AF82:AG82"/>
+    <mergeCell ref="AL87:AM87"/>
+    <mergeCell ref="AL88:AM88"/>
+    <mergeCell ref="AL86:AM86"/>
+    <mergeCell ref="AL84:AM84"/>
+    <mergeCell ref="AL81:AM81"/>
+    <mergeCell ref="AD82:AE82"/>
+    <mergeCell ref="AL82:AM82"/>
+    <mergeCell ref="AL83:AM83"/>
+    <mergeCell ref="AB82:AC82"/>
+    <mergeCell ref="AB87:AC87"/>
+    <mergeCell ref="AF88:AG88"/>
+    <mergeCell ref="AF87:AG87"/>
+    <mergeCell ref="AB88:AC88"/>
+    <mergeCell ref="AF83:AG83"/>
+    <mergeCell ref="AF84:AG84"/>
+    <mergeCell ref="AF85:AG85"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="P78:S78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="R85:S85"/>
     <mergeCell ref="U95:V95"/>
     <mergeCell ref="AJ80:AK80"/>
     <mergeCell ref="AJ82:AK82"/>
@@ -22831,316 +23125,22 @@
     <mergeCell ref="V87:W87"/>
     <mergeCell ref="V88:W88"/>
     <mergeCell ref="W95:AB95"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="P78:S78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="AL87:AM87"/>
-    <mergeCell ref="AL88:AM88"/>
-    <mergeCell ref="AL86:AM86"/>
-    <mergeCell ref="AL84:AM84"/>
-    <mergeCell ref="AL81:AM81"/>
-    <mergeCell ref="AD82:AE82"/>
-    <mergeCell ref="AL82:AM82"/>
-    <mergeCell ref="AL83:AM83"/>
-    <mergeCell ref="AB82:AC82"/>
-    <mergeCell ref="AB87:AC87"/>
-    <mergeCell ref="AF88:AG88"/>
-    <mergeCell ref="AF87:AG87"/>
-    <mergeCell ref="AB88:AC88"/>
-    <mergeCell ref="AF83:AG83"/>
-    <mergeCell ref="AF84:AG84"/>
-    <mergeCell ref="AF85:AG85"/>
-    <mergeCell ref="T78:AC78"/>
-    <mergeCell ref="AD78:AM78"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="Z80:AA80"/>
-    <mergeCell ref="Z81:AA81"/>
-    <mergeCell ref="Z82:AA82"/>
-    <mergeCell ref="Z83:AA83"/>
-    <mergeCell ref="Z84:AA84"/>
-    <mergeCell ref="Z85:AA85"/>
-    <mergeCell ref="AD84:AE84"/>
-    <mergeCell ref="AD85:AE85"/>
-    <mergeCell ref="AD83:AE83"/>
-    <mergeCell ref="AB83:AC83"/>
-    <mergeCell ref="AF79:AG79"/>
-    <mergeCell ref="AF80:AG80"/>
-    <mergeCell ref="AF81:AG81"/>
-    <mergeCell ref="AF82:AG82"/>
-    <mergeCell ref="CT9:CU9"/>
-    <mergeCell ref="CK9:CL9"/>
-    <mergeCell ref="CB9:CC9"/>
-    <mergeCell ref="BS9:BT9"/>
-    <mergeCell ref="BJ9:BK9"/>
-    <mergeCell ref="DA9:DB9"/>
-    <mergeCell ref="DJ9:DK9"/>
-    <mergeCell ref="DS9:DT9"/>
-    <mergeCell ref="EB9:EC9"/>
-    <mergeCell ref="DZ9:EA9"/>
-    <mergeCell ref="CM9:CN9"/>
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CV9:CW9"/>
-    <mergeCell ref="CY9:CZ9"/>
-    <mergeCell ref="DE9:DF9"/>
-    <mergeCell ref="DH9:DI9"/>
-    <mergeCell ref="AW9:AX9"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="EX8:EY8"/>
-    <mergeCell ref="FA8:FB8"/>
-    <mergeCell ref="FE9:FF9"/>
-    <mergeCell ref="EV9:EW9"/>
-    <mergeCell ref="EM9:EN9"/>
-    <mergeCell ref="EK9:EL9"/>
-    <mergeCell ref="ET9:EU9"/>
-    <mergeCell ref="FC9:FD9"/>
-    <mergeCell ref="FA9:FB9"/>
-    <mergeCell ref="DQ9:DR9"/>
-    <mergeCell ref="DW9:DX9"/>
-    <mergeCell ref="CG9:CH9"/>
-    <mergeCell ref="BH9:BI9"/>
-    <mergeCell ref="BQ9:BR9"/>
-    <mergeCell ref="BZ9:CA9"/>
-    <mergeCell ref="CI9:CJ9"/>
-    <mergeCell ref="CR9:CS9"/>
-    <mergeCell ref="ED9:EE9"/>
-    <mergeCell ref="DU9:DV9"/>
-    <mergeCell ref="DL9:DM9"/>
-    <mergeCell ref="DC9:DD9"/>
-    <mergeCell ref="FA7:FH7"/>
-    <mergeCell ref="FG8:FH8"/>
-    <mergeCell ref="ER7:EY7"/>
-    <mergeCell ref="EI9:EJ9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="BX9:BY9"/>
-    <mergeCell ref="CD9:CE9"/>
-    <mergeCell ref="BF7:BM7"/>
-    <mergeCell ref="BF9:BG9"/>
-    <mergeCell ref="BL9:BM9"/>
-    <mergeCell ref="EF9:EG9"/>
-    <mergeCell ref="DN9:DO9"/>
-    <mergeCell ref="DH8:DI8"/>
-    <mergeCell ref="DN8:DO8"/>
-    <mergeCell ref="DQ8:DR8"/>
-    <mergeCell ref="DW8:DX8"/>
-    <mergeCell ref="FG9:FH9"/>
-    <mergeCell ref="EF8:EG8"/>
-    <mergeCell ref="EI8:EJ8"/>
-    <mergeCell ref="EO8:EP8"/>
-    <mergeCell ref="ER8:ES8"/>
-    <mergeCell ref="EO9:EP9"/>
-    <mergeCell ref="ER9:ES9"/>
-    <mergeCell ref="EX9:EY9"/>
-    <mergeCell ref="DQ5:EH5"/>
-    <mergeCell ref="M5:AD5"/>
-    <mergeCell ref="AE5:AV5"/>
-    <mergeCell ref="AW5:BN5"/>
-    <mergeCell ref="BO5:CF5"/>
-    <mergeCell ref="CG5:CX5"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="CY5:DP5"/>
-    <mergeCell ref="DZ8:EA8"/>
-    <mergeCell ref="CG7:CN7"/>
-    <mergeCell ref="CP7:CW7"/>
-    <mergeCell ref="CY7:DF7"/>
-    <mergeCell ref="CM8:CN8"/>
-    <mergeCell ref="CP8:CQ8"/>
-    <mergeCell ref="CV8:CW8"/>
-    <mergeCell ref="CY8:CZ8"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="EI7:EP7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AN8:AO8"/>
-    <mergeCell ref="AT8:AU8"/>
-    <mergeCell ref="CD8:CE8"/>
-    <mergeCell ref="CG8:CH8"/>
-    <mergeCell ref="BO7:BV7"/>
-    <mergeCell ref="BX7:CE7"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="AE7:AL7"/>
-    <mergeCell ref="AN7:AU7"/>
-    <mergeCell ref="AW7:BD7"/>
-    <mergeCell ref="M7:T7"/>
-    <mergeCell ref="V7:AC7"/>
-    <mergeCell ref="DQ7:DX7"/>
-    <mergeCell ref="DZ7:EG7"/>
-    <mergeCell ref="DH7:DO7"/>
-    <mergeCell ref="DE8:DF8"/>
-    <mergeCell ref="EI5:FH5"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="AB84:AC84"/>
-    <mergeCell ref="X80:Y80"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="X82:Y82"/>
-    <mergeCell ref="X83:Y83"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AD79:AE79"/>
-    <mergeCell ref="AL79:AM79"/>
-    <mergeCell ref="AD80:AE80"/>
-    <mergeCell ref="AL80:AM80"/>
-    <mergeCell ref="AD81:AE81"/>
-    <mergeCell ref="AB81:AC81"/>
-    <mergeCell ref="T79:U79"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="BU8:BV8"/>
-    <mergeCell ref="BX8:BY8"/>
-    <mergeCell ref="AW8:AZ8"/>
-    <mergeCell ref="BC8:BD8"/>
-    <mergeCell ref="BF8:BG8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BO8:BP8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="BC9:BD9"/>
-    <mergeCell ref="BU9:BV9"/>
-    <mergeCell ref="BO9:BP9"/>
-    <mergeCell ref="T86:U86"/>
-    <mergeCell ref="V79:W79"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="V86:W86"/>
-    <mergeCell ref="T84:U84"/>
-    <mergeCell ref="V84:W84"/>
-    <mergeCell ref="AH79:AK79"/>
-    <mergeCell ref="X85:Y85"/>
-    <mergeCell ref="X86:Y86"/>
-    <mergeCell ref="AB79:AC79"/>
-    <mergeCell ref="T80:U80"/>
-    <mergeCell ref="T81:U81"/>
-    <mergeCell ref="T82:U82"/>
-    <mergeCell ref="T83:U83"/>
-    <mergeCell ref="V80:W80"/>
-    <mergeCell ref="AB80:AC80"/>
-    <mergeCell ref="V81:W81"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="Z79:AA79"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="AL85:AM85"/>
-    <mergeCell ref="Q95:T95"/>
-    <mergeCell ref="T85:U85"/>
-    <mergeCell ref="V85:W85"/>
-    <mergeCell ref="AB85:AC85"/>
-    <mergeCell ref="AC94:AD94"/>
-    <mergeCell ref="U91:V91"/>
-    <mergeCell ref="W91:AB91"/>
-    <mergeCell ref="W94:AB94"/>
-    <mergeCell ref="AC91:AD91"/>
-    <mergeCell ref="AC92:AD92"/>
-    <mergeCell ref="U92:V92"/>
-    <mergeCell ref="W92:AB92"/>
-    <mergeCell ref="Q92:T92"/>
-    <mergeCell ref="Z86:AA86"/>
-    <mergeCell ref="Z87:AA87"/>
-    <mergeCell ref="Z88:AA88"/>
-    <mergeCell ref="AB86:AC86"/>
-    <mergeCell ref="AC95:AD95"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="L87:M87"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="U94:V94"/>
-    <mergeCell ref="Q93:T93"/>
-    <mergeCell ref="AD87:AE87"/>
-    <mergeCell ref="AD88:AE88"/>
-    <mergeCell ref="AD86:AE86"/>
-    <mergeCell ref="T87:U87"/>
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="U93:V93"/>
+    <mergeCell ref="W93:AB93"/>
+    <mergeCell ref="AC93:AD93"/>
+    <mergeCell ref="AF86:AG86"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="Q94:T94"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="R88:S88"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -23253,60 +23253,60 @@
       <c r="B5" s="67"/>
       <c r="C5" s="67"/>
       <c r="D5" s="67"/>
-      <c r="E5" s="173" t="s">
+      <c r="E5" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="173"/>
-      <c r="G5" s="172" t="s">
+      <c r="F5" s="171"/>
+      <c r="G5" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="172"/>
-      <c r="I5" s="172"/>
-      <c r="J5" s="172"/>
-      <c r="K5" s="164" t="s">
+      <c r="H5" s="170"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="170"/>
+      <c r="K5" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="164"/>
-      <c r="M5" s="164"/>
-      <c r="N5" s="164"/>
-      <c r="O5" s="165" t="s">
+      <c r="L5" s="154"/>
+      <c r="M5" s="154"/>
+      <c r="N5" s="154"/>
+      <c r="O5" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="165"/>
-      <c r="Q5" s="165"/>
-      <c r="R5" s="165"/>
-      <c r="S5" s="166" t="s">
+      <c r="P5" s="155"/>
+      <c r="Q5" s="155"/>
+      <c r="R5" s="155"/>
+      <c r="S5" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="166"/>
-      <c r="U5" s="166"/>
-      <c r="V5" s="166"/>
-      <c r="W5" s="167" t="s">
+      <c r="T5" s="156"/>
+      <c r="U5" s="156"/>
+      <c r="V5" s="156"/>
+      <c r="W5" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="167"/>
-      <c r="Y5" s="167"/>
-      <c r="Z5" s="167"/>
-      <c r="AA5" s="168" t="s">
+      <c r="X5" s="157"/>
+      <c r="Y5" s="157"/>
+      <c r="Z5" s="157"/>
+      <c r="AA5" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="AB5" s="168"/>
-      <c r="AC5" s="168"/>
-      <c r="AD5" s="168"/>
-      <c r="AE5" s="162" t="s">
+      <c r="AB5" s="158"/>
+      <c r="AC5" s="158"/>
+      <c r="AD5" s="158"/>
+      <c r="AE5" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="162"/>
-      <c r="AG5" s="162"/>
-      <c r="AH5" s="162"/>
-      <c r="AI5" s="161" t="s">
+      <c r="AF5" s="152"/>
+      <c r="AG5" s="152"/>
+      <c r="AH5" s="152"/>
+      <c r="AI5" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="AJ5" s="161"/>
-      <c r="AK5" s="161"/>
-      <c r="AL5" s="161"/>
-      <c r="AM5" s="161"/>
-      <c r="AN5" s="161"/>
+      <c r="AJ5" s="162"/>
+      <c r="AK5" s="162"/>
+      <c r="AL5" s="162"/>
+      <c r="AM5" s="162"/>
+      <c r="AN5" s="162"/>
       <c r="AO5" s="68"/>
       <c r="AP5" s="68"/>
       <c r="AQ5" s="68"/>
@@ -23421,60 +23421,60 @@
         <v>Woche 7</v>
       </c>
       <c r="T7" s="139"/>
-      <c r="U7" s="170" t="str">
+      <c r="U7" s="173" t="str">
         <f>Detailplan!BX7</f>
         <v>Woche 8</v>
       </c>
-      <c r="V7" s="170"/>
-      <c r="W7" s="170" t="str">
+      <c r="V7" s="173"/>
+      <c r="W7" s="173" t="str">
         <f>Detailplan!CG7</f>
         <v>Woche 9</v>
       </c>
-      <c r="X7" s="170"/>
-      <c r="Y7" s="170" t="str">
+      <c r="X7" s="173"/>
+      <c r="Y7" s="173" t="str">
         <f>Detailplan!CP7</f>
         <v>Woche 10</v>
       </c>
-      <c r="Z7" s="170"/>
-      <c r="AA7" s="170" t="str">
+      <c r="Z7" s="173"/>
+      <c r="AA7" s="173" t="str">
         <f>Detailplan!CY7</f>
         <v>Woche 11</v>
       </c>
-      <c r="AB7" s="170"/>
-      <c r="AC7" s="170" t="str">
+      <c r="AB7" s="173"/>
+      <c r="AC7" s="173" t="str">
         <f>Detailplan!DH7</f>
         <v>Woche 12</v>
       </c>
-      <c r="AD7" s="170"/>
-      <c r="AE7" s="170" t="str">
+      <c r="AD7" s="173"/>
+      <c r="AE7" s="173" t="str">
         <f>Detailplan!DQ7</f>
         <v>Woche 13</v>
       </c>
-      <c r="AF7" s="170"/>
-      <c r="AG7" s="170" t="str">
+      <c r="AF7" s="173"/>
+      <c r="AG7" s="173" t="str">
         <f>Detailplan!DZ7</f>
         <v>Woche 14</v>
       </c>
-      <c r="AH7" s="170"/>
-      <c r="AI7" s="170" t="str">
+      <c r="AH7" s="173"/>
+      <c r="AI7" s="173" t="str">
         <f>Detailplan!EI7</f>
         <v>Woche 15</v>
       </c>
-      <c r="AJ7" s="170"/>
-      <c r="AK7" s="170" t="str">
+      <c r="AJ7" s="173"/>
+      <c r="AK7" s="173" t="str">
         <f>Detailplan!ER7</f>
         <v>Woche 16</v>
       </c>
-      <c r="AL7" s="170"/>
-      <c r="AM7" s="170" t="str">
+      <c r="AL7" s="173"/>
+      <c r="AM7" s="173" t="str">
         <f>Detailplan!FA7</f>
         <v>Woche 17</v>
       </c>
-      <c r="AN7" s="170"/>
+      <c r="AN7" s="173"/>
     </row>
     <row r="8" spans="1:93" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="143" t="s">
+      <c r="B8" s="163" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="139"/>
@@ -23643,7 +23643,7 @@
       <c r="B13" s="51"/>
       <c r="C13" s="51">
         <f>Detailplan!C11</f>
-        <v>80.5</v>
+        <v>83</v>
       </c>
       <c r="D13" s="59"/>
       <c r="E13" s="169">
@@ -23703,7 +23703,7 @@
       <c r="Z13" s="169"/>
       <c r="AA13" s="169">
         <f>SUM(Detailplan!CZ11,Detailplan!DD11,Detailplan!DF11,Detailplan!DB11)</f>
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AB13" s="169"/>
       <c r="AC13" s="169">
@@ -28051,7 +28051,7 @@
       </c>
       <c r="C74" s="56">
         <f>SUM(C13+C16+C19+C22+C25+C52+C55+C60+C63+C66)</f>
-        <v>406.5</v>
+        <v>409</v>
       </c>
       <c r="D74" s="18"/>
       <c r="E74" s="19"/>
@@ -28138,12 +28138,12 @@
     <row r="80" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B80" s="5"/>
       <c r="C80" s="123"/>
-      <c r="D80" s="171" t="s">
+      <c r="D80" s="172" t="s">
         <v>118</v>
       </c>
-      <c r="E80" s="171"/>
-      <c r="F80" s="171"/>
-      <c r="G80" s="171"/>
+      <c r="E80" s="172"/>
+      <c r="F80" s="172"/>
+      <c r="G80" s="172"/>
       <c r="H80" s="18">
         <v>1E-3</v>
       </c>
@@ -28158,12 +28158,12 @@
     <row r="81" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B81" s="28"/>
       <c r="C81" s="123"/>
-      <c r="D81" s="171" t="s">
+      <c r="D81" s="172" t="s">
         <v>119</v>
       </c>
-      <c r="E81" s="171"/>
-      <c r="F81" s="171"/>
-      <c r="G81" s="171"/>
+      <c r="E81" s="172"/>
+      <c r="F81" s="172"/>
+      <c r="G81" s="172"/>
       <c r="H81" s="18">
         <v>8</v>
       </c>
@@ -28178,12 +28178,12 @@
     <row r="82" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B82" s="49"/>
       <c r="C82" s="123"/>
-      <c r="D82" s="171" t="s">
+      <c r="D82" s="172" t="s">
         <v>120</v>
       </c>
-      <c r="E82" s="171"/>
-      <c r="F82" s="171"/>
-      <c r="G82" s="171"/>
+      <c r="E82" s="172"/>
+      <c r="F82" s="172"/>
+      <c r="G82" s="172"/>
       <c r="H82" s="18">
         <v>16.001000000000001</v>
       </c>
@@ -28241,12 +28241,12 @@
     <row r="86" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B86" s="52"/>
       <c r="C86" s="123"/>
-      <c r="D86" s="171" t="s">
+      <c r="D86" s="172" t="s">
         <v>118</v>
       </c>
-      <c r="E86" s="171"/>
-      <c r="F86" s="171"/>
-      <c r="G86" s="171"/>
+      <c r="E86" s="172"/>
+      <c r="F86" s="172"/>
+      <c r="G86" s="172"/>
       <c r="H86" s="18">
         <v>1E-3</v>
       </c>
@@ -28261,12 +28261,12 @@
     <row r="87" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B87" s="53"/>
       <c r="C87" s="123"/>
-      <c r="D87" s="171" t="s">
+      <c r="D87" s="172" t="s">
         <v>119</v>
       </c>
-      <c r="E87" s="171"/>
-      <c r="F87" s="171"/>
-      <c r="G87" s="171"/>
+      <c r="E87" s="172"/>
+      <c r="F87" s="172"/>
+      <c r="G87" s="172"/>
       <c r="H87" s="18">
         <v>8</v>
       </c>
@@ -28281,12 +28281,12 @@
     <row r="88" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B88" s="54"/>
       <c r="C88" s="123"/>
-      <c r="D88" s="171" t="s">
+      <c r="D88" s="172" t="s">
         <v>120</v>
       </c>
-      <c r="E88" s="171"/>
-      <c r="F88" s="171"/>
-      <c r="G88" s="171"/>
+      <c r="E88" s="172"/>
+      <c r="F88" s="172"/>
+      <c r="G88" s="172"/>
       <c r="H88" s="18">
         <v>16.001000000000001</v>
       </c>
@@ -28300,6 +28300,682 @@
     </row>
   </sheetData>
   <mergeCells count="700">
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="AA5:AD5"/>
+    <mergeCell ref="AE5:AH5"/>
+    <mergeCell ref="AI5:AN5"/>
+    <mergeCell ref="AK66:AL66"/>
+    <mergeCell ref="AM54:AN54"/>
+    <mergeCell ref="AM55:AN55"/>
+    <mergeCell ref="AM57:AN57"/>
+    <mergeCell ref="AM59:AN59"/>
+    <mergeCell ref="AM60:AN60"/>
+    <mergeCell ref="AM62:AN62"/>
+    <mergeCell ref="AM63:AN63"/>
+    <mergeCell ref="AM65:AN65"/>
+    <mergeCell ref="AM66:AN66"/>
+    <mergeCell ref="AK60:AL60"/>
+    <mergeCell ref="AK62:AL62"/>
+    <mergeCell ref="AK63:AL63"/>
+    <mergeCell ref="AK65:AL65"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="AK55:AL55"/>
+    <mergeCell ref="AK57:AL57"/>
+    <mergeCell ref="AK59:AL59"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="AM51:AN51"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="AM52:AN52"/>
+    <mergeCell ref="AE65:AF65"/>
+    <mergeCell ref="AG65:AH65"/>
+    <mergeCell ref="AI65:AJ65"/>
+    <mergeCell ref="AE59:AF59"/>
+    <mergeCell ref="AG59:AH59"/>
+    <mergeCell ref="AI59:AJ59"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AC63:AD63"/>
+    <mergeCell ref="AE63:AF63"/>
+    <mergeCell ref="AG63:AH63"/>
+    <mergeCell ref="AI63:AJ63"/>
+    <mergeCell ref="W62:X62"/>
+    <mergeCell ref="Y62:Z62"/>
+    <mergeCell ref="AA62:AB62"/>
+    <mergeCell ref="AC62:AD62"/>
+    <mergeCell ref="AI66:AJ66"/>
+    <mergeCell ref="W65:X65"/>
+    <mergeCell ref="Y65:Z65"/>
+    <mergeCell ref="AA65:AB65"/>
+    <mergeCell ref="AC65:AD65"/>
+    <mergeCell ref="AE62:AF62"/>
+    <mergeCell ref="AG62:AH62"/>
+    <mergeCell ref="AI62:AJ62"/>
+    <mergeCell ref="W63:X63"/>
+    <mergeCell ref="Y63:Z63"/>
+    <mergeCell ref="W66:X66"/>
+    <mergeCell ref="Y66:Z66"/>
+    <mergeCell ref="AA66:AB66"/>
+    <mergeCell ref="AC66:AD66"/>
+    <mergeCell ref="AE66:AF66"/>
+    <mergeCell ref="AG66:AH66"/>
+    <mergeCell ref="AA60:AB60"/>
+    <mergeCell ref="AC60:AD60"/>
+    <mergeCell ref="AE60:AF60"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AC54:AD54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="W54:X54"/>
+    <mergeCell ref="Y54:Z54"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="Y59:Z59"/>
+    <mergeCell ref="AA59:AB59"/>
+    <mergeCell ref="AC59:AD59"/>
+    <mergeCell ref="AE55:AF55"/>
+    <mergeCell ref="AG55:AH55"/>
+    <mergeCell ref="W57:X57"/>
+    <mergeCell ref="Y57:Z57"/>
+    <mergeCell ref="AC52:AD52"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AA57:AB57"/>
+    <mergeCell ref="AC57:AD57"/>
+    <mergeCell ref="AE57:AF57"/>
+    <mergeCell ref="AG57:AH57"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AA55:AB55"/>
+    <mergeCell ref="AC55:AD55"/>
+    <mergeCell ref="AA52:AB52"/>
+    <mergeCell ref="AA54:AB54"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="U66:V66"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="Y52:Z52"/>
+    <mergeCell ref="W55:X55"/>
+    <mergeCell ref="Y55:Z55"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="S62:T62"/>
+    <mergeCell ref="U62:V62"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="U60:V60"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="W60:X60"/>
+    <mergeCell ref="Y60:Z60"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="AA63:AB63"/>
+    <mergeCell ref="S65:T65"/>
+    <mergeCell ref="U65:V65"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="S63:T63"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="U63:V63"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="U59:V59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="U55:V55"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="U54:V54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="U57:V57"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="U52:V52"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="AC51:AD51"/>
+    <mergeCell ref="AE51:AF51"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AE40:AF40"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="AE39:AF39"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="Y51:Z51"/>
+    <mergeCell ref="AA51:AB51"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AM30:AN30"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AM31:AN31"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="AK37:AL37"/>
+    <mergeCell ref="AM37:AN37"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
+    <mergeCell ref="AM43:AN43"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AI39:AJ39"/>
+    <mergeCell ref="AK39:AL39"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AM28:AN28"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="AA48:AB48"/>
+    <mergeCell ref="AC48:AD48"/>
+    <mergeCell ref="AM39:AN39"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="AI40:AJ40"/>
+    <mergeCell ref="AK40:AL40"/>
+    <mergeCell ref="AM40:AN40"/>
+    <mergeCell ref="AI48:AJ48"/>
+    <mergeCell ref="AK48:AL48"/>
+    <mergeCell ref="AM48:AN48"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="AK45:AL45"/>
+    <mergeCell ref="AM45:AN45"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="AM46:AN46"/>
+    <mergeCell ref="AA45:AB45"/>
+    <mergeCell ref="AC45:AD45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="Y45:Z45"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="AC42:AD42"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="Y46:Z46"/>
+    <mergeCell ref="AA46:AB46"/>
+    <mergeCell ref="AC46:AD46"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="AC40:AD40"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="AA39:AB39"/>
+    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AC36:AD36"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AA37:AB37"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AM25:AN25"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AM24:AN24"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AM27:AN27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AM22:AN22"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AM21:AN21"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AM16:AN16"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AM15:AN15"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM19:AN19"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AM18:AN18"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AM13:AN13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="D81:G81"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="AM49:AN49"/>
+    <mergeCell ref="AK49:AL49"/>
+    <mergeCell ref="AI49:AJ49"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="AA49:AB49"/>
+    <mergeCell ref="AC49:AD49"/>
+    <mergeCell ref="AE49:AF49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="AC43:AD43"/>
+    <mergeCell ref="AA43:AB43"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="Q34:R34"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="G25:H25"/>
@@ -28324,682 +29000,6 @@
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="O30:P30"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="AC43:AD43"/>
-    <mergeCell ref="AA43:AB43"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="AM49:AN49"/>
-    <mergeCell ref="AK49:AL49"/>
-    <mergeCell ref="AI49:AJ49"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="U49:V49"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="Y49:Z49"/>
-    <mergeCell ref="AA49:AB49"/>
-    <mergeCell ref="AC49:AD49"/>
-    <mergeCell ref="AE49:AF49"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="D81:G81"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AM13:AN13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AM16:AN16"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AM15:AN15"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AM19:AN19"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AM18:AN18"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AM22:AN22"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AM21:AN21"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AM25:AN25"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AM24:AN24"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AM27:AN27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="AA39:AB39"/>
-    <mergeCell ref="AC39:AD39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AC36:AD36"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AA37:AB37"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="Y40:Z40"/>
-    <mergeCell ref="AA40:AB40"/>
-    <mergeCell ref="AC40:AD40"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="Y45:Z45"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="AC42:AD42"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="Y46:Z46"/>
-    <mergeCell ref="AA46:AB46"/>
-    <mergeCell ref="AC46:AD46"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="W48:X48"/>
-    <mergeCell ref="Y48:Z48"/>
-    <mergeCell ref="AA48:AB48"/>
-    <mergeCell ref="AC48:AD48"/>
-    <mergeCell ref="AM39:AN39"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="AI40:AJ40"/>
-    <mergeCell ref="AK40:AL40"/>
-    <mergeCell ref="AM40:AN40"/>
-    <mergeCell ref="AI48:AJ48"/>
-    <mergeCell ref="AK48:AL48"/>
-    <mergeCell ref="AM48:AN48"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="AK45:AL45"/>
-    <mergeCell ref="AM45:AN45"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="AM46:AN46"/>
-    <mergeCell ref="AA45:AB45"/>
-    <mergeCell ref="AC45:AD45"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AM28:AN28"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AN36"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="Y51:Z51"/>
-    <mergeCell ref="AA51:AB51"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AM30:AN30"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AM31:AN31"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="AK37:AL37"/>
-    <mergeCell ref="AM37:AN37"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AL43"/>
-    <mergeCell ref="AM43:AN43"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AI39:AJ39"/>
-    <mergeCell ref="AK39:AL39"/>
-    <mergeCell ref="AC51:AD51"/>
-    <mergeCell ref="AE51:AF51"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="AE48:AF48"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AE40:AF40"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="AE37:AF37"/>
-    <mergeCell ref="AE39:AF39"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="U52:V52"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="U55:V55"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="U54:V54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="U57:V57"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="S59:T59"/>
-    <mergeCell ref="U59:V59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="AA63:AB63"/>
-    <mergeCell ref="S65:T65"/>
-    <mergeCell ref="U65:V65"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="S63:T63"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="U63:V63"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="S66:T66"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="U66:V66"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="Y52:Z52"/>
-    <mergeCell ref="W55:X55"/>
-    <mergeCell ref="Y55:Z55"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="S62:T62"/>
-    <mergeCell ref="U62:V62"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="U60:V60"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="W60:X60"/>
-    <mergeCell ref="Y60:Z60"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="AC52:AD52"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AA57:AB57"/>
-    <mergeCell ref="AC57:AD57"/>
-    <mergeCell ref="AE57:AF57"/>
-    <mergeCell ref="AG57:AH57"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AA55:AB55"/>
-    <mergeCell ref="AC55:AD55"/>
-    <mergeCell ref="AA52:AB52"/>
-    <mergeCell ref="AA54:AB54"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AA60:AB60"/>
-    <mergeCell ref="AC60:AD60"/>
-    <mergeCell ref="AE60:AF60"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AC54:AD54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="W54:X54"/>
-    <mergeCell ref="Y54:Z54"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="Y59:Z59"/>
-    <mergeCell ref="AA59:AB59"/>
-    <mergeCell ref="AC59:AD59"/>
-    <mergeCell ref="AE55:AF55"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="W57:X57"/>
-    <mergeCell ref="Y57:Z57"/>
-    <mergeCell ref="AC63:AD63"/>
-    <mergeCell ref="AE63:AF63"/>
-    <mergeCell ref="AG63:AH63"/>
-    <mergeCell ref="AI63:AJ63"/>
-    <mergeCell ref="W62:X62"/>
-    <mergeCell ref="Y62:Z62"/>
-    <mergeCell ref="AA62:AB62"/>
-    <mergeCell ref="AC62:AD62"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="W65:X65"/>
-    <mergeCell ref="Y65:Z65"/>
-    <mergeCell ref="AA65:AB65"/>
-    <mergeCell ref="AC65:AD65"/>
-    <mergeCell ref="AE62:AF62"/>
-    <mergeCell ref="AG62:AH62"/>
-    <mergeCell ref="AI62:AJ62"/>
-    <mergeCell ref="W63:X63"/>
-    <mergeCell ref="Y63:Z63"/>
-    <mergeCell ref="W66:X66"/>
-    <mergeCell ref="Y66:Z66"/>
-    <mergeCell ref="AA66:AB66"/>
-    <mergeCell ref="AC66:AD66"/>
-    <mergeCell ref="AE66:AF66"/>
-    <mergeCell ref="AG66:AH66"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="AM51:AN51"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="AM52:AN52"/>
-    <mergeCell ref="AE65:AF65"/>
-    <mergeCell ref="AG65:AH65"/>
-    <mergeCell ref="AI65:AJ65"/>
-    <mergeCell ref="AE59:AF59"/>
-    <mergeCell ref="AG59:AH59"/>
-    <mergeCell ref="AI59:AJ59"/>
-    <mergeCell ref="AI60:AJ60"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="AA5:AD5"/>
-    <mergeCell ref="AE5:AH5"/>
-    <mergeCell ref="AI5:AN5"/>
-    <mergeCell ref="AK66:AL66"/>
-    <mergeCell ref="AM54:AN54"/>
-    <mergeCell ref="AM55:AN55"/>
-    <mergeCell ref="AM57:AN57"/>
-    <mergeCell ref="AM59:AN59"/>
-    <mergeCell ref="AM60:AN60"/>
-    <mergeCell ref="AM62:AN62"/>
-    <mergeCell ref="AM63:AN63"/>
-    <mergeCell ref="AM65:AN65"/>
-    <mergeCell ref="AM66:AN66"/>
-    <mergeCell ref="AK60:AL60"/>
-    <mergeCell ref="AK62:AL62"/>
-    <mergeCell ref="AK63:AL63"/>
-    <mergeCell ref="AK65:AL65"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="AK55:AL55"/>
-    <mergeCell ref="AK57:AL57"/>
-    <mergeCell ref="AK59:AL59"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="E55868:L55894 E55863:AN55866">

--- a/Zeiterfassungen und Projektplan/Projektplan_Typo.xlsx
+++ b/Zeiterfassungen und Projektplan/Projektplan_Typo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -2629,10 +2629,10 @@
   <dimension ref="A1:FH105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="10" topLeftCell="BZ38" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="10" topLeftCell="DM42" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="CE2" sqref="CE2"/>
+      <selection pane="bottomRight" activeCell="EY20" sqref="EY20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="C11" s="75">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>89.5</v>
       </c>
       <c r="D11" s="87">
         <f t="shared" si="0"/>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="EU11" s="77">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="EV11" s="88">
         <f t="shared" si="15"/>
@@ -5105,7 +5105,7 @@
       </c>
       <c r="EW11" s="77">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EX11" s="88">
         <f t="shared" si="15"/>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="C13" s="77">
         <f>SUM(E13,G13,I13,K13,N13,P13,R13,T13,W13,Y13,AA13,AC13,AF13,AH13,AJ13,AL13,AO13,AQ13,AS13,AU13,AX13,AZ13,BB13,BD13,BG13,BI13,BK13,BM13,BP13,BR13,BT13,BV13,BY13,CA13,CC13,CE13,CH13,CJ13,CL13,CN13,CQ13,CS13,CU13,CW13,CZ13,DB13,DD13,DF13,DI13,DK13,DM13,DO13,DR13,DT13,DV13,DX13,EA13,EC13,EE13,EG13,EJ13,EL13,EN13,EP13,ES13,EU13,EW13,EY13,FB13,FD13,FF13,FH13)</f>
-        <v>45.5</v>
+        <v>50</v>
       </c>
       <c r="D13" s="91">
         <v>4</v>
@@ -5540,9 +5540,13 @@
       <c r="ER13" s="91"/>
       <c r="ES13" s="92"/>
       <c r="ET13" s="93"/>
-      <c r="EU13" s="92"/>
+      <c r="EU13" s="92">
+        <v>2.5</v>
+      </c>
       <c r="EV13" s="93"/>
-      <c r="EW13" s="92"/>
+      <c r="EW13" s="92">
+        <v>2</v>
+      </c>
       <c r="EX13" s="93"/>
       <c r="EY13" s="94"/>
       <c r="EZ13" s="95"/>
@@ -5564,7 +5568,7 @@
       </c>
       <c r="C14" s="77">
         <f t="shared" ref="C14" si="17">SUM(E14,G14,I14,K14,N14,P14,R14,T14,W14,Y14,AA14,AC14,AF14,AH14,AJ14,AL14,AO14,AQ14,AS14,AU14,AX14,AZ14,BB14,BD14,BG14,BI14,BK14,BM14,BP14,BR14,BT14,BV14,BY14,CA14,CC14,CE14,CH14,CJ14,CL14,CN14,CQ14,CS14,CU14,CW14,CZ14,DB14,DD14,DF14,DI14,DK14,DM14,DO14,DR14,DT14,DV14,DX14,EA14,EC14,EE14,EG14,EJ14,EL14,EN14,EP14,ES14,EU14,EW14,EY14,FB14,FD14,FF14,FH14)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" s="91"/>
       <c r="E14" s="92"/>
@@ -5731,7 +5735,9 @@
       <c r="ER14" s="91"/>
       <c r="ES14" s="92"/>
       <c r="ET14" s="93"/>
-      <c r="EU14" s="92"/>
+      <c r="EU14" s="92">
+        <v>2</v>
+      </c>
       <c r="EV14" s="93"/>
       <c r="EW14" s="92"/>
       <c r="EX14" s="93"/>
@@ -5922,7 +5928,7 @@
       </c>
       <c r="C16" s="75">
         <f t="shared" si="18"/>
-        <v>41</v>
+        <v>42.5</v>
       </c>
       <c r="D16" s="87">
         <f t="shared" si="18"/>
@@ -6449,7 +6455,7 @@
       </c>
       <c r="EP16" s="89">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ16" s="90"/>
       <c r="ER16" s="87">
@@ -6482,7 +6488,7 @@
       </c>
       <c r="EY16" s="89">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EZ16" s="90"/>
       <c r="FA16" s="87">
@@ -6873,7 +6879,7 @@
       </c>
       <c r="C19" s="77">
         <f t="shared" si="36"/>
-        <v>26</v>
+        <v>27.5</v>
       </c>
       <c r="D19" s="91"/>
       <c r="E19" s="92"/>
@@ -7029,7 +7035,9 @@
       <c r="EM19" s="93"/>
       <c r="EN19" s="92"/>
       <c r="EO19" s="93"/>
-      <c r="EP19" s="94"/>
+      <c r="EP19" s="94">
+        <v>1</v>
+      </c>
       <c r="EQ19" s="95"/>
       <c r="ER19" s="91"/>
       <c r="ES19" s="92"/>
@@ -7038,7 +7046,9 @@
       <c r="EV19" s="93"/>
       <c r="EW19" s="92"/>
       <c r="EX19" s="93"/>
-      <c r="EY19" s="94"/>
+      <c r="EY19" s="94">
+        <v>0.5</v>
+      </c>
       <c r="EZ19" s="95"/>
       <c r="FA19" s="91"/>
       <c r="FB19" s="92"/>
@@ -9047,7 +9057,7 @@
       </c>
       <c r="C29" s="75">
         <f>SUM(C30:C31)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D29" s="87">
         <f t="shared" si="56"/>
@@ -9607,7 +9617,7 @@
       </c>
       <c r="EY29" s="89">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EZ29" s="90"/>
       <c r="FA29" s="87">
@@ -9652,7 +9662,7 @@
       </c>
       <c r="C30" s="77">
         <f>SUM(E30,G30,I30,K30,N30,P30,R30,T30,W30,Y30,AA30,AC30,AF30,AH30,AJ30,AL30,AO30,AQ30,AS30,AU30,AX30,AZ30,BB30,BD30,BG30,BI30,BK30,BM30,BP30,BR30,BT30,BV30,BY30,CA30,CC30,CE30,CH30,CJ30,CL30,CN30,CQ30,CS30,CU30,CW30,CZ30,DB30,DD30,DF30,DI30,DK30,DM30,DO30,DR30,DT30,DV30,DX30,EA30,EC30,EE30,EG30,EJ30,EL30,EN30,EP30,ES30,EU30,EW30,EY30,FB30,FD30,FF30,FH30)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D30" s="91"/>
       <c r="E30" s="92"/>
@@ -9809,7 +9819,9 @@
       <c r="EV30" s="93"/>
       <c r="EW30" s="92"/>
       <c r="EX30" s="93"/>
-      <c r="EY30" s="94"/>
+      <c r="EY30" s="94">
+        <v>2</v>
+      </c>
       <c r="EZ30" s="95"/>
       <c r="FA30" s="91"/>
       <c r="FB30" s="92"/>
@@ -9996,7 +10008,7 @@
       </c>
       <c r="C32" s="75">
         <f t="shared" si="74"/>
-        <v>176</v>
+        <v>261</v>
       </c>
       <c r="D32" s="87">
         <f t="shared" si="74"/>
@@ -10408,7 +10420,7 @@
       </c>
       <c r="DK32" s="77">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL32" s="88">
         <f t="shared" si="86"/>
@@ -10424,7 +10436,7 @@
       </c>
       <c r="DO32" s="89">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DP32" s="88"/>
       <c r="DQ32" s="87">
@@ -10441,7 +10453,7 @@
       </c>
       <c r="DT32" s="77">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="DU32" s="88">
         <f t="shared" si="87"/>
@@ -10449,7 +10461,7 @@
       </c>
       <c r="DV32" s="77">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="DW32" s="88">
         <f t="shared" si="87"/>
@@ -10457,7 +10469,7 @@
       </c>
       <c r="DX32" s="89">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="DY32" s="88"/>
       <c r="DZ32" s="87">
@@ -10474,7 +10486,7 @@
       </c>
       <c r="EC32" s="77">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="ED32" s="88">
         <f t="shared" si="88"/>
@@ -10482,7 +10494,7 @@
       </c>
       <c r="EE32" s="77">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="EF32" s="88">
         <f t="shared" si="88"/>
@@ -10490,7 +10502,7 @@
       </c>
       <c r="EG32" s="89">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="EH32" s="88"/>
       <c r="EI32" s="87">
@@ -10515,7 +10527,7 @@
       </c>
       <c r="EN32" s="77">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="EO32" s="88">
         <f t="shared" si="89"/>
@@ -10523,7 +10535,7 @@
       </c>
       <c r="EP32" s="89">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EQ32" s="90"/>
       <c r="ER32" s="87">
@@ -10548,7 +10560,7 @@
       </c>
       <c r="EW32" s="77">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="EX32" s="88">
         <f t="shared" si="90"/>
@@ -10556,7 +10568,7 @@
       </c>
       <c r="EY32" s="89">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ32" s="90"/>
       <c r="FA32" s="87">
@@ -10601,7 +10613,7 @@
       </c>
       <c r="C33" s="77">
         <f>SUM(E33,G33,I33,K33,N33,P33,R33,T33,W33,Y33,AA33,AC33,AF33,AH33,AJ33,AL33,AO33,AQ33,AS33,AU33,AX33,AZ33,BB33,BD33,BG33,BI33,BK33,BM33,BP33,BR33,BT33,BV33,BY33,CA33,CC33,CE33,CH33,CJ33,CL33,CN33,CQ33,CS33,CU33,CW33,CZ33,DB33,DD33,DF33,DI33,DK33,DM33,DO33,DR33,DT33,DV33,DX33,EA33,EC33,EE33,EG33,EJ33,EL33,EN33,EP33,ES33,EU33,EW33,EY33,FB33,FD33,FF33,FH33)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D33" s="91"/>
       <c r="E33" s="92"/>
@@ -10714,7 +10726,9 @@
       <c r="DH33" s="91"/>
       <c r="DI33" s="92"/>
       <c r="DJ33" s="93"/>
-      <c r="DK33" s="92"/>
+      <c r="DK33" s="92">
+        <v>1</v>
+      </c>
       <c r="DL33" s="93"/>
       <c r="DM33" s="92"/>
       <c r="DN33" s="93"/>
@@ -10752,7 +10766,9 @@
       <c r="ET33" s="93"/>
       <c r="EU33" s="92"/>
       <c r="EV33" s="93"/>
-      <c r="EW33" s="92"/>
+      <c r="EW33" s="92">
+        <v>3</v>
+      </c>
       <c r="EX33" s="93"/>
       <c r="EY33" s="94"/>
       <c r="EZ33" s="95"/>
@@ -10774,7 +10790,7 @@
       </c>
       <c r="C34" s="77">
         <f>SUM(E34,G34,I34,K34,N34,P34,R34,T34,W34,Y34,AA34,AC34,AF34,AH34,AJ34,AL34,AO34,AQ34,AS34,AU34,AX34,AZ34,BB34,BD34,BG34,BI34,BK34,BM34,BP34,BR34,BT34,BV34,BY34,CA34,CC34,CE34,CH34,CJ34,CL34,CN34,CQ34,CS34,CU34,CW34,CZ34,DB34,DD34,DF34,DI34,DK34,DM34,DO34,DR34,DT34,DV34,DX34,EA34,EC34,EE34,EG34,EJ34,EL34,EN34,EP34,ES34,EU34,EW34,EY34,FB34,FD34,FF34,FH34)</f>
-        <v>28.5</v>
+        <v>60.5</v>
       </c>
       <c r="D34" s="91"/>
       <c r="E34" s="92"/>
@@ -10920,7 +10936,9 @@
       <c r="DS34" s="93"/>
       <c r="DT34" s="92"/>
       <c r="DU34" s="93"/>
-      <c r="DV34" s="92"/>
+      <c r="DV34" s="92">
+        <v>9</v>
+      </c>
       <c r="DW34" s="93"/>
       <c r="DX34" s="94"/>
       <c r="DY34" s="95"/>
@@ -10929,7 +10947,9 @@
       <c r="EB34" s="93"/>
       <c r="EC34" s="92"/>
       <c r="ED34" s="93"/>
-      <c r="EE34" s="92"/>
+      <c r="EE34" s="92">
+        <v>12</v>
+      </c>
       <c r="EF34" s="93"/>
       <c r="EG34" s="94"/>
       <c r="EH34" s="95"/>
@@ -10938,7 +10958,9 @@
       <c r="EK34" s="93"/>
       <c r="EL34" s="92"/>
       <c r="EM34" s="93"/>
-      <c r="EN34" s="92"/>
+      <c r="EN34" s="92">
+        <v>5</v>
+      </c>
       <c r="EO34" s="93"/>
       <c r="EP34" s="94"/>
       <c r="EQ34" s="95"/>
@@ -10947,7 +10969,9 @@
       <c r="ET34" s="93"/>
       <c r="EU34" s="92"/>
       <c r="EV34" s="93"/>
-      <c r="EW34" s="92"/>
+      <c r="EW34" s="92">
+        <v>6</v>
+      </c>
       <c r="EX34" s="93"/>
       <c r="EY34" s="94"/>
       <c r="EZ34" s="95"/>
@@ -11339,7 +11363,7 @@
       </c>
       <c r="C37" s="77">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D37" s="91"/>
       <c r="E37" s="92"/>
@@ -11461,7 +11485,9 @@
       <c r="DQ37" s="91"/>
       <c r="DR37" s="92"/>
       <c r="DS37" s="93"/>
-      <c r="DT37" s="92"/>
+      <c r="DT37" s="92">
+        <v>10</v>
+      </c>
       <c r="DU37" s="93"/>
       <c r="DV37" s="92"/>
       <c r="DW37" s="93"/>
@@ -11470,7 +11496,9 @@
       <c r="DZ37" s="91"/>
       <c r="EA37" s="92"/>
       <c r="EB37" s="93"/>
-      <c r="EC37" s="92"/>
+      <c r="EC37" s="92">
+        <v>18</v>
+      </c>
       <c r="ED37" s="93"/>
       <c r="EE37" s="92"/>
       <c r="EF37" s="93"/>
@@ -12055,7 +12083,7 @@
       </c>
       <c r="C41" s="77">
         <f t="shared" si="92"/>
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D41" s="91"/>
       <c r="E41" s="92"/>
@@ -12178,7 +12206,9 @@
       <c r="DL41" s="93"/>
       <c r="DM41" s="92"/>
       <c r="DN41" s="93"/>
-      <c r="DO41" s="94"/>
+      <c r="DO41" s="94">
+        <v>2</v>
+      </c>
       <c r="DP41" s="95"/>
       <c r="DQ41" s="91"/>
       <c r="DR41" s="92"/>
@@ -12187,7 +12217,9 @@
       <c r="DU41" s="93"/>
       <c r="DV41" s="92"/>
       <c r="DW41" s="93"/>
-      <c r="DX41" s="94"/>
+      <c r="DX41" s="94">
+        <v>6</v>
+      </c>
       <c r="DY41" s="95"/>
       <c r="DZ41" s="91"/>
       <c r="EA41" s="92"/>
@@ -12196,7 +12228,9 @@
       <c r="ED41" s="93"/>
       <c r="EE41" s="92"/>
       <c r="EF41" s="93"/>
-      <c r="EG41" s="94"/>
+      <c r="EG41" s="94">
+        <v>3</v>
+      </c>
       <c r="EH41" s="95"/>
       <c r="EI41" s="91"/>
       <c r="EJ41" s="92"/>
@@ -12205,7 +12239,9 @@
       <c r="EM41" s="93"/>
       <c r="EN41" s="92"/>
       <c r="EO41" s="93"/>
-      <c r="EP41" s="94"/>
+      <c r="EP41" s="94">
+        <v>4</v>
+      </c>
       <c r="EQ41" s="95"/>
       <c r="ER41" s="91"/>
       <c r="ES41" s="92"/>
@@ -12234,7 +12270,7 @@
       </c>
       <c r="C42" s="77">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D42" s="91"/>
       <c r="E42" s="92"/>
@@ -12360,7 +12396,9 @@
       <c r="DU42" s="93"/>
       <c r="DV42" s="92"/>
       <c r="DW42" s="93"/>
-      <c r="DX42" s="94"/>
+      <c r="DX42" s="94">
+        <v>2</v>
+      </c>
       <c r="DY42" s="95"/>
       <c r="DZ42" s="91"/>
       <c r="EA42" s="92"/>
@@ -12369,7 +12407,9 @@
       <c r="ED42" s="93"/>
       <c r="EE42" s="92"/>
       <c r="EF42" s="93"/>
-      <c r="EG42" s="94"/>
+      <c r="EG42" s="94">
+        <v>3</v>
+      </c>
       <c r="EH42" s="95"/>
       <c r="EI42" s="91"/>
       <c r="EJ42" s="92"/>
@@ -12387,7 +12427,9 @@
       <c r="EV42" s="93"/>
       <c r="EW42" s="92"/>
       <c r="EX42" s="93"/>
-      <c r="EY42" s="94"/>
+      <c r="EY42" s="94">
+        <v>1</v>
+      </c>
       <c r="EZ42" s="95"/>
       <c r="FA42" s="91"/>
       <c r="FB42" s="92"/>
@@ -12574,7 +12616,7 @@
       </c>
       <c r="C44" s="75">
         <f>SUM(C45:C47)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D44" s="87">
         <f t="shared" si="93"/>
@@ -13093,7 +13135,7 @@
       </c>
       <c r="EN44" s="77">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EO44" s="88">
         <f t="shared" si="108"/>
@@ -13118,7 +13160,7 @@
       </c>
       <c r="EU44" s="77">
         <f>SUM(EU45:EU47)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EV44" s="88">
         <f t="shared" si="109"/>
@@ -13126,7 +13168,7 @@
       </c>
       <c r="EW44" s="77">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="EX44" s="88">
         <f t="shared" si="109"/>
@@ -13134,7 +13176,7 @@
       </c>
       <c r="EY44" s="89">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EZ44" s="90"/>
       <c r="FA44" s="87">
@@ -13179,7 +13221,7 @@
       </c>
       <c r="C45" s="77">
         <f>SUM(E45,G45,I45,K45,N45,P45,R45,T45,W45,Y45,AA45,AC45,AF45,AH45,AJ45,AL45,AO45,AQ45,AS45,AU45,AX45,AZ45,BB45,BD45,BG45,BI45,BK45,BM45,BP45,BR45,BT45,BV45,BY45,CA45,CC45,CE45,CH45,CJ45,CL45,CN45,CQ45,CS45,CU45,CW45,CZ45,DB45,DD45,DF45,DI45,DK45,DM45,DO45,DR45,DT45,DV45,DX45,EA45,EC45,EE45,EG45,EJ45,EL45,EN45,EP45,ES45,EU45,EW45,EY45,FB45,FD45,FF45,FH45)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D45" s="91"/>
       <c r="E45" s="92"/>
@@ -13369,7 +13411,9 @@
       <c r="EK45" s="93"/>
       <c r="EL45" s="92"/>
       <c r="EM45" s="93"/>
-      <c r="EN45" s="92"/>
+      <c r="EN45" s="92">
+        <v>3</v>
+      </c>
       <c r="EO45" s="93"/>
       <c r="EP45" s="94"/>
       <c r="EQ45" s="95"/>
@@ -13399,7 +13443,8 @@
         <v>40</v>
       </c>
       <c r="C46" s="77">
-        <v>0</v>
+        <f>SUM(D46:FH46)</f>
+        <v>12</v>
       </c>
       <c r="D46" s="91"/>
       <c r="E46" s="92"/>
@@ -13548,11 +13593,17 @@
       <c r="ER46" s="91"/>
       <c r="ES46" s="92"/>
       <c r="ET46" s="93"/>
-      <c r="EU46" s="92"/>
+      <c r="EU46" s="92">
+        <v>3</v>
+      </c>
       <c r="EV46" s="93"/>
-      <c r="EW46" s="92"/>
+      <c r="EW46" s="92">
+        <v>6</v>
+      </c>
       <c r="EX46" s="93"/>
-      <c r="EY46" s="94"/>
+      <c r="EY46" s="94">
+        <v>3</v>
+      </c>
       <c r="EZ46" s="95"/>
       <c r="FA46" s="91"/>
       <c r="FB46" s="92"/>
@@ -15751,7 +15802,7 @@
       </c>
       <c r="C57" s="75">
         <f t="shared" si="130"/>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D57" s="87">
         <f t="shared" si="130"/>
@@ -16196,7 +16247,7 @@
       </c>
       <c r="DT57" s="77">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="DU57" s="88">
         <f t="shared" si="143"/>
@@ -16245,7 +16296,7 @@
       </c>
       <c r="EG57" s="89">
         <f t="shared" si="144"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EH57" s="97"/>
       <c r="EI57" s="87">
@@ -16531,7 +16582,7 @@
       </c>
       <c r="C59" s="77">
         <f t="shared" ref="C59:C62" si="148">SUM(E59,G59,I59,K59,N59,P59,R59,T59,W59,Y59,AA59,AC59,AF59,AH59,AJ59,AL59,AO59,AQ59,AS59,AU59,AX59,AZ59,BB59,BD59,BG59,BI59,BK59,BM59,BP59,BR59,BT59,BV59,BY59,CA59,CC59,CE59,CH59,CJ59,CL59,CN59,CQ59,CS59,CU59,CW59,CZ59,DB59,DD59,DF59,DI59,DK59,DM59,DO59,DR59,DT59,DV59,DX59,EA59,EC59,EE59,EG59,EJ59,EL59,EN59,EP59,ES59,EU59,EW59,EY59,FB59,FD59,FF59,FH59)</f>
-        <v>16.5</v>
+        <v>23.5</v>
       </c>
       <c r="D59" s="91"/>
       <c r="E59" s="92"/>
@@ -16749,7 +16800,9 @@
       <c r="DQ59" s="91"/>
       <c r="DR59" s="92"/>
       <c r="DS59" s="93"/>
-      <c r="DT59" s="92"/>
+      <c r="DT59" s="92">
+        <v>7</v>
+      </c>
       <c r="DU59" s="93"/>
       <c r="DV59" s="92"/>
       <c r="DW59" s="93"/>
@@ -17483,7 +17536,9 @@
       <c r="ED63" s="93"/>
       <c r="EE63" s="92"/>
       <c r="EF63" s="93"/>
-      <c r="EG63" s="94"/>
+      <c r="EG63" s="94">
+        <v>2</v>
+      </c>
       <c r="EH63" s="95"/>
       <c r="EI63" s="91"/>
       <c r="EJ63" s="92"/>
@@ -19255,7 +19310,7 @@
       </c>
       <c r="C70" s="75">
         <f t="shared" si="168"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D70" s="87">
         <f t="shared" si="168"/>
@@ -19733,7 +19788,7 @@
       </c>
       <c r="EC70" s="77">
         <f>SUM(EC71:EC72)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="ED70" s="88">
         <f t="shared" si="182"/>
@@ -19774,7 +19829,7 @@
       </c>
       <c r="EN70" s="77">
         <f t="shared" si="183"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="EO70" s="88">
         <f t="shared" si="183"/>
@@ -19807,7 +19862,7 @@
       </c>
       <c r="EW70" s="77">
         <f t="shared" si="184"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EX70" s="88">
         <f t="shared" si="184"/>
@@ -20043,7 +20098,7 @@
       </c>
       <c r="C72" s="77">
         <f>SUM(E72,G72,I72,K72,N72,P72,R72,T72,W72,Y72,AA72,AC72,AF72,AH72,AJ72,AL72,AO72,AQ72,AS72,AU72,AX72,AZ72,BB72,BD72,BG72,BI72,BK72,BM72,BP72,BR72,BT72,BV72,BY72,CA72,CC72,CE72,CH72,CJ72,CL72,CN72,CQ72,CS72,CU72,CW72,CZ72,DB72,DD72,DF72,DI72,DK72,DM72,DO72,DR72,DT72,DV72,DX72,EA72,EC72,EE72,EG72,EJ72,EL72,EN72,EP72,ES72,EU72,EW72,EY72,FB72,FD72,FF72,FH72)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D72" s="91"/>
       <c r="E72" s="92"/>
@@ -20174,7 +20229,9 @@
       <c r="DZ72" s="91"/>
       <c r="EA72" s="92"/>
       <c r="EB72" s="93"/>
-      <c r="EC72" s="92"/>
+      <c r="EC72" s="92">
+        <v>5</v>
+      </c>
       <c r="ED72" s="93"/>
       <c r="EE72" s="92"/>
       <c r="EF72" s="93"/>
@@ -20185,7 +20242,9 @@
       <c r="EK72" s="93"/>
       <c r="EL72" s="92"/>
       <c r="EM72" s="93"/>
-      <c r="EN72" s="92"/>
+      <c r="EN72" s="92">
+        <v>10</v>
+      </c>
       <c r="EO72" s="93"/>
       <c r="EP72" s="94"/>
       <c r="EQ72" s="95"/>
@@ -20194,7 +20253,9 @@
       <c r="ET72" s="93"/>
       <c r="EU72" s="92"/>
       <c r="EV72" s="93"/>
-      <c r="EW72" s="92"/>
+      <c r="EW72" s="92">
+        <v>4</v>
+      </c>
       <c r="EX72" s="93"/>
       <c r="EY72" s="94"/>
       <c r="EZ72" s="95"/>
@@ -20789,7 +20850,7 @@
       </c>
       <c r="DK74" s="106">
         <f t="shared" si="198"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL74" s="107">
         <f t="shared" si="198"/>
@@ -20805,7 +20866,7 @@
       </c>
       <c r="DO74" s="109">
         <f t="shared" si="198"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DP74" s="111"/>
       <c r="DQ74" s="105">
@@ -20822,7 +20883,7 @@
       </c>
       <c r="DT74" s="106">
         <f t="shared" si="199"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="DU74" s="107">
         <f t="shared" si="199"/>
@@ -20830,7 +20891,7 @@
       </c>
       <c r="DV74" s="106">
         <f t="shared" si="199"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="DW74" s="108">
         <f t="shared" si="199"/>
@@ -20838,7 +20899,7 @@
       </c>
       <c r="DX74" s="109">
         <f t="shared" si="199"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="DY74" s="111"/>
       <c r="DZ74" s="105">
@@ -20855,7 +20916,7 @@
       </c>
       <c r="EC74" s="106">
         <f t="shared" si="200"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="ED74" s="107">
         <f t="shared" si="200"/>
@@ -20863,7 +20924,7 @@
       </c>
       <c r="EE74" s="106">
         <f t="shared" si="200"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="EF74" s="108">
         <f t="shared" si="200"/>
@@ -20871,7 +20932,7 @@
       </c>
       <c r="EG74" s="109">
         <f t="shared" si="200"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="EH74" s="111"/>
       <c r="EI74" s="105">
@@ -20896,7 +20957,7 @@
       </c>
       <c r="EN74" s="106">
         <f t="shared" si="201"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="EO74" s="108">
         <f t="shared" si="201"/>
@@ -20904,7 +20965,7 @@
       </c>
       <c r="EP74" s="109">
         <f t="shared" si="201"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="EQ74" s="111"/>
       <c r="ER74" s="105">
@@ -20921,7 +20982,7 @@
       </c>
       <c r="EU74" s="106">
         <f t="shared" si="202"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="EV74" s="107">
         <f t="shared" si="202"/>
@@ -20929,7 +20990,7 @@
       </c>
       <c r="EW74" s="106">
         <f t="shared" si="202"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="EX74" s="108">
         <f t="shared" si="202"/>
@@ -20937,7 +20998,7 @@
       </c>
       <c r="EY74" s="109">
         <f t="shared" si="202"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="EZ74" s="111"/>
       <c r="FA74" s="105">
@@ -20983,7 +21044,7 @@
       </c>
       <c r="C75" s="86">
         <f>SUM(C11+C16+C23+C29+C32+C44+C48+C57+C65+C70)</f>
-        <v>409</v>
+        <v>545</v>
       </c>
       <c r="D75" s="83"/>
       <c r="E75" s="83"/>
@@ -21177,7 +21238,7 @@
       </c>
       <c r="DO75" s="113">
         <f>SUM(DI74,DK74,DM74,DO74)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DP75" s="111"/>
       <c r="DQ75" s="83"/>
@@ -21192,7 +21253,7 @@
       </c>
       <c r="DX75" s="113">
         <f>SUM(DR74,DT74,DV74,DX74)</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="DY75" s="111"/>
       <c r="DZ75" s="83"/>
@@ -21207,7 +21268,7 @@
       </c>
       <c r="EG75" s="113">
         <f>SUM(EA74,EC74,EE74,EG74)</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="EH75" s="111"/>
       <c r="EI75" s="83"/>
@@ -21222,7 +21283,7 @@
       </c>
       <c r="EP75" s="113">
         <f>SUM(EJ74,EL74,EN74,EP74)</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="EQ75" s="115"/>
       <c r="ER75" s="83"/>
@@ -21237,7 +21298,7 @@
       </c>
       <c r="EY75" s="113">
         <f>SUM(ES74,EU74,EW74,EY74)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="EZ75" s="111"/>
       <c r="FA75" s="83"/>
@@ -22016,7 +22077,7 @@
       </c>
       <c r="C85" s="120">
         <f>SUM(($CW$75/2)+$DF$75+$DO$75+($DX$75/2))</f>
-        <v>75.25</v>
+        <v>95.25</v>
       </c>
       <c r="D85" s="142">
         <f>SUM((CP74/2)+CY74+DH74+(DQ74/2))</f>
@@ -22035,7 +22096,7 @@
       <c r="I85" s="137"/>
       <c r="J85" s="137">
         <f>SUM((CS74/2)+DB74+DK74+(DT74/2))</f>
-        <v>23</v>
+        <v>32.5</v>
       </c>
       <c r="K85" s="138"/>
       <c r="L85" s="142">
@@ -22045,7 +22106,7 @@
       <c r="M85" s="137"/>
       <c r="N85" s="137">
         <f>SUM((CU74/2)+DD74+DM74+(DV74/2))</f>
-        <v>17</v>
+        <v>21.5</v>
       </c>
       <c r="O85" s="138"/>
       <c r="P85" s="142">
@@ -22055,7 +22116,7 @@
       <c r="Q85" s="137"/>
       <c r="R85" s="137">
         <f>SUM((CW74/2)+DF74+DO74+(DX74/2))</f>
-        <v>17.5</v>
+        <v>23.5</v>
       </c>
       <c r="S85" s="138"/>
       <c r="T85" s="142">
@@ -22065,22 +22126,22 @@
       <c r="U85" s="137"/>
       <c r="V85" s="137">
         <f t="shared" si="211"/>
-        <v>0.75</v>
+        <v>10.25</v>
       </c>
       <c r="W85" s="137"/>
       <c r="X85" s="137">
         <f t="shared" si="212"/>
-        <v>-5.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Y85" s="137"/>
       <c r="Z85" s="137">
         <f t="shared" si="204"/>
-        <v>4.75</v>
+        <v>-1.25</v>
       </c>
       <c r="AA85" s="137"/>
       <c r="AB85" s="137">
         <f>SUM(V85+T85+X85+Z85)</f>
-        <v>-4.25</v>
+        <v>3.75</v>
       </c>
       <c r="AC85" s="138"/>
       <c r="AD85" s="136">
@@ -22090,22 +22151,22 @@
       <c r="AE85" s="136"/>
       <c r="AF85" s="136">
         <f t="shared" si="206"/>
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="AG85" s="136"/>
       <c r="AH85" s="136">
         <f t="shared" si="207"/>
-        <v>-28</v>
+        <v>-23.5</v>
       </c>
       <c r="AI85" s="136"/>
       <c r="AJ85" s="136">
         <f t="shared" si="208"/>
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AK85" s="136"/>
       <c r="AL85" s="136">
         <f t="shared" si="213"/>
-        <v>24.5</v>
+        <v>32.5</v>
       </c>
       <c r="AM85" s="136"/>
     </row>
@@ -22120,7 +22181,7 @@
       </c>
       <c r="C86" s="120">
         <f>SUM(($DX$75/2)+($EG$75/2))</f>
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="D86" s="142">
         <f>SUM((DQ74/2)+(DZ74/2))</f>
@@ -22139,7 +22200,7 @@
       <c r="I86" s="137"/>
       <c r="J86" s="137">
         <f>SUM((DT74/2)+(EC74/2))</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K86" s="138"/>
       <c r="L86" s="142">
@@ -22149,7 +22210,7 @@
       <c r="M86" s="137"/>
       <c r="N86" s="137">
         <f>SUM((DV74/2)+(EE74/2))</f>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="O86" s="138"/>
       <c r="P86" s="142">
@@ -22159,7 +22220,7 @@
       <c r="Q86" s="137"/>
       <c r="R86" s="137">
         <f>SUM((DX74/2)+(EG74/2))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S86" s="138"/>
       <c r="T86" s="142">
@@ -22169,22 +22230,22 @@
       <c r="U86" s="137"/>
       <c r="V86" s="137">
         <f t="shared" si="211"/>
-        <v>-2.125</v>
+        <v>17.875</v>
       </c>
       <c r="W86" s="137"/>
       <c r="X86" s="137">
         <f t="shared" si="212"/>
-        <v>-2.125</v>
+        <v>8.375</v>
       </c>
       <c r="Y86" s="137"/>
       <c r="Z86" s="137">
         <f t="shared" si="204"/>
-        <v>2.125</v>
+        <v>-5.875</v>
       </c>
       <c r="AA86" s="137"/>
       <c r="AB86" s="137">
         <f t="shared" si="205"/>
-        <v>-4.25</v>
+        <v>18.25</v>
       </c>
       <c r="AC86" s="138"/>
       <c r="AD86" s="136">
@@ -22194,22 +22255,22 @@
       <c r="AE86" s="136"/>
       <c r="AF86" s="136">
         <f t="shared" si="206"/>
-        <v>7.375</v>
+        <v>36.875</v>
       </c>
       <c r="AG86" s="136"/>
       <c r="AH86" s="136">
         <f t="shared" si="207"/>
-        <v>-30.125</v>
+        <v>-15.125</v>
       </c>
       <c r="AI86" s="136"/>
       <c r="AJ86" s="136">
         <f t="shared" si="208"/>
-        <v>40.125</v>
+        <v>26.125</v>
       </c>
       <c r="AK86" s="136"/>
       <c r="AL86" s="136">
         <f t="shared" si="213"/>
-        <v>20.25</v>
+        <v>50.75</v>
       </c>
       <c r="AM86" s="136"/>
     </row>
@@ -22223,7 +22284,7 @@
       </c>
       <c r="C87" s="120">
         <f>SUM(($EG$75/2)+$EP$75+$EY$75+$FH$75)</f>
-        <v>0</v>
+        <v>79.5</v>
       </c>
       <c r="D87" s="142">
         <f>SUM((DZ74/2)+EI74+ER74+FA74)</f>
@@ -22242,7 +22303,7 @@
       <c r="I87" s="137"/>
       <c r="J87" s="137">
         <f>SUM((EC74/2)+EL74+EU74+FD74)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K87" s="138"/>
       <c r="L87" s="142">
@@ -22252,7 +22313,7 @@
       <c r="M87" s="137"/>
       <c r="N87" s="137">
         <f>SUM((EE74/2)+EN74+EW74+FF74)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="O87" s="138"/>
       <c r="P87" s="142">
@@ -22262,7 +22323,7 @@
       <c r="Q87" s="137"/>
       <c r="R87" s="137">
         <f>SUM((EG74/2)+EP74+EY74+FH74)</f>
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="S87" s="138"/>
       <c r="T87" s="142">
@@ -22272,22 +22333,22 @@
       <c r="U87" s="137"/>
       <c r="V87" s="137">
         <f t="shared" si="211"/>
-        <v>-7.875</v>
+        <v>11.125</v>
       </c>
       <c r="W87" s="137"/>
       <c r="X87" s="137">
         <f t="shared" si="212"/>
-        <v>-7.875</v>
+        <v>37.125</v>
       </c>
       <c r="Y87" s="137"/>
       <c r="Z87" s="137">
         <f t="shared" si="204"/>
-        <v>7.875</v>
+        <v>-7.625</v>
       </c>
       <c r="AA87" s="137"/>
       <c r="AB87" s="137">
         <f>SUM(V87+T87+X87+Z87)</f>
-        <v>-15.75</v>
+        <v>32.75</v>
       </c>
       <c r="AC87" s="138"/>
       <c r="AD87" s="136">
@@ -22297,22 +22358,22 @@
       <c r="AE87" s="136"/>
       <c r="AF87" s="136">
         <f t="shared" si="206"/>
-        <v>-0.5</v>
+        <v>48</v>
       </c>
       <c r="AG87" s="136"/>
       <c r="AH87" s="136">
         <f t="shared" si="207"/>
-        <v>-38</v>
+        <v>22</v>
       </c>
       <c r="AI87" s="136"/>
       <c r="AJ87" s="136">
         <f t="shared" si="208"/>
-        <v>48</v>
+        <v>18.5</v>
       </c>
       <c r="AK87" s="136"/>
       <c r="AL87" s="136">
         <f t="shared" si="213"/>
-        <v>4.5</v>
+        <v>83.5</v>
       </c>
       <c r="AM87" s="136"/>
     </row>
@@ -22326,7 +22387,7 @@
       </c>
       <c r="C88" s="120">
         <f>SUM($C$80:$C$87)</f>
-        <v>410.5</v>
+        <v>548.5</v>
       </c>
       <c r="D88" s="142">
         <f>SUM(D80:E87)</f>
@@ -22345,7 +22406,7 @@
       <c r="I88" s="137"/>
       <c r="J88" s="137">
         <f>SUM(J80:K87)</f>
-        <v>114.5</v>
+        <v>163</v>
       </c>
       <c r="K88" s="138"/>
       <c r="L88" s="142">
@@ -22355,7 +22416,7 @@
       <c r="M88" s="137"/>
       <c r="N88" s="137">
         <f>SUM(N80:O87)</f>
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="O88" s="138"/>
       <c r="P88" s="142">
@@ -22365,7 +22426,7 @@
       <c r="Q88" s="137"/>
       <c r="R88" s="137">
         <f>SUM(R80:S87)</f>
-        <v>77</v>
+        <v>106.5</v>
       </c>
       <c r="S88" s="138"/>
       <c r="T88" s="142">
@@ -22375,22 +22436,22 @@
       <c r="U88" s="137"/>
       <c r="V88" s="137">
         <f t="shared" si="211"/>
-        <v>-0.5</v>
+        <v>48</v>
       </c>
       <c r="W88" s="137"/>
       <c r="X88" s="137">
         <f t="shared" si="212"/>
-        <v>-38</v>
+        <v>22</v>
       </c>
       <c r="Y88" s="137"/>
       <c r="Z88" s="137">
         <f t="shared" si="204"/>
-        <v>48</v>
+        <v>18.5</v>
       </c>
       <c r="AA88" s="137"/>
       <c r="AB88" s="137">
         <f t="shared" si="205"/>
-        <v>4.5</v>
+        <v>83.5</v>
       </c>
       <c r="AC88" s="138"/>
       <c r="AD88" s="136">
@@ -22400,22 +22461,22 @@
       <c r="AE88" s="136"/>
       <c r="AF88" s="136">
         <f t="shared" si="206"/>
-        <v>-1</v>
+        <v>96</v>
       </c>
       <c r="AG88" s="136"/>
       <c r="AH88" s="136">
         <f t="shared" si="207"/>
-        <v>-76</v>
+        <v>44</v>
       </c>
       <c r="AI88" s="136"/>
       <c r="AJ88" s="136">
         <f t="shared" si="208"/>
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="AK88" s="136"/>
       <c r="AL88" s="136">
         <f t="shared" si="213"/>
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="AM88" s="136"/>
     </row>
@@ -22633,7 +22694,7 @@
       <c r="V93" s="134"/>
       <c r="W93" s="134">
         <f>SUM(G74+P74+Y74+AH74+AQ74+AZ74+BI74+BR74+CA74+CJ74+CS74+DB74+DK74+DT74+EC74+EL74+EU74+FD74)</f>
-        <v>114.5</v>
+        <v>163</v>
       </c>
       <c r="X93" s="134"/>
       <c r="Y93" s="134"/>
@@ -22660,7 +22721,7 @@
       <c r="C94" s="163"/>
       <c r="D94" s="136">
         <f>SUM(C11,C16,C23,C29,C32,C44,C48,C57,C65,C70)</f>
-        <v>409</v>
+        <v>545</v>
       </c>
       <c r="E94" s="136"/>
       <c r="F94" s="71"/>
@@ -22690,7 +22751,7 @@
       <c r="V94" s="134"/>
       <c r="W94" s="134">
         <f>SUM(I74+R74+AA74+AJ74+AS74+BB74+BK74+BT74+CC74+CL74+CU74+DD74+DM74+DV74+EE74+EN74+EW74+FF74)</f>
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="X94" s="134"/>
       <c r="Y94" s="134"/>
@@ -22740,7 +22801,7 @@
       <c r="V95" s="134"/>
       <c r="W95" s="134">
         <f>SUM(K74+T74+AC74+AL74+AU74+BD74+BM74+BV74+CE74+CN74+CW74+DF74+DO74+DX74+EG74+EP74+EY74+FH74)</f>
-        <v>77</v>
+        <v>106.5</v>
       </c>
       <c r="X95" s="134"/>
       <c r="Y95" s="134"/>
@@ -23643,7 +23704,7 @@
       <c r="B13" s="51"/>
       <c r="C13" s="51">
         <f>Detailplan!C11</f>
-        <v>83</v>
+        <v>89.5</v>
       </c>
       <c r="D13" s="59"/>
       <c r="E13" s="169">
@@ -23728,7 +23789,7 @@
       <c r="AJ13" s="169"/>
       <c r="AK13" s="169">
         <f>SUM(Detailplan!ES11,Detailplan!EW11,Detailplan!EY11,Detailplan!EU11)</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AL13" s="169"/>
       <c r="AM13" s="169">
@@ -23885,7 +23946,7 @@
       <c r="B16" s="51"/>
       <c r="C16" s="51">
         <f>Detailplan!C16</f>
-        <v>41</v>
+        <v>42.5</v>
       </c>
       <c r="D16" s="59"/>
       <c r="E16" s="169">
@@ -23965,12 +24026,12 @@
       <c r="AH16" s="169"/>
       <c r="AI16" s="169">
         <f>SUM(Detailplan!EJ16,Detailplan!EN16,Detailplan!EP16,Detailplan!EL16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16" s="169"/>
       <c r="AK16" s="169">
         <f>SUM(Detailplan!ES16,Detailplan!EW16,Detailplan!EY16,Detailplan!EU16)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AL16" s="169"/>
       <c r="AM16" s="169">
@@ -24369,7 +24430,7 @@
       <c r="B22" s="51"/>
       <c r="C22" s="51">
         <f>Detailplan!C29</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D22" s="59"/>
       <c r="E22" s="169">
@@ -24454,7 +24515,7 @@
       <c r="AJ22" s="169"/>
       <c r="AK22" s="169">
         <f>SUM(Detailplan!ES29,Detailplan!EW29,Detailplan!EY29,Detailplan!EU29)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL22" s="169"/>
       <c r="AM22" s="169">
@@ -24611,7 +24672,7 @@
       <c r="B25" s="51"/>
       <c r="C25" s="51">
         <f>Detailplan!C32</f>
-        <v>176</v>
+        <v>261</v>
       </c>
       <c r="D25" s="59"/>
       <c r="E25" s="169">
@@ -24676,27 +24737,27 @@
       <c r="AB25" s="169"/>
       <c r="AC25" s="169">
         <f>SUM(Detailplan!DI32,Detailplan!DM32,Detailplan!DO32,Detailplan!DK32)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD25" s="169"/>
       <c r="AE25" s="169">
         <f>SUM(Detailplan!DR32,Detailplan!DV32,Detailplan!DX32,Detailplan!DT32)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AF25" s="169"/>
       <c r="AG25" s="169">
         <f>SUM(Detailplan!EA32,Detailplan!EC32,Detailplan!EG32,Detailplan!EE32)</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AH25" s="169"/>
       <c r="AI25" s="169">
         <f>SUM(Detailplan!EJ32,Detailplan!EN32,Detailplan!EP32,Detailplan!EL32)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AJ25" s="169"/>
       <c r="AK25" s="169">
         <f>SUM(Detailplan!ES32,Detailplan!EW32,Detailplan!EY32,Detailplan!EU32)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL25" s="169"/>
       <c r="AM25" s="169">
@@ -24854,7 +24915,7 @@
       <c r="B28" s="57"/>
       <c r="C28" s="57">
         <f>Detailplan!C33</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D28" s="59"/>
       <c r="E28" s="169">
@@ -24919,7 +24980,7 @@
       <c r="AB28" s="169"/>
       <c r="AC28" s="169">
         <f>SUM(Detailplan!DI33,Detailplan!DM33,Detailplan!DO33,Detailplan!DK33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28" s="169"/>
       <c r="AE28" s="169">
@@ -24939,7 +25000,7 @@
       <c r="AJ28" s="169"/>
       <c r="AK28" s="169">
         <f>SUM(Detailplan!ES33,Detailplan!EW33,Detailplan!EY33,Detailplan!EU33)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL28" s="169"/>
       <c r="AM28" s="169">
@@ -25583,7 +25644,7 @@
       <c r="B37" s="57"/>
       <c r="C37" s="57">
         <f>Detailplan!C37</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D37" s="59"/>
       <c r="E37" s="169">
@@ -25653,12 +25714,12 @@
       <c r="AD37" s="169"/>
       <c r="AE37" s="169">
         <f>SUM(Detailplan!DR37,Detailplan!DV37,Detailplan!DX37,Detailplan!DT37)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF37" s="169"/>
       <c r="AG37" s="169">
         <f>SUM(Detailplan!EA37,Detailplan!EC37,Detailplan!EG37,Detailplan!EE37)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH37" s="169"/>
       <c r="AI37" s="169">
@@ -26555,7 +26616,7 @@
       <c r="B49" s="57"/>
       <c r="C49" s="57">
         <f>Detailplan!C41</f>
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D49" s="59"/>
       <c r="E49" s="169">
@@ -26620,22 +26681,22 @@
       <c r="AB49" s="169"/>
       <c r="AC49" s="169">
         <f>SUM(Detailplan!DI41,Detailplan!DM41,Detailplan!DO41,Detailplan!DK41)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD49" s="169"/>
       <c r="AE49" s="169">
         <f>SUM(Detailplan!DR41,Detailplan!DV41,Detailplan!DX41,Detailplan!DT41)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AF49" s="169"/>
       <c r="AG49" s="169">
         <f>SUM(Detailplan!EA41,Detailplan!EC41,Detailplan!EG41,Detailplan!EE41)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH49" s="169"/>
       <c r="AI49" s="169">
         <f>SUM(Detailplan!EJ41,Detailplan!EN41,Detailplan!EP41,Detailplan!EL41)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ49" s="169"/>
       <c r="AK49" s="169">
@@ -26798,7 +26859,7 @@
       <c r="B52" s="51"/>
       <c r="C52" s="51">
         <f>Detailplan!C44</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D52" s="59"/>
       <c r="E52" s="169">
@@ -26878,12 +26939,12 @@
       <c r="AH52" s="169"/>
       <c r="AI52" s="169">
         <f>SUM(Detailplan!EJ44,Detailplan!EN44,Detailplan!EP44,Detailplan!EL44)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ52" s="169"/>
       <c r="AK52" s="169">
         <f>SUM(Detailplan!ES44,Detailplan!EW44,Detailplan!EY44,Detailplan!EU44)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AL52" s="169"/>
       <c r="AM52" s="169">
@@ -27365,7 +27426,7 @@
       <c r="B60" s="51"/>
       <c r="C60" s="51">
         <f>Detailplan!C57</f>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D60" s="59"/>
       <c r="E60" s="169">
@@ -27435,12 +27496,12 @@
       <c r="AD60" s="169"/>
       <c r="AE60" s="169">
         <f>SUM(Detailplan!DR57,Detailplan!DV57,Detailplan!DX57,Detailplan!DT57)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AF60" s="169"/>
       <c r="AG60" s="169">
         <f>SUM(Detailplan!EA57,Detailplan!EC57,Detailplan!EG57,Detailplan!EE57)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH60" s="169"/>
       <c r="AI60" s="169">
@@ -27849,7 +27910,7 @@
       <c r="B66" s="51"/>
       <c r="C66" s="51">
         <f>Detailplan!C70</f>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D66" s="59"/>
       <c r="E66" s="169">
@@ -27924,17 +27985,17 @@
       <c r="AF66" s="169"/>
       <c r="AG66" s="169">
         <f>SUM(Detailplan!EA70,Detailplan!EC70,Detailplan!EG70,Detailplan!EE70)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH66" s="169"/>
       <c r="AI66" s="169">
         <f>SUM(Detailplan!EJ70,Detailplan!EN70,Detailplan!EP70,Detailplan!EL70)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ66" s="169"/>
       <c r="AK66" s="169">
         <f>SUM(Detailplan!ES70,Detailplan!EW70,Detailplan!EY70,Detailplan!EU70)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL66" s="169"/>
       <c r="AM66" s="169">
@@ -28051,7 +28112,7 @@
       </c>
       <c r="C74" s="56">
         <f>SUM(C13+C16+C19+C22+C25+C52+C55+C60+C63+C66)</f>
-        <v>409</v>
+        <v>545</v>
       </c>
       <c r="D74" s="18"/>
       <c r="E74" s="19"/>

--- a/Zeiterfassungen und Projektplan/Projektplan_Typo.xlsx
+++ b/Zeiterfassungen und Projektplan/Projektplan_Typo.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lennart\Google Drive\studium\SOSE 17\SWP\Repository\Zeiterfassungen und Projektplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexa\Desktop\SVN\Zeiterfassungen und Projektplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12345" tabRatio="676" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12350" tabRatio="676" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="9" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="123">
   <si>
     <t>Projekt</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>IST:</t>
+  </si>
+  <si>
+    <t>Installer erstellen</t>
   </si>
 </sst>
 </file>
@@ -1142,13 +1145,10 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1157,25 +1157,37 @@
     <xf numFmtId="2" fontId="1" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1184,7 +1196,17 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1194,6 +1216,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1217,45 +1246,19 @@
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2470,13 +2473,13 @@
       <selection activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.6">
       <c r="A3" s="131" t="s">
         <v>0</v>
       </c>
@@ -2486,7 +2489,7 @@
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
     </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="117"/>
       <c r="B4" s="117"/>
       <c r="C4" s="117"/>
@@ -2494,7 +2497,7 @@
       <c r="E4" s="117"/>
       <c r="F4" s="117"/>
     </row>
-    <row r="5" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A5" s="130"/>
       <c r="B5" s="130"/>
       <c r="C5" s="130"/>
@@ -2502,7 +2505,7 @@
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
     </row>
-    <row r="8" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A8" s="128"/>
       <c r="B8" s="29" t="s">
         <v>1</v>
@@ -2514,7 +2517,7 @@
       <c r="E8" s="128"/>
       <c r="F8" s="128"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="128"/>
       <c r="B9" s="128"/>
       <c r="C9" s="128"/>
@@ -2522,7 +2525,7 @@
       <c r="E9" s="128"/>
       <c r="F9" s="128"/>
     </row>
-    <row r="10" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A10" s="128"/>
       <c r="B10" s="65"/>
       <c r="C10" s="65" t="s">
@@ -2532,7 +2535,7 @@
       <c r="E10" s="128"/>
       <c r="F10" s="128"/>
     </row>
-    <row r="11" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A11" s="128"/>
       <c r="B11" s="65"/>
       <c r="C11" s="65" t="s">
@@ -2542,7 +2545,7 @@
       <c r="E11" s="128"/>
       <c r="F11" s="128"/>
     </row>
-    <row r="12" spans="1:6" s="69" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="69" customFormat="1" ht="20" x14ac:dyDescent="0.4">
       <c r="A12" s="128"/>
       <c r="B12" s="65"/>
       <c r="C12" s="65" t="s">
@@ -2552,7 +2555,7 @@
       <c r="E12" s="128"/>
       <c r="F12" s="128"/>
     </row>
-    <row r="13" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A13" s="128"/>
       <c r="B13" s="65"/>
       <c r="C13" s="65" t="s">
@@ -2562,7 +2565,7 @@
       <c r="E13" s="128"/>
       <c r="F13" s="128"/>
     </row>
-    <row r="15" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A15" s="128"/>
       <c r="B15" s="132" t="s">
         <v>7</v>
@@ -2572,7 +2575,7 @@
       <c r="E15" s="128"/>
       <c r="F15" s="128"/>
     </row>
-    <row r="16" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A16" s="128"/>
       <c r="B16" s="133">
         <v>42809</v>
@@ -2582,7 +2585,7 @@
       <c r="E16" s="128"/>
       <c r="F16" s="128"/>
     </row>
-    <row r="24" spans="2:3" s="66" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" s="66" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B24" s="66" t="s">
         <v>8</v>
       </c>
@@ -2590,23 +2593,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:3" s="66" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" s="66" customFormat="1" ht="62.5" x14ac:dyDescent="0.25">
       <c r="C25" s="66" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:3" s="66" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:3" s="66" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:3" s="66" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:3" s="66" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:3" s="66" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:3" s="66" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:3" s="66" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="66" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="66" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="66" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="66" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="66" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:3" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:3" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:3" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:3" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:3" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:3" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:3" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A5:D5"/>
@@ -2628,148 +2631,148 @@
   </sheetPr>
   <dimension ref="A1:FH105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="10" topLeftCell="DM42" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane xSplit="3" ySplit="10" topLeftCell="DV68" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="EY20" sqref="EY20"/>
+      <selection pane="bottomRight" activeCell="DY97" sqref="DY97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="4" customWidth="1"/>
-    <col min="4" max="5" width="4.5703125" customWidth="1"/>
-    <col min="6" max="7" width="4.5703125" style="70" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" style="73" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="73" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" customWidth="1"/>
-    <col min="12" max="12" width="3.85546875" customWidth="1"/>
-    <col min="13" max="14" width="4.5703125" customWidth="1"/>
-    <col min="15" max="16" width="4.5703125" style="70" customWidth="1"/>
-    <col min="17" max="17" width="4.5703125" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" style="73" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="73" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.5703125" customWidth="1"/>
-    <col min="21" max="21" width="3.85546875" customWidth="1"/>
-    <col min="22" max="23" width="4.5703125" customWidth="1"/>
-    <col min="24" max="25" width="4.5703125" style="70" customWidth="1"/>
-    <col min="26" max="27" width="4.5703125" style="73" customWidth="1"/>
-    <col min="28" max="28" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.5703125" customWidth="1"/>
-    <col min="30" max="30" width="3.85546875" customWidth="1"/>
-    <col min="31" max="32" width="4.5703125" customWidth="1"/>
-    <col min="33" max="34" width="4.5703125" style="70" customWidth="1"/>
-    <col min="35" max="36" width="4.5703125" style="73" customWidth="1"/>
-    <col min="37" max="37" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="4.5703125" style="9" customWidth="1"/>
-    <col min="39" max="39" width="3.85546875" style="9" customWidth="1"/>
-    <col min="40" max="40" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="4.5703125" style="9" customWidth="1"/>
-    <col min="42" max="42" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="4.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="4.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="3.85546875" style="9" customWidth="1"/>
-    <col min="49" max="49" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="4.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="4.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="4.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="4.5703125" style="9" customWidth="1"/>
-    <col min="57" max="57" width="3.85546875" style="9" customWidth="1"/>
-    <col min="58" max="58" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="4.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="4.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="4.5703125" style="9" customWidth="1"/>
-    <col min="64" max="64" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="4.5703125" style="9" customWidth="1"/>
-    <col min="66" max="66" width="3.85546875" style="9" customWidth="1"/>
-    <col min="67" max="67" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="4.5703125" style="9" customWidth="1"/>
-    <col min="69" max="69" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="4.5703125" style="9" customWidth="1"/>
-    <col min="71" max="71" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="4.5703125" style="9" customWidth="1"/>
-    <col min="73" max="73" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="4.5703125" style="9" customWidth="1"/>
-    <col min="75" max="75" width="3.85546875" style="9" customWidth="1"/>
-    <col min="76" max="76" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="4.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="4.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="4.5703125" style="9" customWidth="1"/>
-    <col min="82" max="82" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="4.5703125" style="9" customWidth="1"/>
-    <col min="84" max="84" width="3.85546875" style="9" customWidth="1"/>
-    <col min="85" max="85" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="4.5703125" style="9" customWidth="1"/>
-    <col min="87" max="87" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="4.5703125" style="9" customWidth="1"/>
-    <col min="89" max="89" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="4.5703125" style="9" customWidth="1"/>
-    <col min="91" max="91" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="4.5703125" style="9" customWidth="1"/>
-    <col min="93" max="93" width="3.85546875" style="9" customWidth="1"/>
-    <col min="94" max="94" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="4.5703125" style="9" customWidth="1"/>
-    <col min="96" max="96" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="4.5703125" style="9" customWidth="1"/>
-    <col min="98" max="98" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="4.5703125" style="9" customWidth="1"/>
-    <col min="100" max="100" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="4.5703125" style="9" customWidth="1"/>
-    <col min="102" max="102" width="3.85546875" style="9" customWidth="1"/>
-    <col min="103" max="103" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="4.5703125" style="9" customWidth="1"/>
-    <col min="105" max="105" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="4.5703125" style="9" customWidth="1"/>
-    <col min="107" max="107" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="4.5703125" style="9" customWidth="1"/>
-    <col min="109" max="109" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="4.5703125" style="9" customWidth="1"/>
-    <col min="111" max="111" width="3.85546875" style="9" customWidth="1"/>
-    <col min="112" max="112" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="4.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="4.5703125" style="9" customWidth="1"/>
-    <col min="116" max="116" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="4.5703125" style="9" customWidth="1"/>
-    <col min="118" max="118" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="4.5703125" style="9" customWidth="1"/>
-    <col min="120" max="120" width="3.85546875" style="9" customWidth="1"/>
-    <col min="121" max="121" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="4.5703125" style="9" customWidth="1"/>
-    <col min="123" max="123" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="4.5703125" style="9" customWidth="1"/>
-    <col min="125" max="125" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="4.5703125" style="9" customWidth="1"/>
-    <col min="127" max="127" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="4.5703125" style="9" customWidth="1"/>
-    <col min="129" max="129" width="3.85546875" style="9" customWidth="1"/>
-    <col min="130" max="135" width="4.5703125" style="9" customWidth="1"/>
-    <col min="136" max="136" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="4.5703125" style="9" customWidth="1"/>
-    <col min="138" max="138" width="3.85546875" style="9" customWidth="1"/>
-    <col min="139" max="144" width="4.7109375" style="9" customWidth="1"/>
-    <col min="145" max="145" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="146" max="153" width="4.7109375" style="9" customWidth="1"/>
-    <col min="154" max="154" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="155" max="164" width="4.7109375" style="9" customWidth="1"/>
-    <col min="165" max="165" width="4.42578125" style="9" customWidth="1"/>
-    <col min="166" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="41.81640625" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" style="4" customWidth="1"/>
+    <col min="4" max="5" width="4.54296875" customWidth="1"/>
+    <col min="6" max="7" width="4.54296875" style="70" customWidth="1"/>
+    <col min="8" max="8" width="4.54296875" customWidth="1"/>
+    <col min="9" max="9" width="4.54296875" style="73" customWidth="1"/>
+    <col min="10" max="10" width="5.7265625" style="73" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.54296875" customWidth="1"/>
+    <col min="12" max="12" width="3.81640625" customWidth="1"/>
+    <col min="13" max="14" width="4.54296875" customWidth="1"/>
+    <col min="15" max="16" width="4.54296875" style="70" customWidth="1"/>
+    <col min="17" max="17" width="4.54296875" customWidth="1"/>
+    <col min="18" max="18" width="4.54296875" style="73" customWidth="1"/>
+    <col min="19" max="19" width="5.7265625" style="73" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.54296875" customWidth="1"/>
+    <col min="21" max="21" width="3.81640625" customWidth="1"/>
+    <col min="22" max="23" width="4.54296875" customWidth="1"/>
+    <col min="24" max="25" width="4.54296875" style="70" customWidth="1"/>
+    <col min="26" max="27" width="4.54296875" style="73" customWidth="1"/>
+    <col min="28" max="28" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.54296875" customWidth="1"/>
+    <col min="30" max="30" width="3.81640625" customWidth="1"/>
+    <col min="31" max="32" width="4.54296875" customWidth="1"/>
+    <col min="33" max="34" width="4.54296875" style="70" customWidth="1"/>
+    <col min="35" max="36" width="4.54296875" style="73" customWidth="1"/>
+    <col min="37" max="37" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.54296875" style="9" customWidth="1"/>
+    <col min="39" max="39" width="3.81640625" style="9" customWidth="1"/>
+    <col min="40" max="40" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4.54296875" style="9" customWidth="1"/>
+    <col min="42" max="42" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="4.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="3.81640625" style="9" customWidth="1"/>
+    <col min="49" max="49" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="4.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="4.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="4.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="4.54296875" style="9" customWidth="1"/>
+    <col min="57" max="57" width="3.81640625" style="9" customWidth="1"/>
+    <col min="58" max="58" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="4.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="4.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="4.54296875" style="9" customWidth="1"/>
+    <col min="64" max="64" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="4.54296875" style="9" customWidth="1"/>
+    <col min="66" max="66" width="3.81640625" style="9" customWidth="1"/>
+    <col min="67" max="67" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="4.54296875" style="9" customWidth="1"/>
+    <col min="69" max="69" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="4.54296875" style="9" customWidth="1"/>
+    <col min="71" max="71" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="4.54296875" style="9" customWidth="1"/>
+    <col min="73" max="73" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="4.54296875" style="9" customWidth="1"/>
+    <col min="75" max="75" width="3.81640625" style="9" customWidth="1"/>
+    <col min="76" max="76" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="4.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="4.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="4.54296875" style="9" customWidth="1"/>
+    <col min="82" max="82" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="4.54296875" style="9" customWidth="1"/>
+    <col min="84" max="84" width="3.81640625" style="9" customWidth="1"/>
+    <col min="85" max="85" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="4.54296875" style="9" customWidth="1"/>
+    <col min="87" max="87" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="4.54296875" style="9" customWidth="1"/>
+    <col min="89" max="89" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="4.54296875" style="9" customWidth="1"/>
+    <col min="91" max="91" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="4.54296875" style="9" customWidth="1"/>
+    <col min="93" max="93" width="3.81640625" style="9" customWidth="1"/>
+    <col min="94" max="94" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="4.54296875" style="9" customWidth="1"/>
+    <col min="96" max="96" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="4.54296875" style="9" customWidth="1"/>
+    <col min="98" max="98" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="4.54296875" style="9" customWidth="1"/>
+    <col min="100" max="100" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="4.54296875" style="9" customWidth="1"/>
+    <col min="102" max="102" width="3.81640625" style="9" customWidth="1"/>
+    <col min="103" max="103" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="4.54296875" style="9" customWidth="1"/>
+    <col min="105" max="105" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="4.54296875" style="9" customWidth="1"/>
+    <col min="107" max="107" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="4.54296875" style="9" customWidth="1"/>
+    <col min="109" max="109" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="4.54296875" style="9" customWidth="1"/>
+    <col min="111" max="111" width="3.81640625" style="9" customWidth="1"/>
+    <col min="112" max="112" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="4.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="4.54296875" style="9" customWidth="1"/>
+    <col min="116" max="116" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="4.54296875" style="9" customWidth="1"/>
+    <col min="118" max="118" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="4.54296875" style="9" customWidth="1"/>
+    <col min="120" max="120" width="3.81640625" style="9" customWidth="1"/>
+    <col min="121" max="121" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="4.54296875" style="9" customWidth="1"/>
+    <col min="123" max="123" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="4.54296875" style="9" customWidth="1"/>
+    <col min="125" max="125" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="4.54296875" style="9" customWidth="1"/>
+    <col min="127" max="127" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="4.54296875" style="9" customWidth="1"/>
+    <col min="129" max="129" width="3.81640625" style="9" customWidth="1"/>
+    <col min="130" max="135" width="4.54296875" style="9" customWidth="1"/>
+    <col min="136" max="136" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="4.54296875" style="9" customWidth="1"/>
+    <col min="138" max="138" width="3.81640625" style="9" customWidth="1"/>
+    <col min="139" max="144" width="4.7265625" style="9" customWidth="1"/>
+    <col min="145" max="145" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="146" max="153" width="4.7265625" style="9" customWidth="1"/>
+    <col min="154" max="154" width="5.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="155" max="164" width="4.7265625" style="9" customWidth="1"/>
+    <col min="165" max="165" width="4.453125" style="9" customWidth="1"/>
+    <col min="166" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:164" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:164" ht="18" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -2813,7 +2816,7 @@
       <c r="AJ1" s="128"/>
       <c r="AK1" s="128"/>
     </row>
-    <row r="2" spans="1:164" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:164" ht="18" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="8"/>
@@ -2852,7 +2855,7 @@
       <c r="AJ2" s="128"/>
       <c r="AK2" s="128"/>
     </row>
-    <row r="3" spans="1:164" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:164" s="22" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -2900,7 +2903,7 @@
       <c r="CV3" s="34"/>
       <c r="CW3" s="34"/>
     </row>
-    <row r="4" spans="1:164" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:164" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="8"/>
@@ -2939,193 +2942,193 @@
       <c r="AJ4" s="128"/>
       <c r="AK4" s="128"/>
     </row>
-    <row r="5" spans="1:164" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:164" ht="14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="128"/>
       <c r="C5" s="128"/>
-      <c r="D5" s="159" t="s">
+      <c r="D5" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="159"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
       <c r="L5" s="118"/>
-      <c r="M5" s="153" t="s">
+      <c r="M5" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="153"/>
-      <c r="O5" s="153"/>
-      <c r="P5" s="153"/>
-      <c r="Q5" s="153"/>
-      <c r="R5" s="153"/>
-      <c r="S5" s="153"/>
-      <c r="T5" s="153"/>
-      <c r="U5" s="153"/>
-      <c r="V5" s="153"/>
-      <c r="W5" s="153"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="153"/>
-      <c r="Z5" s="153"/>
-      <c r="AA5" s="153"/>
-      <c r="AB5" s="153"/>
-      <c r="AC5" s="153"/>
-      <c r="AD5" s="153"/>
-      <c r="AE5" s="154" t="s">
+      <c r="N5" s="163"/>
+      <c r="O5" s="163"/>
+      <c r="P5" s="163"/>
+      <c r="Q5" s="163"/>
+      <c r="R5" s="163"/>
+      <c r="S5" s="163"/>
+      <c r="T5" s="163"/>
+      <c r="U5" s="163"/>
+      <c r="V5" s="163"/>
+      <c r="W5" s="163"/>
+      <c r="X5" s="163"/>
+      <c r="Y5" s="163"/>
+      <c r="Z5" s="163"/>
+      <c r="AA5" s="163"/>
+      <c r="AB5" s="163"/>
+      <c r="AC5" s="163"/>
+      <c r="AD5" s="163"/>
+      <c r="AE5" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="AF5" s="154"/>
-      <c r="AG5" s="154"/>
-      <c r="AH5" s="154"/>
-      <c r="AI5" s="154"/>
-      <c r="AJ5" s="154"/>
-      <c r="AK5" s="154"/>
-      <c r="AL5" s="154"/>
-      <c r="AM5" s="154"/>
-      <c r="AN5" s="154"/>
-      <c r="AO5" s="154"/>
-      <c r="AP5" s="154"/>
-      <c r="AQ5" s="154"/>
-      <c r="AR5" s="154"/>
-      <c r="AS5" s="154"/>
-      <c r="AT5" s="154"/>
-      <c r="AU5" s="154"/>
-      <c r="AV5" s="154"/>
-      <c r="AW5" s="155" t="s">
+      <c r="AF5" s="164"/>
+      <c r="AG5" s="164"/>
+      <c r="AH5" s="164"/>
+      <c r="AI5" s="164"/>
+      <c r="AJ5" s="164"/>
+      <c r="AK5" s="164"/>
+      <c r="AL5" s="164"/>
+      <c r="AM5" s="164"/>
+      <c r="AN5" s="164"/>
+      <c r="AO5" s="164"/>
+      <c r="AP5" s="164"/>
+      <c r="AQ5" s="164"/>
+      <c r="AR5" s="164"/>
+      <c r="AS5" s="164"/>
+      <c r="AT5" s="164"/>
+      <c r="AU5" s="164"/>
+      <c r="AV5" s="164"/>
+      <c r="AW5" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="AX5" s="155"/>
-      <c r="AY5" s="155"/>
-      <c r="AZ5" s="155"/>
-      <c r="BA5" s="155"/>
-      <c r="BB5" s="155"/>
-      <c r="BC5" s="155"/>
-      <c r="BD5" s="155"/>
-      <c r="BE5" s="155"/>
-      <c r="BF5" s="155"/>
-      <c r="BG5" s="155"/>
-      <c r="BH5" s="155"/>
-      <c r="BI5" s="155"/>
-      <c r="BJ5" s="155"/>
-      <c r="BK5" s="155"/>
-      <c r="BL5" s="155"/>
-      <c r="BM5" s="155"/>
-      <c r="BN5" s="155"/>
-      <c r="BO5" s="156" t="s">
+      <c r="AX5" s="165"/>
+      <c r="AY5" s="165"/>
+      <c r="AZ5" s="165"/>
+      <c r="BA5" s="165"/>
+      <c r="BB5" s="165"/>
+      <c r="BC5" s="165"/>
+      <c r="BD5" s="165"/>
+      <c r="BE5" s="165"/>
+      <c r="BF5" s="165"/>
+      <c r="BG5" s="165"/>
+      <c r="BH5" s="165"/>
+      <c r="BI5" s="165"/>
+      <c r="BJ5" s="165"/>
+      <c r="BK5" s="165"/>
+      <c r="BL5" s="165"/>
+      <c r="BM5" s="165"/>
+      <c r="BN5" s="165"/>
+      <c r="BO5" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="BP5" s="156"/>
-      <c r="BQ5" s="156"/>
-      <c r="BR5" s="156"/>
-      <c r="BS5" s="156"/>
-      <c r="BT5" s="156"/>
-      <c r="BU5" s="156"/>
-      <c r="BV5" s="156"/>
-      <c r="BW5" s="156"/>
-      <c r="BX5" s="156"/>
-      <c r="BY5" s="156"/>
-      <c r="BZ5" s="156"/>
-      <c r="CA5" s="156"/>
-      <c r="CB5" s="156"/>
-      <c r="CC5" s="156"/>
-      <c r="CD5" s="156"/>
-      <c r="CE5" s="156"/>
-      <c r="CF5" s="156"/>
-      <c r="CG5" s="157" t="s">
+      <c r="BP5" s="166"/>
+      <c r="BQ5" s="166"/>
+      <c r="BR5" s="166"/>
+      <c r="BS5" s="166"/>
+      <c r="BT5" s="166"/>
+      <c r="BU5" s="166"/>
+      <c r="BV5" s="166"/>
+      <c r="BW5" s="166"/>
+      <c r="BX5" s="166"/>
+      <c r="BY5" s="166"/>
+      <c r="BZ5" s="166"/>
+      <c r="CA5" s="166"/>
+      <c r="CB5" s="166"/>
+      <c r="CC5" s="166"/>
+      <c r="CD5" s="166"/>
+      <c r="CE5" s="166"/>
+      <c r="CF5" s="166"/>
+      <c r="CG5" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="CH5" s="157"/>
-      <c r="CI5" s="157"/>
-      <c r="CJ5" s="157"/>
-      <c r="CK5" s="157"/>
-      <c r="CL5" s="157"/>
-      <c r="CM5" s="157"/>
-      <c r="CN5" s="157"/>
-      <c r="CO5" s="157"/>
-      <c r="CP5" s="157"/>
-      <c r="CQ5" s="157"/>
-      <c r="CR5" s="157"/>
-      <c r="CS5" s="157"/>
-      <c r="CT5" s="157"/>
-      <c r="CU5" s="157"/>
-      <c r="CV5" s="157"/>
-      <c r="CW5" s="157"/>
-      <c r="CX5" s="157"/>
-      <c r="CY5" s="158" t="s">
+      <c r="CH5" s="167"/>
+      <c r="CI5" s="167"/>
+      <c r="CJ5" s="167"/>
+      <c r="CK5" s="167"/>
+      <c r="CL5" s="167"/>
+      <c r="CM5" s="167"/>
+      <c r="CN5" s="167"/>
+      <c r="CO5" s="167"/>
+      <c r="CP5" s="167"/>
+      <c r="CQ5" s="167"/>
+      <c r="CR5" s="167"/>
+      <c r="CS5" s="167"/>
+      <c r="CT5" s="167"/>
+      <c r="CU5" s="167"/>
+      <c r="CV5" s="167"/>
+      <c r="CW5" s="167"/>
+      <c r="CX5" s="167"/>
+      <c r="CY5" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="CZ5" s="158"/>
-      <c r="DA5" s="158"/>
-      <c r="DB5" s="158"/>
-      <c r="DC5" s="158"/>
-      <c r="DD5" s="158"/>
-      <c r="DE5" s="158"/>
-      <c r="DF5" s="158"/>
-      <c r="DG5" s="158"/>
-      <c r="DH5" s="158"/>
-      <c r="DI5" s="158"/>
-      <c r="DJ5" s="158"/>
-      <c r="DK5" s="158"/>
-      <c r="DL5" s="158"/>
-      <c r="DM5" s="158"/>
-      <c r="DN5" s="158"/>
-      <c r="DO5" s="158"/>
-      <c r="DP5" s="158"/>
-      <c r="DQ5" s="152" t="s">
+      <c r="CZ5" s="168"/>
+      <c r="DA5" s="168"/>
+      <c r="DB5" s="168"/>
+      <c r="DC5" s="168"/>
+      <c r="DD5" s="168"/>
+      <c r="DE5" s="168"/>
+      <c r="DF5" s="168"/>
+      <c r="DG5" s="168"/>
+      <c r="DH5" s="168"/>
+      <c r="DI5" s="168"/>
+      <c r="DJ5" s="168"/>
+      <c r="DK5" s="168"/>
+      <c r="DL5" s="168"/>
+      <c r="DM5" s="168"/>
+      <c r="DN5" s="168"/>
+      <c r="DO5" s="168"/>
+      <c r="DP5" s="168"/>
+      <c r="DQ5" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="DR5" s="152"/>
-      <c r="DS5" s="152"/>
-      <c r="DT5" s="152"/>
-      <c r="DU5" s="152"/>
-      <c r="DV5" s="152"/>
-      <c r="DW5" s="152"/>
-      <c r="DX5" s="152"/>
-      <c r="DY5" s="152"/>
-      <c r="DZ5" s="152"/>
-      <c r="EA5" s="152"/>
-      <c r="EB5" s="152"/>
-      <c r="EC5" s="152"/>
-      <c r="ED5" s="152"/>
-      <c r="EE5" s="152"/>
-      <c r="EF5" s="152"/>
-      <c r="EG5" s="152"/>
-      <c r="EH5" s="152"/>
-      <c r="EI5" s="162" t="s">
+      <c r="DR5" s="162"/>
+      <c r="DS5" s="162"/>
+      <c r="DT5" s="162"/>
+      <c r="DU5" s="162"/>
+      <c r="DV5" s="162"/>
+      <c r="DW5" s="162"/>
+      <c r="DX5" s="162"/>
+      <c r="DY5" s="162"/>
+      <c r="DZ5" s="162"/>
+      <c r="EA5" s="162"/>
+      <c r="EB5" s="162"/>
+      <c r="EC5" s="162"/>
+      <c r="ED5" s="162"/>
+      <c r="EE5" s="162"/>
+      <c r="EF5" s="162"/>
+      <c r="EG5" s="162"/>
+      <c r="EH5" s="162"/>
+      <c r="EI5" s="161" t="s">
         <v>22</v>
       </c>
-      <c r="EJ5" s="162"/>
-      <c r="EK5" s="162"/>
-      <c r="EL5" s="162"/>
-      <c r="EM5" s="162"/>
-      <c r="EN5" s="162"/>
-      <c r="EO5" s="162"/>
-      <c r="EP5" s="162"/>
-      <c r="EQ5" s="162"/>
-      <c r="ER5" s="162"/>
-      <c r="ES5" s="162"/>
-      <c r="ET5" s="162"/>
-      <c r="EU5" s="162"/>
-      <c r="EV5" s="162"/>
-      <c r="EW5" s="162"/>
-      <c r="EX5" s="162"/>
-      <c r="EY5" s="162"/>
-      <c r="EZ5" s="162"/>
-      <c r="FA5" s="162"/>
-      <c r="FB5" s="162"/>
-      <c r="FC5" s="162"/>
-      <c r="FD5" s="162"/>
-      <c r="FE5" s="162"/>
-      <c r="FF5" s="162"/>
-      <c r="FG5" s="162"/>
-      <c r="FH5" s="162"/>
+      <c r="EJ5" s="161"/>
+      <c r="EK5" s="161"/>
+      <c r="EL5" s="161"/>
+      <c r="EM5" s="161"/>
+      <c r="EN5" s="161"/>
+      <c r="EO5" s="161"/>
+      <c r="EP5" s="161"/>
+      <c r="EQ5" s="161"/>
+      <c r="ER5" s="161"/>
+      <c r="ES5" s="161"/>
+      <c r="ET5" s="161"/>
+      <c r="EU5" s="161"/>
+      <c r="EV5" s="161"/>
+      <c r="EW5" s="161"/>
+      <c r="EX5" s="161"/>
+      <c r="EY5" s="161"/>
+      <c r="EZ5" s="161"/>
+      <c r="FA5" s="161"/>
+      <c r="FB5" s="161"/>
+      <c r="FC5" s="161"/>
+      <c r="FD5" s="161"/>
+      <c r="FE5" s="161"/>
+      <c r="FF5" s="161"/>
+      <c r="FG5" s="161"/>
+      <c r="FH5" s="161"/>
     </row>
-    <row r="6" spans="1:164" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:164" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
         <v>23</v>
       </c>
@@ -3279,461 +3282,461 @@
       <c r="FG6" s="47"/>
       <c r="FH6" s="47"/>
     </row>
-    <row r="7" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:164" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="128"/>
       <c r="B7" s="128"/>
       <c r="C7" s="118"/>
-      <c r="D7" s="149" t="s">
+      <c r="D7" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="151"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="157"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="157"/>
+      <c r="J7" s="157"/>
+      <c r="K7" s="158"/>
       <c r="L7" s="122"/>
-      <c r="M7" s="149" t="s">
+      <c r="M7" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="150"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="150"/>
-      <c r="R7" s="150"/>
-      <c r="S7" s="150"/>
-      <c r="T7" s="151"/>
+      <c r="N7" s="157"/>
+      <c r="O7" s="157"/>
+      <c r="P7" s="157"/>
+      <c r="Q7" s="157"/>
+      <c r="R7" s="157"/>
+      <c r="S7" s="157"/>
+      <c r="T7" s="158"/>
       <c r="U7" s="122"/>
-      <c r="V7" s="149" t="s">
+      <c r="V7" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="W7" s="150"/>
-      <c r="X7" s="150"/>
-      <c r="Y7" s="150"/>
-      <c r="Z7" s="150"/>
-      <c r="AA7" s="150"/>
-      <c r="AB7" s="150"/>
-      <c r="AC7" s="151"/>
+      <c r="W7" s="157"/>
+      <c r="X7" s="157"/>
+      <c r="Y7" s="157"/>
+      <c r="Z7" s="157"/>
+      <c r="AA7" s="157"/>
+      <c r="AB7" s="157"/>
+      <c r="AC7" s="158"/>
       <c r="AD7" s="122"/>
-      <c r="AE7" s="149" t="s">
+      <c r="AE7" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="AF7" s="150"/>
-      <c r="AG7" s="150"/>
-      <c r="AH7" s="150"/>
-      <c r="AI7" s="150"/>
-      <c r="AJ7" s="150"/>
-      <c r="AK7" s="150"/>
-      <c r="AL7" s="151"/>
-      <c r="AN7" s="149" t="s">
+      <c r="AF7" s="157"/>
+      <c r="AG7" s="157"/>
+      <c r="AH7" s="157"/>
+      <c r="AI7" s="157"/>
+      <c r="AJ7" s="157"/>
+      <c r="AK7" s="157"/>
+      <c r="AL7" s="158"/>
+      <c r="AN7" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="AO7" s="150"/>
-      <c r="AP7" s="150"/>
-      <c r="AQ7" s="150"/>
-      <c r="AR7" s="150"/>
-      <c r="AS7" s="150"/>
-      <c r="AT7" s="150"/>
-      <c r="AU7" s="151"/>
-      <c r="AW7" s="149" t="s">
+      <c r="AO7" s="157"/>
+      <c r="AP7" s="157"/>
+      <c r="AQ7" s="157"/>
+      <c r="AR7" s="157"/>
+      <c r="AS7" s="157"/>
+      <c r="AT7" s="157"/>
+      <c r="AU7" s="158"/>
+      <c r="AW7" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="AX7" s="150"/>
-      <c r="AY7" s="150"/>
-      <c r="AZ7" s="150"/>
-      <c r="BA7" s="150"/>
-      <c r="BB7" s="150"/>
-      <c r="BC7" s="150"/>
-      <c r="BD7" s="151"/>
-      <c r="BF7" s="149" t="s">
+      <c r="AX7" s="157"/>
+      <c r="AY7" s="157"/>
+      <c r="AZ7" s="157"/>
+      <c r="BA7" s="157"/>
+      <c r="BB7" s="157"/>
+      <c r="BC7" s="157"/>
+      <c r="BD7" s="158"/>
+      <c r="BF7" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="BG7" s="150"/>
-      <c r="BH7" s="150"/>
-      <c r="BI7" s="150"/>
-      <c r="BJ7" s="150"/>
-      <c r="BK7" s="150"/>
-      <c r="BL7" s="150"/>
-      <c r="BM7" s="151"/>
-      <c r="BO7" s="149" t="s">
+      <c r="BG7" s="157"/>
+      <c r="BH7" s="157"/>
+      <c r="BI7" s="157"/>
+      <c r="BJ7" s="157"/>
+      <c r="BK7" s="157"/>
+      <c r="BL7" s="157"/>
+      <c r="BM7" s="158"/>
+      <c r="BO7" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="BP7" s="150"/>
-      <c r="BQ7" s="150"/>
-      <c r="BR7" s="150"/>
-      <c r="BS7" s="150"/>
-      <c r="BT7" s="150"/>
-      <c r="BU7" s="150"/>
-      <c r="BV7" s="151"/>
-      <c r="BX7" s="149" t="s">
+      <c r="BP7" s="157"/>
+      <c r="BQ7" s="157"/>
+      <c r="BR7" s="157"/>
+      <c r="BS7" s="157"/>
+      <c r="BT7" s="157"/>
+      <c r="BU7" s="157"/>
+      <c r="BV7" s="158"/>
+      <c r="BX7" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="BY7" s="150"/>
-      <c r="BZ7" s="150"/>
-      <c r="CA7" s="150"/>
-      <c r="CB7" s="150"/>
-      <c r="CC7" s="150"/>
-      <c r="CD7" s="150"/>
-      <c r="CE7" s="151"/>
-      <c r="CG7" s="149" t="s">
+      <c r="BY7" s="157"/>
+      <c r="BZ7" s="157"/>
+      <c r="CA7" s="157"/>
+      <c r="CB7" s="157"/>
+      <c r="CC7" s="157"/>
+      <c r="CD7" s="157"/>
+      <c r="CE7" s="158"/>
+      <c r="CG7" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="CH7" s="150"/>
-      <c r="CI7" s="150"/>
-      <c r="CJ7" s="150"/>
-      <c r="CK7" s="150"/>
-      <c r="CL7" s="150"/>
-      <c r="CM7" s="150"/>
-      <c r="CN7" s="151"/>
-      <c r="CP7" s="149" t="s">
+      <c r="CH7" s="157"/>
+      <c r="CI7" s="157"/>
+      <c r="CJ7" s="157"/>
+      <c r="CK7" s="157"/>
+      <c r="CL7" s="157"/>
+      <c r="CM7" s="157"/>
+      <c r="CN7" s="158"/>
+      <c r="CP7" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="CQ7" s="150"/>
-      <c r="CR7" s="150"/>
-      <c r="CS7" s="150"/>
-      <c r="CT7" s="150"/>
-      <c r="CU7" s="150"/>
-      <c r="CV7" s="150"/>
-      <c r="CW7" s="151"/>
-      <c r="CY7" s="149" t="s">
+      <c r="CQ7" s="157"/>
+      <c r="CR7" s="157"/>
+      <c r="CS7" s="157"/>
+      <c r="CT7" s="157"/>
+      <c r="CU7" s="157"/>
+      <c r="CV7" s="157"/>
+      <c r="CW7" s="158"/>
+      <c r="CY7" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="CZ7" s="150"/>
-      <c r="DA7" s="150"/>
-      <c r="DB7" s="150"/>
-      <c r="DC7" s="150"/>
-      <c r="DD7" s="150"/>
-      <c r="DE7" s="150"/>
-      <c r="DF7" s="151"/>
-      <c r="DH7" s="149" t="s">
+      <c r="CZ7" s="157"/>
+      <c r="DA7" s="157"/>
+      <c r="DB7" s="157"/>
+      <c r="DC7" s="157"/>
+      <c r="DD7" s="157"/>
+      <c r="DE7" s="157"/>
+      <c r="DF7" s="158"/>
+      <c r="DH7" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="DI7" s="150"/>
-      <c r="DJ7" s="150"/>
-      <c r="DK7" s="150"/>
-      <c r="DL7" s="150"/>
-      <c r="DM7" s="150"/>
-      <c r="DN7" s="150"/>
-      <c r="DO7" s="151"/>
-      <c r="DQ7" s="149" t="s">
+      <c r="DI7" s="157"/>
+      <c r="DJ7" s="157"/>
+      <c r="DK7" s="157"/>
+      <c r="DL7" s="157"/>
+      <c r="DM7" s="157"/>
+      <c r="DN7" s="157"/>
+      <c r="DO7" s="158"/>
+      <c r="DQ7" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="DR7" s="150"/>
-      <c r="DS7" s="150"/>
-      <c r="DT7" s="150"/>
-      <c r="DU7" s="150"/>
-      <c r="DV7" s="150"/>
-      <c r="DW7" s="150"/>
-      <c r="DX7" s="151"/>
-      <c r="DZ7" s="149" t="s">
+      <c r="DR7" s="157"/>
+      <c r="DS7" s="157"/>
+      <c r="DT7" s="157"/>
+      <c r="DU7" s="157"/>
+      <c r="DV7" s="157"/>
+      <c r="DW7" s="157"/>
+      <c r="DX7" s="158"/>
+      <c r="DZ7" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="EA7" s="150"/>
-      <c r="EB7" s="150"/>
-      <c r="EC7" s="150"/>
-      <c r="ED7" s="150"/>
-      <c r="EE7" s="150"/>
-      <c r="EF7" s="150"/>
-      <c r="EG7" s="151"/>
-      <c r="EI7" s="149" t="s">
+      <c r="EA7" s="157"/>
+      <c r="EB7" s="157"/>
+      <c r="EC7" s="157"/>
+      <c r="ED7" s="157"/>
+      <c r="EE7" s="157"/>
+      <c r="EF7" s="157"/>
+      <c r="EG7" s="158"/>
+      <c r="EI7" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="EJ7" s="150"/>
-      <c r="EK7" s="150"/>
-      <c r="EL7" s="150"/>
-      <c r="EM7" s="150"/>
-      <c r="EN7" s="150"/>
-      <c r="EO7" s="150"/>
-      <c r="EP7" s="151"/>
-      <c r="ER7" s="149" t="s">
+      <c r="EJ7" s="157"/>
+      <c r="EK7" s="157"/>
+      <c r="EL7" s="157"/>
+      <c r="EM7" s="157"/>
+      <c r="EN7" s="157"/>
+      <c r="EO7" s="157"/>
+      <c r="EP7" s="158"/>
+      <c r="ER7" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="ES7" s="150"/>
-      <c r="ET7" s="150"/>
-      <c r="EU7" s="150"/>
-      <c r="EV7" s="150"/>
-      <c r="EW7" s="150"/>
-      <c r="EX7" s="150"/>
-      <c r="EY7" s="151"/>
-      <c r="FA7" s="149" t="s">
+      <c r="ES7" s="157"/>
+      <c r="ET7" s="157"/>
+      <c r="EU7" s="157"/>
+      <c r="EV7" s="157"/>
+      <c r="EW7" s="157"/>
+      <c r="EX7" s="157"/>
+      <c r="EY7" s="158"/>
+      <c r="FA7" s="156" t="s">
         <v>41</v>
       </c>
-      <c r="FB7" s="150"/>
-      <c r="FC7" s="150"/>
-      <c r="FD7" s="150"/>
-      <c r="FE7" s="150"/>
-      <c r="FF7" s="150"/>
-      <c r="FG7" s="150"/>
-      <c r="FH7" s="151"/>
+      <c r="FB7" s="157"/>
+      <c r="FC7" s="157"/>
+      <c r="FD7" s="157"/>
+      <c r="FE7" s="157"/>
+      <c r="FF7" s="157"/>
+      <c r="FG7" s="157"/>
+      <c r="FH7" s="158"/>
     </row>
-    <row r="8" spans="1:164" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:164" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="37"/>
-      <c r="D8" s="160" t="s">
+      <c r="D8" s="159" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="161"/>
-      <c r="F8" s="164" t="s">
+      <c r="E8" s="160"/>
+      <c r="F8" s="151" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="165"/>
-      <c r="H8" s="164" t="s">
+      <c r="G8" s="152"/>
+      <c r="H8" s="151" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="164"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="166"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="153"/>
       <c r="L8" s="127"/>
       <c r="M8" s="148">
         <f>(Details!B16)</f>
         <v>42809</v>
       </c>
-      <c r="N8" s="161"/>
+      <c r="N8" s="160"/>
       <c r="O8" s="128"/>
       <c r="P8" s="128"/>
-      <c r="S8" s="146">
+      <c r="S8" s="149">
         <f>SUM(M8+6)</f>
         <v>42815</v>
       </c>
-      <c r="T8" s="147"/>
+      <c r="T8" s="150"/>
       <c r="U8" s="127"/>
       <c r="V8" s="148">
         <f>SUM(S8+1)</f>
         <v>42816</v>
       </c>
-      <c r="W8" s="146"/>
+      <c r="W8" s="149"/>
       <c r="X8" s="127"/>
       <c r="Y8" s="127"/>
       <c r="Z8" s="127"/>
       <c r="AA8" s="127"/>
-      <c r="AB8" s="146">
+      <c r="AB8" s="149">
         <f>SUM(V8+6)</f>
         <v>42822</v>
       </c>
-      <c r="AC8" s="147"/>
+      <c r="AC8" s="150"/>
       <c r="AD8" s="127"/>
       <c r="AE8" s="148">
         <f>SUM(AB8+1)</f>
         <v>42823</v>
       </c>
-      <c r="AF8" s="146"/>
+      <c r="AF8" s="149"/>
       <c r="AG8" s="127"/>
       <c r="AH8" s="127"/>
       <c r="AI8" s="127"/>
       <c r="AJ8" s="127"/>
-      <c r="AK8" s="146">
+      <c r="AK8" s="149">
         <f>SUM(AE8+6)</f>
         <v>42829</v>
       </c>
-      <c r="AL8" s="147"/>
+      <c r="AL8" s="150"/>
       <c r="AN8" s="148">
         <f>SUM(AK8+1)</f>
         <v>42830</v>
       </c>
-      <c r="AO8" s="146"/>
+      <c r="AO8" s="149"/>
       <c r="AP8" s="127"/>
       <c r="AQ8" s="127"/>
       <c r="AR8" s="127"/>
       <c r="AS8" s="127"/>
-      <c r="AT8" s="146">
+      <c r="AT8" s="149">
         <f>SUM(AN8+6)</f>
         <v>42836</v>
       </c>
-      <c r="AU8" s="147"/>
+      <c r="AU8" s="150"/>
       <c r="AW8" s="148">
         <f>SUM(AT8+1)</f>
         <v>42837</v>
       </c>
-      <c r="AX8" s="146"/>
-      <c r="AY8" s="146"/>
-      <c r="AZ8" s="146"/>
+      <c r="AX8" s="149"/>
+      <c r="AY8" s="149"/>
+      <c r="AZ8" s="149"/>
       <c r="BA8" s="127"/>
       <c r="BB8" s="127"/>
-      <c r="BC8" s="146">
+      <c r="BC8" s="149">
         <f>SUM(AW8+6)</f>
         <v>42843</v>
       </c>
-      <c r="BD8" s="147"/>
+      <c r="BD8" s="150"/>
       <c r="BF8" s="148">
         <f>SUM(BC8+1)</f>
         <v>42844</v>
       </c>
-      <c r="BG8" s="146"/>
+      <c r="BG8" s="149"/>
       <c r="BH8" s="127"/>
       <c r="BI8" s="127"/>
       <c r="BJ8" s="127"/>
       <c r="BK8" s="127"/>
-      <c r="BL8" s="146">
+      <c r="BL8" s="149">
         <f>SUM(BF8+6)</f>
         <v>42850</v>
       </c>
-      <c r="BM8" s="147"/>
+      <c r="BM8" s="150"/>
       <c r="BO8" s="148">
         <f>SUM(BL8+1)</f>
         <v>42851</v>
       </c>
-      <c r="BP8" s="146"/>
+      <c r="BP8" s="149"/>
       <c r="BQ8" s="127"/>
       <c r="BR8" s="127"/>
       <c r="BS8" s="127"/>
       <c r="BT8" s="127"/>
-      <c r="BU8" s="146">
+      <c r="BU8" s="149">
         <f>SUM(BO8+6)</f>
         <v>42857</v>
       </c>
-      <c r="BV8" s="147"/>
+      <c r="BV8" s="150"/>
       <c r="BX8" s="148">
         <f>SUM(BU8+1)</f>
         <v>42858</v>
       </c>
-      <c r="BY8" s="146"/>
+      <c r="BY8" s="149"/>
       <c r="BZ8" s="127"/>
       <c r="CA8" s="127"/>
       <c r="CB8" s="127"/>
       <c r="CC8" s="127"/>
-      <c r="CD8" s="146">
+      <c r="CD8" s="149">
         <f>SUM(BX8+6)</f>
         <v>42864</v>
       </c>
-      <c r="CE8" s="147"/>
+      <c r="CE8" s="150"/>
       <c r="CG8" s="148">
         <f>SUM(CD8+1)</f>
         <v>42865</v>
       </c>
-      <c r="CH8" s="146"/>
+      <c r="CH8" s="149"/>
       <c r="CI8" s="127"/>
       <c r="CJ8" s="127"/>
       <c r="CK8" s="127"/>
       <c r="CL8" s="127"/>
-      <c r="CM8" s="146">
+      <c r="CM8" s="149">
         <f>SUM(CG8+6)</f>
         <v>42871</v>
       </c>
-      <c r="CN8" s="147"/>
+      <c r="CN8" s="150"/>
       <c r="CP8" s="148">
         <f>SUM(CM8+1)</f>
         <v>42872</v>
       </c>
-      <c r="CQ8" s="146"/>
+      <c r="CQ8" s="149"/>
       <c r="CR8" s="127"/>
       <c r="CS8" s="127"/>
       <c r="CT8" s="127"/>
       <c r="CU8" s="127"/>
-      <c r="CV8" s="146">
+      <c r="CV8" s="149">
         <f>SUM(CP8+6)</f>
         <v>42878</v>
       </c>
-      <c r="CW8" s="147"/>
+      <c r="CW8" s="150"/>
       <c r="CY8" s="148">
         <f>SUM(CV8+1)</f>
         <v>42879</v>
       </c>
-      <c r="CZ8" s="146"/>
+      <c r="CZ8" s="149"/>
       <c r="DA8" s="127"/>
       <c r="DB8" s="127"/>
       <c r="DC8" s="127"/>
       <c r="DD8" s="127"/>
-      <c r="DE8" s="146">
+      <c r="DE8" s="149">
         <f>SUM(CY8+6)</f>
         <v>42885</v>
       </c>
-      <c r="DF8" s="147"/>
+      <c r="DF8" s="150"/>
       <c r="DH8" s="148">
         <f>SUM(DE8+1)</f>
         <v>42886</v>
       </c>
-      <c r="DI8" s="146"/>
+      <c r="DI8" s="149"/>
       <c r="DJ8" s="127"/>
       <c r="DK8" s="127"/>
       <c r="DL8" s="127"/>
       <c r="DM8" s="127"/>
-      <c r="DN8" s="146">
+      <c r="DN8" s="149">
         <f>SUM(DH8+6)</f>
         <v>42892</v>
       </c>
-      <c r="DO8" s="147"/>
+      <c r="DO8" s="150"/>
       <c r="DQ8" s="148">
         <f>SUM(DN8+1)</f>
         <v>42893</v>
       </c>
-      <c r="DR8" s="146"/>
+      <c r="DR8" s="149"/>
       <c r="DS8" s="127"/>
       <c r="DT8" s="127"/>
       <c r="DU8" s="127"/>
       <c r="DV8" s="127"/>
-      <c r="DW8" s="146">
+      <c r="DW8" s="149">
         <f>SUM(DQ8+6)</f>
         <v>42899</v>
       </c>
-      <c r="DX8" s="147"/>
+      <c r="DX8" s="150"/>
       <c r="DZ8" s="148">
         <f>SUM(DW8+1)</f>
         <v>42900</v>
       </c>
-      <c r="EA8" s="146"/>
+      <c r="EA8" s="149"/>
       <c r="EB8" s="127"/>
       <c r="EC8" s="127"/>
       <c r="ED8" s="127"/>
       <c r="EE8" s="127"/>
-      <c r="EF8" s="146">
+      <c r="EF8" s="149">
         <f>SUM(DZ8+6)</f>
         <v>42906</v>
       </c>
-      <c r="EG8" s="147"/>
+      <c r="EG8" s="150"/>
       <c r="EI8" s="148">
         <f>SUM(EF8+1)</f>
         <v>42907</v>
       </c>
-      <c r="EJ8" s="146"/>
+      <c r="EJ8" s="149"/>
       <c r="EK8" s="127"/>
       <c r="EL8" s="127"/>
       <c r="EM8" s="127"/>
       <c r="EN8" s="127"/>
-      <c r="EO8" s="146">
+      <c r="EO8" s="149">
         <f>SUM(EI8+6)</f>
         <v>42913</v>
       </c>
-      <c r="EP8" s="147"/>
+      <c r="EP8" s="150"/>
       <c r="ER8" s="148">
         <f>SUM(EO8+1)</f>
         <v>42914</v>
       </c>
-      <c r="ES8" s="146"/>
+      <c r="ES8" s="149"/>
       <c r="ET8" s="127"/>
       <c r="EU8" s="127"/>
       <c r="EV8" s="127"/>
       <c r="EW8" s="127"/>
-      <c r="EX8" s="146">
+      <c r="EX8" s="149">
         <f>SUM(ER8+6)</f>
         <v>42920</v>
       </c>
-      <c r="EY8" s="147"/>
+      <c r="EY8" s="150"/>
       <c r="FA8" s="148">
         <f>SUM(EX8+1)</f>
         <v>42921</v>
       </c>
-      <c r="FB8" s="146"/>
+      <c r="FB8" s="149"/>
       <c r="FC8" s="127"/>
       <c r="FD8" s="127"/>
       <c r="FE8" s="127"/>
       <c r="FF8" s="127"/>
-      <c r="FG8" s="146">
+      <c r="FG8" s="149">
         <f>SUM(FA8+6)</f>
         <v>42927</v>
       </c>
-      <c r="FH8" s="147"/>
+      <c r="FH8" s="150"/>
     </row>
-    <row r="9" spans="1:164" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:164" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="163" t="s">
+      <c r="B9" s="143" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="139"/>
-      <c r="D9" s="144" t="str">
+      <c r="D9" s="145" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3752,9 +3755,9 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="K9" s="145"/>
+      <c r="K9" s="146"/>
       <c r="L9" s="122"/>
-      <c r="M9" s="144" t="str">
+      <c r="M9" s="145" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3773,9 +3776,9 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="T9" s="145"/>
+      <c r="T9" s="146"/>
       <c r="U9" s="122"/>
-      <c r="V9" s="144" t="str">
+      <c r="V9" s="145" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3794,9 +3797,9 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="AC9" s="145"/>
+      <c r="AC9" s="146"/>
       <c r="AD9" s="122"/>
-      <c r="AE9" s="144" t="str">
+      <c r="AE9" s="145" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3815,8 +3818,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="AL9" s="145"/>
-      <c r="AN9" s="144" t="str">
+      <c r="AL9" s="146"/>
+      <c r="AN9" s="145" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3835,8 +3838,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="AU9" s="145"/>
-      <c r="AW9" s="144" t="str">
+      <c r="AU9" s="146"/>
+      <c r="AW9" s="145" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3855,8 +3858,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="BD9" s="145"/>
-      <c r="BF9" s="144" t="str">
+      <c r="BD9" s="146"/>
+      <c r="BF9" s="145" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3875,8 +3878,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="BM9" s="145"/>
-      <c r="BO9" s="144" t="str">
+      <c r="BM9" s="146"/>
+      <c r="BO9" s="145" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3895,8 +3898,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="BV9" s="145"/>
-      <c r="BX9" s="144" t="str">
+      <c r="BV9" s="146"/>
+      <c r="BX9" s="145" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3915,8 +3918,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="CE9" s="145"/>
-      <c r="CG9" s="144" t="str">
+      <c r="CE9" s="146"/>
+      <c r="CG9" s="145" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3935,8 +3938,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="CN9" s="145"/>
-      <c r="CP9" s="144" t="str">
+      <c r="CN9" s="146"/>
+      <c r="CP9" s="145" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3955,8 +3958,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="CW9" s="145"/>
-      <c r="CY9" s="144" t="str">
+      <c r="CW9" s="146"/>
+      <c r="CY9" s="145" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3975,8 +3978,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="DF9" s="145"/>
-      <c r="DH9" s="144" t="str">
+      <c r="DF9" s="146"/>
+      <c r="DH9" s="145" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -3995,8 +3998,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="DO9" s="145"/>
-      <c r="DQ9" s="144" t="str">
+      <c r="DO9" s="146"/>
+      <c r="DQ9" s="145" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -4015,8 +4018,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="DX9" s="145"/>
-      <c r="DZ9" s="144" t="str">
+      <c r="DX9" s="146"/>
+      <c r="DZ9" s="145" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -4035,8 +4038,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="EG9" s="145"/>
-      <c r="EI9" s="144" t="str">
+      <c r="EG9" s="146"/>
+      <c r="EI9" s="145" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -4055,8 +4058,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="EP9" s="145"/>
-      <c r="ER9" s="144" t="str">
+      <c r="EP9" s="146"/>
+      <c r="ER9" s="145" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -4075,8 +4078,8 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="EY9" s="145"/>
-      <c r="FA9" s="144" t="str">
+      <c r="EY9" s="146"/>
+      <c r="FA9" s="145" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -4095,9 +4098,9 @@
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
-      <c r="FH9" s="145"/>
+      <c r="FH9" s="146"/>
     </row>
-    <row r="10" spans="1:164" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:164" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -4543,7 +4546,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:164" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>50</v>
       </c>
@@ -4553,7 +4556,7 @@
       </c>
       <c r="C11" s="75">
         <f t="shared" si="0"/>
-        <v>89.5</v>
+        <v>94.5</v>
       </c>
       <c r="D11" s="87">
         <f t="shared" si="0"/>
@@ -5122,7 +5125,7 @@
       </c>
       <c r="FB11" s="77">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="FC11" s="88">
         <f t="shared" si="16"/>
@@ -5149,7 +5152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>51</v>
       </c>
@@ -5158,7 +5161,7 @@
       </c>
       <c r="C12" s="77">
         <f>SUM(E12,G12,I12,K12,N12,P12,R12,T12,W12,Y12,AA12,AC12,AF12,AH12,AJ12,AL12,AO12,AQ12,AS12,AU12,AX12,AZ12,BB12,BD12,BG12,BI12,BK12,BM12,BP12,BR12,BT12,BV12,BY12,CA12,CC12,CE12,CH12,CJ12,CL12,CN12,CQ12,CS12,CU12,CW12,CZ12,DB12,DD12,DF12,DI12,DK12,DM12,DO12,DR12,DT12,DV12,DX12,EA12,EC12,EE12,EG12,EJ12,EL12,EN12,EP12,ES12,EU12,EW12,EY12,FB12,FD12,FF12,FH12)</f>
-        <v>6.5</v>
+        <v>11.5</v>
       </c>
       <c r="D12" s="91"/>
       <c r="E12" s="92"/>
@@ -5342,7 +5345,9 @@
       <c r="EY12" s="94"/>
       <c r="EZ12" s="95"/>
       <c r="FA12" s="91"/>
-      <c r="FB12" s="92"/>
+      <c r="FB12" s="92">
+        <v>5</v>
+      </c>
       <c r="FC12" s="93"/>
       <c r="FD12" s="92"/>
       <c r="FE12" s="93"/>
@@ -5350,7 +5355,7 @@
       <c r="FG12" s="93"/>
       <c r="FH12" s="94"/>
     </row>
-    <row r="13" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>52</v>
       </c>
@@ -5559,7 +5564,7 @@
       <c r="FG13" s="93"/>
       <c r="FH13" s="94"/>
     </row>
-    <row r="14" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -5752,7 +5757,7 @@
       <c r="FG14" s="93"/>
       <c r="FH14" s="94"/>
     </row>
-    <row r="15" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="78"/>
       <c r="C15" s="79"/>
@@ -5918,7 +5923,7 @@
       <c r="FG15" s="93"/>
       <c r="FH15" s="94"/>
     </row>
-    <row r="16" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:164" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>54</v>
       </c>
@@ -6524,7 +6529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>55</v>
       </c>
@@ -6697,7 +6702,7 @@
       <c r="FG17" s="93"/>
       <c r="FH17" s="94"/>
     </row>
-    <row r="18" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>56</v>
       </c>
@@ -6870,7 +6875,7 @@
       <c r="FG18" s="93"/>
       <c r="FH18" s="94"/>
     </row>
-    <row r="19" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>57</v>
       </c>
@@ -7059,7 +7064,7 @@
       <c r="FG19" s="93"/>
       <c r="FH19" s="94"/>
     </row>
-    <row r="20" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>58</v>
       </c>
@@ -7232,7 +7237,7 @@
       <c r="FG20" s="93"/>
       <c r="FH20" s="94"/>
     </row>
-    <row r="21" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>59</v>
       </c>
@@ -7409,7 +7414,7 @@
       <c r="FG21" s="93"/>
       <c r="FH21" s="94"/>
     </row>
-    <row r="22" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="78"/>
       <c r="C22" s="79"/>
@@ -7575,7 +7580,7 @@
       <c r="FG22" s="93"/>
       <c r="FH22" s="94"/>
     </row>
-    <row r="23" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:164" ht="13" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>60</v>
       </c>
@@ -8181,7 +8186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>61</v>
       </c>
@@ -8354,7 +8359,7 @@
       <c r="FG24" s="93"/>
       <c r="FH24" s="94"/>
     </row>
-    <row r="25" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>62</v>
       </c>
@@ -8531,7 +8536,7 @@
       <c r="FG25" s="93"/>
       <c r="FH25" s="94"/>
     </row>
-    <row r="26" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>63</v>
       </c>
@@ -8704,7 +8709,7 @@
       <c r="FG26" s="93"/>
       <c r="FH26" s="94"/>
     </row>
-    <row r="27" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>64</v>
       </c>
@@ -8881,7 +8886,7 @@
       <c r="FG27" s="93"/>
       <c r="FH27" s="94"/>
     </row>
-    <row r="28" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="78"/>
       <c r="C28" s="79"/>
@@ -9047,7 +9052,7 @@
       <c r="FG28" s="93"/>
       <c r="FH28" s="94"/>
     </row>
-    <row r="29" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:164" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>65</v>
       </c>
@@ -9653,7 +9658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>66</v>
       </c>
@@ -9832,7 +9837,7 @@
       <c r="FG30" s="93"/>
       <c r="FH30" s="94"/>
     </row>
-    <row r="31" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="78"/>
       <c r="C31" s="79"/>
@@ -9998,17 +10003,17 @@
       <c r="FG31" s="93"/>
       <c r="FH31" s="94"/>
     </row>
-    <row r="32" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:164" ht="13" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B32" s="74">
         <f t="shared" ref="B32:K32" si="74">SUM(B33:B43)</f>
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C32" s="75">
         <f t="shared" si="74"/>
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D32" s="87">
         <f t="shared" si="74"/>
@@ -10559,8 +10564,8 @@
         <v>0</v>
       </c>
       <c r="EW32" s="77">
-        <f t="shared" si="90"/>
-        <v>9</v>
+        <f>SUM(EW33:EW43)</f>
+        <v>12</v>
       </c>
       <c r="EX32" s="88">
         <f t="shared" si="90"/>
@@ -10577,7 +10582,7 @@
       </c>
       <c r="FB32" s="77">
         <f t="shared" si="91"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="FC32" s="88">
         <f t="shared" si="91"/>
@@ -10604,7 +10609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>68</v>
       </c>
@@ -10781,7 +10786,7 @@
       <c r="FG33" s="93"/>
       <c r="FH33" s="94"/>
     </row>
-    <row r="34" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>69</v>
       </c>
@@ -10984,7 +10989,7 @@
       <c r="FG34" s="93"/>
       <c r="FH34" s="94"/>
     </row>
-    <row r="35" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>70</v>
       </c>
@@ -11173,7 +11178,7 @@
       <c r="FG35" s="93"/>
       <c r="FH35" s="94"/>
     </row>
-    <row r="36" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>71</v>
       </c>
@@ -11354,7 +11359,7 @@
       <c r="FG36" s="93"/>
       <c r="FH36" s="94"/>
     </row>
-    <row r="37" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>72</v>
       </c>
@@ -11531,7 +11536,7 @@
       <c r="FG37" s="93"/>
       <c r="FH37" s="94"/>
     </row>
-    <row r="38" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>73</v>
       </c>
@@ -11714,7 +11719,7 @@
       <c r="FG38" s="93"/>
       <c r="FH38" s="94"/>
     </row>
-    <row r="39" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>74</v>
       </c>
@@ -11723,7 +11728,7 @@
       </c>
       <c r="C39" s="77">
         <f t="shared" si="92"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D39" s="91"/>
       <c r="E39" s="92"/>
@@ -11885,7 +11890,9 @@
       <c r="EY39" s="94"/>
       <c r="EZ39" s="95"/>
       <c r="FA39" s="91"/>
-      <c r="FB39" s="92"/>
+      <c r="FB39" s="92">
+        <v>5</v>
+      </c>
       <c r="FC39" s="93"/>
       <c r="FD39" s="92"/>
       <c r="FE39" s="93"/>
@@ -11893,7 +11900,7 @@
       <c r="FG39" s="93"/>
       <c r="FH39" s="94"/>
     </row>
-    <row r="40" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>75</v>
       </c>
@@ -12074,7 +12081,7 @@
       <c r="FG40" s="93"/>
       <c r="FH40" s="94"/>
     </row>
-    <row r="41" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>76</v>
       </c>
@@ -12261,7 +12268,7 @@
       <c r="FG41" s="93"/>
       <c r="FH41" s="94"/>
     </row>
-    <row r="42" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>77</v>
       </c>
@@ -12440,10 +12447,16 @@
       <c r="FG42" s="93"/>
       <c r="FH42" s="94"/>
     </row>
-    <row r="43" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="79"/>
+    <row r="43" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="78">
+        <v>3</v>
+      </c>
+      <c r="C43" s="79">
+        <v>3</v>
+      </c>
       <c r="D43" s="91"/>
       <c r="E43" s="92"/>
       <c r="F43" s="93"/>
@@ -12593,7 +12606,9 @@
       <c r="ET43" s="93"/>
       <c r="EU43" s="92"/>
       <c r="EV43" s="93"/>
-      <c r="EW43" s="92"/>
+      <c r="EW43" s="92">
+        <v>3</v>
+      </c>
       <c r="EX43" s="93"/>
       <c r="EY43" s="94"/>
       <c r="EZ43" s="95"/>
@@ -12606,7 +12621,7 @@
       <c r="FG43" s="93"/>
       <c r="FH43" s="94"/>
     </row>
-    <row r="44" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:164" ht="13" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
         <v>78</v>
       </c>
@@ -13167,7 +13182,7 @@
         <v>0</v>
       </c>
       <c r="EW44" s="77">
-        <f t="shared" si="109"/>
+        <f>SUM(EW45:EW47)</f>
         <v>6</v>
       </c>
       <c r="EX44" s="88">
@@ -13212,7 +13227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>79</v>
       </c>
@@ -13435,7 +13450,7 @@
       <c r="FG45" s="93"/>
       <c r="FH45" s="94"/>
     </row>
-    <row r="46" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>80</v>
       </c>
@@ -13614,7 +13629,7 @@
       <c r="FG46" s="93"/>
       <c r="FH46" s="94"/>
     </row>
-    <row r="47" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="78"/>
       <c r="C47" s="79"/>
@@ -13780,7 +13795,7 @@
       <c r="FG47" s="93"/>
       <c r="FH47" s="94"/>
     </row>
-    <row r="48" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:164" ht="13" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>81</v>
       </c>
@@ -13790,7 +13805,7 @@
       </c>
       <c r="C48" s="75">
         <f t="shared" si="111"/>
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="D48" s="87">
         <f t="shared" si="111"/>
@@ -14359,7 +14374,7 @@
       </c>
       <c r="FB48" s="77">
         <f t="shared" si="128"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC48" s="88">
         <f>SUM(FC49:FC55)</f>
@@ -14367,7 +14382,7 @@
       </c>
       <c r="FD48" s="77">
         <f>SUM(FD49:FD55)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE48" s="88">
         <f t="shared" si="128"/>
@@ -14375,7 +14390,7 @@
       </c>
       <c r="FF48" s="77">
         <f t="shared" si="128"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="FG48" s="88">
         <f t="shared" si="128"/>
@@ -14386,7 +14401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>82</v>
       </c>
@@ -14395,7 +14410,7 @@
       </c>
       <c r="C49" s="77">
         <f>SUM(E49,G49,I49,K49,N49,P49,R49,T49,W49,Y49,AA49,AC49,AF49,AH49,AJ49,AL49,AO49,AQ49,AS49,AU49,AX49,AZ49,BB49,BD49,BG49,BI49,BK49,BM49,BP49,BR49,BT49,BV49,BY49,CA49,CC49,CE49,CH49,CJ49,CL49,CN49,CQ49,CS49,CU49,CW49,CZ49,DB49,DD49,DF49,DI49,DK49,DM49,DO49,DR49,DT49,DV49,DX49,EA49,EC49,EE49,EG49,EJ49,EL49,EN49,EP49,ES49,EU49,EW49,EY49,FB49,FD49,FF49,FH49)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D49" s="91"/>
       <c r="E49" s="92"/>
@@ -14559,15 +14574,21 @@
       <c r="EY49" s="94"/>
       <c r="EZ49" s="95"/>
       <c r="FA49" s="91"/>
-      <c r="FB49" s="92"/>
+      <c r="FB49" s="92">
+        <v>1</v>
+      </c>
       <c r="FC49" s="93"/>
-      <c r="FD49" s="92"/>
+      <c r="FD49" s="92">
+        <v>1</v>
+      </c>
       <c r="FE49" s="93"/>
-      <c r="FF49" s="92"/>
+      <c r="FF49" s="92">
+        <v>0.5</v>
+      </c>
       <c r="FG49" s="93"/>
       <c r="FH49" s="94"/>
     </row>
-    <row r="50" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>83</v>
       </c>
@@ -14742,7 +14763,7 @@
       <c r="FG50" s="93"/>
       <c r="FH50" s="94"/>
     </row>
-    <row r="51" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>84</v>
       </c>
@@ -14927,7 +14948,7 @@
       <c r="FG51" s="93"/>
       <c r="FH51" s="94"/>
     </row>
-    <row r="52" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>85</v>
       </c>
@@ -15112,7 +15133,7 @@
       <c r="FG52" s="93"/>
       <c r="FH52" s="94"/>
     </row>
-    <row r="53" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>86</v>
       </c>
@@ -15285,7 +15306,7 @@
       <c r="FG53" s="93"/>
       <c r="FH53" s="94"/>
     </row>
-    <row r="54" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>87</v>
       </c>
@@ -15458,7 +15479,7 @@
       <c r="FG54" s="93"/>
       <c r="FH54" s="94"/>
     </row>
-    <row r="55" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
       <c r="B55" s="78"/>
       <c r="C55" s="79"/>
@@ -15624,7 +15645,7 @@
       <c r="FG55" s="93"/>
       <c r="FH55" s="94"/>
     </row>
-    <row r="56" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:164" ht="13" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
         <v>88</v>
       </c>
@@ -15792,7 +15813,7 @@
       <c r="FG56" s="99"/>
       <c r="FH56" s="100"/>
     </row>
-    <row r="57" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:164" ht="13" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>89</v>
       </c>
@@ -16398,7 +16419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:164" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:164" ht="13.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>90</v>
       </c>
@@ -16573,7 +16594,7 @@
       <c r="FG58" s="93"/>
       <c r="FH58" s="94"/>
     </row>
-    <row r="59" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>91</v>
       </c>
@@ -16844,7 +16865,7 @@
       <c r="FG59" s="93"/>
       <c r="FH59" s="94"/>
     </row>
-    <row r="60" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>92</v>
       </c>
@@ -17033,7 +17054,7 @@
       <c r="FG60" s="93"/>
       <c r="FH60" s="94"/>
     </row>
-    <row r="61" spans="1:164" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:164" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>93</v>
       </c>
@@ -17214,7 +17235,7 @@
       <c r="FG61" s="93"/>
       <c r="FH61" s="94"/>
     </row>
-    <row r="62" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>94</v>
       </c>
@@ -17389,7 +17410,7 @@
       <c r="FG62" s="93"/>
       <c r="FH62" s="94"/>
     </row>
-    <row r="63" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>95</v>
       </c>
@@ -17567,7 +17588,7 @@
       <c r="FG63" s="93"/>
       <c r="FH63" s="94"/>
     </row>
-    <row r="64" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="78"/>
       <c r="C64" s="79"/>
@@ -17733,7 +17754,7 @@
       <c r="FG64" s="93"/>
       <c r="FH64" s="94"/>
     </row>
-    <row r="65" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:164" ht="13" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>96</v>
       </c>
@@ -17743,7 +17764,7 @@
       </c>
       <c r="C65" s="75">
         <f t="shared" si="149"/>
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D65" s="87">
         <f t="shared" si="149"/>
@@ -18279,7 +18300,7 @@
       </c>
       <c r="ES65" s="77">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="ET65" s="88">
         <f>SUM(ET66:ET69)</f>
@@ -18287,7 +18308,7 @@
       </c>
       <c r="EU65" s="77">
         <f>SUM(EU66:EU69)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EV65" s="88">
         <f t="shared" si="165"/>
@@ -18295,7 +18316,7 @@
       </c>
       <c r="EW65" s="77">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EX65" s="88">
         <f t="shared" si="165"/>
@@ -18303,7 +18324,7 @@
       </c>
       <c r="EY65" s="89">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EZ65" s="90"/>
       <c r="FA65" s="87">
@@ -18312,7 +18333,7 @@
       </c>
       <c r="FB65" s="77">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FC65" s="88">
         <f>SUM(FC66:FC69)</f>
@@ -18320,7 +18341,7 @@
       </c>
       <c r="FD65" s="77">
         <f>SUM(FD66:FD69)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FE65" s="88">
         <f t="shared" si="166"/>
@@ -18328,7 +18349,7 @@
       </c>
       <c r="FF65" s="77">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FG65" s="88">
         <f t="shared" si="166"/>
@@ -18336,10 +18357,10 @@
       </c>
       <c r="FH65" s="89">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>97</v>
       </c>
@@ -18348,7 +18369,7 @@
       </c>
       <c r="C66" s="77">
         <f>SUM(E66,G66,I66,K66,N66,P66,R66,T66,W66,Y66,AA66,AC66,AF66,AH66,AJ66,AL66,AO66,AQ66,AS66,AU66,AX66,AZ66,BB66,BD66,BG66,BI66,BK66,BM66,BP66,BR66,BT66,BV66,BY66,CA66,CC66,CE66,CH66,CJ66,CL66,CN66,CQ66,CS66,CU66,CW66,CZ66,DB66,DD66,DF66,DI66,DK66,DM66,DO66,DR66,DT66,DV66,DX66,EA66,EC66,EE66,EG66,EJ66,EL66,EN66,EP66,ES66,EU66,EW66,EY66,FB66,FD66,FF66,FH66)</f>
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D66" s="91"/>
       <c r="E66" s="92"/>
@@ -18683,38 +18704,54 @@
       <c r="ER66" s="91">
         <v>2</v>
       </c>
-      <c r="ES66" s="92"/>
+      <c r="ES66" s="92">
+        <v>3</v>
+      </c>
       <c r="ET66" s="93">
         <v>2</v>
       </c>
-      <c r="EU66" s="92"/>
+      <c r="EU66" s="92">
+        <v>3</v>
+      </c>
       <c r="EV66" s="93">
         <v>2</v>
       </c>
-      <c r="EW66" s="92"/>
+      <c r="EW66" s="92">
+        <v>3</v>
+      </c>
       <c r="EX66" s="93">
         <v>2</v>
       </c>
-      <c r="EY66" s="94"/>
+      <c r="EY66" s="94">
+        <v>3</v>
+      </c>
       <c r="EZ66" s="95"/>
       <c r="FA66" s="91">
         <v>2</v>
       </c>
-      <c r="FB66" s="92"/>
+      <c r="FB66" s="92">
+        <v>3</v>
+      </c>
       <c r="FC66" s="93">
         <v>2</v>
       </c>
-      <c r="FD66" s="92"/>
+      <c r="FD66" s="92">
+        <v>3</v>
+      </c>
       <c r="FE66" s="93">
         <v>2</v>
       </c>
-      <c r="FF66" s="92"/>
+      <c r="FF66" s="92">
+        <v>3</v>
+      </c>
       <c r="FG66" s="93">
         <v>2</v>
       </c>
-      <c r="FH66" s="94"/>
+      <c r="FH66" s="94">
+        <v>3</v>
+      </c>
     </row>
-    <row r="67" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>98</v>
       </c>
@@ -18897,7 +18934,7 @@
       <c r="FG67" s="93"/>
       <c r="FH67" s="94"/>
     </row>
-    <row r="68" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>99</v>
       </c>
@@ -19134,7 +19171,7 @@
       <c r="FG68" s="93"/>
       <c r="FH68" s="94"/>
     </row>
-    <row r="69" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="78"/>
       <c r="C69" s="79"/>
@@ -19300,7 +19337,7 @@
       <c r="FG69" s="93"/>
       <c r="FH69" s="94"/>
     </row>
-    <row r="70" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:164" ht="13" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>100</v>
       </c>
@@ -19906,7 +19943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>101</v>
       </c>
@@ -20089,7 +20126,7 @@
       <c r="FG71" s="93"/>
       <c r="FH71" s="94"/>
     </row>
-    <row r="72" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:164" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>102</v>
       </c>
@@ -20268,7 +20305,7 @@
       <c r="FG72" s="93"/>
       <c r="FH72" s="94"/>
     </row>
-    <row r="73" spans="1:164" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:164" x14ac:dyDescent="0.25">
       <c r="A73" s="128"/>
       <c r="B73" s="81"/>
       <c r="C73" s="82"/>
@@ -20434,7 +20471,7 @@
       <c r="FG73" s="103"/>
       <c r="FH73" s="104"/>
     </row>
-    <row r="74" spans="1:164" s="11" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:164" s="11" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>103</v>
       </c>
@@ -20974,7 +21011,7 @@
       </c>
       <c r="ES74" s="106">
         <f t="shared" si="202"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="ET74" s="107">
         <f t="shared" si="202"/>
@@ -20982,7 +21019,7 @@
       </c>
       <c r="EU74" s="106">
         <f t="shared" si="202"/>
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="EV74" s="107">
         <f t="shared" si="202"/>
@@ -20990,7 +21027,7 @@
       </c>
       <c r="EW74" s="106">
         <f t="shared" si="202"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="EX74" s="108">
         <f t="shared" si="202"/>
@@ -20998,7 +21035,7 @@
       </c>
       <c r="EY74" s="109">
         <f t="shared" si="202"/>
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="EZ74" s="111"/>
       <c r="FA74" s="105">
@@ -21007,7 +21044,7 @@
       </c>
       <c r="FB74" s="106">
         <f t="shared" si="203"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="FC74" s="107">
         <f t="shared" si="203"/>
@@ -21015,7 +21052,7 @@
       </c>
       <c r="FD74" s="106">
         <f t="shared" si="203"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="FE74" s="107">
         <f t="shared" si="203"/>
@@ -21023,7 +21060,7 @@
       </c>
       <c r="FF74" s="106">
         <f t="shared" si="203"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="FG74" s="108">
         <f t="shared" si="203"/>
@@ -21031,20 +21068,20 @@
       </c>
       <c r="FH74" s="109">
         <f t="shared" si="203"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:164" s="11" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:164" s="11" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B75" s="85">
         <f>SUM(B11+B16+B23+B29+B32+B44+B48+B57+B65+B70)</f>
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="C75" s="86">
         <f>SUM(C11+C16+C23+C29+C32+C44+C48+C57+C65+C70)</f>
-        <v>545</v>
+        <v>584.5</v>
       </c>
       <c r="D75" s="83"/>
       <c r="E75" s="83"/>
@@ -21298,7 +21335,7 @@
       </c>
       <c r="EY75" s="113">
         <f>SUM(ES74,EU74,EW74,EY74)</f>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="EZ75" s="111"/>
       <c r="FA75" s="83"/>
@@ -21313,10 +21350,10 @@
       </c>
       <c r="FH75" s="113">
         <f>SUM(FB74,FD74,FF74,FH74)</f>
-        <v>0</v>
+        <v>24.5</v>
       </c>
     </row>
-    <row r="76" spans="1:164" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:164" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="123"/>
@@ -21358,7 +21395,7 @@
       <c r="AM76" s="72"/>
       <c r="EQ76" s="72"/>
     </row>
-    <row r="77" spans="1:164" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:164" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="123"/>
@@ -21398,43 +21435,43 @@
       <c r="AK77" s="10"/>
       <c r="AL77" s="10"/>
     </row>
-    <row r="78" spans="1:164" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:164" s="11" customFormat="1" ht="13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B78" s="139" t="s">
         <v>106</v>
       </c>
-      <c r="C78" s="140"/>
-      <c r="D78" s="143" t="str">
+      <c r="C78" s="147"/>
+      <c r="D78" s="154" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
       <c r="E78" s="139"/>
       <c r="F78" s="139"/>
-      <c r="G78" s="140"/>
-      <c r="H78" s="143" t="str">
+      <c r="G78" s="147"/>
+      <c r="H78" s="154" t="str">
         <f>Details!$C$11</f>
         <v>Len</v>
       </c>
       <c r="I78" s="139"/>
       <c r="J78" s="139"/>
       <c r="K78" s="139"/>
-      <c r="L78" s="143" t="str">
+      <c r="L78" s="154" t="str">
         <f>Details!$C$12</f>
         <v>Al</v>
       </c>
       <c r="M78" s="139"/>
       <c r="N78" s="139"/>
-      <c r="O78" s="140"/>
-      <c r="P78" s="143" t="str">
+      <c r="O78" s="147"/>
+      <c r="P78" s="154" t="str">
         <f>Details!$C$13</f>
         <v>Chrs</v>
       </c>
       <c r="Q78" s="139"/>
       <c r="R78" s="139"/>
-      <c r="S78" s="140"/>
-      <c r="T78" s="143" t="s">
+      <c r="S78" s="147"/>
+      <c r="T78" s="154" t="s">
         <v>107</v>
       </c>
       <c r="U78" s="139"/>
@@ -21445,7 +21482,7 @@
       <c r="Z78" s="139"/>
       <c r="AA78" s="139"/>
       <c r="AB78" s="139"/>
-      <c r="AC78" s="140"/>
+      <c r="AC78" s="147"/>
       <c r="AD78" s="139" t="s">
         <v>108</v>
       </c>
@@ -21465,7 +21502,7 @@
       <c r="AR78" s="16"/>
       <c r="AS78" s="16"/>
     </row>
-    <row r="79" spans="1:164" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:164" s="11" customFormat="1" ht="13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="122" t="s">
         <v>46</v>
@@ -21473,39 +21510,39 @@
       <c r="C79" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="D79" s="143" t="s">
+      <c r="D79" s="154" t="s">
         <v>46</v>
       </c>
       <c r="E79" s="139"/>
       <c r="F79" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="G79" s="140"/>
-      <c r="H79" s="143" t="s">
+      <c r="G79" s="147"/>
+      <c r="H79" s="154" t="s">
         <v>46</v>
       </c>
       <c r="I79" s="139"/>
       <c r="J79" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="K79" s="140"/>
-      <c r="L79" s="143" t="s">
+      <c r="K79" s="147"/>
+      <c r="L79" s="154" t="s">
         <v>46</v>
       </c>
       <c r="M79" s="139"/>
       <c r="N79" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="O79" s="140"/>
-      <c r="P79" s="143" t="s">
+      <c r="O79" s="147"/>
+      <c r="P79" s="154" t="s">
         <v>46</v>
       </c>
       <c r="Q79" s="139"/>
       <c r="R79" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="S79" s="140"/>
-      <c r="T79" s="143" t="str">
+      <c r="S79" s="147"/>
+      <c r="T79" s="154" t="str">
         <f>Details!$C$10</f>
         <v>Tra</v>
       </c>
@@ -21528,8 +21565,8 @@
       <c r="AB79" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="AC79" s="140"/>
-      <c r="AD79" s="143" t="s">
+      <c r="AC79" s="147"/>
+      <c r="AD79" s="154" t="s">
         <v>109</v>
       </c>
       <c r="AE79" s="139"/>
@@ -21541,12 +21578,12 @@
       <c r="AI79" s="139"/>
       <c r="AJ79" s="139"/>
       <c r="AK79" s="139"/>
-      <c r="AL79" s="163" t="s">
+      <c r="AL79" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="AM79" s="163"/>
+      <c r="AM79" s="143"/>
     </row>
-    <row r="80" spans="1:164" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:164" s="11" customFormat="1" ht="13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="str">
         <f>$D$5</f>
         <v>vor Projektstart</v>
@@ -21559,98 +21596,98 @@
         <f>SUM($K$75)</f>
         <v>10.5</v>
       </c>
-      <c r="D80" s="137">
+      <c r="D80" s="136">
         <f>SUM(D74)</f>
         <v>4</v>
       </c>
-      <c r="E80" s="137"/>
-      <c r="F80" s="137">
+      <c r="E80" s="136"/>
+      <c r="F80" s="136">
         <f>SUM(E74)</f>
         <v>4</v>
       </c>
-      <c r="G80" s="138"/>
-      <c r="H80" s="137">
+      <c r="G80" s="137"/>
+      <c r="H80" s="136">
         <f>SUM(F74)</f>
         <v>3</v>
       </c>
-      <c r="I80" s="137"/>
-      <c r="J80" s="137">
+      <c r="I80" s="136"/>
+      <c r="J80" s="136">
         <f>SUM(G74)</f>
         <v>4.5</v>
       </c>
-      <c r="K80" s="138"/>
-      <c r="L80" s="137">
+      <c r="K80" s="137"/>
+      <c r="L80" s="136">
         <f>SUM(H74)</f>
         <v>1</v>
       </c>
-      <c r="M80" s="137"/>
-      <c r="N80" s="137">
+      <c r="M80" s="136"/>
+      <c r="N80" s="136">
         <f>SUM(I74)</f>
         <v>2</v>
       </c>
-      <c r="O80" s="138"/>
-      <c r="P80" s="137">
+      <c r="O80" s="137"/>
+      <c r="P80" s="136">
         <f>SUM(J74)</f>
         <v>0</v>
       </c>
-      <c r="Q80" s="137"/>
-      <c r="R80" s="137">
+      <c r="Q80" s="136"/>
+      <c r="R80" s="136">
         <f>SUM(K74)</f>
         <v>0</v>
       </c>
-      <c r="S80" s="138"/>
-      <c r="T80" s="137">
+      <c r="S80" s="137"/>
+      <c r="T80" s="136">
         <f>SUM(F80-D80)</f>
         <v>0</v>
       </c>
-      <c r="U80" s="137"/>
-      <c r="V80" s="137">
+      <c r="U80" s="136"/>
+      <c r="V80" s="136">
         <f>SUM(J80-H80)</f>
         <v>1.5</v>
       </c>
-      <c r="W80" s="137"/>
-      <c r="X80" s="137">
+      <c r="W80" s="136"/>
+      <c r="X80" s="136">
         <f>SUM(N80-L80)</f>
         <v>1</v>
       </c>
-      <c r="Y80" s="137"/>
-      <c r="Z80" s="137">
+      <c r="Y80" s="136"/>
+      <c r="Z80" s="136">
         <f t="shared" ref="Z80:Z88" si="204">SUM(P80-R80)</f>
         <v>0</v>
       </c>
-      <c r="AA80" s="137"/>
-      <c r="AB80" s="137">
+      <c r="AA80" s="136"/>
+      <c r="AB80" s="136">
         <f>SUM(V80+T80+X80+Z80)</f>
         <v>2.5</v>
       </c>
-      <c r="AC80" s="138"/>
-      <c r="AD80" s="136">
+      <c r="AC80" s="137"/>
+      <c r="AD80" s="142">
         <f>SUM(T80)</f>
         <v>0</v>
       </c>
-      <c r="AE80" s="136"/>
-      <c r="AF80" s="136">
+      <c r="AE80" s="142"/>
+      <c r="AF80" s="142">
         <f>SUM(V80)</f>
         <v>1.5</v>
       </c>
-      <c r="AG80" s="136"/>
-      <c r="AH80" s="136">
+      <c r="AG80" s="142"/>
+      <c r="AH80" s="142">
         <f>SUM(X80)</f>
         <v>1</v>
       </c>
-      <c r="AI80" s="136"/>
-      <c r="AJ80" s="136">
+      <c r="AI80" s="142"/>
+      <c r="AJ80" s="142">
         <f>SUM(Z80)</f>
         <v>0</v>
       </c>
-      <c r="AK80" s="136"/>
-      <c r="AL80" s="136">
+      <c r="AK80" s="142"/>
+      <c r="AL80" s="142">
         <f>SUM(AB80)</f>
         <v>2.5</v>
       </c>
-      <c r="AM80" s="136"/>
+      <c r="AM80" s="142"/>
     </row>
-    <row r="81" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:39" s="11" customFormat="1" ht="13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="str">
         <f>$M$5</f>
         <v>Inception</v>
@@ -21663,98 +21700,98 @@
         <f>SUM($T$75+($AC$75/2))</f>
         <v>37.75</v>
       </c>
-      <c r="D81" s="142">
+      <c r="D81" s="135">
         <f>SUM(M74+(V74/2))</f>
         <v>4.5</v>
       </c>
-      <c r="E81" s="137"/>
-      <c r="F81" s="137">
+      <c r="E81" s="136"/>
+      <c r="F81" s="136">
         <f>SUM(N74+(W74/2))</f>
         <v>13</v>
       </c>
-      <c r="G81" s="138"/>
-      <c r="H81" s="142">
+      <c r="G81" s="137"/>
+      <c r="H81" s="135">
         <f>SUM(O74+(X74/2))</f>
         <v>9.5</v>
       </c>
-      <c r="I81" s="137"/>
-      <c r="J81" s="137">
+      <c r="I81" s="136"/>
+      <c r="J81" s="136">
         <f>SUM(P74+(Y74/2))</f>
         <v>11.75</v>
       </c>
-      <c r="K81" s="138"/>
-      <c r="L81" s="137">
+      <c r="K81" s="137"/>
+      <c r="L81" s="136">
         <f>SUM(Q74+(Z74/2))</f>
         <v>4.5</v>
       </c>
-      <c r="M81" s="137"/>
-      <c r="N81" s="137">
+      <c r="M81" s="136"/>
+      <c r="N81" s="136">
         <f>SUM(R74+(AA74/2))</f>
         <v>9</v>
       </c>
-      <c r="O81" s="138"/>
-      <c r="P81" s="137">
+      <c r="O81" s="137"/>
+      <c r="P81" s="136">
         <f>SUM(S74+(AB74/2))</f>
         <v>4.5</v>
       </c>
-      <c r="Q81" s="137"/>
-      <c r="R81" s="137">
+      <c r="Q81" s="136"/>
+      <c r="R81" s="136">
         <f>SUM(T74+(AC74/2))</f>
         <v>4</v>
       </c>
-      <c r="S81" s="138"/>
-      <c r="T81" s="142">
+      <c r="S81" s="137"/>
+      <c r="T81" s="135">
         <f>SUM(F81-D81)</f>
         <v>8.5</v>
       </c>
-      <c r="U81" s="137"/>
-      <c r="V81" s="137">
+      <c r="U81" s="136"/>
+      <c r="V81" s="136">
         <f>SUM(J81-H81)</f>
         <v>2.25</v>
       </c>
-      <c r="W81" s="137"/>
-      <c r="X81" s="137">
+      <c r="W81" s="136"/>
+      <c r="X81" s="136">
         <f>SUM(N81-L81)</f>
         <v>4.5</v>
       </c>
-      <c r="Y81" s="137"/>
-      <c r="Z81" s="137">
+      <c r="Y81" s="136"/>
+      <c r="Z81" s="136">
         <f t="shared" si="204"/>
         <v>0.5</v>
       </c>
-      <c r="AA81" s="137"/>
-      <c r="AB81" s="137">
+      <c r="AA81" s="136"/>
+      <c r="AB81" s="136">
         <f t="shared" ref="AB81:AB88" si="205">SUM(V81+T81+X81+Z81)</f>
         <v>15.75</v>
       </c>
-      <c r="AC81" s="138"/>
-      <c r="AD81" s="136">
+      <c r="AC81" s="137"/>
+      <c r="AD81" s="142">
         <f>SUM(T81+AD80)</f>
         <v>8.5</v>
       </c>
-      <c r="AE81" s="136"/>
-      <c r="AF81" s="136">
+      <c r="AE81" s="142"/>
+      <c r="AF81" s="142">
         <f t="shared" ref="AF81:AF88" si="206">SUM(V81+AF80)</f>
         <v>3.75</v>
       </c>
-      <c r="AG81" s="136"/>
-      <c r="AH81" s="136">
+      <c r="AG81" s="142"/>
+      <c r="AH81" s="142">
         <f t="shared" ref="AH81:AH88" si="207">SUM(X81+AH80)</f>
         <v>5.5</v>
       </c>
-      <c r="AI81" s="136"/>
-      <c r="AJ81" s="136">
+      <c r="AI81" s="142"/>
+      <c r="AJ81" s="142">
         <f t="shared" ref="AJ81:AJ88" si="208">SUM(Z81+AJ80)</f>
         <v>0.5</v>
       </c>
-      <c r="AK81" s="136"/>
-      <c r="AL81" s="136">
+      <c r="AK81" s="142"/>
+      <c r="AL81" s="142">
         <f>SUM(AB81+AL80)</f>
         <v>18.25</v>
       </c>
-      <c r="AM81" s="136"/>
+      <c r="AM81" s="142"/>
     </row>
-    <row r="82" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:39" s="11" customFormat="1" ht="13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="str">
         <f>$AE$5</f>
         <v>Elaboration (1. Iteration)</v>
@@ -21767,98 +21804,98 @@
         <f>SUM(($AC$75/2) + ($AL$75/2))</f>
         <v>42.25</v>
       </c>
-      <c r="D82" s="142">
+      <c r="D82" s="135">
         <f>SUM((V74/2)+(AE74/2))</f>
         <v>7</v>
       </c>
-      <c r="E82" s="137"/>
-      <c r="F82" s="137">
+      <c r="E82" s="136"/>
+      <c r="F82" s="136">
         <f>SUM((W74/2)+(AF74/2))</f>
         <v>12.5</v>
       </c>
-      <c r="G82" s="138"/>
-      <c r="H82" s="142">
+      <c r="G82" s="137"/>
+      <c r="H82" s="135">
         <f>SUM((X74/2)+(AG74/2))</f>
         <v>7</v>
       </c>
-      <c r="I82" s="137"/>
-      <c r="J82" s="137">
+      <c r="I82" s="136"/>
+      <c r="J82" s="136">
         <f>SUM((Y74/2)+(AH74/2))</f>
         <v>11.25</v>
       </c>
-      <c r="K82" s="138"/>
-      <c r="L82" s="142">
+      <c r="K82" s="137"/>
+      <c r="L82" s="135">
         <f>SUM((Z74/2)+(AI74/2))</f>
         <v>7</v>
       </c>
-      <c r="M82" s="137"/>
-      <c r="N82" s="137">
+      <c r="M82" s="136"/>
+      <c r="N82" s="136">
         <f>SUM((AA74/2)+(AJ74/2))</f>
         <v>11.5</v>
       </c>
-      <c r="O82" s="138"/>
-      <c r="P82" s="142">
+      <c r="O82" s="137"/>
+      <c r="P82" s="135">
         <f>SUM((AB74/2)+(AK74/2))</f>
         <v>7</v>
       </c>
-      <c r="Q82" s="137"/>
-      <c r="R82" s="137">
+      <c r="Q82" s="136"/>
+      <c r="R82" s="136">
         <f>SUM((AC74/2)+(AL74/2))</f>
         <v>7</v>
       </c>
-      <c r="S82" s="138"/>
-      <c r="T82" s="142">
+      <c r="S82" s="137"/>
+      <c r="T82" s="135">
         <f>SUM(F82-D82)</f>
         <v>5.5</v>
       </c>
-      <c r="U82" s="137"/>
-      <c r="V82" s="137">
+      <c r="U82" s="136"/>
+      <c r="V82" s="136">
         <f>SUM(J82-H82)</f>
         <v>4.25</v>
       </c>
-      <c r="W82" s="137"/>
-      <c r="X82" s="137">
+      <c r="W82" s="136"/>
+      <c r="X82" s="136">
         <f>SUM(N82-L82)</f>
         <v>4.5</v>
       </c>
-      <c r="Y82" s="137"/>
-      <c r="Z82" s="137">
+      <c r="Y82" s="136"/>
+      <c r="Z82" s="136">
         <f t="shared" si="204"/>
         <v>0</v>
       </c>
-      <c r="AA82" s="137"/>
-      <c r="AB82" s="137">
+      <c r="AA82" s="136"/>
+      <c r="AB82" s="136">
         <f t="shared" si="205"/>
         <v>14.25</v>
       </c>
-      <c r="AC82" s="138"/>
-      <c r="AD82" s="136">
+      <c r="AC82" s="137"/>
+      <c r="AD82" s="142">
         <f t="shared" ref="AD82:AD87" si="209">SUM(T82+AD81)</f>
         <v>14</v>
       </c>
-      <c r="AE82" s="136"/>
-      <c r="AF82" s="136">
+      <c r="AE82" s="142"/>
+      <c r="AF82" s="142">
         <f t="shared" si="206"/>
         <v>8</v>
       </c>
-      <c r="AG82" s="136"/>
-      <c r="AH82" s="136">
+      <c r="AG82" s="142"/>
+      <c r="AH82" s="142">
         <f t="shared" si="207"/>
         <v>10</v>
       </c>
-      <c r="AI82" s="136"/>
-      <c r="AJ82" s="136">
+      <c r="AI82" s="142"/>
+      <c r="AJ82" s="142">
         <f t="shared" si="208"/>
         <v>0.5</v>
       </c>
-      <c r="AK82" s="136"/>
-      <c r="AL82" s="136">
+      <c r="AK82" s="142"/>
+      <c r="AL82" s="142">
         <f>SUM(AB82+AL81)</f>
         <v>32.5</v>
       </c>
-      <c r="AM82" s="136"/>
+      <c r="AM82" s="142"/>
     </row>
-    <row r="83" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:39" s="11" customFormat="1" ht="13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="str">
         <f>$AW$5</f>
         <v>Elaboration (2. Iteration)</v>
@@ -21871,98 +21908,98 @@
         <f>SUM(($AL$75/2)+$AU$75+$BD$75+$BM$75+$BV$75+($CE$75/2))</f>
         <v>154</v>
       </c>
-      <c r="D83" s="142">
+      <c r="D83" s="135">
         <f>SUM((AE74/2)+AN74+AW74+BF74+BO74+(BX74/2))</f>
         <v>42.125</v>
       </c>
-      <c r="E83" s="137"/>
-      <c r="F83" s="137">
+      <c r="E83" s="136"/>
+      <c r="F83" s="136">
         <f>SUM((AF74/2)+AO74+AX74+BG74+BP74+(BY74/2))</f>
         <v>30.75</v>
       </c>
-      <c r="G83" s="138"/>
-      <c r="H83" s="142">
+      <c r="G83" s="137"/>
+      <c r="H83" s="135">
         <f>SUM((AG74/2)+AP74+AY74+BH74+BQ74+(BZ74/2))</f>
         <v>47.125</v>
       </c>
-      <c r="I83" s="137"/>
-      <c r="J83" s="137">
+      <c r="I83" s="136"/>
+      <c r="J83" s="136">
         <f>SUM((AH74/2)+AQ74+AZ74+BI74+BR74+(CA74/2))</f>
         <v>33.5</v>
       </c>
-      <c r="K83" s="138"/>
-      <c r="L83" s="142">
+      <c r="K83" s="137"/>
+      <c r="L83" s="135">
         <f>SUM((AI74/2)+AR74+BA74+BJ74+BS74+(CB74/2))</f>
         <v>95.125</v>
       </c>
-      <c r="M83" s="137"/>
-      <c r="N83" s="137">
+      <c r="M83" s="136"/>
+      <c r="N83" s="136">
         <f>SUM((AJ74/2)+AS74+BB74+BK74+BT74+(CC74/2))</f>
         <v>53.75</v>
       </c>
-      <c r="O83" s="138"/>
-      <c r="P83" s="142">
+      <c r="O83" s="137"/>
+      <c r="P83" s="135">
         <f>SUM((AK74/2)+AT74+BC74+BL74+BU74+(CD74/2))</f>
         <v>65.125</v>
       </c>
-      <c r="Q83" s="137"/>
-      <c r="R83" s="137">
+      <c r="Q83" s="136"/>
+      <c r="R83" s="136">
         <f>SUM((AL74/2)+AU74+BD74+BM74+BV74+(CE74/2))</f>
         <v>36</v>
       </c>
-      <c r="S83" s="138"/>
-      <c r="T83" s="142">
+      <c r="S83" s="137"/>
+      <c r="T83" s="135">
         <f t="shared" ref="T83:T87" si="210">SUM(F83-D83)</f>
         <v>-11.375</v>
       </c>
-      <c r="U83" s="137"/>
-      <c r="V83" s="137">
+      <c r="U83" s="136"/>
+      <c r="V83" s="136">
         <f t="shared" ref="V83:V88" si="211">SUM(J83-H83)</f>
         <v>-13.625</v>
       </c>
-      <c r="W83" s="137"/>
-      <c r="X83" s="137">
+      <c r="W83" s="136"/>
+      <c r="X83" s="136">
         <f t="shared" ref="X83:X88" si="212">SUM(N83-L83)</f>
         <v>-41.375</v>
       </c>
-      <c r="Y83" s="137"/>
-      <c r="Z83" s="137">
+      <c r="Y83" s="136"/>
+      <c r="Z83" s="136">
         <f t="shared" si="204"/>
         <v>29.125</v>
       </c>
-      <c r="AA83" s="137"/>
-      <c r="AB83" s="137">
+      <c r="AA83" s="136"/>
+      <c r="AB83" s="136">
         <f t="shared" si="205"/>
         <v>-37.25</v>
       </c>
-      <c r="AC83" s="138"/>
-      <c r="AD83" s="136">
+      <c r="AC83" s="137"/>
+      <c r="AD83" s="142">
         <f t="shared" si="209"/>
         <v>2.625</v>
       </c>
-      <c r="AE83" s="136"/>
-      <c r="AF83" s="136">
+      <c r="AE83" s="142"/>
+      <c r="AF83" s="142">
         <f t="shared" si="206"/>
         <v>-5.625</v>
       </c>
-      <c r="AG83" s="136"/>
-      <c r="AH83" s="136">
+      <c r="AG83" s="142"/>
+      <c r="AH83" s="142">
         <f t="shared" si="207"/>
         <v>-31.375</v>
       </c>
-      <c r="AI83" s="136"/>
-      <c r="AJ83" s="136">
+      <c r="AI83" s="142"/>
+      <c r="AJ83" s="142">
         <f t="shared" si="208"/>
         <v>29.625</v>
       </c>
-      <c r="AK83" s="136"/>
-      <c r="AL83" s="136">
+      <c r="AK83" s="142"/>
+      <c r="AL83" s="142">
         <f t="shared" ref="AL83:AL88" si="213">SUM(AB83+AL82)</f>
         <v>-4.75</v>
       </c>
-      <c r="AM83" s="136"/>
+      <c r="AM83" s="142"/>
     </row>
-    <row r="84" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:39" s="11" customFormat="1" ht="13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="str">
         <f>$BO$5</f>
         <v>Construction (1. Iteration)</v>
@@ -21975,98 +22012,98 @@
         <f>SUM(($CE$75/2)+$CN$75+($CW$75/2))</f>
         <v>90.75</v>
       </c>
-      <c r="D84" s="142">
+      <c r="D84" s="135">
         <f>SUM((BX74/2)+CG74+(CP74/2))</f>
         <v>16.125</v>
       </c>
-      <c r="E84" s="137"/>
-      <c r="F84" s="137">
+      <c r="E84" s="136"/>
+      <c r="F84" s="136">
         <f>SUM((BY74/2)+CH74+(CQ74/2))</f>
         <v>23</v>
       </c>
-      <c r="G84" s="138"/>
-      <c r="H84" s="142">
+      <c r="G84" s="137"/>
+      <c r="H84" s="135">
         <f>SUM((BZ74/2)+CI74+(CR74/2))</f>
         <v>16.125</v>
       </c>
-      <c r="I84" s="137"/>
-      <c r="J84" s="137">
+      <c r="I84" s="136"/>
+      <c r="J84" s="136">
         <f>SUM((CA74/2)+CJ74+(CS74/2))</f>
         <v>30.5</v>
       </c>
-      <c r="K84" s="138"/>
-      <c r="L84" s="142">
+      <c r="K84" s="137"/>
+      <c r="L84" s="135">
         <f>SUM((CB74/2)+CK74+(CT74/2))</f>
         <v>16.125</v>
       </c>
-      <c r="M84" s="137"/>
-      <c r="N84" s="137">
+      <c r="M84" s="136"/>
+      <c r="N84" s="136">
         <f>SUM((CC74/2)+CL74+(CU74/2))</f>
         <v>24.75</v>
       </c>
-      <c r="O84" s="138"/>
-      <c r="P84" s="142">
+      <c r="O84" s="137"/>
+      <c r="P84" s="135">
         <f>SUM((CD74/2)+CM74+(CV74/2))</f>
         <v>16.125</v>
       </c>
-      <c r="Q84" s="137"/>
-      <c r="R84" s="137">
+      <c r="Q84" s="136"/>
+      <c r="R84" s="136">
         <f>SUM((CE74/2)+CN74+(CW74/2))</f>
         <v>12.5</v>
       </c>
-      <c r="S84" s="138"/>
-      <c r="T84" s="142">
+      <c r="S84" s="137"/>
+      <c r="T84" s="135">
         <f>SUM(F84-D84)</f>
         <v>6.875</v>
       </c>
-      <c r="U84" s="137"/>
-      <c r="V84" s="137">
+      <c r="U84" s="136"/>
+      <c r="V84" s="136">
         <f>SUM(J84-H84)</f>
         <v>14.375</v>
       </c>
-      <c r="W84" s="137"/>
-      <c r="X84" s="137">
+      <c r="W84" s="136"/>
+      <c r="X84" s="136">
         <f>SUM(N84-L84)</f>
         <v>8.625</v>
       </c>
-      <c r="Y84" s="137"/>
-      <c r="Z84" s="137">
+      <c r="Y84" s="136"/>
+      <c r="Z84" s="136">
         <f t="shared" si="204"/>
         <v>3.625</v>
       </c>
-      <c r="AA84" s="137"/>
-      <c r="AB84" s="137">
+      <c r="AA84" s="136"/>
+      <c r="AB84" s="136">
         <f>SUM(V84+T84+X84+Z84)</f>
         <v>33.5</v>
       </c>
-      <c r="AC84" s="138"/>
-      <c r="AD84" s="136">
+      <c r="AC84" s="137"/>
+      <c r="AD84" s="142">
         <f t="shared" si="209"/>
         <v>9.5</v>
       </c>
-      <c r="AE84" s="136"/>
-      <c r="AF84" s="136">
+      <c r="AE84" s="142"/>
+      <c r="AF84" s="142">
         <f t="shared" si="206"/>
         <v>8.75</v>
       </c>
-      <c r="AG84" s="136"/>
-      <c r="AH84" s="136">
+      <c r="AG84" s="142"/>
+      <c r="AH84" s="142">
         <f t="shared" si="207"/>
         <v>-22.75</v>
       </c>
-      <c r="AI84" s="136"/>
-      <c r="AJ84" s="136">
+      <c r="AI84" s="142"/>
+      <c r="AJ84" s="142">
         <f t="shared" si="208"/>
         <v>33.25</v>
       </c>
-      <c r="AK84" s="136"/>
-      <c r="AL84" s="136">
+      <c r="AK84" s="142"/>
+      <c r="AL84" s="142">
         <f t="shared" si="213"/>
         <v>28.75</v>
       </c>
-      <c r="AM84" s="136"/>
+      <c r="AM84" s="142"/>
     </row>
-    <row r="85" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:39" s="11" customFormat="1" ht="13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="str">
         <f>$CG$5</f>
         <v>Construction (2. Iteration)</v>
@@ -22079,98 +22116,98 @@
         <f>SUM(($CW$75/2)+$DF$75+$DO$75+($DX$75/2))</f>
         <v>95.25</v>
       </c>
-      <c r="D85" s="142">
+      <c r="D85" s="135">
         <f>SUM((CP74/2)+CY74+DH74+(DQ74/2))</f>
         <v>22.25</v>
       </c>
-      <c r="E85" s="137"/>
-      <c r="F85" s="137">
+      <c r="E85" s="136"/>
+      <c r="F85" s="136">
         <f>SUM((CQ74/2)+CZ74+DI74+(DR74/2))</f>
         <v>17.75</v>
       </c>
-      <c r="G85" s="138"/>
-      <c r="H85" s="142">
+      <c r="G85" s="137"/>
+      <c r="H85" s="135">
         <f>SUM((CR74/2)+DA74+DJ74+(DS74/2))</f>
         <v>22.25</v>
       </c>
-      <c r="I85" s="137"/>
-      <c r="J85" s="137">
+      <c r="I85" s="136"/>
+      <c r="J85" s="136">
         <f>SUM((CS74/2)+DB74+DK74+(DT74/2))</f>
         <v>32.5</v>
       </c>
-      <c r="K85" s="138"/>
-      <c r="L85" s="142">
+      <c r="K85" s="137"/>
+      <c r="L85" s="135">
         <f>SUM((CT74/2)+DC74+DL74+(DU74/2))</f>
         <v>22.25</v>
       </c>
-      <c r="M85" s="137"/>
-      <c r="N85" s="137">
+      <c r="M85" s="136"/>
+      <c r="N85" s="136">
         <f>SUM((CU74/2)+DD74+DM74+(DV74/2))</f>
         <v>21.5</v>
       </c>
-      <c r="O85" s="138"/>
-      <c r="P85" s="142">
+      <c r="O85" s="137"/>
+      <c r="P85" s="135">
         <f>SUM((CV74/2)+DE74+DN74+(DW74/2))</f>
         <v>22.25</v>
       </c>
-      <c r="Q85" s="137"/>
-      <c r="R85" s="137">
+      <c r="Q85" s="136"/>
+      <c r="R85" s="136">
         <f>SUM((CW74/2)+DF74+DO74+(DX74/2))</f>
         <v>23.5</v>
       </c>
-      <c r="S85" s="138"/>
-      <c r="T85" s="142">
+      <c r="S85" s="137"/>
+      <c r="T85" s="135">
         <f t="shared" si="210"/>
         <v>-4.5</v>
       </c>
-      <c r="U85" s="137"/>
-      <c r="V85" s="137">
+      <c r="U85" s="136"/>
+      <c r="V85" s="136">
         <f t="shared" si="211"/>
         <v>10.25</v>
       </c>
-      <c r="W85" s="137"/>
-      <c r="X85" s="137">
+      <c r="W85" s="136"/>
+      <c r="X85" s="136">
         <f t="shared" si="212"/>
         <v>-0.75</v>
       </c>
-      <c r="Y85" s="137"/>
-      <c r="Z85" s="137">
+      <c r="Y85" s="136"/>
+      <c r="Z85" s="136">
         <f t="shared" si="204"/>
         <v>-1.25</v>
       </c>
-      <c r="AA85" s="137"/>
-      <c r="AB85" s="137">
+      <c r="AA85" s="136"/>
+      <c r="AB85" s="136">
         <f>SUM(V85+T85+X85+Z85)</f>
         <v>3.75</v>
       </c>
-      <c r="AC85" s="138"/>
-      <c r="AD85" s="136">
+      <c r="AC85" s="137"/>
+      <c r="AD85" s="142">
         <f t="shared" si="209"/>
         <v>5</v>
       </c>
-      <c r="AE85" s="136"/>
-      <c r="AF85" s="136">
+      <c r="AE85" s="142"/>
+      <c r="AF85" s="142">
         <f t="shared" si="206"/>
         <v>19</v>
       </c>
-      <c r="AG85" s="136"/>
-      <c r="AH85" s="136">
+      <c r="AG85" s="142"/>
+      <c r="AH85" s="142">
         <f t="shared" si="207"/>
         <v>-23.5</v>
       </c>
-      <c r="AI85" s="136"/>
-      <c r="AJ85" s="136">
+      <c r="AI85" s="142"/>
+      <c r="AJ85" s="142">
         <f t="shared" si="208"/>
         <v>32</v>
       </c>
-      <c r="AK85" s="136"/>
-      <c r="AL85" s="136">
+      <c r="AK85" s="142"/>
+      <c r="AL85" s="142">
         <f t="shared" si="213"/>
         <v>32.5</v>
       </c>
-      <c r="AM85" s="136"/>
+      <c r="AM85" s="142"/>
     </row>
-    <row r="86" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:39" s="11" customFormat="1" ht="13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="str">
         <f>$DQ$5</f>
         <v>Transition</v>
@@ -22183,98 +22220,98 @@
         <f>SUM(($DX$75/2)+($EG$75/2))</f>
         <v>38.5</v>
       </c>
-      <c r="D86" s="142">
+      <c r="D86" s="135">
         <f>SUM((DQ74/2)+(DZ74/2))</f>
         <v>2.125</v>
       </c>
-      <c r="E86" s="137"/>
-      <c r="F86" s="137">
+      <c r="E86" s="136"/>
+      <c r="F86" s="136">
         <f>SUM((DR74/2)+(EA74/2))</f>
         <v>0</v>
       </c>
-      <c r="G86" s="138"/>
-      <c r="H86" s="142">
+      <c r="G86" s="137"/>
+      <c r="H86" s="135">
         <f>SUM((DS74/2)+(EB74/2))</f>
         <v>2.125</v>
       </c>
-      <c r="I86" s="137"/>
-      <c r="J86" s="137">
+      <c r="I86" s="136"/>
+      <c r="J86" s="136">
         <f>SUM((DT74/2)+(EC74/2))</f>
         <v>20</v>
       </c>
-      <c r="K86" s="138"/>
-      <c r="L86" s="142">
+      <c r="K86" s="137"/>
+      <c r="L86" s="135">
         <f>SUM((DU74/2)+(ED74/2))</f>
         <v>2.125</v>
       </c>
-      <c r="M86" s="137"/>
-      <c r="N86" s="137">
+      <c r="M86" s="136"/>
+      <c r="N86" s="136">
         <f>SUM((DV74/2)+(EE74/2))</f>
         <v>10.5</v>
       </c>
-      <c r="O86" s="138"/>
-      <c r="P86" s="142">
+      <c r="O86" s="137"/>
+      <c r="P86" s="135">
         <f>SUM((DW74/2)+(EF74/2))</f>
         <v>2.125</v>
       </c>
-      <c r="Q86" s="137"/>
-      <c r="R86" s="137">
+      <c r="Q86" s="136"/>
+      <c r="R86" s="136">
         <f>SUM((DX74/2)+(EG74/2))</f>
         <v>8</v>
       </c>
-      <c r="S86" s="138"/>
-      <c r="T86" s="142">
+      <c r="S86" s="137"/>
+      <c r="T86" s="135">
         <f t="shared" si="210"/>
         <v>-2.125</v>
       </c>
-      <c r="U86" s="137"/>
-      <c r="V86" s="137">
+      <c r="U86" s="136"/>
+      <c r="V86" s="136">
         <f t="shared" si="211"/>
         <v>17.875</v>
       </c>
-      <c r="W86" s="137"/>
-      <c r="X86" s="137">
+      <c r="W86" s="136"/>
+      <c r="X86" s="136">
         <f t="shared" si="212"/>
         <v>8.375</v>
       </c>
-      <c r="Y86" s="137"/>
-      <c r="Z86" s="137">
+      <c r="Y86" s="136"/>
+      <c r="Z86" s="136">
         <f t="shared" si="204"/>
         <v>-5.875</v>
       </c>
-      <c r="AA86" s="137"/>
-      <c r="AB86" s="137">
+      <c r="AA86" s="136"/>
+      <c r="AB86" s="136">
         <f t="shared" si="205"/>
         <v>18.25</v>
       </c>
-      <c r="AC86" s="138"/>
-      <c r="AD86" s="136">
+      <c r="AC86" s="137"/>
+      <c r="AD86" s="142">
         <f>SUM(T86+AD85)</f>
         <v>2.875</v>
       </c>
-      <c r="AE86" s="136"/>
-      <c r="AF86" s="136">
+      <c r="AE86" s="142"/>
+      <c r="AF86" s="142">
         <f t="shared" si="206"/>
         <v>36.875</v>
       </c>
-      <c r="AG86" s="136"/>
-      <c r="AH86" s="136">
+      <c r="AG86" s="142"/>
+      <c r="AH86" s="142">
         <f t="shared" si="207"/>
         <v>-15.125</v>
       </c>
-      <c r="AI86" s="136"/>
-      <c r="AJ86" s="136">
+      <c r="AI86" s="142"/>
+      <c r="AJ86" s="142">
         <f t="shared" si="208"/>
         <v>26.125</v>
       </c>
-      <c r="AK86" s="136"/>
-      <c r="AL86" s="136">
+      <c r="AK86" s="142"/>
+      <c r="AL86" s="142">
         <f t="shared" si="213"/>
         <v>50.75</v>
       </c>
-      <c r="AM86" s="136"/>
+      <c r="AM86" s="142"/>
     </row>
-    <row r="87" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:39" s="11" customFormat="1" ht="13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>22</v>
       </c>
@@ -22284,100 +22321,100 @@
       </c>
       <c r="C87" s="120">
         <f>SUM(($EG$75/2)+$EP$75+$EY$75+$FH$75)</f>
-        <v>79.5</v>
-      </c>
-      <c r="D87" s="142">
+        <v>119</v>
+      </c>
+      <c r="D87" s="135">
         <f>SUM((DZ74/2)+EI74+ER74+FA74)</f>
         <v>7.875</v>
       </c>
-      <c r="E87" s="137"/>
-      <c r="F87" s="137">
+      <c r="E87" s="136"/>
+      <c r="F87" s="136">
         <f>SUM((EA74/2)+EJ74+ES74+FB74)</f>
-        <v>0</v>
-      </c>
-      <c r="G87" s="138"/>
-      <c r="H87" s="142">
+        <v>17</v>
+      </c>
+      <c r="G87" s="137"/>
+      <c r="H87" s="135">
         <f>SUM((EB74/2)+EK74+ET74+FC74)</f>
         <v>7.875</v>
       </c>
-      <c r="I87" s="137"/>
-      <c r="J87" s="137">
+      <c r="I87" s="136"/>
+      <c r="J87" s="136">
         <f>SUM((EC74/2)+EL74+EU74+FD74)</f>
-        <v>19</v>
-      </c>
-      <c r="K87" s="138"/>
-      <c r="L87" s="142">
+        <v>26</v>
+      </c>
+      <c r="K87" s="137"/>
+      <c r="L87" s="135">
         <f>SUM((ED74/2)+EM74+EV74+FE74)</f>
         <v>7.875</v>
       </c>
-      <c r="M87" s="137"/>
-      <c r="N87" s="137">
+      <c r="M87" s="136"/>
+      <c r="N87" s="136">
         <f>SUM((EE74/2)+EN74+EW74+FF74)</f>
-        <v>45</v>
-      </c>
-      <c r="O87" s="138"/>
-      <c r="P87" s="142">
+        <v>54.5</v>
+      </c>
+      <c r="O87" s="137"/>
+      <c r="P87" s="135">
         <f>SUM((EF74/2)+EO74+EX74+FG74)</f>
         <v>7.875</v>
       </c>
-      <c r="Q87" s="137"/>
-      <c r="R87" s="137">
+      <c r="Q87" s="136"/>
+      <c r="R87" s="136">
         <f>SUM((EG74/2)+EP74+EY74+FH74)</f>
-        <v>15.5</v>
-      </c>
-      <c r="S87" s="138"/>
-      <c r="T87" s="142">
+        <v>21.5</v>
+      </c>
+      <c r="S87" s="137"/>
+      <c r="T87" s="135">
         <f t="shared" si="210"/>
-        <v>-7.875</v>
-      </c>
-      <c r="U87" s="137"/>
-      <c r="V87" s="137">
+        <v>9.125</v>
+      </c>
+      <c r="U87" s="136"/>
+      <c r="V87" s="136">
         <f t="shared" si="211"/>
-        <v>11.125</v>
-      </c>
-      <c r="W87" s="137"/>
-      <c r="X87" s="137">
+        <v>18.125</v>
+      </c>
+      <c r="W87" s="136"/>
+      <c r="X87" s="136">
         <f t="shared" si="212"/>
-        <v>37.125</v>
-      </c>
-      <c r="Y87" s="137"/>
-      <c r="Z87" s="137">
+        <v>46.625</v>
+      </c>
+      <c r="Y87" s="136"/>
+      <c r="Z87" s="136">
         <f t="shared" si="204"/>
-        <v>-7.625</v>
-      </c>
-      <c r="AA87" s="137"/>
-      <c r="AB87" s="137">
+        <v>-13.625</v>
+      </c>
+      <c r="AA87" s="136"/>
+      <c r="AB87" s="136">
         <f>SUM(V87+T87+X87+Z87)</f>
-        <v>32.75</v>
-      </c>
-      <c r="AC87" s="138"/>
-      <c r="AD87" s="136">
+        <v>60.25</v>
+      </c>
+      <c r="AC87" s="137"/>
+      <c r="AD87" s="142">
         <f t="shared" si="209"/>
-        <v>-5</v>
-      </c>
-      <c r="AE87" s="136"/>
-      <c r="AF87" s="136">
+        <v>12</v>
+      </c>
+      <c r="AE87" s="142"/>
+      <c r="AF87" s="142">
         <f t="shared" si="206"/>
-        <v>48</v>
-      </c>
-      <c r="AG87" s="136"/>
-      <c r="AH87" s="136">
+        <v>55</v>
+      </c>
+      <c r="AG87" s="142"/>
+      <c r="AH87" s="142">
         <f t="shared" si="207"/>
-        <v>22</v>
-      </c>
-      <c r="AI87" s="136"/>
-      <c r="AJ87" s="136">
+        <v>31.5</v>
+      </c>
+      <c r="AI87" s="142"/>
+      <c r="AJ87" s="142">
         <f t="shared" si="208"/>
-        <v>18.5</v>
-      </c>
-      <c r="AK87" s="136"/>
-      <c r="AL87" s="136">
+        <v>12.5</v>
+      </c>
+      <c r="AK87" s="142"/>
+      <c r="AL87" s="142">
         <f t="shared" si="213"/>
-        <v>83.5</v>
-      </c>
-      <c r="AM87" s="136"/>
+        <v>111</v>
+      </c>
+      <c r="AM87" s="142"/>
     </row>
-    <row r="88" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:39" s="11" customFormat="1" ht="13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>44</v>
       </c>
@@ -22387,100 +22424,100 @@
       </c>
       <c r="C88" s="120">
         <f>SUM($C$80:$C$87)</f>
-        <v>548.5</v>
-      </c>
-      <c r="D88" s="142">
+        <v>588</v>
+      </c>
+      <c r="D88" s="135">
         <f>SUM(D80:E87)</f>
         <v>106</v>
       </c>
-      <c r="E88" s="137"/>
-      <c r="F88" s="137">
+      <c r="E88" s="136"/>
+      <c r="F88" s="136">
         <f>SUM(F80:G87)</f>
-        <v>101</v>
-      </c>
-      <c r="G88" s="138"/>
-      <c r="H88" s="142">
+        <v>118</v>
+      </c>
+      <c r="G88" s="137"/>
+      <c r="H88" s="135">
         <f>SUM(H80:I87)</f>
         <v>115</v>
       </c>
-      <c r="I88" s="137"/>
-      <c r="J88" s="137">
+      <c r="I88" s="136"/>
+      <c r="J88" s="136">
         <f>SUM(J80:K87)</f>
-        <v>163</v>
-      </c>
-      <c r="K88" s="138"/>
-      <c r="L88" s="142">
+        <v>170</v>
+      </c>
+      <c r="K88" s="137"/>
+      <c r="L88" s="135">
         <f>SUM(L80:M87)</f>
         <v>156</v>
       </c>
-      <c r="M88" s="137"/>
-      <c r="N88" s="137">
+      <c r="M88" s="136"/>
+      <c r="N88" s="136">
         <f>SUM(N80:O87)</f>
-        <v>178</v>
-      </c>
-      <c r="O88" s="138"/>
-      <c r="P88" s="142">
+        <v>187.5</v>
+      </c>
+      <c r="O88" s="137"/>
+      <c r="P88" s="135">
         <f>SUM(P80:Q87)</f>
         <v>125</v>
       </c>
-      <c r="Q88" s="137"/>
-      <c r="R88" s="137">
+      <c r="Q88" s="136"/>
+      <c r="R88" s="136">
         <f>SUM(R80:S87)</f>
-        <v>106.5</v>
-      </c>
-      <c r="S88" s="138"/>
-      <c r="T88" s="142">
+        <v>112.5</v>
+      </c>
+      <c r="S88" s="137"/>
+      <c r="T88" s="135">
         <f>SUM(F88-D88)</f>
-        <v>-5</v>
-      </c>
-      <c r="U88" s="137"/>
-      <c r="V88" s="137">
+        <v>12</v>
+      </c>
+      <c r="U88" s="136"/>
+      <c r="V88" s="136">
         <f t="shared" si="211"/>
-        <v>48</v>
-      </c>
-      <c r="W88" s="137"/>
-      <c r="X88" s="137">
+        <v>55</v>
+      </c>
+      <c r="W88" s="136"/>
+      <c r="X88" s="136">
         <f t="shared" si="212"/>
-        <v>22</v>
-      </c>
-      <c r="Y88" s="137"/>
-      <c r="Z88" s="137">
+        <v>31.5</v>
+      </c>
+      <c r="Y88" s="136"/>
+      <c r="Z88" s="136">
         <f t="shared" si="204"/>
-        <v>18.5</v>
-      </c>
-      <c r="AA88" s="137"/>
-      <c r="AB88" s="137">
+        <v>12.5</v>
+      </c>
+      <c r="AA88" s="136"/>
+      <c r="AB88" s="136">
         <f t="shared" si="205"/>
-        <v>83.5</v>
-      </c>
-      <c r="AC88" s="138"/>
-      <c r="AD88" s="136">
+        <v>111</v>
+      </c>
+      <c r="AC88" s="137"/>
+      <c r="AD88" s="142">
         <f>SUM(T88+AD87)</f>
-        <v>-10</v>
-      </c>
-      <c r="AE88" s="136"/>
-      <c r="AF88" s="136">
+        <v>24</v>
+      </c>
+      <c r="AE88" s="142"/>
+      <c r="AF88" s="142">
         <f t="shared" si="206"/>
-        <v>96</v>
-      </c>
-      <c r="AG88" s="136"/>
-      <c r="AH88" s="136">
+        <v>110</v>
+      </c>
+      <c r="AG88" s="142"/>
+      <c r="AH88" s="142">
         <f t="shared" si="207"/>
-        <v>44</v>
-      </c>
-      <c r="AI88" s="136"/>
-      <c r="AJ88" s="136">
+        <v>63</v>
+      </c>
+      <c r="AI88" s="142"/>
+      <c r="AJ88" s="142">
         <f t="shared" si="208"/>
-        <v>37</v>
-      </c>
-      <c r="AK88" s="136"/>
-      <c r="AL88" s="136">
+        <v>25</v>
+      </c>
+      <c r="AK88" s="142"/>
+      <c r="AL88" s="142">
         <f t="shared" si="213"/>
-        <v>167</v>
-      </c>
-      <c r="AM88" s="136"/>
+        <v>222</v>
+      </c>
+      <c r="AM88" s="142"/>
     </row>
-    <row r="89" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:39" s="11" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="123"/>
@@ -22518,7 +22555,7 @@
       <c r="AK89" s="10"/>
       <c r="AL89" s="10"/>
     </row>
-    <row r="90" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:39" s="11" customFormat="1" ht="13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>111</v>
       </c>
@@ -22560,7 +22597,7 @@
       <c r="AK90" s="10"/>
       <c r="AL90" s="10"/>
     </row>
-    <row r="91" spans="1:39" s="11" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:39" s="11" customFormat="1" ht="13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="123"/>
@@ -22585,14 +22622,14 @@
         <v>46</v>
       </c>
       <c r="V91" s="139"/>
-      <c r="W91" s="163" t="s">
+      <c r="W91" s="143" t="s">
         <v>47</v>
       </c>
-      <c r="X91" s="163"/>
-      <c r="Y91" s="163"/>
-      <c r="Z91" s="163"/>
-      <c r="AA91" s="163"/>
-      <c r="AB91" s="163"/>
+      <c r="X91" s="143"/>
+      <c r="Y91" s="143"/>
+      <c r="Z91" s="143"/>
+      <c r="AA91" s="143"/>
+      <c r="AB91" s="143"/>
       <c r="AC91" s="139" t="s">
         <v>112</v>
       </c>
@@ -22606,17 +22643,17 @@
       <c r="AK91" s="10"/>
       <c r="AL91" s="10"/>
     </row>
-    <row r="92" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:39" ht="13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A92" s="128"/>
-      <c r="B92" s="163" t="s">
+      <c r="B92" s="143" t="s">
         <v>113</v>
       </c>
-      <c r="C92" s="163"/>
-      <c r="D92" s="136">
+      <c r="C92" s="143"/>
+      <c r="D92" s="142">
         <f>SUM(B11,B16,B23,B29,B32,B44,B48,B57,B65,B70)</f>
-        <v>895</v>
-      </c>
-      <c r="E92" s="136"/>
+        <v>898</v>
+      </c>
+      <c r="E92" s="142"/>
       <c r="F92" s="71"/>
       <c r="G92" s="71"/>
       <c r="H92" s="16"/>
@@ -22624,10 +22661,10 @@
       <c r="J92" s="16"/>
       <c r="K92" s="16"/>
       <c r="L92" s="16"/>
-      <c r="M92" s="167" t="s">
+      <c r="M92" s="144" t="s">
         <v>44</v>
       </c>
-      <c r="N92" s="167"/>
+      <c r="N92" s="144"/>
       <c r="O92" s="124"/>
       <c r="P92" s="124"/>
       <c r="Q92" s="141" t="str">
@@ -22637,24 +22674,24 @@
       <c r="R92" s="141"/>
       <c r="S92" s="141"/>
       <c r="T92" s="141"/>
-      <c r="U92" s="134">
+      <c r="U92" s="140">
         <f>SUM(D74+M74+V74+AE74+AN74+AW74+BF74+BO74+BX74+CG74+CP74+CY74+DH74+DQ74+DZ74+EI74+ER74+FA74)</f>
         <v>106</v>
       </c>
-      <c r="V92" s="134"/>
-      <c r="W92" s="134">
+      <c r="V92" s="140"/>
+      <c r="W92" s="140">
         <f>SUM(E74+N74+W74+AF74+AO74+AX74+BG74+BP74+BY74+CH74+CQ74+CZ74+DI74+DR74+EA74+EJ74+ES74+FB74)</f>
-        <v>101</v>
-      </c>
-      <c r="X92" s="134"/>
-      <c r="Y92" s="134"/>
-      <c r="Z92" s="134"/>
-      <c r="AA92" s="134"/>
-      <c r="AB92" s="134"/>
-      <c r="AC92" s="135">
+        <v>118</v>
+      </c>
+      <c r="X92" s="140"/>
+      <c r="Y92" s="140"/>
+      <c r="Z92" s="140"/>
+      <c r="AA92" s="140"/>
+      <c r="AB92" s="140"/>
+      <c r="AC92" s="134">
         <v>150</v>
       </c>
-      <c r="AD92" s="135"/>
+      <c r="AD92" s="134"/>
       <c r="AE92" s="128"/>
       <c r="AF92" s="128"/>
       <c r="AG92" s="128"/>
@@ -22663,7 +22700,7 @@
       <c r="AJ92" s="128"/>
       <c r="AK92" s="128"/>
     </row>
-    <row r="93" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:39" ht="13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A93" s="128"/>
       <c r="B93" s="123"/>
       <c r="C93" s="123"/>
@@ -22687,24 +22724,24 @@
       <c r="R93" s="141"/>
       <c r="S93" s="141"/>
       <c r="T93" s="141"/>
-      <c r="U93" s="134">
+      <c r="U93" s="140">
         <f>SUM(F74+O74+X74+AG74+AP74+AY74+BH74+BQ74+BZ74+CI74+CR74+DA74+DJ74+DS74+EB74+EK74+ET74+FC74)</f>
         <v>115</v>
       </c>
-      <c r="V93" s="134"/>
-      <c r="W93" s="134">
+      <c r="V93" s="140"/>
+      <c r="W93" s="140">
         <f>SUM(G74+P74+Y74+AH74+AQ74+AZ74+BI74+BR74+CA74+CJ74+CS74+DB74+DK74+DT74+EC74+EL74+EU74+FD74)</f>
-        <v>163</v>
-      </c>
-      <c r="X93" s="134"/>
-      <c r="Y93" s="134"/>
-      <c r="Z93" s="134"/>
-      <c r="AA93" s="134"/>
-      <c r="AB93" s="134"/>
-      <c r="AC93" s="135">
+        <v>170</v>
+      </c>
+      <c r="X93" s="140"/>
+      <c r="Y93" s="140"/>
+      <c r="Z93" s="140"/>
+      <c r="AA93" s="140"/>
+      <c r="AB93" s="140"/>
+      <c r="AC93" s="134">
         <v>150</v>
       </c>
-      <c r="AD93" s="135"/>
+      <c r="AD93" s="134"/>
       <c r="AE93" s="128"/>
       <c r="AF93" s="128"/>
       <c r="AG93" s="128"/>
@@ -22713,17 +22750,17 @@
       <c r="AJ93" s="128"/>
       <c r="AK93" s="128"/>
     </row>
-    <row r="94" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:39" ht="13" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A94" s="128"/>
-      <c r="B94" s="163" t="s">
+      <c r="B94" s="143" t="s">
         <v>114</v>
       </c>
-      <c r="C94" s="163"/>
-      <c r="D94" s="136">
+      <c r="C94" s="143"/>
+      <c r="D94" s="142">
         <f>SUM(C11,C16,C23,C29,C32,C44,C48,C57,C65,C70)</f>
-        <v>545</v>
-      </c>
-      <c r="E94" s="136"/>
+        <v>584.5</v>
+      </c>
+      <c r="E94" s="142"/>
       <c r="F94" s="71"/>
       <c r="G94" s="71"/>
       <c r="H94" s="16"/>
@@ -22731,10 +22768,10 @@
       <c r="J94" s="16"/>
       <c r="K94" s="16"/>
       <c r="L94" s="16"/>
-      <c r="M94" s="167" t="s">
+      <c r="M94" s="144" t="s">
         <v>44</v>
       </c>
-      <c r="N94" s="167"/>
+      <c r="N94" s="144"/>
       <c r="O94" s="124"/>
       <c r="P94" s="124"/>
       <c r="Q94" s="141" t="str">
@@ -22744,24 +22781,24 @@
       <c r="R94" s="141"/>
       <c r="S94" s="141"/>
       <c r="T94" s="141"/>
-      <c r="U94" s="134">
+      <c r="U94" s="140">
         <f>SUM(H74+Q74+Z74+AI74+AR74+BA74+BJ74+BS74+CB74+CK74+CT74+DC74+DL74+DU74+ED74+EM74+EV74+FE74)</f>
         <v>156</v>
       </c>
-      <c r="V94" s="134"/>
-      <c r="W94" s="134">
+      <c r="V94" s="140"/>
+      <c r="W94" s="140">
         <f>SUM(I74+R74+AA74+AJ74+AS74+BB74+BK74+BT74+CC74+CL74+CU74+DD74+DM74+DV74+EE74+EN74+EW74+FF74)</f>
-        <v>178</v>
-      </c>
-      <c r="X94" s="134"/>
-      <c r="Y94" s="134"/>
-      <c r="Z94" s="134"/>
-      <c r="AA94" s="134"/>
-      <c r="AB94" s="134"/>
-      <c r="AC94" s="135">
+        <v>187.5</v>
+      </c>
+      <c r="X94" s="140"/>
+      <c r="Y94" s="140"/>
+      <c r="Z94" s="140"/>
+      <c r="AA94" s="140"/>
+      <c r="AB94" s="140"/>
+      <c r="AC94" s="134">
         <v>150</v>
       </c>
-      <c r="AD94" s="135"/>
+      <c r="AD94" s="134"/>
       <c r="AE94" s="128"/>
       <c r="AF94" s="128"/>
       <c r="AG94" s="128"/>
@@ -22770,7 +22807,7 @@
       <c r="AJ94" s="128"/>
       <c r="AK94" s="128"/>
     </row>
-    <row r="95" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:39" ht="13" x14ac:dyDescent="0.3">
       <c r="A95" s="128"/>
       <c r="B95" s="128"/>
       <c r="C95" s="118"/>
@@ -22794,24 +22831,24 @@
       <c r="R95" s="141"/>
       <c r="S95" s="141"/>
       <c r="T95" s="141"/>
-      <c r="U95" s="134">
+      <c r="U95" s="140">
         <f>SUM(J74+S74+AB74+AK74+AT74+BC74+BL74+BU74+CD74+CM74+CV74+DE74+DN74+DW74+EF74+EO74+EX74+FG74)</f>
         <v>125</v>
       </c>
-      <c r="V95" s="134"/>
-      <c r="W95" s="134">
+      <c r="V95" s="140"/>
+      <c r="W95" s="140">
         <f>SUM(K74+T74+AC74+AL74+AU74+BD74+BM74+BV74+CE74+CN74+CW74+DF74+DO74+DX74+EG74+EP74+EY74+FH74)</f>
-        <v>106.5</v>
-      </c>
-      <c r="X95" s="134"/>
-      <c r="Y95" s="134"/>
-      <c r="Z95" s="134"/>
-      <c r="AA95" s="134"/>
-      <c r="AB95" s="134"/>
-      <c r="AC95" s="135">
+        <v>112.5</v>
+      </c>
+      <c r="X95" s="140"/>
+      <c r="Y95" s="140"/>
+      <c r="Z95" s="140"/>
+      <c r="AA95" s="140"/>
+      <c r="AB95" s="140"/>
+      <c r="AC95" s="134">
         <v>150</v>
       </c>
-      <c r="AD95" s="135"/>
+      <c r="AD95" s="134"/>
       <c r="AE95" s="128"/>
       <c r="AF95" s="128"/>
       <c r="AG95" s="128"/>
@@ -22820,7 +22857,7 @@
       <c r="AJ95" s="128"/>
       <c r="AK95" s="128"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:14" ht="13" x14ac:dyDescent="0.3">
       <c r="B100" s="121"/>
       <c r="C100" s="118"/>
       <c r="D100" s="128"/>
@@ -22835,7 +22872,7 @@
       <c r="M100" s="128"/>
       <c r="N100" s="128"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:14" ht="13" x14ac:dyDescent="0.3">
       <c r="B105" s="128"/>
       <c r="C105" s="118"/>
       <c r="D105" s="128"/>
@@ -22847,11 +22884,337 @@
       <c r="J105" s="128"/>
       <c r="K105" s="128"/>
       <c r="L105" s="128"/>
-      <c r="M105" s="168"/>
+      <c r="M105" s="138"/>
       <c r="N105" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="350">
+    <mergeCell ref="U93:V93"/>
+    <mergeCell ref="W93:AB93"/>
+    <mergeCell ref="AC93:AD93"/>
+    <mergeCell ref="AF86:AG86"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="Q94:T94"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="R88:S88"/>
+    <mergeCell ref="U95:V95"/>
+    <mergeCell ref="AJ80:AK80"/>
+    <mergeCell ref="AJ82:AK82"/>
+    <mergeCell ref="AJ81:AK81"/>
+    <mergeCell ref="AJ83:AK83"/>
+    <mergeCell ref="AJ84:AK84"/>
+    <mergeCell ref="AJ85:AK85"/>
+    <mergeCell ref="AJ86:AK86"/>
+    <mergeCell ref="AJ87:AK87"/>
+    <mergeCell ref="AJ88:AK88"/>
+    <mergeCell ref="AH80:AI80"/>
+    <mergeCell ref="AH81:AI81"/>
+    <mergeCell ref="AH82:AI82"/>
+    <mergeCell ref="AH83:AI83"/>
+    <mergeCell ref="AH84:AI84"/>
+    <mergeCell ref="AH85:AI85"/>
+    <mergeCell ref="AH86:AI86"/>
+    <mergeCell ref="AH87:AI87"/>
+    <mergeCell ref="AH88:AI88"/>
+    <mergeCell ref="X87:Y87"/>
+    <mergeCell ref="X88:Y88"/>
+    <mergeCell ref="V87:W87"/>
+    <mergeCell ref="V88:W88"/>
+    <mergeCell ref="W95:AB95"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="P78:S78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="AL87:AM87"/>
+    <mergeCell ref="AL88:AM88"/>
+    <mergeCell ref="AL86:AM86"/>
+    <mergeCell ref="AL84:AM84"/>
+    <mergeCell ref="AL81:AM81"/>
+    <mergeCell ref="AD82:AE82"/>
+    <mergeCell ref="AL82:AM82"/>
+    <mergeCell ref="AL83:AM83"/>
+    <mergeCell ref="AB82:AC82"/>
+    <mergeCell ref="AB87:AC87"/>
+    <mergeCell ref="AF88:AG88"/>
+    <mergeCell ref="AF87:AG87"/>
+    <mergeCell ref="AB88:AC88"/>
+    <mergeCell ref="AF83:AG83"/>
+    <mergeCell ref="AF84:AG84"/>
+    <mergeCell ref="AF85:AG85"/>
+    <mergeCell ref="T78:AC78"/>
+    <mergeCell ref="AD78:AM78"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="Z80:AA80"/>
+    <mergeCell ref="Z81:AA81"/>
+    <mergeCell ref="Z82:AA82"/>
+    <mergeCell ref="Z83:AA83"/>
+    <mergeCell ref="Z84:AA84"/>
+    <mergeCell ref="Z85:AA85"/>
+    <mergeCell ref="AD84:AE84"/>
+    <mergeCell ref="AD85:AE85"/>
+    <mergeCell ref="AD83:AE83"/>
+    <mergeCell ref="AB83:AC83"/>
+    <mergeCell ref="AF79:AG79"/>
+    <mergeCell ref="AF80:AG80"/>
+    <mergeCell ref="AF81:AG81"/>
+    <mergeCell ref="AF82:AG82"/>
+    <mergeCell ref="CT9:CU9"/>
+    <mergeCell ref="CK9:CL9"/>
+    <mergeCell ref="CB9:CC9"/>
+    <mergeCell ref="BS9:BT9"/>
+    <mergeCell ref="BJ9:BK9"/>
+    <mergeCell ref="DA9:DB9"/>
+    <mergeCell ref="DJ9:DK9"/>
+    <mergeCell ref="DS9:DT9"/>
+    <mergeCell ref="EB9:EC9"/>
+    <mergeCell ref="DZ9:EA9"/>
+    <mergeCell ref="CM9:CN9"/>
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CV9:CW9"/>
+    <mergeCell ref="CY9:CZ9"/>
+    <mergeCell ref="DE9:DF9"/>
+    <mergeCell ref="DH9:DI9"/>
+    <mergeCell ref="AW9:AX9"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="EX8:EY8"/>
+    <mergeCell ref="FA8:FB8"/>
+    <mergeCell ref="FE9:FF9"/>
+    <mergeCell ref="EV9:EW9"/>
+    <mergeCell ref="EM9:EN9"/>
+    <mergeCell ref="EK9:EL9"/>
+    <mergeCell ref="ET9:EU9"/>
+    <mergeCell ref="FC9:FD9"/>
+    <mergeCell ref="FA9:FB9"/>
+    <mergeCell ref="DQ9:DR9"/>
+    <mergeCell ref="DW9:DX9"/>
+    <mergeCell ref="CG9:CH9"/>
+    <mergeCell ref="BH9:BI9"/>
+    <mergeCell ref="BQ9:BR9"/>
+    <mergeCell ref="BZ9:CA9"/>
+    <mergeCell ref="CI9:CJ9"/>
+    <mergeCell ref="CR9:CS9"/>
+    <mergeCell ref="ED9:EE9"/>
+    <mergeCell ref="DU9:DV9"/>
+    <mergeCell ref="DL9:DM9"/>
+    <mergeCell ref="DC9:DD9"/>
+    <mergeCell ref="FA7:FH7"/>
+    <mergeCell ref="FG8:FH8"/>
+    <mergeCell ref="ER7:EY7"/>
+    <mergeCell ref="EI9:EJ9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="BX9:BY9"/>
+    <mergeCell ref="CD9:CE9"/>
+    <mergeCell ref="BF7:BM7"/>
+    <mergeCell ref="BF9:BG9"/>
+    <mergeCell ref="BL9:BM9"/>
+    <mergeCell ref="EF9:EG9"/>
+    <mergeCell ref="DN9:DO9"/>
+    <mergeCell ref="DH8:DI8"/>
+    <mergeCell ref="DN8:DO8"/>
+    <mergeCell ref="DQ8:DR8"/>
+    <mergeCell ref="DW8:DX8"/>
+    <mergeCell ref="FG9:FH9"/>
+    <mergeCell ref="EF8:EG8"/>
+    <mergeCell ref="EI8:EJ8"/>
+    <mergeCell ref="EO8:EP8"/>
+    <mergeCell ref="ER8:ES8"/>
+    <mergeCell ref="EO9:EP9"/>
+    <mergeCell ref="ER9:ES9"/>
+    <mergeCell ref="EX9:EY9"/>
+    <mergeCell ref="DQ5:EH5"/>
+    <mergeCell ref="M5:AD5"/>
+    <mergeCell ref="AE5:AV5"/>
+    <mergeCell ref="AW5:BN5"/>
+    <mergeCell ref="BO5:CF5"/>
+    <mergeCell ref="CG5:CX5"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="CY5:DP5"/>
+    <mergeCell ref="DZ8:EA8"/>
+    <mergeCell ref="CG7:CN7"/>
+    <mergeCell ref="CP7:CW7"/>
+    <mergeCell ref="CY7:DF7"/>
+    <mergeCell ref="CM8:CN8"/>
+    <mergeCell ref="CP8:CQ8"/>
+    <mergeCell ref="CV8:CW8"/>
+    <mergeCell ref="CY8:CZ8"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="EI7:EP7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AN8:AO8"/>
+    <mergeCell ref="AT8:AU8"/>
+    <mergeCell ref="CD8:CE8"/>
+    <mergeCell ref="CG8:CH8"/>
+    <mergeCell ref="BO7:BV7"/>
+    <mergeCell ref="BX7:CE7"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="AE7:AL7"/>
+    <mergeCell ref="AN7:AU7"/>
+    <mergeCell ref="AW7:BD7"/>
+    <mergeCell ref="M7:T7"/>
+    <mergeCell ref="V7:AC7"/>
+    <mergeCell ref="DQ7:DX7"/>
+    <mergeCell ref="DZ7:EG7"/>
+    <mergeCell ref="DH7:DO7"/>
+    <mergeCell ref="DE8:DF8"/>
+    <mergeCell ref="EI5:FH5"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="AB84:AC84"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="X82:Y82"/>
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AD79:AE79"/>
+    <mergeCell ref="AL79:AM79"/>
+    <mergeCell ref="AD80:AE80"/>
+    <mergeCell ref="AL80:AM80"/>
+    <mergeCell ref="AD81:AE81"/>
+    <mergeCell ref="AB81:AC81"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="BU8:BV8"/>
+    <mergeCell ref="BX8:BY8"/>
+    <mergeCell ref="AW8:AZ8"/>
+    <mergeCell ref="BC8:BD8"/>
+    <mergeCell ref="BF8:BG8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BO8:BP8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="BC9:BD9"/>
+    <mergeCell ref="BU9:BV9"/>
+    <mergeCell ref="BO9:BP9"/>
+    <mergeCell ref="T86:U86"/>
+    <mergeCell ref="V79:W79"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="V86:W86"/>
+    <mergeCell ref="T84:U84"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="AH79:AK79"/>
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="AB79:AC79"/>
+    <mergeCell ref="T80:U80"/>
+    <mergeCell ref="T81:U81"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="V80:W80"/>
+    <mergeCell ref="AB80:AC80"/>
+    <mergeCell ref="V81:W81"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="Z79:AA79"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="AL85:AM85"/>
+    <mergeCell ref="Q95:T95"/>
+    <mergeCell ref="T85:U85"/>
+    <mergeCell ref="V85:W85"/>
+    <mergeCell ref="AB85:AC85"/>
+    <mergeCell ref="AC94:AD94"/>
+    <mergeCell ref="U91:V91"/>
+    <mergeCell ref="W91:AB91"/>
+    <mergeCell ref="W94:AB94"/>
+    <mergeCell ref="AC91:AD91"/>
+    <mergeCell ref="AC92:AD92"/>
+    <mergeCell ref="U92:V92"/>
+    <mergeCell ref="W92:AB92"/>
+    <mergeCell ref="Q92:T92"/>
+    <mergeCell ref="Z86:AA86"/>
+    <mergeCell ref="Z87:AA87"/>
+    <mergeCell ref="Z88:AA88"/>
+    <mergeCell ref="AB86:AC86"/>
     <mergeCell ref="AC95:AD95"/>
     <mergeCell ref="D85:E85"/>
     <mergeCell ref="F85:G85"/>
@@ -22876,332 +23239,6 @@
     <mergeCell ref="T87:U87"/>
     <mergeCell ref="T88:U88"/>
     <mergeCell ref="J88:K88"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="AL85:AM85"/>
-    <mergeCell ref="Q95:T95"/>
-    <mergeCell ref="T85:U85"/>
-    <mergeCell ref="V85:W85"/>
-    <mergeCell ref="AB85:AC85"/>
-    <mergeCell ref="AC94:AD94"/>
-    <mergeCell ref="U91:V91"/>
-    <mergeCell ref="W91:AB91"/>
-    <mergeCell ref="W94:AB94"/>
-    <mergeCell ref="AC91:AD91"/>
-    <mergeCell ref="AC92:AD92"/>
-    <mergeCell ref="U92:V92"/>
-    <mergeCell ref="W92:AB92"/>
-    <mergeCell ref="Q92:T92"/>
-    <mergeCell ref="Z86:AA86"/>
-    <mergeCell ref="Z87:AA87"/>
-    <mergeCell ref="Z88:AA88"/>
-    <mergeCell ref="AB86:AC86"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="BC9:BD9"/>
-    <mergeCell ref="BU9:BV9"/>
-    <mergeCell ref="BO9:BP9"/>
-    <mergeCell ref="T86:U86"/>
-    <mergeCell ref="V79:W79"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="V86:W86"/>
-    <mergeCell ref="T84:U84"/>
-    <mergeCell ref="V84:W84"/>
-    <mergeCell ref="AH79:AK79"/>
-    <mergeCell ref="X85:Y85"/>
-    <mergeCell ref="X86:Y86"/>
-    <mergeCell ref="AB79:AC79"/>
-    <mergeCell ref="T80:U80"/>
-    <mergeCell ref="T81:U81"/>
-    <mergeCell ref="T82:U82"/>
-    <mergeCell ref="T83:U83"/>
-    <mergeCell ref="V80:W80"/>
-    <mergeCell ref="AB80:AC80"/>
-    <mergeCell ref="V81:W81"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="Z79:AA79"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="BU8:BV8"/>
-    <mergeCell ref="BX8:BY8"/>
-    <mergeCell ref="AW8:AZ8"/>
-    <mergeCell ref="BC8:BD8"/>
-    <mergeCell ref="BF8:BG8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BO8:BP8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="AB84:AC84"/>
-    <mergeCell ref="X80:Y80"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="X82:Y82"/>
-    <mergeCell ref="X83:Y83"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AD79:AE79"/>
-    <mergeCell ref="AL79:AM79"/>
-    <mergeCell ref="AD80:AE80"/>
-    <mergeCell ref="AL80:AM80"/>
-    <mergeCell ref="AD81:AE81"/>
-    <mergeCell ref="AB81:AC81"/>
-    <mergeCell ref="T79:U79"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="EI7:EP7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AN8:AO8"/>
-    <mergeCell ref="AT8:AU8"/>
-    <mergeCell ref="CD8:CE8"/>
-    <mergeCell ref="CG8:CH8"/>
-    <mergeCell ref="BO7:BV7"/>
-    <mergeCell ref="BX7:CE7"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="AE7:AL7"/>
-    <mergeCell ref="AN7:AU7"/>
-    <mergeCell ref="AW7:BD7"/>
-    <mergeCell ref="M7:T7"/>
-    <mergeCell ref="V7:AC7"/>
-    <mergeCell ref="DQ7:DX7"/>
-    <mergeCell ref="DZ7:EG7"/>
-    <mergeCell ref="DH7:DO7"/>
-    <mergeCell ref="DE8:DF8"/>
-    <mergeCell ref="EI5:FH5"/>
-    <mergeCell ref="DQ5:EH5"/>
-    <mergeCell ref="M5:AD5"/>
-    <mergeCell ref="AE5:AV5"/>
-    <mergeCell ref="AW5:BN5"/>
-    <mergeCell ref="BO5:CF5"/>
-    <mergeCell ref="CG5:CX5"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="CY5:DP5"/>
-    <mergeCell ref="DZ8:EA8"/>
-    <mergeCell ref="CG7:CN7"/>
-    <mergeCell ref="CP7:CW7"/>
-    <mergeCell ref="CY7:DF7"/>
-    <mergeCell ref="CM8:CN8"/>
-    <mergeCell ref="CP8:CQ8"/>
-    <mergeCell ref="CV8:CW8"/>
-    <mergeCell ref="CY8:CZ8"/>
-    <mergeCell ref="FA7:FH7"/>
-    <mergeCell ref="FG8:FH8"/>
-    <mergeCell ref="ER7:EY7"/>
-    <mergeCell ref="EI9:EJ9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="BX9:BY9"/>
-    <mergeCell ref="CD9:CE9"/>
-    <mergeCell ref="BF7:BM7"/>
-    <mergeCell ref="BF9:BG9"/>
-    <mergeCell ref="BL9:BM9"/>
-    <mergeCell ref="EF9:EG9"/>
-    <mergeCell ref="DN9:DO9"/>
-    <mergeCell ref="DH8:DI8"/>
-    <mergeCell ref="DN8:DO8"/>
-    <mergeCell ref="DQ8:DR8"/>
-    <mergeCell ref="DW8:DX8"/>
-    <mergeCell ref="FG9:FH9"/>
-    <mergeCell ref="EF8:EG8"/>
-    <mergeCell ref="EI8:EJ8"/>
-    <mergeCell ref="EO8:EP8"/>
-    <mergeCell ref="ER8:ES8"/>
-    <mergeCell ref="EO9:EP9"/>
-    <mergeCell ref="ER9:ES9"/>
-    <mergeCell ref="EX9:EY9"/>
-    <mergeCell ref="AW9:AX9"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="EX8:EY8"/>
-    <mergeCell ref="FA8:FB8"/>
-    <mergeCell ref="FE9:FF9"/>
-    <mergeCell ref="EV9:EW9"/>
-    <mergeCell ref="EM9:EN9"/>
-    <mergeCell ref="EK9:EL9"/>
-    <mergeCell ref="ET9:EU9"/>
-    <mergeCell ref="FC9:FD9"/>
-    <mergeCell ref="FA9:FB9"/>
-    <mergeCell ref="DQ9:DR9"/>
-    <mergeCell ref="DW9:DX9"/>
-    <mergeCell ref="CG9:CH9"/>
-    <mergeCell ref="BH9:BI9"/>
-    <mergeCell ref="BQ9:BR9"/>
-    <mergeCell ref="BZ9:CA9"/>
-    <mergeCell ref="CI9:CJ9"/>
-    <mergeCell ref="CR9:CS9"/>
-    <mergeCell ref="ED9:EE9"/>
-    <mergeCell ref="DU9:DV9"/>
-    <mergeCell ref="DL9:DM9"/>
-    <mergeCell ref="DC9:DD9"/>
-    <mergeCell ref="CT9:CU9"/>
-    <mergeCell ref="CK9:CL9"/>
-    <mergeCell ref="CB9:CC9"/>
-    <mergeCell ref="BS9:BT9"/>
-    <mergeCell ref="BJ9:BK9"/>
-    <mergeCell ref="DA9:DB9"/>
-    <mergeCell ref="DJ9:DK9"/>
-    <mergeCell ref="DS9:DT9"/>
-    <mergeCell ref="EB9:EC9"/>
-    <mergeCell ref="DZ9:EA9"/>
-    <mergeCell ref="CM9:CN9"/>
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CV9:CW9"/>
-    <mergeCell ref="CY9:CZ9"/>
-    <mergeCell ref="DE9:DF9"/>
-    <mergeCell ref="DH9:DI9"/>
-    <mergeCell ref="T78:AC78"/>
-    <mergeCell ref="AD78:AM78"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="Z80:AA80"/>
-    <mergeCell ref="Z81:AA81"/>
-    <mergeCell ref="Z82:AA82"/>
-    <mergeCell ref="Z83:AA83"/>
-    <mergeCell ref="Z84:AA84"/>
-    <mergeCell ref="Z85:AA85"/>
-    <mergeCell ref="AD84:AE84"/>
-    <mergeCell ref="AD85:AE85"/>
-    <mergeCell ref="AD83:AE83"/>
-    <mergeCell ref="AB83:AC83"/>
-    <mergeCell ref="AF79:AG79"/>
-    <mergeCell ref="AF80:AG80"/>
-    <mergeCell ref="AF81:AG81"/>
-    <mergeCell ref="AF82:AG82"/>
-    <mergeCell ref="AL87:AM87"/>
-    <mergeCell ref="AL88:AM88"/>
-    <mergeCell ref="AL86:AM86"/>
-    <mergeCell ref="AL84:AM84"/>
-    <mergeCell ref="AL81:AM81"/>
-    <mergeCell ref="AD82:AE82"/>
-    <mergeCell ref="AL82:AM82"/>
-    <mergeCell ref="AL83:AM83"/>
-    <mergeCell ref="AB82:AC82"/>
-    <mergeCell ref="AB87:AC87"/>
-    <mergeCell ref="AF88:AG88"/>
-    <mergeCell ref="AF87:AG87"/>
-    <mergeCell ref="AB88:AC88"/>
-    <mergeCell ref="AF83:AG83"/>
-    <mergeCell ref="AF84:AG84"/>
-    <mergeCell ref="AF85:AG85"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="P78:S78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="U95:V95"/>
-    <mergeCell ref="AJ80:AK80"/>
-    <mergeCell ref="AJ82:AK82"/>
-    <mergeCell ref="AJ81:AK81"/>
-    <mergeCell ref="AJ83:AK83"/>
-    <mergeCell ref="AJ84:AK84"/>
-    <mergeCell ref="AJ85:AK85"/>
-    <mergeCell ref="AJ86:AK86"/>
-    <mergeCell ref="AJ87:AK87"/>
-    <mergeCell ref="AJ88:AK88"/>
-    <mergeCell ref="AH80:AI80"/>
-    <mergeCell ref="AH81:AI81"/>
-    <mergeCell ref="AH82:AI82"/>
-    <mergeCell ref="AH83:AI83"/>
-    <mergeCell ref="AH84:AI84"/>
-    <mergeCell ref="AH85:AI85"/>
-    <mergeCell ref="AH86:AI86"/>
-    <mergeCell ref="AH87:AI87"/>
-    <mergeCell ref="AH88:AI88"/>
-    <mergeCell ref="X87:Y87"/>
-    <mergeCell ref="X88:Y88"/>
-    <mergeCell ref="V87:W87"/>
-    <mergeCell ref="V88:W88"/>
-    <mergeCell ref="W95:AB95"/>
-    <mergeCell ref="U93:V93"/>
-    <mergeCell ref="W93:AB93"/>
-    <mergeCell ref="AC93:AD93"/>
-    <mergeCell ref="AF86:AG86"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="Q94:T94"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="R86:S86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="R87:S87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="R88:S88"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -23230,19 +23267,19 @@
       <selection pane="bottomRight" activeCell="G15" sqref="G15:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="3" customWidth="1"/>
-    <col min="4" max="13" width="8.5703125" customWidth="1"/>
-    <col min="14" max="16" width="8.5703125" style="9" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" style="9" customWidth="1"/>
-    <col min="18" max="40" width="8.5703125" style="9" customWidth="1"/>
-    <col min="41" max="16384" width="32.85546875" style="9"/>
+    <col min="1" max="1" width="14.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" style="3" customWidth="1"/>
+    <col min="4" max="13" width="8.54296875" customWidth="1"/>
+    <col min="14" max="16" width="8.54296875" style="9" customWidth="1"/>
+    <col min="17" max="17" width="16.1796875" style="9" customWidth="1"/>
+    <col min="18" max="40" width="8.54296875" style="9" customWidth="1"/>
+    <col min="41" max="16384" width="32.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:93" ht="18" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>115</v>
       </c>
@@ -23262,7 +23299,7 @@
       <c r="L1" s="128"/>
       <c r="M1" s="128"/>
     </row>
-    <row r="2" spans="1:93" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:93" ht="18" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="8"/>
@@ -23277,7 +23314,7 @@
       <c r="L2" s="128"/>
       <c r="M2" s="128"/>
     </row>
-    <row r="3" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="8"/>
@@ -23292,7 +23329,7 @@
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
     </row>
-    <row r="4" spans="1:93" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:93" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="8"/>
@@ -23307,67 +23344,67 @@
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
     </row>
-    <row r="5" spans="1:93" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:93" s="50" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="67"/>
       <c r="C5" s="67"/>
       <c r="D5" s="67"/>
-      <c r="E5" s="171" t="s">
+      <c r="E5" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="171"/>
-      <c r="G5" s="170" t="s">
+      <c r="F5" s="173"/>
+      <c r="G5" s="172" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="154" t="s">
+      <c r="H5" s="172"/>
+      <c r="I5" s="172"/>
+      <c r="J5" s="172"/>
+      <c r="K5" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="154"/>
-      <c r="M5" s="154"/>
-      <c r="N5" s="154"/>
-      <c r="O5" s="155" t="s">
+      <c r="L5" s="164"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="155"/>
-      <c r="Q5" s="155"/>
-      <c r="R5" s="155"/>
-      <c r="S5" s="156" t="s">
+      <c r="P5" s="165"/>
+      <c r="Q5" s="165"/>
+      <c r="R5" s="165"/>
+      <c r="S5" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="156"/>
-      <c r="U5" s="156"/>
-      <c r="V5" s="156"/>
-      <c r="W5" s="157" t="s">
+      <c r="T5" s="166"/>
+      <c r="U5" s="166"/>
+      <c r="V5" s="166"/>
+      <c r="W5" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="157"/>
-      <c r="Y5" s="157"/>
-      <c r="Z5" s="157"/>
-      <c r="AA5" s="158" t="s">
+      <c r="X5" s="167"/>
+      <c r="Y5" s="167"/>
+      <c r="Z5" s="167"/>
+      <c r="AA5" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="AB5" s="158"/>
-      <c r="AC5" s="158"/>
-      <c r="AD5" s="158"/>
-      <c r="AE5" s="152" t="s">
+      <c r="AB5" s="168"/>
+      <c r="AC5" s="168"/>
+      <c r="AD5" s="168"/>
+      <c r="AE5" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="152"/>
-      <c r="AG5" s="152"/>
-      <c r="AH5" s="152"/>
-      <c r="AI5" s="162" t="s">
+      <c r="AF5" s="162"/>
+      <c r="AG5" s="162"/>
+      <c r="AH5" s="162"/>
+      <c r="AI5" s="161" t="s">
         <v>22</v>
       </c>
-      <c r="AJ5" s="162"/>
-      <c r="AK5" s="162"/>
-      <c r="AL5" s="162"/>
-      <c r="AM5" s="162"/>
-      <c r="AN5" s="162"/>
+      <c r="AJ5" s="161"/>
+      <c r="AK5" s="161"/>
+      <c r="AL5" s="161"/>
+      <c r="AM5" s="161"/>
+      <c r="AN5" s="161"/>
       <c r="AO5" s="68"/>
       <c r="AP5" s="68"/>
       <c r="AQ5" s="68"/>
@@ -23422,7 +23459,7 @@
       <c r="CN5" s="11"/>
       <c r="CO5" s="11"/>
     </row>
-    <row r="6" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:93" x14ac:dyDescent="0.3">
       <c r="C6" s="123"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -23435,7 +23472,7 @@
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
     </row>
-    <row r="7" spans="1:93" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:93" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -23482,60 +23519,60 @@
         <v>Woche 7</v>
       </c>
       <c r="T7" s="139"/>
-      <c r="U7" s="173" t="str">
+      <c r="U7" s="170" t="str">
         <f>Detailplan!BX7</f>
         <v>Woche 8</v>
       </c>
-      <c r="V7" s="173"/>
-      <c r="W7" s="173" t="str">
+      <c r="V7" s="170"/>
+      <c r="W7" s="170" t="str">
         <f>Detailplan!CG7</f>
         <v>Woche 9</v>
       </c>
-      <c r="X7" s="173"/>
-      <c r="Y7" s="173" t="str">
+      <c r="X7" s="170"/>
+      <c r="Y7" s="170" t="str">
         <f>Detailplan!CP7</f>
         <v>Woche 10</v>
       </c>
-      <c r="Z7" s="173"/>
-      <c r="AA7" s="173" t="str">
+      <c r="Z7" s="170"/>
+      <c r="AA7" s="170" t="str">
         <f>Detailplan!CY7</f>
         <v>Woche 11</v>
       </c>
-      <c r="AB7" s="173"/>
-      <c r="AC7" s="173" t="str">
+      <c r="AB7" s="170"/>
+      <c r="AC7" s="170" t="str">
         <f>Detailplan!DH7</f>
         <v>Woche 12</v>
       </c>
-      <c r="AD7" s="173"/>
-      <c r="AE7" s="173" t="str">
+      <c r="AD7" s="170"/>
+      <c r="AE7" s="170" t="str">
         <f>Detailplan!DQ7</f>
         <v>Woche 13</v>
       </c>
-      <c r="AF7" s="173"/>
-      <c r="AG7" s="173" t="str">
+      <c r="AF7" s="170"/>
+      <c r="AG7" s="170" t="str">
         <f>Detailplan!DZ7</f>
         <v>Woche 14</v>
       </c>
-      <c r="AH7" s="173"/>
-      <c r="AI7" s="173" t="str">
+      <c r="AH7" s="170"/>
+      <c r="AI7" s="170" t="str">
         <f>Detailplan!EI7</f>
         <v>Woche 15</v>
       </c>
-      <c r="AJ7" s="173"/>
-      <c r="AK7" s="173" t="str">
+      <c r="AJ7" s="170"/>
+      <c r="AK7" s="170" t="str">
         <f>Detailplan!ER7</f>
         <v>Woche 16</v>
       </c>
-      <c r="AL7" s="173"/>
-      <c r="AM7" s="173" t="str">
+      <c r="AL7" s="170"/>
+      <c r="AM7" s="170" t="str">
         <f>Detailplan!FA7</f>
         <v>Woche 17</v>
       </c>
-      <c r="AN7" s="173"/>
+      <c r="AN7" s="170"/>
     </row>
-    <row r="8" spans="1:93" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:93" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="163" t="s">
+      <c r="B8" s="143" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="139"/>
@@ -23550,7 +23587,7 @@
       <c r="L8" s="122"/>
       <c r="M8" s="122"/>
     </row>
-    <row r="9" spans="1:93" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:93" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="123" t="s">
         <v>46</v>
@@ -23569,7 +23606,7 @@
       <c r="L9" s="122"/>
       <c r="M9" s="122"/>
     </row>
-    <row r="10" spans="1:93" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:93" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="55"/>
       <c r="D10" s="16"/>
@@ -23583,7 +23620,7 @@
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
     </row>
-    <row r="11" spans="1:93" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:93" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="123"/>
       <c r="C11" s="55"/>
       <c r="D11" s="16"/>
@@ -23597,7 +23634,7 @@
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
     </row>
-    <row r="12" spans="1:93" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:93" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="str">
         <f>Detailplan!A11</f>
         <v>Projekt Managment</v>
@@ -23699,12 +23736,12 @@
       </c>
       <c r="AN12" s="169"/>
     </row>
-    <row r="13" spans="1:93" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:93" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51">
         <f>Detailplan!C11</f>
-        <v>89.5</v>
+        <v>94.5</v>
       </c>
       <c r="D13" s="59"/>
       <c r="E13" s="169">
@@ -23794,11 +23831,11 @@
       <c r="AL13" s="169"/>
       <c r="AM13" s="169">
         <f>SUM(Detailplan!FB11,Detailplan!FD11,Detailplan!FF11,Detailplan!FH11)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN13" s="169"/>
     </row>
-    <row r="14" spans="1:93" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:93" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="71"/>
       <c r="C14" s="51"/>
       <c r="D14" s="16"/>
@@ -23839,7 +23876,7 @@
       <c r="AM14" s="50"/>
       <c r="AN14" s="50"/>
     </row>
-    <row r="15" spans="1:93" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:93" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="str">
         <f>Detailplan!A16</f>
         <v>Requirements</v>
@@ -23941,7 +23978,7 @@
       </c>
       <c r="AN15" s="169"/>
     </row>
-    <row r="16" spans="1:93" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:93" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51">
@@ -24040,7 +24077,7 @@
       </c>
       <c r="AN16" s="169"/>
     </row>
-    <row r="17" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="71"/>
       <c r="C17" s="51"/>
       <c r="D17" s="16"/>
@@ -24081,7 +24118,7 @@
       <c r="AM17" s="50"/>
       <c r="AN17" s="50"/>
     </row>
-    <row r="18" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="str">
         <f>Detailplan!A23</f>
         <v>Analyse</v>
@@ -24183,7 +24220,7 @@
       </c>
       <c r="AN18" s="169"/>
     </row>
-    <row r="19" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="58"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51">
@@ -24282,7 +24319,7 @@
       </c>
       <c r="AN19" s="169"/>
     </row>
-    <row r="20" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="71"/>
       <c r="C20" s="51"/>
       <c r="D20" s="16"/>
@@ -24323,7 +24360,7 @@
       <c r="AM20" s="50"/>
       <c r="AN20" s="50"/>
     </row>
-    <row r="21" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="str">
         <f>Detailplan!A29</f>
         <v>Design</v>
@@ -24425,7 +24462,7 @@
       </c>
       <c r="AN21" s="169"/>
     </row>
-    <row r="22" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="58"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51">
@@ -24524,7 +24561,7 @@
       </c>
       <c r="AN22" s="169"/>
     </row>
-    <row r="23" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="71"/>
       <c r="C23" s="51"/>
       <c r="D23" s="16"/>
@@ -24565,14 +24602,14 @@
       <c r="AM23" s="50"/>
       <c r="AN23" s="50"/>
     </row>
-    <row r="24" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="str">
         <f>Detailplan!A32</f>
         <v>Implementation</v>
       </c>
       <c r="B24" s="71">
         <f>Detailplan!B32</f>
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C24" s="51"/>
       <c r="D24" s="16"/>
@@ -24667,12 +24704,12 @@
       </c>
       <c r="AN24" s="169"/>
     </row>
-    <row r="25" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="58"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51">
         <f>Detailplan!C32</f>
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D25" s="59"/>
       <c r="E25" s="169">
@@ -24757,16 +24794,16 @@
       <c r="AJ25" s="169"/>
       <c r="AK25" s="169">
         <f>SUM(Detailplan!ES32,Detailplan!EW32,Detailplan!EY32,Detailplan!EU32)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AL25" s="169"/>
       <c r="AM25" s="169">
         <f>SUM(Detailplan!FB32,Detailplan!FD32,Detailplan!FF32,Detailplan!FH32)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN25" s="169"/>
     </row>
-    <row r="26" spans="1:40" s="11" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" s="11" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="71"/>
       <c r="C26" s="51"/>
@@ -24808,7 +24845,7 @@
       <c r="AM26" s="50"/>
       <c r="AN26" s="50"/>
     </row>
-    <row r="27" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="str">
         <f>Detailplan!A33</f>
         <v xml:space="preserve">Programm läuft </v>
@@ -24910,7 +24947,7 @@
       </c>
       <c r="AN27" s="169"/>
     </row>
-    <row r="28" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="61"/>
       <c r="B28" s="57"/>
       <c r="C28" s="57">
@@ -25009,7 +25046,7 @@
       </c>
       <c r="AN28" s="169"/>
     </row>
-    <row r="29" spans="1:40" s="11" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" s="11" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="25"/>
       <c r="C29" s="57"/>
@@ -25051,7 +25088,7 @@
       <c r="AM29" s="50"/>
       <c r="AN29" s="50"/>
     </row>
-    <row r="30" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="str">
         <f>Detailplan!A35</f>
         <v>DB integriert</v>
@@ -25153,7 +25190,7 @@
       </c>
       <c r="AN30" s="169"/>
     </row>
-    <row r="31" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="61"/>
       <c r="B31" s="57"/>
       <c r="C31" s="57">
@@ -25252,7 +25289,7 @@
       </c>
       <c r="AN31" s="169"/>
     </row>
-    <row r="32" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="25"/>
       <c r="C32" s="57"/>
@@ -25294,7 +25331,7 @@
       <c r="AM32" s="50"/>
       <c r="AN32" s="50"/>
     </row>
-    <row r="33" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="str">
         <f>Detailplan!A36</f>
         <v>Server integriert</v>
@@ -25396,7 +25433,7 @@
       </c>
       <c r="AN33" s="169"/>
     </row>
-    <row r="34" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="61"/>
       <c r="B34" s="57"/>
       <c r="C34" s="57">
@@ -25495,7 +25532,7 @@
       </c>
       <c r="AN34" s="169"/>
     </row>
-    <row r="35" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="25"/>
       <c r="C35" s="57"/>
@@ -25537,7 +25574,7 @@
       <c r="AM35" s="50"/>
       <c r="AN35" s="50"/>
     </row>
-    <row r="36" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="str">
         <f>Detailplan!A37</f>
         <v>Netzwerkanbindung erfolgreich</v>
@@ -25639,7 +25676,7 @@
       </c>
       <c r="AN36" s="169"/>
     </row>
-    <row r="37" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="61"/>
       <c r="B37" s="57"/>
       <c r="C37" s="57">
@@ -25738,7 +25775,7 @@
       </c>
       <c r="AN37" s="169"/>
     </row>
-    <row r="38" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="25"/>
       <c r="C38" s="57"/>
@@ -25780,7 +25817,7 @@
       <c r="AM38" s="50"/>
       <c r="AN38" s="50"/>
     </row>
-    <row r="39" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="str">
         <f>Detailplan!A38</f>
         <v>Keyboard einbindung</v>
@@ -25882,7 +25919,7 @@
       </c>
       <c r="AN39" s="169"/>
     </row>
-    <row r="40" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="61"/>
       <c r="B40" s="57"/>
       <c r="C40" s="57">
@@ -25981,7 +26018,7 @@
       </c>
       <c r="AN40" s="169"/>
     </row>
-    <row r="41" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="25"/>
       <c r="C41" s="57"/>
@@ -26023,7 +26060,7 @@
       <c r="AM41" s="50"/>
       <c r="AN41" s="50"/>
     </row>
-    <row r="42" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="str">
         <f>Detailplan!A39</f>
         <v>Wettkampfoptionen implementiert</v>
@@ -26125,12 +26162,12 @@
       </c>
       <c r="AN42" s="169"/>
     </row>
-    <row r="43" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="61"/>
       <c r="B43" s="57"/>
       <c r="C43" s="57">
         <f>Detailplan!C39</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D43" s="59"/>
       <c r="E43" s="169">
@@ -26220,11 +26257,11 @@
       <c r="AL43" s="169"/>
       <c r="AM43" s="169">
         <f>SUM(Detailplan!FB39,Detailplan!FD39,Detailplan!FF39,Detailplan!FH39)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN43" s="169"/>
     </row>
-    <row r="44" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="25"/>
       <c r="C44" s="57"/>
@@ -26266,7 +26303,7 @@
       <c r="AM44" s="50"/>
       <c r="AN44" s="50"/>
     </row>
-    <row r="45" spans="1:40" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="str">
         <f>Detailplan!A40</f>
         <v>Übungsoptionen implementiert</v>
@@ -26368,7 +26405,7 @@
       </c>
       <c r="AN45" s="169"/>
     </row>
-    <row r="46" spans="1:40" s="60" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40" s="60" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="61"/>
       <c r="B46" s="57"/>
       <c r="C46" s="57">
@@ -26467,7 +26504,7 @@
       </c>
       <c r="AN46" s="169"/>
     </row>
-    <row r="47" spans="1:40" s="11" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40" s="11" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="25"/>
       <c r="C47" s="57"/>
@@ -26509,7 +26546,7 @@
       <c r="AM47" s="50"/>
       <c r="AN47" s="50"/>
     </row>
-    <row r="48" spans="1:40" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="str">
         <f>Detailplan!A41</f>
         <v>Text schreiben funktion eingebracht</v>
@@ -26611,7 +26648,7 @@
       </c>
       <c r="AN48" s="169"/>
     </row>
-    <row r="49" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="61"/>
       <c r="B49" s="57"/>
       <c r="C49" s="57">
@@ -26710,7 +26747,7 @@
       </c>
       <c r="AN49" s="169"/>
     </row>
-    <row r="50" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="22"/>
       <c r="B50" s="71"/>
       <c r="C50" s="51"/>
@@ -26752,7 +26789,7 @@
       <c r="AM50" s="50"/>
       <c r="AN50" s="50"/>
     </row>
-    <row r="51" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="48" t="str">
         <f>Detailplan!A44</f>
         <v>Test</v>
@@ -26854,7 +26891,7 @@
       </c>
       <c r="AN51" s="169"/>
     </row>
-    <row r="52" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="62"/>
       <c r="B52" s="51"/>
       <c r="C52" s="51">
@@ -26953,7 +26990,7 @@
       </c>
       <c r="AN52" s="169"/>
     </row>
-    <row r="53" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="71"/>
       <c r="C53" s="51"/>
       <c r="D53" s="16"/>
@@ -26994,7 +27031,7 @@
       <c r="AM53" s="50"/>
       <c r="AN53" s="50"/>
     </row>
-    <row r="54" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="48" t="str">
         <f>Detailplan!A48</f>
         <v>Dokumentation</v>
@@ -27096,12 +27133,12 @@
       </c>
       <c r="AN54" s="169"/>
     </row>
-    <row r="55" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="62"/>
       <c r="B55" s="51"/>
       <c r="C55" s="51">
         <f>Detailplan!C48</f>
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="D55" s="59"/>
       <c r="E55" s="169">
@@ -27191,11 +27228,11 @@
       <c r="AL55" s="169"/>
       <c r="AM55" s="169">
         <f>SUM(Detailplan!FB48,Detailplan!FD48,Detailplan!FF48,Detailplan!FH48)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AN55" s="169"/>
     </row>
-    <row r="56" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="71"/>
       <c r="C56" s="51"/>
       <c r="D56" s="16"/>
@@ -27236,7 +27273,7 @@
       <c r="AM56" s="50"/>
       <c r="AN56" s="50"/>
     </row>
-    <row r="57" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="71"/>
       <c r="C57" s="51"/>
@@ -27278,7 +27315,7 @@
       <c r="AM57" s="169"/>
       <c r="AN57" s="169"/>
     </row>
-    <row r="58" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="71"/>
       <c r="C58" s="51"/>
       <c r="D58" s="16"/>
@@ -27319,7 +27356,7 @@
       <c r="AM58" s="50"/>
       <c r="AN58" s="50"/>
     </row>
-    <row r="59" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="str">
         <f>Detailplan!A57</f>
         <v>Studium Technologien</v>
@@ -27421,7 +27458,7 @@
       </c>
       <c r="AN59" s="169"/>
     </row>
-    <row r="60" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="58"/>
       <c r="B60" s="51"/>
       <c r="C60" s="51">
@@ -27520,7 +27557,7 @@
       </c>
       <c r="AN60" s="169"/>
     </row>
-    <row r="61" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="71"/>
       <c r="C61" s="51"/>
       <c r="D61" s="16"/>
@@ -27561,7 +27598,7 @@
       <c r="AM61" s="50"/>
       <c r="AN61" s="50"/>
     </row>
-    <row r="62" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="str">
         <f>Detailplan!A65</f>
         <v>Sitzungen</v>
@@ -27663,12 +27700,12 @@
       </c>
       <c r="AN62" s="169"/>
     </row>
-    <row r="63" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="58"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51">
         <f>Detailplan!C65</f>
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D63" s="59"/>
       <c r="E63" s="169">
@@ -27753,16 +27790,16 @@
       <c r="AJ63" s="169"/>
       <c r="AK63" s="169">
         <f>SUM(Detailplan!ES65,Detailplan!EW65,Detailplan!EY65,Detailplan!EU65)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AL63" s="169"/>
       <c r="AM63" s="169">
         <f>SUM(Detailplan!FB65,Detailplan!FD65,Detailplan!FF65,Detailplan!FH65)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AN63" s="169"/>
     </row>
-    <row r="64" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="71"/>
       <c r="C64" s="51"/>
       <c r="D64" s="16"/>
@@ -27803,7 +27840,7 @@
       <c r="AM64" s="50"/>
       <c r="AN64" s="50"/>
     </row>
-    <row r="65" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="str">
         <f>Detailplan!A70</f>
         <v>Qualitätssicherung</v>
@@ -27905,7 +27942,7 @@
       </c>
       <c r="AN65" s="169"/>
     </row>
-    <row r="66" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:40" s="60" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="58"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51">
@@ -28004,7 +28041,7 @@
       </c>
       <c r="AN66" s="169"/>
     </row>
-    <row r="67" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="71"/>
       <c r="C67" s="51"/>
       <c r="D67" s="16"/>
@@ -28018,7 +28055,7 @@
       <c r="L67" s="17"/>
       <c r="M67" s="17"/>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B68" s="71"/>
       <c r="C68" s="51"/>
       <c r="D68" s="18"/>
@@ -28032,7 +28069,7 @@
       <c r="L68" s="19"/>
       <c r="M68" s="19"/>
     </row>
-    <row r="69" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="71"/>
       <c r="C69" s="51"/>
       <c r="D69" s="16"/>
@@ -28046,7 +28083,7 @@
       <c r="L69" s="17"/>
       <c r="M69" s="17"/>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B70" s="71"/>
       <c r="C70" s="51"/>
       <c r="D70" s="18"/>
@@ -28060,7 +28097,7 @@
       <c r="L70" s="19"/>
       <c r="M70" s="19"/>
     </row>
-    <row r="71" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:40" s="11" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="71"/>
       <c r="C71" s="51"/>
       <c r="D71" s="16"/>
@@ -28074,7 +28111,7 @@
       <c r="L71" s="17"/>
       <c r="M71" s="17"/>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B72" s="71"/>
       <c r="C72" s="51"/>
       <c r="D72" s="18"/>
@@ -28088,7 +28125,7 @@
       <c r="L72" s="19"/>
       <c r="M72" s="19"/>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B73" s="24"/>
       <c r="C73" s="51"/>
       <c r="D73" s="18"/>
@@ -28102,17 +28139,17 @@
       <c r="L73" s="19"/>
       <c r="M73" s="19"/>
     </row>
-    <row r="74" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="26" t="s">
         <v>44</v>
       </c>
       <c r="B74" s="27">
         <f>SUM(B12+B15+B18+B21+B24+B51+B54+B59+B62+B65)</f>
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="C74" s="56">
         <f>SUM(C13+C16+C19+C22+C25+C52+C55+C60+C63+C66)</f>
-        <v>545</v>
+        <v>584.5</v>
       </c>
       <c r="D74" s="18"/>
       <c r="E74" s="19"/>
@@ -28125,7 +28162,7 @@
       <c r="L74" s="19"/>
       <c r="M74" s="19"/>
     </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C75" s="123"/>
       <c r="D75" s="18"/>
       <c r="E75" s="19"/>
@@ -28138,7 +28175,7 @@
       <c r="L75" s="19"/>
       <c r="M75" s="19"/>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C76" s="123"/>
       <c r="D76" s="18"/>
       <c r="E76" s="18"/>
@@ -28151,7 +28188,7 @@
       <c r="L76" s="18"/>
       <c r="M76" s="18"/>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C77" s="123"/>
       <c r="D77" s="18"/>
       <c r="E77" s="18"/>
@@ -28164,7 +28201,7 @@
       <c r="L77" s="18"/>
       <c r="M77" s="18"/>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>116</v>
       </c>
@@ -28183,7 +28220,7 @@
       <c r="L78" s="18"/>
       <c r="M78" s="18"/>
     </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C79" s="123"/>
       <c r="D79" s="18"/>
       <c r="E79" s="18"/>
@@ -28196,15 +28233,15 @@
       <c r="L79" s="18"/>
       <c r="M79" s="18"/>
     </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B80" s="5"/>
       <c r="C80" s="123"/>
-      <c r="D80" s="172" t="s">
+      <c r="D80" s="171" t="s">
         <v>118</v>
       </c>
-      <c r="E80" s="172"/>
-      <c r="F80" s="172"/>
-      <c r="G80" s="172"/>
+      <c r="E80" s="171"/>
+      <c r="F80" s="171"/>
+      <c r="G80" s="171"/>
       <c r="H80" s="18">
         <v>1E-3</v>
       </c>
@@ -28216,15 +28253,15 @@
       <c r="L80" s="18"/>
       <c r="M80" s="18"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B81" s="28"/>
       <c r="C81" s="123"/>
-      <c r="D81" s="172" t="s">
+      <c r="D81" s="171" t="s">
         <v>119</v>
       </c>
-      <c r="E81" s="172"/>
-      <c r="F81" s="172"/>
-      <c r="G81" s="172"/>
+      <c r="E81" s="171"/>
+      <c r="F81" s="171"/>
+      <c r="G81" s="171"/>
       <c r="H81" s="18">
         <v>8</v>
       </c>
@@ -28236,15 +28273,15 @@
       <c r="L81" s="18"/>
       <c r="M81" s="18"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B82" s="49"/>
       <c r="C82" s="123"/>
-      <c r="D82" s="172" t="s">
+      <c r="D82" s="171" t="s">
         <v>120</v>
       </c>
-      <c r="E82" s="172"/>
-      <c r="F82" s="172"/>
-      <c r="G82" s="172"/>
+      <c r="E82" s="171"/>
+      <c r="F82" s="171"/>
+      <c r="G82" s="171"/>
       <c r="H82" s="18">
         <v>16.001000000000001</v>
       </c>
@@ -28256,7 +28293,7 @@
       <c r="L82" s="18"/>
       <c r="M82" s="18"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B83" s="11"/>
       <c r="C83" s="123"/>
       <c r="D83" s="129"/>
@@ -28270,7 +28307,7 @@
       <c r="L83" s="128"/>
       <c r="M83" s="128"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B84" s="11" t="s">
         <v>121</v>
       </c>
@@ -28286,7 +28323,7 @@
       <c r="L84" s="128"/>
       <c r="M84" s="128"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C85" s="123"/>
       <c r="D85" s="129"/>
       <c r="E85" s="129"/>
@@ -28299,15 +28336,15 @@
       <c r="L85" s="128"/>
       <c r="M85" s="128"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B86" s="52"/>
       <c r="C86" s="123"/>
-      <c r="D86" s="172" t="s">
+      <c r="D86" s="171" t="s">
         <v>118</v>
       </c>
-      <c r="E86" s="172"/>
-      <c r="F86" s="172"/>
-      <c r="G86" s="172"/>
+      <c r="E86" s="171"/>
+      <c r="F86" s="171"/>
+      <c r="G86" s="171"/>
       <c r="H86" s="18">
         <v>1E-3</v>
       </c>
@@ -28319,15 +28356,15 @@
       <c r="L86" s="128"/>
       <c r="M86" s="128"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B87" s="53"/>
       <c r="C87" s="123"/>
-      <c r="D87" s="172" t="s">
+      <c r="D87" s="171" t="s">
         <v>119</v>
       </c>
-      <c r="E87" s="172"/>
-      <c r="F87" s="172"/>
-      <c r="G87" s="172"/>
+      <c r="E87" s="171"/>
+      <c r="F87" s="171"/>
+      <c r="G87" s="171"/>
       <c r="H87" s="18">
         <v>8</v>
       </c>
@@ -28339,15 +28376,15 @@
       <c r="L87" s="128"/>
       <c r="M87" s="128"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B88" s="54"/>
       <c r="C88" s="123"/>
-      <c r="D88" s="172" t="s">
+      <c r="D88" s="171" t="s">
         <v>120</v>
       </c>
-      <c r="E88" s="172"/>
-      <c r="F88" s="172"/>
-      <c r="G88" s="172"/>
+      <c r="E88" s="171"/>
+      <c r="F88" s="171"/>
+      <c r="G88" s="171"/>
       <c r="H88" s="18">
         <v>16.001000000000001</v>
       </c>
@@ -28361,6 +28398,682 @@
     </row>
   </sheetData>
   <mergeCells count="700">
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="AC43:AD43"/>
+    <mergeCell ref="AA43:AB43"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="AM49:AN49"/>
+    <mergeCell ref="AK49:AL49"/>
+    <mergeCell ref="AI49:AJ49"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="AA49:AB49"/>
+    <mergeCell ref="AC49:AD49"/>
+    <mergeCell ref="AE49:AF49"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="D81:G81"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AM13:AN13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AM16:AN16"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AM15:AN15"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM19:AN19"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AM18:AN18"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AM22:AN22"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AM21:AN21"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AM25:AN25"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AM24:AN24"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AM27:AN27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="AC30:AD30"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="AA39:AB39"/>
+    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AC33:AD33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AC36:AD36"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AA37:AB37"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="AC40:AD40"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="Y45:Z45"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="AC42:AD42"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="Y46:Z46"/>
+    <mergeCell ref="AA46:AB46"/>
+    <mergeCell ref="AC46:AD46"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="AA48:AB48"/>
+    <mergeCell ref="AC48:AD48"/>
+    <mergeCell ref="AM39:AN39"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="AI40:AJ40"/>
+    <mergeCell ref="AK40:AL40"/>
+    <mergeCell ref="AM40:AN40"/>
+    <mergeCell ref="AI48:AJ48"/>
+    <mergeCell ref="AK48:AL48"/>
+    <mergeCell ref="AM48:AN48"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="AK45:AL45"/>
+    <mergeCell ref="AM45:AN45"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="AM46:AN46"/>
+    <mergeCell ref="AA45:AB45"/>
+    <mergeCell ref="AC45:AD45"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AM28:AN28"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="Y51:Z51"/>
+    <mergeCell ref="AA51:AB51"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AM30:AN30"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AM31:AN31"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="AK37:AL37"/>
+    <mergeCell ref="AM37:AN37"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
+    <mergeCell ref="AM43:AN43"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AI39:AJ39"/>
+    <mergeCell ref="AK39:AL39"/>
+    <mergeCell ref="AC51:AD51"/>
+    <mergeCell ref="AE51:AF51"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AE40:AF40"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="AE39:AF39"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="U52:V52"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="U55:V55"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="U54:V54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="U57:V57"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="U59:V59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="AA63:AB63"/>
+    <mergeCell ref="S65:T65"/>
+    <mergeCell ref="U65:V65"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="S63:T63"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="U63:V63"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="U66:V66"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="Y52:Z52"/>
+    <mergeCell ref="W55:X55"/>
+    <mergeCell ref="Y55:Z55"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="S62:T62"/>
+    <mergeCell ref="U62:V62"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="U60:V60"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="W60:X60"/>
+    <mergeCell ref="Y60:Z60"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="AC52:AD52"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AA57:AB57"/>
+    <mergeCell ref="AC57:AD57"/>
+    <mergeCell ref="AE57:AF57"/>
+    <mergeCell ref="AG57:AH57"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AA55:AB55"/>
+    <mergeCell ref="AC55:AD55"/>
+    <mergeCell ref="AA52:AB52"/>
+    <mergeCell ref="AA54:AB54"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AA60:AB60"/>
+    <mergeCell ref="AC60:AD60"/>
+    <mergeCell ref="AE60:AF60"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AC54:AD54"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="W54:X54"/>
+    <mergeCell ref="Y54:Z54"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="Y59:Z59"/>
+    <mergeCell ref="AA59:AB59"/>
+    <mergeCell ref="AC59:AD59"/>
+    <mergeCell ref="AE55:AF55"/>
+    <mergeCell ref="AG55:AH55"/>
+    <mergeCell ref="W57:X57"/>
+    <mergeCell ref="Y57:Z57"/>
+    <mergeCell ref="AC63:AD63"/>
+    <mergeCell ref="AE63:AF63"/>
+    <mergeCell ref="AG63:AH63"/>
+    <mergeCell ref="AI63:AJ63"/>
+    <mergeCell ref="W62:X62"/>
+    <mergeCell ref="Y62:Z62"/>
+    <mergeCell ref="AA62:AB62"/>
+    <mergeCell ref="AC62:AD62"/>
+    <mergeCell ref="AI66:AJ66"/>
+    <mergeCell ref="W65:X65"/>
+    <mergeCell ref="Y65:Z65"/>
+    <mergeCell ref="AA65:AB65"/>
+    <mergeCell ref="AC65:AD65"/>
+    <mergeCell ref="AE62:AF62"/>
+    <mergeCell ref="AG62:AH62"/>
+    <mergeCell ref="AI62:AJ62"/>
+    <mergeCell ref="W63:X63"/>
+    <mergeCell ref="Y63:Z63"/>
+    <mergeCell ref="W66:X66"/>
+    <mergeCell ref="Y66:Z66"/>
+    <mergeCell ref="AA66:AB66"/>
+    <mergeCell ref="AC66:AD66"/>
+    <mergeCell ref="AE66:AF66"/>
+    <mergeCell ref="AG66:AH66"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="AM51:AN51"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="AM52:AN52"/>
+    <mergeCell ref="AE65:AF65"/>
+    <mergeCell ref="AG65:AH65"/>
+    <mergeCell ref="AI65:AJ65"/>
+    <mergeCell ref="AE59:AF59"/>
+    <mergeCell ref="AG59:AH59"/>
+    <mergeCell ref="AI59:AJ59"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AI54:AJ54"/>
     <mergeCell ref="O5:R5"/>
     <mergeCell ref="S5:V5"/>
     <mergeCell ref="W5:Z5"/>
@@ -28385,682 +29098,6 @@
     <mergeCell ref="AK55:AL55"/>
     <mergeCell ref="AK57:AL57"/>
     <mergeCell ref="AK59:AL59"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="AM51:AN51"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="AM52:AN52"/>
-    <mergeCell ref="AE65:AF65"/>
-    <mergeCell ref="AG65:AH65"/>
-    <mergeCell ref="AI65:AJ65"/>
-    <mergeCell ref="AE59:AF59"/>
-    <mergeCell ref="AG59:AH59"/>
-    <mergeCell ref="AI59:AJ59"/>
-    <mergeCell ref="AI60:AJ60"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AC63:AD63"/>
-    <mergeCell ref="AE63:AF63"/>
-    <mergeCell ref="AG63:AH63"/>
-    <mergeCell ref="AI63:AJ63"/>
-    <mergeCell ref="W62:X62"/>
-    <mergeCell ref="Y62:Z62"/>
-    <mergeCell ref="AA62:AB62"/>
-    <mergeCell ref="AC62:AD62"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="W65:X65"/>
-    <mergeCell ref="Y65:Z65"/>
-    <mergeCell ref="AA65:AB65"/>
-    <mergeCell ref="AC65:AD65"/>
-    <mergeCell ref="AE62:AF62"/>
-    <mergeCell ref="AG62:AH62"/>
-    <mergeCell ref="AI62:AJ62"/>
-    <mergeCell ref="W63:X63"/>
-    <mergeCell ref="Y63:Z63"/>
-    <mergeCell ref="W66:X66"/>
-    <mergeCell ref="Y66:Z66"/>
-    <mergeCell ref="AA66:AB66"/>
-    <mergeCell ref="AC66:AD66"/>
-    <mergeCell ref="AE66:AF66"/>
-    <mergeCell ref="AG66:AH66"/>
-    <mergeCell ref="AA60:AB60"/>
-    <mergeCell ref="AC60:AD60"/>
-    <mergeCell ref="AE60:AF60"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AC54:AD54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="W54:X54"/>
-    <mergeCell ref="Y54:Z54"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="Y59:Z59"/>
-    <mergeCell ref="AA59:AB59"/>
-    <mergeCell ref="AC59:AD59"/>
-    <mergeCell ref="AE55:AF55"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="W57:X57"/>
-    <mergeCell ref="Y57:Z57"/>
-    <mergeCell ref="AC52:AD52"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AA57:AB57"/>
-    <mergeCell ref="AC57:AD57"/>
-    <mergeCell ref="AE57:AF57"/>
-    <mergeCell ref="AG57:AH57"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AA55:AB55"/>
-    <mergeCell ref="AC55:AD55"/>
-    <mergeCell ref="AA52:AB52"/>
-    <mergeCell ref="AA54:AB54"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="S66:T66"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="U66:V66"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="Y52:Z52"/>
-    <mergeCell ref="W55:X55"/>
-    <mergeCell ref="Y55:Z55"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="S62:T62"/>
-    <mergeCell ref="U62:V62"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="U60:V60"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="W60:X60"/>
-    <mergeCell ref="Y60:Z60"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="AA63:AB63"/>
-    <mergeCell ref="S65:T65"/>
-    <mergeCell ref="U65:V65"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="S63:T63"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="U63:V63"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="S59:T59"/>
-    <mergeCell ref="U59:V59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="U55:V55"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="U54:V54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="U57:V57"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="U52:V52"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="AC51:AD51"/>
-    <mergeCell ref="AE51:AF51"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="AE48:AF48"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AE40:AF40"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="AE37:AF37"/>
-    <mergeCell ref="AE39:AF39"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="Y51:Z51"/>
-    <mergeCell ref="AA51:AB51"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AM30:AN30"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AM31:AN31"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="AK37:AL37"/>
-    <mergeCell ref="AM37:AN37"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AL43"/>
-    <mergeCell ref="AM43:AN43"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AI39:AJ39"/>
-    <mergeCell ref="AK39:AL39"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AM28:AN28"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AN36"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="W48:X48"/>
-    <mergeCell ref="Y48:Z48"/>
-    <mergeCell ref="AA48:AB48"/>
-    <mergeCell ref="AC48:AD48"/>
-    <mergeCell ref="AM39:AN39"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="AI40:AJ40"/>
-    <mergeCell ref="AK40:AL40"/>
-    <mergeCell ref="AM40:AN40"/>
-    <mergeCell ref="AI48:AJ48"/>
-    <mergeCell ref="AK48:AL48"/>
-    <mergeCell ref="AM48:AN48"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="AK45:AL45"/>
-    <mergeCell ref="AM45:AN45"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="AM46:AN46"/>
-    <mergeCell ref="AA45:AB45"/>
-    <mergeCell ref="AC45:AD45"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="Y45:Z45"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="AC42:AD42"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="Y46:Z46"/>
-    <mergeCell ref="AA46:AB46"/>
-    <mergeCell ref="AC46:AD46"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="Y40:Z40"/>
-    <mergeCell ref="AA40:AB40"/>
-    <mergeCell ref="AC40:AD40"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="AA39:AB39"/>
-    <mergeCell ref="AC39:AD39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AC33:AD33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AC36:AD36"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AA37:AB37"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AC28:AD28"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="AC30:AD30"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AM25:AN25"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AM24:AN24"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AM27:AN27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AM22:AN22"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AK21:AL21"/>
-    <mergeCell ref="AM21:AN21"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AM16:AN16"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AM15:AN15"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AM19:AN19"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AM18:AN18"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AM13:AN13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="D81:G81"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="AM49:AN49"/>
-    <mergeCell ref="AK49:AL49"/>
-    <mergeCell ref="AI49:AJ49"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="U49:V49"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="Y49:Z49"/>
-    <mergeCell ref="AA49:AB49"/>
-    <mergeCell ref="AC49:AD49"/>
-    <mergeCell ref="AE49:AF49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="AC43:AD43"/>
-    <mergeCell ref="AA43:AB43"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="E55868:L55894 E55863:AN55866">
